--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BB3053-7489-456A-AE60-FA9CB8EE1990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE329142-7383-4624-97AF-A0D9EA55AFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>Project Start:</t>
   </si>
@@ -186,9 +186,6 @@
     <t>QUẢN LÝ KINH DOANH BÁN HÀNG</t>
   </si>
   <si>
-    <t xml:space="preserve">NHÓM 4 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quản lý hệ thống </t>
   </si>
   <si>
@@ -204,45 +201,27 @@
     <t>Quản lý bán hàng</t>
   </si>
   <si>
-    <t>Tìm kiếm hàng(xem hàng tồn kho .. )</t>
-  </si>
-  <si>
     <t>Lập hóa đơn</t>
   </si>
   <si>
     <t>Lịch sử mua bán hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">Quản lý nhập hàng </t>
-  </si>
-  <si>
-    <t>Tạo phiếu nhập hàng</t>
-  </si>
-  <si>
     <t>Lịch sử nhập hàng</t>
   </si>
   <si>
-    <t>Cập nhật thông tin phiếu nhập hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thống kê </t>
   </si>
   <si>
     <t>Thống kê doanh thu</t>
   </si>
   <si>
-    <t>Thống kê thu chi</t>
-  </si>
-  <si>
     <t>Thống kê lợi nhuận</t>
   </si>
   <si>
     <t>Quản lý nhân viên</t>
   </si>
   <si>
-    <t>Thiết lập tính lương</t>
-  </si>
-  <si>
     <t>Quản lý nhà cung cấp</t>
   </si>
   <si>
@@ -252,30 +231,12 @@
     <t xml:space="preserve"> Công nợ</t>
   </si>
   <si>
-    <t>Thanh toán nợ</t>
-  </si>
-  <si>
-    <t>Lịch sử thao tác</t>
-  </si>
-  <si>
     <t>Thiết lập chấm công</t>
   </si>
   <si>
     <t>Lịch sử nhập trả hàng</t>
   </si>
   <si>
-    <t>Điều chỉnh công nợ</t>
-  </si>
-  <si>
-    <t>Danh sách công nợ</t>
-  </si>
-  <si>
-    <t>Danh sách thao tác của hệ thống</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin thao tác</t>
-  </si>
-  <si>
     <t>Hồng Thái</t>
   </si>
   <si>
@@ -292,6 +253,105 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ PHẦN MỀM</t>
+  </si>
+  <si>
+    <t>Lập phiếu thanh toán nợ</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng thân thiện</t>
+  </si>
+  <si>
+    <t>Quản lý kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra cứu hàng trong kho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm hàng </t>
+  </si>
+  <si>
+    <t>Tạo phiếu gửi trả hàng cho nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật công nợ</t>
+  </si>
+  <si>
+    <t>Danh sách thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thống kê sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê chi </t>
+  </si>
+  <si>
+    <t>In hóa đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thẻ thành viên </t>
+  </si>
+  <si>
+    <t>Thống kê công nợ</t>
+  </si>
+  <si>
+    <t>Xem Danh sách công nợ</t>
+  </si>
+  <si>
+    <t>Thiết lập chấm lương</t>
+  </si>
+  <si>
+    <t>Đặt lịch</t>
+  </si>
+  <si>
+    <t>Sắp xếp lịch làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị ca làm việc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập phiếu nhập hàng </t>
+  </si>
+  <si>
+    <t>Kiểm tra nhập hàng</t>
+  </si>
+  <si>
+    <t>Tạo công nợ</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Danh mục khách hàng</t>
+  </si>
+  <si>
+    <t>Danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Danh mục nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Danh mục nhân viên</t>
   </si>
 </sst>
 </file>
@@ -705,7 +765,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -964,6 +1024,14 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -976,13 +1044,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -999,7 +1060,517 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1516,15 +2087,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
-      <tableStyleElement type="firstColumn" dxfId="47"/>
-      <tableStyleElement type="lastColumn" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstColumn" dxfId="98"/>
+      <tableStyleElement type="lastColumn" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="94"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="93"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1940,18 +2511,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH36" sqref="BH36"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -1966,368 +2537,367 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="37"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>44121</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>44136</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
-        <v>44116</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>44137</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
-        <v>44123</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>44144</v>
+      </c>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
-        <v>44130</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>44151</v>
+      </c>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
-        <v>44137</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>44158</v>
+      </c>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
-        <v>44144</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>44165</v>
+      </c>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
-        <v>44151</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>44172</v>
+      </c>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
-        <v>44158</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>44179</v>
+      </c>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
-        <v>44165</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>44186</v>
+      </c>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44116</v>
+        <v>44137</v>
       </c>
       <c r="J5" s="9">
         <f ca="1">I5+1</f>
-        <v>44117</v>
+        <v>44138</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44118</v>
+        <v>44139</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44119</v>
+        <v>44140</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44120</v>
+        <v>44141</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44121</v>
+        <v>44142</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44143</v>
       </c>
       <c r="P5" s="10">
         <f ca="1">O5+1</f>
-        <v>44123</v>
+        <v>44144</v>
       </c>
       <c r="Q5" s="9">
         <f ca="1">P5+1</f>
-        <v>44124</v>
+        <v>44145</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44125</v>
+        <v>44146</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44126</v>
+        <v>44147</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44127</v>
+        <v>44148</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44128</v>
+        <v>44149</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="W5" s="10">
         <f ca="1">V5+1</f>
-        <v>44130</v>
+        <v>44151</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">W5+1</f>
-        <v>44131</v>
+        <v>44152</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44132</v>
+        <v>44153</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44133</v>
+        <v>44154</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44134</v>
+        <v>44155</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44135</v>
+        <v>44156</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44136</v>
+        <v>44157</v>
       </c>
       <c r="AD5" s="10">
         <f ca="1">AC5+1</f>
-        <v>44137</v>
+        <v>44158</v>
       </c>
       <c r="AE5" s="9">
         <f ca="1">AD5+1</f>
-        <v>44138</v>
+        <v>44159</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44139</v>
+        <v>44160</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44140</v>
+        <v>44161</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44141</v>
+        <v>44162</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44142</v>
+        <v>44163</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44143</v>
+        <v>44164</v>
       </c>
       <c r="AK5" s="10">
         <f ca="1">AJ5+1</f>
-        <v>44144</v>
+        <v>44165</v>
       </c>
       <c r="AL5" s="9">
         <f ca="1">AK5+1</f>
-        <v>44145</v>
+        <v>44166</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44146</v>
+        <v>44167</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44147</v>
+        <v>44168</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44148</v>
+        <v>44169</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44149</v>
+        <v>44170</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44150</v>
+        <v>44171</v>
       </c>
       <c r="AR5" s="10">
         <f ca="1">AQ5+1</f>
-        <v>44151</v>
+        <v>44172</v>
       </c>
       <c r="AS5" s="9">
         <f ca="1">AR5+1</f>
-        <v>44152</v>
+        <v>44173</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44153</v>
+        <v>44174</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44154</v>
+        <v>44175</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44155</v>
+        <v>44176</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44156</v>
+        <v>44177</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44157</v>
+        <v>44178</v>
       </c>
       <c r="AY5" s="10">
         <f ca="1">AX5+1</f>
-        <v>44158</v>
+        <v>44179</v>
       </c>
       <c r="AZ5" s="9">
         <f ca="1">AY5+1</f>
-        <v>44159</v>
+        <v>44180</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44160</v>
+        <v>44181</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44161</v>
+        <v>44182</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44162</v>
+        <v>44183</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44163</v>
+        <v>44184</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44164</v>
+        <v>44185</v>
       </c>
       <c r="BF5" s="10">
         <f ca="1">BE5+1</f>
-        <v>44165</v>
+        <v>44186</v>
       </c>
       <c r="BG5" s="9">
         <f ca="1">BF5+1</f>
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44167</v>
+        <v>44188</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44168</v>
+        <v>44189</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44169</v>
+        <v>44190</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44170</v>
+        <v>44191</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44171</v>
+        <v>44192</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="16"/>
@@ -2658,7 +3228,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H48" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -2723,21 +3293,21 @@
         <v>34</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44121</v>
+        <v>44136</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44124</v>
+        <v>44139</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -2806,21 +3376,21 @@
         <v>35</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44124</v>
+        <v>44139</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44126</v>
+        <v>44141</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -2887,21 +3457,21 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D11" s="19">
         <v>0.5</v>
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44126</v>
+        <v>44141</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44130</v>
+        <v>44145</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -2968,7 +3538,7 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="21"/>
@@ -3039,10 +3609,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
@@ -3121,10 +3691,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D14" s="24">
         <v>0.5</v>
@@ -3202,21 +3772,21 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
       </c>
       <c r="E15" s="56">
-        <f>F14</f>
-        <v>44136</v>
+        <f>F13</f>
+        <v>44133</v>
       </c>
       <c r="F15" s="56">
         <f>E15+3</f>
-        <v>44139</v>
+        <v>44136</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
@@ -3281,18 +3851,28 @@
       <c r="BL15" s="35"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <f>F13</f>
+        <v>44133</v>
+      </c>
+      <c r="F16" s="56">
+        <f>E16+3</f>
+        <v>44136</v>
+      </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
@@ -3353,27 +3933,27 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
-      <c r="B17" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0.12</v>
-      </c>
-      <c r="E17" s="57">
-        <f ca="1">E9+15</f>
+      <c r="B17" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="56">
+        <f>F14</f>
         <v>44136</v>
       </c>
-      <c r="F17" s="57">
-        <f ca="1">E17+5</f>
-        <v>44141</v>
+      <c r="F17" s="56">
+        <f>E17+3</f>
+        <v>44139</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -3434,27 +4014,17 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
-      <c r="B18" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="57">
-        <f ca="1">F17+1</f>
-        <v>44142</v>
-      </c>
-      <c r="F18" s="57">
-        <f ca="1">E18+4</f>
-        <v>44146</v>
-      </c>
+      <c r="B18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H18" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -3516,21 +4086,21 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19" s="29">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="E19" s="57">
-        <f ca="1">E18+5</f>
-        <v>44147</v>
+        <f ca="1">E9+15</f>
+        <v>44151</v>
       </c>
       <c r="F19" s="57">
         <f ca="1">E19+5</f>
-        <v>44152</v>
+        <v>44156</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -3595,20 +4165,28 @@
       <c r="BL19" s="35"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="57">
+        <f ca="1">E10+15</f>
+        <v>44154</v>
+      </c>
+      <c r="F20" s="57">
+        <f ca="1">E20+5</f>
+        <v>44159</v>
+      </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H20" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -3669,26 +4247,15 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
-      <c r="B21" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1</v>
-      </c>
-      <c r="E21" s="58">
-        <v>44121</v>
-      </c>
-      <c r="F21" s="58">
-        <v>44124</v>
-      </c>
+      <c r="B21" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H21" s="14"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
@@ -3748,26 +4315,15 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
-      <c r="B22" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="58">
-        <v>44121</v>
-      </c>
-      <c r="F22" s="58">
-        <v>44125</v>
-      </c>
+      <c r="B22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
@@ -3827,25 +4383,27 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
-      <c r="B23" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="34">
+      <c r="B23" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="29">
         <v>0.25</v>
       </c>
-      <c r="E23" s="58">
-        <v>44126</v>
-      </c>
-      <c r="F23" s="58">
-        <v>44128</v>
+      <c r="E23" s="57">
+        <f>F18+1</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="57">
+        <f>E23+4</f>
+        <v>5</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -3860,9 +4418,7 @@
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="35" t="s">
-        <v>73</v>
-      </c>
+      <c r="V23" s="35"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -3908,17 +4464,27 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
-      <c r="B24" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="B24" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="57">
+        <f ca="1">F19+1</f>
+        <v>44157</v>
+      </c>
+      <c r="F24" s="57">
+        <f ca="1">E24+4</f>
+        <v>44161</v>
+      </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H24" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -3978,26 +4544,20 @@
       <c r="BL24" s="35"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="58">
-        <v>44131</v>
-      </c>
-      <c r="F25" s="58">
-        <v>44133</v>
-      </c>
+      <c r="A25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
@@ -4057,23 +4617,21 @@
       <c r="BL25" s="35"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="48"/>
       <c r="B26" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="66" t="s">
-        <v>69</v>
-      </c>
       <c r="D26" s="34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E26" s="58">
-        <v>44134</v>
+        <v>44121</v>
       </c>
       <c r="F26" s="58">
-        <v>44137</v>
+        <v>44124</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
@@ -4139,17 +4697,25 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
-      <c r="B27" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
+      <c r="B27" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="58">
+        <v>44121</v>
+      </c>
+      <c r="F27" s="58">
+        <v>44125</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -4211,24 +4777,24 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
       </c>
       <c r="E28" s="58">
-        <v>44138</v>
+        <v>44131</v>
       </c>
       <c r="F28" s="58">
-        <v>44141</v>
+        <v>44133</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -4290,24 +4856,24 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D29" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="E29" s="58">
-        <v>44142</v>
+        <v>44131</v>
       </c>
       <c r="F29" s="58">
-        <v>44146</v>
+        <v>44133</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -4368,17 +4934,25 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
-      <c r="B30" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
+      <c r="B30" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="58">
+        <v>44126</v>
+      </c>
+      <c r="F30" s="58">
+        <v>44128</v>
+      </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -4393,7 +4967,9 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
+      <c r="V30" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -4438,26 +5014,20 @@
       <c r="BL30" s="35"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="34">
-        <v>1</v>
-      </c>
-      <c r="E31" s="58">
-        <v>44148</v>
-      </c>
-      <c r="F31" s="58">
-        <v>44150</v>
-      </c>
+      <c r="A31" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
+      <c r="H31" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -4517,28 +5087,26 @@
       <c r="BL31" s="35"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="A32" s="48"/>
       <c r="B32" s="75" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D32" s="34">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="E32" s="58">
-        <v>44148</v>
+        <v>44131</v>
       </c>
       <c r="F32" s="58">
-        <v>44151</v>
+        <v>44133</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
@@ -4598,29 +5166,16 @@
       <c r="BL32" s="35"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>25</v>
-      </c>
+      <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E33" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F33" s="58">
-        <v>44155</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
@@ -4678,18 +5233,27 @@
       <c r="BK33" s="35"/>
       <c r="BL33" s="35"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="58">
+        <v>44131</v>
+      </c>
+      <c r="F34" s="58">
+        <v>44133</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
-        <f t="shared" ref="H34" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H34" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -4748,26 +5312,27 @@
       <c r="BK34" s="35"/>
       <c r="BL34" s="35"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D35" s="34">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E35" s="58">
-        <v>44156</v>
+        <v>44131</v>
       </c>
       <c r="F35" s="58">
-        <v>44159</v>
+        <v>44133</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
@@ -4826,26 +5391,27 @@
       <c r="BK35" s="35"/>
       <c r="BL35" s="35"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D36" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="E36" s="58">
-        <v>44160</v>
+        <v>44131</v>
       </c>
       <c r="F36" s="58">
-        <v>44165</v>
+        <v>44133</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -4904,13 +5470,1476 @@
       <c r="BK36" s="35"/>
       <c r="BL36" s="35"/>
     </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="58">
+        <v>44134</v>
+      </c>
+      <c r="F37" s="58">
+        <v>44137</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
+      <c r="AY37" s="35"/>
+      <c r="AZ37" s="35"/>
+      <c r="BA37" s="35"/>
+      <c r="BB37" s="35"/>
+      <c r="BC37" s="35"/>
+      <c r="BD37" s="35"/>
+      <c r="BE37" s="35"/>
+      <c r="BF37" s="35"/>
+      <c r="BG37" s="35"/>
+      <c r="BH37" s="35"/>
+      <c r="BI37" s="35"/>
+      <c r="BJ37" s="35"/>
+      <c r="BK37" s="35"/>
+      <c r="BL37" s="35"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="58">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="58">
+        <v>44137</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35"/>
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="35"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="35"/>
+      <c r="BD38" s="35"/>
+      <c r="BE38" s="35"/>
+      <c r="BF38" s="35"/>
+      <c r="BG38" s="35"/>
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="35"/>
+      <c r="BJ38" s="35"/>
+      <c r="BK38" s="35"/>
+      <c r="BL38" s="35"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="35"/>
+      <c r="BA39" s="35"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="35"/>
+      <c r="BD39" s="35"/>
+      <c r="BE39" s="35"/>
+      <c r="BF39" s="35"/>
+      <c r="BG39" s="35"/>
+      <c r="BH39" s="35"/>
+      <c r="BI39" s="35"/>
+      <c r="BJ39" s="35"/>
+      <c r="BK39" s="35"/>
+      <c r="BL39" s="35"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="58">
+        <v>44138</v>
+      </c>
+      <c r="F40" s="58">
+        <v>44141</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="35"/>
+      <c r="AT40" s="35"/>
+      <c r="AU40" s="35"/>
+      <c r="AV40" s="35"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="35"/>
+      <c r="AZ40" s="35"/>
+      <c r="BA40" s="35"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="35"/>
+      <c r="BD40" s="35"/>
+      <c r="BE40" s="35"/>
+      <c r="BF40" s="35"/>
+      <c r="BG40" s="35"/>
+      <c r="BH40" s="35"/>
+      <c r="BI40" s="35"/>
+      <c r="BJ40" s="35"/>
+      <c r="BK40" s="35"/>
+      <c r="BL40" s="35"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E41" s="58">
+        <v>44142</v>
+      </c>
+      <c r="F41" s="58">
+        <v>44146</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="35"/>
+      <c r="AS41" s="35"/>
+      <c r="AT41" s="35"/>
+      <c r="AU41" s="35"/>
+      <c r="AV41" s="35"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="35"/>
+      <c r="AY41" s="35"/>
+      <c r="AZ41" s="35"/>
+      <c r="BA41" s="35"/>
+      <c r="BB41" s="35"/>
+      <c r="BC41" s="35"/>
+      <c r="BD41" s="35"/>
+      <c r="BE41" s="35"/>
+      <c r="BF41" s="35"/>
+      <c r="BG41" s="35"/>
+      <c r="BH41" s="35"/>
+      <c r="BI41" s="35"/>
+      <c r="BJ41" s="35"/>
+      <c r="BK41" s="35"/>
+      <c r="BL41" s="35"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E42" s="58">
+        <v>44142</v>
+      </c>
+      <c r="F42" s="58">
+        <v>44146</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="35"/>
+      <c r="AS42" s="35"/>
+      <c r="AT42" s="35"/>
+      <c r="AU42" s="35"/>
+      <c r="AV42" s="35"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="35"/>
+      <c r="AY42" s="35"/>
+      <c r="AZ42" s="35"/>
+      <c r="BA42" s="35"/>
+      <c r="BB42" s="35"/>
+      <c r="BC42" s="35"/>
+      <c r="BD42" s="35"/>
+      <c r="BE42" s="35"/>
+      <c r="BF42" s="35"/>
+      <c r="BG42" s="35"/>
+      <c r="BH42" s="35"/>
+      <c r="BI42" s="35"/>
+      <c r="BJ42" s="35"/>
+      <c r="BK42" s="35"/>
+      <c r="BL42" s="35"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="35"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="35"/>
+      <c r="AP43" s="35"/>
+      <c r="AQ43" s="35"/>
+      <c r="AR43" s="35"/>
+      <c r="AS43" s="35"/>
+      <c r="AT43" s="35"/>
+      <c r="AU43" s="35"/>
+      <c r="AV43" s="35"/>
+      <c r="AW43" s="35"/>
+      <c r="AX43" s="35"/>
+      <c r="AY43" s="35"/>
+      <c r="AZ43" s="35"/>
+      <c r="BA43" s="35"/>
+      <c r="BB43" s="35"/>
+      <c r="BC43" s="35"/>
+      <c r="BD43" s="35"/>
+      <c r="BE43" s="35"/>
+      <c r="BF43" s="35"/>
+      <c r="BG43" s="35"/>
+      <c r="BH43" s="35"/>
+      <c r="BI43" s="35"/>
+      <c r="BJ43" s="35"/>
+      <c r="BK43" s="35"/>
+      <c r="BL43" s="35"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+      <c r="E44" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F44" s="58">
+        <v>44150</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="35"/>
+      <c r="AN44" s="35"/>
+      <c r="AO44" s="35"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="35"/>
+      <c r="AR44" s="35"/>
+      <c r="AS44" s="35"/>
+      <c r="AT44" s="35"/>
+      <c r="AU44" s="35"/>
+      <c r="AV44" s="35"/>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="35"/>
+      <c r="AY44" s="35"/>
+      <c r="AZ44" s="35"/>
+      <c r="BA44" s="35"/>
+      <c r="BB44" s="35"/>
+      <c r="BC44" s="35"/>
+      <c r="BD44" s="35"/>
+      <c r="BE44" s="35"/>
+      <c r="BF44" s="35"/>
+      <c r="BG44" s="35"/>
+      <c r="BH44" s="35"/>
+      <c r="BI44" s="35"/>
+      <c r="BJ44" s="35"/>
+      <c r="BK44" s="35"/>
+      <c r="BL44" s="35"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="34">
+        <v>0.45</v>
+      </c>
+      <c r="E45" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F45" s="58">
+        <v>44151</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35"/>
+      <c r="AJ45" s="35"/>
+      <c r="AK45" s="35"/>
+      <c r="AL45" s="35"/>
+      <c r="AM45" s="35"/>
+      <c r="AN45" s="35"/>
+      <c r="AO45" s="35"/>
+      <c r="AP45" s="35"/>
+      <c r="AQ45" s="35"/>
+      <c r="AR45" s="35"/>
+      <c r="AS45" s="35"/>
+      <c r="AT45" s="35"/>
+      <c r="AU45" s="35"/>
+      <c r="AV45" s="35"/>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="35"/>
+      <c r="AY45" s="35"/>
+      <c r="AZ45" s="35"/>
+      <c r="BA45" s="35"/>
+      <c r="BB45" s="35"/>
+      <c r="BC45" s="35"/>
+      <c r="BD45" s="35"/>
+      <c r="BE45" s="35"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="35"/>
+      <c r="BJ45" s="35"/>
+      <c r="BK45" s="35"/>
+      <c r="BL45" s="35"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="58">
+        <v>44152</v>
+      </c>
+      <c r="F46" s="58">
+        <v>44155</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="35"/>
+      <c r="AR46" s="35"/>
+      <c r="AS46" s="35"/>
+      <c r="AT46" s="35"/>
+      <c r="AU46" s="35"/>
+      <c r="AV46" s="35"/>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="35"/>
+      <c r="AY46" s="35"/>
+      <c r="AZ46" s="35"/>
+      <c r="BA46" s="35"/>
+      <c r="BB46" s="35"/>
+      <c r="BC46" s="35"/>
+      <c r="BD46" s="35"/>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="35"/>
+      <c r="BG46" s="35"/>
+      <c r="BH46" s="35"/>
+      <c r="BI46" s="35"/>
+      <c r="BJ46" s="35"/>
+      <c r="BK46" s="35"/>
+      <c r="BL46" s="35"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35"/>
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35"/>
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35"/>
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="35"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35"/>
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35"/>
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E48" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F48" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="35"/>
+      <c r="AQ48" s="35"/>
+      <c r="AR48" s="35"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="35"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="35"/>
+      <c r="BA48" s="35"/>
+      <c r="BB48" s="35"/>
+      <c r="BC48" s="35"/>
+      <c r="BD48" s="35"/>
+      <c r="BE48" s="35"/>
+      <c r="BF48" s="35"/>
+      <c r="BG48" s="35"/>
+      <c r="BH48" s="35"/>
+      <c r="BI48" s="35"/>
+      <c r="BJ48" s="35"/>
+      <c r="BK48" s="35"/>
+      <c r="BL48" s="35"/>
+    </row>
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="66"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35"/>
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35"/>
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="35"/>
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="35"/>
+      <c r="BK49" s="35"/>
+      <c r="BL49" s="35"/>
+    </row>
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="35"/>
+      <c r="AQ50" s="35"/>
+      <c r="AR50" s="35"/>
+      <c r="AS50" s="35"/>
+      <c r="AT50" s="35"/>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="35"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="35"/>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="35"/>
+      <c r="BA50" s="35"/>
+      <c r="BB50" s="35"/>
+      <c r="BC50" s="35"/>
+      <c r="BD50" s="35"/>
+      <c r="BE50" s="35"/>
+      <c r="BF50" s="35"/>
+      <c r="BG50" s="35"/>
+      <c r="BH50" s="35"/>
+      <c r="BI50" s="35"/>
+      <c r="BJ50" s="35"/>
+      <c r="BK50" s="35"/>
+      <c r="BL50" s="35"/>
+    </row>
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="35"/>
+      <c r="AQ51" s="35"/>
+      <c r="AR51" s="35"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="35"/>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="35"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="35"/>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="35"/>
+      <c r="BA51" s="35"/>
+      <c r="BB51" s="35"/>
+      <c r="BC51" s="35"/>
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35"/>
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BI51" s="35"/>
+      <c r="BJ51" s="35"/>
+      <c r="BK51" s="35"/>
+      <c r="BL51" s="35"/>
+    </row>
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="str">
+        <f t="shared" ref="H52:H56" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="35"/>
+      <c r="AQ52" s="35"/>
+      <c r="AR52" s="35"/>
+      <c r="AS52" s="35"/>
+      <c r="AT52" s="35"/>
+      <c r="AU52" s="35"/>
+      <c r="AV52" s="35"/>
+      <c r="AW52" s="35"/>
+      <c r="AX52" s="35"/>
+      <c r="AY52" s="35"/>
+      <c r="AZ52" s="35"/>
+      <c r="BA52" s="35"/>
+      <c r="BB52" s="35"/>
+      <c r="BC52" s="35"/>
+      <c r="BD52" s="35"/>
+      <c r="BE52" s="35"/>
+      <c r="BF52" s="35"/>
+      <c r="BG52" s="35"/>
+      <c r="BH52" s="35"/>
+      <c r="BI52" s="35"/>
+      <c r="BJ52" s="35"/>
+      <c r="BK52" s="35"/>
+      <c r="BL52" s="35"/>
+    </row>
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E53" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F53" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35"/>
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="35"/>
+      <c r="BB53" s="35"/>
+      <c r="BC53" s="35"/>
+      <c r="BD53" s="35"/>
+      <c r="BE53" s="35"/>
+      <c r="BF53" s="35"/>
+      <c r="BG53" s="35"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="35"/>
+      <c r="BJ53" s="35"/>
+      <c r="BK53" s="35"/>
+      <c r="BL53" s="35"/>
+    </row>
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="35"/>
+      <c r="AQ54" s="35"/>
+      <c r="AR54" s="35"/>
+      <c r="AS54" s="35"/>
+      <c r="AT54" s="35"/>
+      <c r="AU54" s="35"/>
+      <c r="AV54" s="35"/>
+      <c r="AW54" s="35"/>
+      <c r="AX54" s="35"/>
+      <c r="AY54" s="35"/>
+      <c r="AZ54" s="35"/>
+      <c r="BA54" s="35"/>
+      <c r="BB54" s="35"/>
+      <c r="BC54" s="35"/>
+      <c r="BD54" s="35"/>
+      <c r="BE54" s="35"/>
+      <c r="BF54" s="35"/>
+      <c r="BG54" s="35"/>
+      <c r="BH54" s="35"/>
+      <c r="BI54" s="35"/>
+      <c r="BJ54" s="35"/>
+      <c r="BK54" s="35"/>
+      <c r="BL54" s="35"/>
+    </row>
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="35"/>
+      <c r="BA55" s="35"/>
+      <c r="BB55" s="35"/>
+      <c r="BC55" s="35"/>
+      <c r="BD55" s="35"/>
+      <c r="BE55" s="35"/>
+      <c r="BF55" s="35"/>
+      <c r="BG55" s="35"/>
+      <c r="BH55" s="35"/>
+      <c r="BI55" s="35"/>
+      <c r="BJ55" s="35"/>
+      <c r="BK55" s="35"/>
+      <c r="BL55" s="35"/>
+    </row>
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="35"/>
+      <c r="AG56" s="35"/>
+      <c r="AH56" s="35"/>
+      <c r="AI56" s="35"/>
+      <c r="AJ56" s="35"/>
+      <c r="AK56" s="35"/>
+      <c r="AL56" s="35"/>
+      <c r="AM56" s="35"/>
+      <c r="AN56" s="35"/>
+      <c r="AO56" s="35"/>
+      <c r="AP56" s="35"/>
+      <c r="AQ56" s="35"/>
+      <c r="AR56" s="35"/>
+      <c r="AS56" s="35"/>
+      <c r="AT56" s="35"/>
+      <c r="AU56" s="35"/>
+      <c r="AV56" s="35"/>
+      <c r="AW56" s="35"/>
+      <c r="AX56" s="35"/>
+      <c r="AY56" s="35"/>
+      <c r="AZ56" s="35"/>
+      <c r="BA56" s="35"/>
+      <c r="BB56" s="35"/>
+      <c r="BC56" s="35"/>
+      <c r="BD56" s="35"/>
+      <c r="BE56" s="35"/>
+      <c r="BF56" s="35"/>
+      <c r="BG56" s="35"/>
+      <c r="BH56" s="35"/>
+      <c r="BI56" s="35"/>
+      <c r="BJ56" s="35"/>
+      <c r="BK56" s="35"/>
+      <c r="BL56" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4918,9 +6947,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D23">
-    <cfRule type="dataBar" priority="66">
+  <conditionalFormatting sqref="D33 D49 D30 D7:D14 D17:D20 D22 D24:D27">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4933,21 +6967,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL23">
-    <cfRule type="expression" dxfId="41" priority="85">
+  <conditionalFormatting sqref="I49:BL49 I33:BL33 I30:BL30 I5:BL14 I17:BL20 I22:BL22 I24:BL27">
+    <cfRule type="expression" dxfId="92" priority="173">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL23">
-    <cfRule type="expression" dxfId="40" priority="79">
+  <conditionalFormatting sqref="I49:BL49 I33:BL33 I30:BL30 I7:BL14 I17:BL20 I22:BL22 I24:BL27">
+    <cfRule type="expression" dxfId="91" priority="167">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4960,21 +6994,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="38" priority="52">
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="89" priority="140">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="37" priority="50">
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="88" priority="138">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="139" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4987,21 +7021,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="35" priority="48">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="86" priority="136">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="34" priority="46">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="85" priority="134">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5014,21 +7048,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="32" priority="44">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="83" priority="132">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="31" priority="42">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="82" priority="130">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5042,47 +7076,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="80" priority="124">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="79" priority="122">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="123" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A1879C58-382F-4866-8216-686633568BEC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="25" priority="34">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5095,21 +7102,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="23" priority="32">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="77" priority="120">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="22" priority="30">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="76" priority="118">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="119" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5122,21 +7129,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="20" priority="28">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="74" priority="116">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="19" priority="26">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="73" priority="114">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5149,21 +7156,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="17" priority="24">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="71" priority="112">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="16" priority="22">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="70" priority="110">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5176,21 +7183,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="14" priority="20">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="68" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="13" priority="18">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="67" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5203,21 +7210,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="11" priority="16">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="65" priority="104">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="10" priority="14">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="64" priority="102">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5230,48 +7237,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="62" priority="100">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="61" priority="98">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8EBA9CC6-494C-4D6B-843C-A7AEB2C245E4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5284,12 +7264,525 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="59" priority="88">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="58" priority="86">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="87" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B8D883F3-4418-4D7D-AF20-AD12CE96228A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="56" priority="84">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="55" priority="82">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="83" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="77">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="53" priority="80">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="52" priority="78">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="79" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="50" priority="72">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="49" priority="70">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{12113B73-062D-4323-9450-E08AD7CA3A54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="47" priority="68">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="46" priority="66">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="44" priority="64">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="43" priority="62">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="63" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="41" priority="56">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="40" priority="54">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A64E59F-FA0B-43B1-B5DC-30AECD78C97F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:BL15">
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:BL15">
+    <cfRule type="expression" dxfId="37" priority="50">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11365A62-DD73-436E-8179-D3807FD833E1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="35" priority="48">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="34" priority="46">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F2D21947-8299-40F2-B4EC-301D66A5C514}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="32" priority="44">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96AADDBC-48E1-4E00-8374-CF4997D23808}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="29" priority="40">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{861AB451-6D14-41BE-9CCE-C132BAD1479E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="25" priority="34">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0DD4499A-6C6E-44BD-9395-A72B26BB1533}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA40A01F-0B9D-463E-8A81-050ADA090A96}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:BL21">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:BL21">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BBE71B1F-953F-4484-968A-62C8A2B711A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:BL23">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:BL23">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB6AD927-8701-4D26-84BE-08BE5AC82680}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24113A02-1DBE-4064-9FC4-A65D86479F5A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5302,13 +7795,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5328,7 +7817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D23</xm:sqref>
+          <xm:sqref>D33 D49 D30 D7:D14 D17:D20 D22 D24:D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -5343,7 +7832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1B12D0B7-14CB-44EB-BD4D-F5F40742ECC1}">
@@ -5358,7 +7847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
@@ -5373,7 +7862,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
@@ -5391,21 +7880,6 @@
           <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1879C58-382F-4866-8216-686633568BEC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -5418,7 +7892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{865C26A2-5F9B-4F2A-8497-BB5408076D73}">
@@ -5433,7 +7907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E847273-086C-4AA5-859E-6BF82F44FA57}">
@@ -5448,7 +7922,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -5463,7 +7937,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -5478,7 +7952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -5493,10 +7967,175 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8EBA9CC6-494C-4D6B-843C-A7AEB2C245E4}">
+          <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{12113B73-062D-4323-9450-E08AD7CA3A54}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A64E59F-FA0B-43B1-B5DC-30AECD78C97F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11365A62-DD73-436E-8179-D3807FD833E1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2D21947-8299-40F2-B4EC-301D66A5C514}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96AADDBC-48E1-4E00-8374-CF4997D23808}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{861AB451-6D14-41BE-9CCE-C132BAD1479E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5511,7 +8150,7 @@
           <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
+          <x14:cfRule type="dataBar" id="{0DD4499A-6C6E-44BD-9395-A72B26BB1533}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5523,7 +8162,112 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA40A01F-0B9D-463E-8A81-050ADA090A96}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB6AD927-8701-4D26-84BE-08BE5AC82680}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE329142-7383-4624-97AF-A0D9EA55AFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498B097-D840-45EB-B334-A1E9B380DD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Project Start:</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>Danh mục nhân viên</t>
+  </si>
+  <si>
+    <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
+  </si>
+  <si>
+    <t>Xem lịch sử nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,187 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2087,15 +2273,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="101"/>
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="totalRow" dxfId="99"/>
-      <tableStyleElement type="firstColumn" dxfId="98"/>
-      <tableStyleElement type="lastColumn" dxfId="97"/>
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="94"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="93"/>
+      <tableStyleElement type="wholeTable" dxfId="119"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="totalRow" dxfId="117"/>
+      <tableStyleElement type="firstColumn" dxfId="116"/>
+      <tableStyleElement type="lastColumn" dxfId="115"/>
+      <tableStyleElement type="firstRowStripe" dxfId="114"/>
+      <tableStyleElement type="secondRowStripe" dxfId="113"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="112"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="111"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2511,17 +2697,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL56"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -2566,7 +2752,7 @@
       <c r="D3" s="92"/>
       <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>44136</v>
+        <v>44139</v>
       </c>
       <c r="F3" s="97"/>
     </row>
@@ -3228,7 +3414,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H48" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H47" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3303,11 +3489,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44136</v>
+        <v>44139</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44139</v>
+        <v>44142</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3386,11 +3572,11 @@
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44139</v>
+        <v>44142</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3467,11 +3653,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44145</v>
+        <v>44148</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -4096,11 +4282,11 @@
       </c>
       <c r="E19" s="57">
         <f ca="1">E9+15</f>
-        <v>44151</v>
+        <v>44154</v>
       </c>
       <c r="F19" s="57">
         <f ca="1">E19+5</f>
-        <v>44156</v>
+        <v>44159</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -4177,11 +4363,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E10+15</f>
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4316,14 +4502,27 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="57">
+        <f>F18+1</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="57">
+        <f>E22+4</f>
+        <v>5</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
@@ -4384,7 +4583,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>58</v>
@@ -4393,16 +4592,16 @@
         <v>0.25</v>
       </c>
       <c r="E23" s="57">
-        <f>F18+1</f>
-        <v>1</v>
+        <f ca="1">F19+1</f>
+        <v>44160</v>
       </c>
       <c r="F23" s="57">
-        <f>E23+4</f>
-        <v>5</v>
+        <f ca="1">E23+4</f>
+        <v>44164</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="I23" s="35"/>
@@ -4464,27 +4663,17 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
-      <c r="B24" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="57">
-        <f ca="1">F19+1</f>
-        <v>44157</v>
-      </c>
-      <c r="F24" s="57">
-        <f ca="1">E24+4</f>
-        <v>44161</v>
-      </c>
+      <c r="B24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H24" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -4547,17 +4736,25 @@
       <c r="A25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="B25" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+      <c r="E25" s="58">
+        <v>44121</v>
+      </c>
+      <c r="F25" s="58">
+        <v>44124</v>
+      </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
@@ -4619,24 +4816,24 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="B26" s="75" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" s="34">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="58">
         <v>44121</v>
       </c>
       <c r="F26" s="58">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -4698,24 +4895,24 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="58">
-        <v>44121</v>
+        <v>44131</v>
       </c>
       <c r="F27" s="58">
-        <v>44125</v>
+        <v>44133</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -4777,7 +4974,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>58</v>
@@ -4856,7 +5053,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>58</v>
@@ -4865,14 +5062,14 @@
         <v>0.25</v>
       </c>
       <c r="E29" s="58">
-        <v>44131</v>
+        <v>44126</v>
       </c>
       <c r="F29" s="58">
-        <v>44133</v>
+        <v>44128</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I29" s="35"/>
@@ -4888,7 +5085,9 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
+      <c r="V29" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -4934,25 +5133,17 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
-      <c r="B30" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="58">
-        <v>44126</v>
-      </c>
-      <c r="F30" s="58">
-        <v>44128</v>
-      </c>
+      <c r="B30" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14">
+      <c r="H30" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -4967,9 +5158,7 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
-      <c r="V30" s="35" t="s">
-        <v>60</v>
-      </c>
+      <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -5017,17 +5206,25 @@
       <c r="A31" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
+      <c r="B31" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="58">
+        <v>44131</v>
+      </c>
+      <c r="F31" s="58">
+        <v>44133</v>
+      </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H31" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -5089,24 +5286,24 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="B32" s="75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="58">
-        <v>44131</v>
+        <v>44138</v>
       </c>
       <c r="F32" s="58">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
@@ -5168,14 +5365,25 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="58">
+        <v>44131</v>
+      </c>
+      <c r="F33" s="58">
+        <v>44133</v>
+      </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
+      </c>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
@@ -5236,7 +5444,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C34" s="66" t="s">
         <v>58</v>
@@ -5315,7 +5523,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>58</v>
@@ -5394,24 +5602,24 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="34">
         <v>0.25</v>
       </c>
       <c r="E36" s="58">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="F36" s="58">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -5475,7 +5683,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>56</v>
@@ -5555,25 +5763,17 @@
       <c r="A38" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E38" s="58">
-        <v>44134</v>
-      </c>
-      <c r="F38" s="58">
-        <v>44137</v>
-      </c>
+      <c r="B38" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="14">
+      <c r="H38" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5633,17 +5833,25 @@
       <c r="BL38" s="35"/>
     </row>
     <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
+      <c r="B39" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="58">
+        <v>44138</v>
+      </c>
+      <c r="F39" s="58">
+        <v>44141</v>
+      </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5704,24 +5912,24 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40" s="34">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E40" s="58">
-        <v>44138</v>
+        <v>44142</v>
       </c>
       <c r="F40" s="58">
-        <v>44141</v>
+        <v>44146</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -5782,7 +5990,7 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="75" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C41" s="66" t="s">
         <v>59</v>
@@ -5859,25 +6067,17 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E42" s="58">
-        <v>44142</v>
-      </c>
-      <c r="F42" s="58">
-        <v>44146</v>
-      </c>
+      <c r="B42" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
+      <c r="H42" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -5937,17 +6137,25 @@
       <c r="BL42" s="35"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89"/>
+      <c r="B43" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1</v>
+      </c>
+      <c r="E43" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F43" s="58">
+        <v>44150</v>
+      </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -6008,24 +6216,24 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="34">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E44" s="58">
         <v>44148</v>
       </c>
       <c r="F44" s="58">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
@@ -6086,19 +6294,19 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" s="34">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="E45" s="58">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F45" s="58">
-        <v>44151</v>
+        <v>44155</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14">
@@ -6163,25 +6371,17 @@
       <c r="BL45" s="35"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E46" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F46" s="58">
-        <v>44155</v>
-      </c>
+      <c r="B46" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14">
+      <c r="H46" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -6241,17 +6441,25 @@
       <c r="BL46" s="35"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
+      <c r="B47" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E47" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F47" s="58">
+        <v>44159</v>
+      </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -6312,25 +6520,14 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E48" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F48" s="58">
-        <v>44159</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
@@ -6390,7 +6587,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6457,7 +6654,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="34"/>
@@ -6523,15 +6720,18 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+      <c r="B51" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14" t="str">
+        <f t="shared" ref="H51:H52" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -6590,17 +6790,25 @@
       <c r="BL51" s="35"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="B52" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E52" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F52" s="58">
+        <v>44159</v>
+      </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14" t="str">
-        <f t="shared" ref="H52:H56" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H52" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -6661,25 +6869,14 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E53" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F53" s="58">
-        <v>44159</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
@@ -6739,7 +6936,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6806,7 +7003,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="34"/>
@@ -6872,15 +7069,18 @@
       <c r="BL55" s="35"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
+      <c r="B56" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="14" t="str">
+        <f t="shared" ref="H56:H57" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
@@ -6938,6 +7138,283 @@
       <c r="BK56" s="35"/>
       <c r="BL56" s="35"/>
     </row>
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E57" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F57" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
+      <c r="AJ57" s="35"/>
+      <c r="AK57" s="35"/>
+      <c r="AL57" s="35"/>
+      <c r="AM57" s="35"/>
+      <c r="AN57" s="35"/>
+      <c r="AO57" s="35"/>
+      <c r="AP57" s="35"/>
+      <c r="AQ57" s="35"/>
+      <c r="AR57" s="35"/>
+      <c r="AS57" s="35"/>
+      <c r="AT57" s="35"/>
+      <c r="AU57" s="35"/>
+      <c r="AV57" s="35"/>
+      <c r="AW57" s="35"/>
+      <c r="AX57" s="35"/>
+      <c r="AY57" s="35"/>
+      <c r="AZ57" s="35"/>
+      <c r="BA57" s="35"/>
+      <c r="BB57" s="35"/>
+      <c r="BC57" s="35"/>
+      <c r="BD57" s="35"/>
+      <c r="BE57" s="35"/>
+      <c r="BF57" s="35"/>
+      <c r="BG57" s="35"/>
+      <c r="BH57" s="35"/>
+      <c r="BI57" s="35"/>
+      <c r="BJ57" s="35"/>
+      <c r="BK57" s="35"/>
+      <c r="BL57" s="35"/>
+    </row>
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="35"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="35"/>
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
+      <c r="AR58" s="35"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="35"/>
+      <c r="AW58" s="35"/>
+      <c r="AX58" s="35"/>
+      <c r="AY58" s="35"/>
+      <c r="AZ58" s="35"/>
+      <c r="BA58" s="35"/>
+      <c r="BB58" s="35"/>
+      <c r="BC58" s="35"/>
+      <c r="BD58" s="35"/>
+      <c r="BE58" s="35"/>
+      <c r="BF58" s="35"/>
+      <c r="BG58" s="35"/>
+      <c r="BH58" s="35"/>
+      <c r="BI58" s="35"/>
+      <c r="BJ58" s="35"/>
+      <c r="BK58" s="35"/>
+      <c r="BL58" s="35"/>
+    </row>
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
+      <c r="AR59" s="35"/>
+      <c r="AS59" s="35"/>
+      <c r="AT59" s="35"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="35"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="35"/>
+      <c r="AY59" s="35"/>
+      <c r="AZ59" s="35"/>
+      <c r="BA59" s="35"/>
+      <c r="BB59" s="35"/>
+      <c r="BC59" s="35"/>
+      <c r="BD59" s="35"/>
+      <c r="BE59" s="35"/>
+      <c r="BF59" s="35"/>
+      <c r="BG59" s="35"/>
+      <c r="BH59" s="35"/>
+      <c r="BI59" s="35"/>
+      <c r="BJ59" s="35"/>
+      <c r="BK59" s="35"/>
+      <c r="BL59" s="35"/>
+    </row>
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="75"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="35"/>
+      <c r="AM60" s="35"/>
+      <c r="AN60" s="35"/>
+      <c r="AO60" s="35"/>
+      <c r="AP60" s="35"/>
+      <c r="AQ60" s="35"/>
+      <c r="AR60" s="35"/>
+      <c r="AS60" s="35"/>
+      <c r="AT60" s="35"/>
+      <c r="AU60" s="35"/>
+      <c r="AV60" s="35"/>
+      <c r="AW60" s="35"/>
+      <c r="AX60" s="35"/>
+      <c r="AY60" s="35"/>
+      <c r="AZ60" s="35"/>
+      <c r="BA60" s="35"/>
+      <c r="BB60" s="35"/>
+      <c r="BC60" s="35"/>
+      <c r="BD60" s="35"/>
+      <c r="BE60" s="35"/>
+      <c r="BF60" s="35"/>
+      <c r="BG60" s="35"/>
+      <c r="BH60" s="35"/>
+      <c r="BI60" s="35"/>
+      <c r="BJ60" s="35"/>
+      <c r="BK60" s="35"/>
+      <c r="BL60" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AY4:BE4"/>
@@ -6953,8 +7430,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D33 D49 D30 D7:D14 D17:D20 D22 D24:D27">
-    <cfRule type="dataBar" priority="154">
+  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D20 D23:D26">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6967,21 +7444,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49 I33:BL33 I30:BL30 I5:BL14 I17:BL20 I22:BL22 I24:BL27">
-    <cfRule type="expression" dxfId="92" priority="173">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL20 I23:BL26">
+    <cfRule type="expression" dxfId="110" priority="197">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49 I33:BL33 I30:BL30 I7:BL14 I17:BL20 I22:BL22 I24:BL27">
-    <cfRule type="expression" dxfId="91" priority="167">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL20 I23:BL26">
+    <cfRule type="expression" dxfId="109" priority="191">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="192" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="137">
+  <conditionalFormatting sqref="D30">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6994,21 +7471,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="89" priority="140">
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="107" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="88" priority="138">
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="106" priority="162">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="163" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="133">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7021,21 +7498,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="86" priority="136">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="104" priority="160">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="85" priority="134">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="103" priority="158">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7048,21 +7525,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="83" priority="132">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="101" priority="156">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="82" priority="130">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="100" priority="154">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="155" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="121">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7075,21 +7552,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="80" priority="124">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="98" priority="148">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="79" priority="122">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="97" priority="146">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="117">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7102,21 +7579,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="77" priority="120">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="95" priority="144">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="76" priority="118">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="94" priority="142">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="113">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7129,21 +7606,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="74" priority="116">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="92" priority="140">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="73" priority="114">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="91" priority="138">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="139" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7156,21 +7633,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="71" priority="112">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="89" priority="136">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="70" priority="110">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="88" priority="134">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="105">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7183,21 +7660,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="68" priority="108">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="86" priority="132">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="67" priority="106">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="85" priority="130">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="101">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7210,21 +7687,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="65" priority="104">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="83" priority="128">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="64" priority="102">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="82" priority="126">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="127" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="97">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7237,21 +7714,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="62" priority="100">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="80" priority="124">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="61" priority="98">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="79" priority="122">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="123" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7264,21 +7741,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="59" priority="88">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="77" priority="112">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="58" priority="86">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="76" priority="110">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7291,21 +7768,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="56" priority="84">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="74" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="55" priority="82">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="73" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7318,21 +7795,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="53" priority="80">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="71" priority="104">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="52" priority="78">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="70" priority="102">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7345,21 +7822,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="50" priority="72">
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="68" priority="96">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="49" priority="70">
+  <conditionalFormatting sqref="I31:BL31">
+    <cfRule type="expression" dxfId="67" priority="94">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7372,21 +7849,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="47" priority="68">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="65" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="46" priority="66">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="64" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7399,21 +7876,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="44" priority="64">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="62" priority="88">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="43" priority="62">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="61" priority="86">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7426,21 +7903,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="41" priority="56">
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="59" priority="80">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="40" priority="54">
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="58" priority="78">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7454,20 +7931,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="56" priority="76">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="55" priority="74">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7481,20 +7958,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="53" priority="72">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="34" priority="46">
+    <cfRule type="expression" dxfId="52" priority="70">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7507,21 +7984,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="32" priority="44">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="50" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="31" priority="42">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="49" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="67" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7534,21 +8011,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="29" priority="40">
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="47" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="28" priority="38">
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7561,21 +8038,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="26" priority="36">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="44" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="25" priority="34">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="43" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7588,21 +8065,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="23" priority="32">
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="22" priority="30">
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="40" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7616,20 +8093,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="37" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7642,21 +8119,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="17" priority="24">
+  <conditionalFormatting sqref="I22:BL22">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="16" priority="22">
+  <conditionalFormatting sqref="I22:BL22">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7669,21 +8146,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="14" priority="20">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="32" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="13" priority="18">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="31" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7696,21 +8173,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="11" priority="16">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="10" priority="14">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7723,21 +8200,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7750,21 +8227,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7777,12 +8254,174 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7649434C-FFDA-47B7-B479-23E477DFB6E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F083EF58-7FA3-4ADC-A83C-B309605218D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAB61D51-B9A4-4432-B966-CFC42510F8F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{990DE2E0-B012-4767-BE1E-AF882746BBDC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7817,7 +8456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33 D49 D30 D7:D14 D17:D20 D22 D24:D27</xm:sqref>
+          <xm:sqref>D29 D48 D7:D14 D17:D20 D23:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -7832,7 +8471,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1B12D0B7-14CB-44EB-BD4D-F5F40742ECC1}">
@@ -7847,7 +8486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
@@ -7862,7 +8501,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
@@ -7877,7 +8516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
@@ -7892,7 +8531,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{865C26A2-5F9B-4F2A-8497-BB5408076D73}">
@@ -7907,7 +8546,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E847273-086C-4AA5-859E-6BF82F44FA57}">
@@ -7922,7 +8561,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -7937,7 +8576,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -7952,7 +8591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -7967,7 +8606,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
@@ -7982,7 +8621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
@@ -7997,7 +8636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
@@ -8012,7 +8651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8027,7 +8666,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12113B73-062D-4323-9450-E08AD7CA3A54}">
@@ -8042,7 +8681,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}">
@@ -8057,7 +8696,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8072,7 +8711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6A64E59F-FA0B-43B1-B5DC-30AECD78C97F}">
@@ -8117,7 +8756,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{96AADDBC-48E1-4E00-8374-CF4997D23808}">
@@ -8132,7 +8771,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{861AB451-6D14-41BE-9CCE-C132BAD1479E}">
@@ -8147,7 +8786,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0DD4499A-6C6E-44BD-9395-A72B26BB1533}">
@@ -8162,7 +8801,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA40A01F-0B9D-463E-8A81-050ADA090A96}">
@@ -8192,7 +8831,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB6AD927-8701-4D26-84BE-08BE5AC82680}">
@@ -8207,7 +8846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8222,7 +8861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8237,7 +8876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8252,7 +8891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8267,7 +8906,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F083EF58-7FA3-4ADC-A83C-B309605218D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>D56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{990DE2E0-B012-4767-BE1E-AF882746BBDC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498B097-D840-45EB-B334-A1E9B380DD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02769630-E61D-4A25-8F3C-49E51123D3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Project Start:</t>
   </si>
@@ -186,9 +186,6 @@
     <t>QUẢN LÝ KINH DOANH BÁN HÀNG</t>
   </si>
   <si>
-    <t xml:space="preserve">Quản lý hệ thống </t>
-  </si>
-  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t xml:space="preserve">Hiển thị ca làm việc </t>
   </si>
   <si>
-    <t xml:space="preserve">Lập phiếu nhập hàng </t>
-  </si>
-  <si>
     <t>Kiểm tra nhập hàng</t>
   </si>
   <si>
@@ -358,6 +352,12 @@
   </si>
   <si>
     <t>Xem lịch sử nhập hàng</t>
+  </si>
+  <si>
+    <t>Lập phiếu đặt hàng</t>
+  </si>
+  <si>
+    <t>Thêm mới hàng trong kho</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1031,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1038,18 +1050,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1066,37 +1066,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="117">
     <dxf>
       <fill>
         <patternFill>
@@ -2273,15 +2243,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="119"/>
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="totalRow" dxfId="117"/>
-      <tableStyleElement type="firstColumn" dxfId="116"/>
-      <tableStyleElement type="lastColumn" dxfId="115"/>
-      <tableStyleElement type="firstRowStripe" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="112"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="111"/>
+      <tableStyleElement type="wholeTable" dxfId="116"/>
+      <tableStyleElement type="headerRow" dxfId="115"/>
+      <tableStyleElement type="totalRow" dxfId="114"/>
+      <tableStyleElement type="firstColumn" dxfId="113"/>
+      <tableStyleElement type="lastColumn" dxfId="112"/>
+      <tableStyleElement type="firstRowStripe" dxfId="111"/>
+      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="109"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="108"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2700,8 +2670,8 @@
   <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2693,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2737,7 +2707,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="50"/>
     </row>
@@ -2746,15 +2716,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="97">
+      <c r="D3" s="96"/>
+      <c r="E3" s="94">
         <f ca="1">TODAY()</f>
-        <v>44139</v>
-      </c>
-      <c r="F3" s="97"/>
+        <v>44142</v>
+      </c>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2763,104 +2733,104 @@
       <c r="B4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="91">
         <f ca="1">I5</f>
         <v>44137</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f ca="1">P5</f>
         <v>44144</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f ca="1">W5</f>
         <v>44151</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f ca="1">AD5</f>
         <v>44158</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f ca="1">AK5</f>
         <v>44165</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f ca="1">AR5</f>
         <v>44172</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f ca="1">AY5</f>
         <v>44179</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f ca="1">BF5</f>
         <v>44186</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44137</v>
@@ -3479,21 +3449,21 @@
         <v>34</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44139</v>
+        <v>44142</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44142</v>
+        <v>44145</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3562,21 +3532,21 @@
         <v>35</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44142</v>
+        <v>44145</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44144</v>
+        <v>44147</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3643,21 +3613,21 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="19">
         <v>0.5</v>
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44144</v>
+        <v>44147</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -3724,7 +3694,7 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="21"/>
@@ -3795,10 +3765,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
@@ -3877,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="24">
         <v>0.5</v>
@@ -3958,10 +3928,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
@@ -4039,10 +4009,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
@@ -4120,10 +4090,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -4201,7 +4171,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="26"/>
@@ -4272,25 +4242,25 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="29">
         <v>0.12</v>
       </c>
       <c r="E19" s="57">
-        <f ca="1">E9+15</f>
-        <v>44154</v>
+        <f>E8+15</f>
+        <v>15</v>
       </c>
       <c r="F19" s="57">
-        <f ca="1">E19+5</f>
-        <v>44159</v>
+        <f>E19+5</f>
+        <v>20</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I19" s="35"/>
@@ -4353,16 +4323,16 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="29">
         <v>0.12</v>
       </c>
       <c r="E20" s="57">
-        <f ca="1">E10+15</f>
+        <f ca="1">E9+15</f>
         <v>44157</v>
       </c>
       <c r="F20" s="57">
@@ -4434,14 +4404,27 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E21" s="57">
+        <f ca="1">E10+15</f>
+        <v>44160</v>
+      </c>
+      <c r="F21" s="57">
+        <f ca="1">E21+5</f>
+        <v>44165</v>
+      </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
@@ -4502,10 +4485,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="29">
         <v>0.25</v>
@@ -4583,21 +4566,21 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="29">
         <v>0.25</v>
       </c>
       <c r="E23" s="57">
-        <f ca="1">F19+1</f>
-        <v>44160</v>
+        <f ca="1">F20+1</f>
+        <v>44163</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44164</v>
+        <v>44167</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4664,7 +4647,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
       <c r="B24" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="31"/>
@@ -4733,14 +4716,12 @@
       <c r="BL24" s="35"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="48"/>
       <c r="B25" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
@@ -4814,12 +4795,14 @@
       <c r="BL25" s="35"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
+      <c r="A26" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="B26" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="34">
         <v>0.2</v>
@@ -4895,10 +4878,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="34">
         <v>0.25</v>
@@ -4974,10 +4957,10 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
@@ -5053,10 +5036,10 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
@@ -5086,7 +5069,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -5134,7 +5117,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="B30" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="78"/>
@@ -5203,14 +5186,12 @@
       <c r="BL30" s="35"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>24</v>
-      </c>
+      <c r="A31" s="48"/>
       <c r="B31" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
@@ -5284,12 +5265,14 @@
       <c r="BL31" s="35"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
+      <c r="A32" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="B32" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="34">
         <v>0.5</v>
@@ -5365,10 +5348,10 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="34">
         <v>0.25</v>
@@ -5444,10 +5427,10 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="34">
         <v>0.25</v>
@@ -5523,10 +5506,10 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
@@ -5602,10 +5585,10 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="34">
         <v>0.25</v>
@@ -5679,14 +5662,12 @@
       <c r="BL36" s="35"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="A37" s="48"/>
       <c r="B37" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="34">
         <v>0.25</v>
@@ -5760,11 +5741,11 @@
       <c r="BL37" s="35"/>
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
-        <v>25</v>
+      <c r="A38" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="82"/>
@@ -5832,12 +5813,15 @@
       <c r="BK38" s="35"/>
       <c r="BL38" s="35"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="B39" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="34">
         <v>0.25</v>
@@ -5912,10 +5896,10 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="34">
         <v>0.55000000000000004</v>
@@ -5990,10 +5974,10 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="34">
         <v>0.55000000000000004</v>
@@ -6068,7 +6052,7 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="86"/>
       <c r="D42" s="87"/>
@@ -6138,10 +6122,10 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="34">
         <v>1</v>
@@ -6216,10 +6200,10 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="34">
         <v>0.45</v>
@@ -6294,10 +6278,10 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="34">
         <v>0.1</v>
@@ -6372,7 +6356,7 @@
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="68"/>
       <c r="D46" s="69"/>
@@ -6442,10 +6426,10 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="34">
         <v>0.35</v>
@@ -6520,7 +6504,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="34"/>
@@ -6587,7 +6571,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6654,7 +6638,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="34"/>
@@ -6721,7 +6705,7 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="68"/>
       <c r="D51" s="69"/>
@@ -6791,10 +6775,10 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="34">
         <v>0.35</v>
@@ -6869,7 +6853,7 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="34"/>
@@ -6936,7 +6920,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -7003,7 +6987,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="34"/>
@@ -7070,7 +7054,7 @@
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="68"/>
       <c r="D56" s="69"/>
@@ -7140,10 +7124,10 @@
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="34">
         <v>0.35</v>
@@ -7218,7 +7202,7 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="34"/>
@@ -7285,7 +7269,7 @@
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="34"/>
@@ -7350,73 +7334,16 @@
       <c r="BK59" s="35"/>
       <c r="BL59" s="35"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="75"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="35"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="35"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="35"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="35"/>
-      <c r="AT60" s="35"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="35"/>
-      <c r="AW60" s="35"/>
-      <c r="AX60" s="35"/>
-      <c r="AY60" s="35"/>
-      <c r="AZ60" s="35"/>
-      <c r="BA60" s="35"/>
-      <c r="BB60" s="35"/>
-      <c r="BC60" s="35"/>
-      <c r="BD60" s="35"/>
-      <c r="BE60" s="35"/>
-      <c r="BF60" s="35"/>
-      <c r="BG60" s="35"/>
-      <c r="BH60" s="35"/>
-      <c r="BI60" s="35"/>
-      <c r="BJ60" s="35"/>
-      <c r="BK60" s="35"/>
-      <c r="BL60" s="35"/>
+    <row r="60" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7424,14 +7351,9 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D20 D23:D26">
-    <cfRule type="dataBar" priority="178">
+  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D18 D23:D26 D20:D21">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7444,21 +7366,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL20 I23:BL26">
-    <cfRule type="expression" dxfId="110" priority="197">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21">
+    <cfRule type="expression" dxfId="107" priority="201">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL20 I23:BL26">
-    <cfRule type="expression" dxfId="109" priority="191">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21">
+    <cfRule type="expression" dxfId="106" priority="195">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="196" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7472,20 +7394,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="107" priority="164">
+    <cfRule type="expression" dxfId="104" priority="168">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="106" priority="162">
+    <cfRule type="expression" dxfId="103" priority="166">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="167" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7499,20 +7421,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="104" priority="160">
+    <cfRule type="expression" dxfId="101" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="103" priority="158">
+    <cfRule type="expression" dxfId="100" priority="162">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="163" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7526,20 +7448,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="101" priority="156">
+    <cfRule type="expression" dxfId="98" priority="160">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="100" priority="154">
+    <cfRule type="expression" dxfId="97" priority="158">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7553,20 +7475,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="98" priority="148">
+    <cfRule type="expression" dxfId="95" priority="152">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="97" priority="146">
+    <cfRule type="expression" dxfId="94" priority="150">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="151" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7580,20 +7502,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="95" priority="144">
+    <cfRule type="expression" dxfId="92" priority="148">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="94" priority="142">
+    <cfRule type="expression" dxfId="91" priority="146">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="137">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7607,20 +7529,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="92" priority="140">
+    <cfRule type="expression" dxfId="89" priority="144">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="91" priority="138">
+    <cfRule type="expression" dxfId="88" priority="142">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7634,20 +7556,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="89" priority="136">
+    <cfRule type="expression" dxfId="86" priority="140">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="88" priority="134">
+    <cfRule type="expression" dxfId="85" priority="138">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="139" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7661,20 +7583,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="86" priority="132">
+    <cfRule type="expression" dxfId="83" priority="136">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="85" priority="130">
+    <cfRule type="expression" dxfId="82" priority="134">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7688,20 +7610,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="83" priority="128">
+    <cfRule type="expression" dxfId="80" priority="132">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="82" priority="126">
+    <cfRule type="expression" dxfId="79" priority="130">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7715,20 +7637,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="80" priority="124">
+    <cfRule type="expression" dxfId="77" priority="128">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="79" priority="122">
+    <cfRule type="expression" dxfId="76" priority="126">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="127" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7742,20 +7664,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="77" priority="112">
+    <cfRule type="expression" dxfId="74" priority="116">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="76" priority="110">
+    <cfRule type="expression" dxfId="73" priority="114">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7769,20 +7691,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="74" priority="108">
+    <cfRule type="expression" dxfId="71" priority="112">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="73" priority="106">
+    <cfRule type="expression" dxfId="70" priority="110">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7796,20 +7718,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="71" priority="104">
+    <cfRule type="expression" dxfId="68" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="70" priority="102">
+    <cfRule type="expression" dxfId="67" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7823,20 +7745,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="68" priority="96">
+    <cfRule type="expression" dxfId="65" priority="100">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="67" priority="94">
+    <cfRule type="expression" dxfId="64" priority="98">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7850,20 +7772,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="65" priority="92">
+    <cfRule type="expression" dxfId="62" priority="96">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="64" priority="90">
+    <cfRule type="expression" dxfId="61" priority="94">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7877,20 +7799,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="62" priority="88">
+    <cfRule type="expression" dxfId="59" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="61" priority="86">
+    <cfRule type="expression" dxfId="58" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7904,20 +7826,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="59" priority="80">
+    <cfRule type="expression" dxfId="56" priority="84">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="58" priority="78">
+    <cfRule type="expression" dxfId="55" priority="82">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7931,20 +7853,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="53" priority="80">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="55" priority="74">
+    <cfRule type="expression" dxfId="52" priority="78">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="79" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7958,20 +7880,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="53" priority="72">
+    <cfRule type="expression" dxfId="50" priority="76">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="52" priority="70">
+    <cfRule type="expression" dxfId="49" priority="74">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7985,20 +7907,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="50" priority="68">
+    <cfRule type="expression" dxfId="47" priority="72">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="49" priority="66">
+    <cfRule type="expression" dxfId="46" priority="70">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8012,20 +7934,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="47" priority="64">
+    <cfRule type="expression" dxfId="44" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="43" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="67" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8039,20 +7961,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="44" priority="60">
+    <cfRule type="expression" dxfId="41" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="43" priority="58">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8066,47 +7988,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="41" priority="56">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="40" priority="54">
+    <cfRule type="expression" dxfId="37" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA40A01F-0B9D-463E-8A81-050ADA090A96}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="38" priority="52">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="37" priority="50">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8120,20 +8015,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="35" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="34" priority="46">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8147,20 +8042,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="32" priority="44">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8174,20 +8069,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8201,20 +8096,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8228,20 +8123,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8255,20 +8150,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="19" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8282,20 +8177,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8309,20 +8204,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8336,20 +8231,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8363,20 +8258,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8390,19 +8285,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D19">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8411,17 +8306,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{990DE2E0-B012-4767-BE1E-AF882746BBDC}</x14:id>
+          <x14:id>{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I19:BL19">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I19:BL19">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8456,7 +8351,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29 D48 D7:D14 D17:D20 D23:D26</xm:sqref>
+          <xm:sqref>D29 D48 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8804,21 +8699,6 @@
           <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA40A01F-0B9D-463E-8A81-050ADA090A96}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -8984,7 +8864,7 @@
           <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{990DE2E0-B012-4767-BE1E-AF882746BBDC}">
+          <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8996,7 +8876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02769630-E61D-4A25-8F3C-49E51123D3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D66AD-08C1-49A3-A7F1-FB78157DE854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Project Start:</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Xem Danh sách công nợ</t>
-  </si>
-  <si>
-    <t>Thiết lập chấm lương</t>
   </si>
   <si>
     <t>Đặt lịch</t>
@@ -1031,6 +1028,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1043,13 +1047,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2667,11 +2664,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2716,15 +2713,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="94">
+      <c r="D3" s="92"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
         <v>44142</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2733,104 +2730,104 @@
       <c r="B4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
         <v>44137</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
         <v>44144</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
         <v>44151</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
         <v>44158</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
         <v>44165</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
         <v>44172</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
         <v>44179</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
         <v>44186</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44137</v>
@@ -3384,7 +3381,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H47" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H46" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -4242,7 +4239,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>58</v>
@@ -4404,7 +4401,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4566,7 +4563,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>57</v>
@@ -5509,21 +5506,21 @@
         <v>82</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
       </c>
       <c r="E35" s="58">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="F35" s="58">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
@@ -5663,25 +5660,17 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
-      <c r="B37" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="58">
-        <v>44134</v>
-      </c>
-      <c r="F37" s="58">
-        <v>44137</v>
-      </c>
+      <c r="B37" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="14">
+      <c r="H37" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
@@ -5744,17 +5733,25 @@
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
+      <c r="B38" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="58">
+        <v>44138</v>
+      </c>
+      <c r="F38" s="58">
+        <v>44141</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5818,24 +5815,24 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="34">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E39" s="58">
-        <v>44138</v>
+        <v>44142</v>
       </c>
       <c r="F39" s="58">
-        <v>44141</v>
+        <v>44146</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5896,7 +5893,7 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C40" s="66" t="s">
         <v>58</v>
@@ -5973,25 +5970,17 @@
       <c r="BL40" s="35"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="34">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E41" s="58">
-        <v>44142</v>
-      </c>
-      <c r="F41" s="58">
-        <v>44146</v>
-      </c>
+      <c r="B41" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14">
+      <c r="H41" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -6051,17 +6040,25 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="B42" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
+      <c r="E42" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F42" s="58">
+        <v>44150</v>
+      </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -6122,24 +6119,24 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="34">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E43" s="58">
         <v>44148</v>
       </c>
       <c r="F43" s="58">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -6200,19 +6197,19 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" s="34">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="E44" s="58">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F44" s="58">
-        <v>44151</v>
+        <v>44155</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14">
@@ -6277,25 +6274,17 @@
       <c r="BL44" s="35"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F45" s="58">
-        <v>44155</v>
-      </c>
+      <c r="B45" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14">
+      <c r="H45" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -6355,17 +6344,25 @@
       <c r="BL45" s="35"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
+      <c r="B46" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E46" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F46" s="58">
+        <v>44159</v>
+      </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -6426,25 +6423,14 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E47" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F47" s="58">
-        <v>44159</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
@@ -6504,7 +6490,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="34"/>
@@ -6571,7 +6557,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6637,15 +6623,18 @@
       <c r="BL49" s="35"/>
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
+      <c r="B50" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="14" t="str">
+        <f t="shared" ref="H50:H51" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
@@ -6704,17 +6693,25 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
+      <c r="C51" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E51" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F51" s="58">
+        <v>44159</v>
+      </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="14" t="str">
-        <f t="shared" ref="H51:H52" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H51" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
@@ -6777,23 +6774,12 @@
       <c r="B52" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E52" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F52" s="58">
-        <v>44159</v>
-      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
@@ -6986,15 +6972,18 @@
       <c r="BL54" s="35"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="B55" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="14" t="str">
+        <f t="shared" ref="H55:H56" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
@@ -7053,17 +7042,25 @@
       <c r="BL55" s="35"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
+      <c r="B56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E56" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F56" s="58">
+        <v>44159</v>
+      </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="14" t="str">
-        <f t="shared" ref="H56:H57" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H56" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
@@ -7126,23 +7123,12 @@
       <c r="B57" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E57" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F57" s="58">
-        <v>44159</v>
-      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
@@ -7202,7 +7188,7 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="75" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="34"/>
@@ -7267,83 +7253,11 @@
       <c r="BK58" s="35"/>
       <c r="BL58" s="35"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="35"/>
-      <c r="AW59" s="35"/>
-      <c r="AX59" s="35"/>
-      <c r="AY59" s="35"/>
-      <c r="AZ59" s="35"/>
-      <c r="BA59" s="35"/>
-      <c r="BB59" s="35"/>
-      <c r="BC59" s="35"/>
-      <c r="BD59" s="35"/>
-      <c r="BE59" s="35"/>
-      <c r="BF59" s="35"/>
-      <c r="BG59" s="35"/>
-      <c r="BH59" s="35"/>
-      <c r="BI59" s="35"/>
-      <c r="BJ59" s="35"/>
-      <c r="BK59" s="35"/>
-      <c r="BL59" s="35"/>
-    </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60"/>
+    <row r="59" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7351,8 +7265,13 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D18 D23:D26 D20:D21">
+  <conditionalFormatting sqref="D29 D47 D7:D14 D17:D18 D23:D26 D20:D21">
     <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7366,12 +7285,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21">
+  <conditionalFormatting sqref="I47:BL47 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21">
     <cfRule type="expression" dxfId="107" priority="201">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21">
+  <conditionalFormatting sqref="I47:BL47 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21">
     <cfRule type="expression" dxfId="106" priority="195">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7406,7 +7325,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7420,12 +7339,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="101" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="100" priority="162">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7433,7 +7352,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7447,12 +7366,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="98" priority="160">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="97" priority="158">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7487,7 +7406,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7501,12 +7420,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="92" priority="148">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="91" priority="146">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7514,7 +7433,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7528,12 +7447,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="89" priority="144">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="88" priority="142">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7541,7 +7460,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7555,12 +7474,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="86" priority="140">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="85" priority="138">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7568,7 +7487,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7582,12 +7501,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="83" priority="136">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="82" priority="134">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7595,7 +7514,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7609,12 +7528,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="80" priority="132">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="79" priority="130">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7622,7 +7541,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7636,12 +7555,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="77" priority="128">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="76" priority="126">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7649,7 +7568,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7663,12 +7582,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="74" priority="116">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="73" priority="114">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7676,7 +7595,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7690,12 +7609,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="71" priority="112">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="70" priority="110">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7703,7 +7622,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7717,12 +7636,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="68" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="67" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7757,7 +7676,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D49">
     <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7771,12 +7690,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="62" priority="96">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="61" priority="94">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7784,7 +7703,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7798,12 +7717,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="59" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="58" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7919,7 +7838,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D34">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7933,12 +7852,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="44" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="43" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7946,34 +7865,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="61">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{861AB451-6D14-41BE-9CCE-C132BAD1479E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="41" priority="64">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="40" priority="62">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7987,12 +7879,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="38" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="37" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8027,7 +7919,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D52">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8041,12 +7933,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="32" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="31" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8054,7 +7946,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D50">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8068,12 +7960,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="29" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="28" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8081,7 +7973,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D51">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8095,12 +7987,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8108,7 +8000,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D53">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8122,12 +8014,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="22" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8135,7 +8027,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D54">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8149,12 +8041,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="20" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="19" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8189,7 +8081,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8203,12 +8095,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8216,7 +8108,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D55">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8230,12 +8122,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8243,7 +8135,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8257,12 +8149,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8270,7 +8162,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D58">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8284,12 +8176,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8351,7 +8243,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29 D48 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
+          <xm:sqref>D29 D47 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8381,7 +8273,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
@@ -8396,7 +8288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
@@ -8426,7 +8318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{865C26A2-5F9B-4F2A-8497-BB5408076D73}">
@@ -8441,7 +8333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E847273-086C-4AA5-859E-6BF82F44FA57}">
@@ -8456,7 +8348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8471,7 +8363,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -8486,7 +8378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -8501,7 +8393,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
@@ -8516,7 +8408,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
@@ -8531,7 +8423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
@@ -8546,7 +8438,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8576,7 +8468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}">
@@ -8591,7 +8483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8666,21 +8558,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{861AB451-6D14-41BE-9CCE-C132BAD1479E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -8696,7 +8573,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
@@ -8726,7 +8603,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8741,7 +8618,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8756,7 +8633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8771,7 +8648,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8786,7 +8663,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
@@ -8816,7 +8693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8831,7 +8708,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8846,7 +8723,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8861,7 +8738,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D66AD-08C1-49A3-A7F1-FB78157DE854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E5580A-FC78-465D-BD08-886460A2020C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>Tạo thông tin khách hàng</t>
   </si>
   <si>
-    <t>Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
     <t>Tạo thông tin nhân viên</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Thêm mới hàng trong kho</t>
+  </si>
+  <si>
+    <t>Xem lịch sử mua hàng</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1028,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1035,18 +1047,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1063,37 +1063,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="117">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <fill>
         <patternFill>
@@ -2240,15 +2210,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="116"/>
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="totalRow" dxfId="114"/>
-      <tableStyleElement type="firstColumn" dxfId="113"/>
-      <tableStyleElement type="lastColumn" dxfId="112"/>
-      <tableStyleElement type="firstRowStripe" dxfId="111"/>
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="109"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="108"/>
+      <tableStyleElement type="wholeTable" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="totalRow" dxfId="111"/>
+      <tableStyleElement type="firstColumn" dxfId="110"/>
+      <tableStyleElement type="lastColumn" dxfId="109"/>
+      <tableStyleElement type="firstRowStripe" dxfId="108"/>
+      <tableStyleElement type="secondRowStripe" dxfId="107"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="106"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="105"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2667,8 +2637,8 @@
   <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2713,15 +2683,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="97">
+      <c r="D3" s="96"/>
+      <c r="E3" s="94">
         <f ca="1">TODAY()</f>
-        <v>44142</v>
-      </c>
-      <c r="F3" s="97"/>
+        <v>44143</v>
+      </c>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2730,327 +2700,327 @@
       <c r="B4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="91">
         <f ca="1">I5</f>
-        <v>44137</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+        <v>44144</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f ca="1">P5</f>
-        <v>44144</v>
-      </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+        <v>44151</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f ca="1">W5</f>
-        <v>44151</v>
-      </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+        <v>44158</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f ca="1">AD5</f>
-        <v>44158</v>
-      </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+        <v>44165</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f ca="1">AK5</f>
-        <v>44165</v>
-      </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+        <v>44172</v>
+      </c>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f ca="1">AR5</f>
-        <v>44172</v>
-      </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+        <v>44179</v>
+      </c>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f ca="1">AY5</f>
-        <v>44179</v>
-      </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+        <v>44186</v>
+      </c>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f ca="1">BF5</f>
-        <v>44186</v>
-      </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+        <v>44193</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="J5" s="9">
         <f ca="1">I5+1</f>
-        <v>44138</v>
+        <v>44145</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44140</v>
+        <v>44147</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44142</v>
+        <v>44149</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="P5" s="10">
         <f ca="1">O5+1</f>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="Q5" s="9">
         <f ca="1">P5+1</f>
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44147</v>
+        <v>44154</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44149</v>
+        <v>44156</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="W5" s="10">
         <f ca="1">V5+1</f>
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">W5+1</f>
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44154</v>
+        <v>44161</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44156</v>
+        <v>44163</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="AD5" s="10">
         <f ca="1">AC5+1</f>
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="AE5" s="9">
         <f ca="1">AD5+1</f>
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44163</v>
+        <v>44170</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="AK5" s="10">
         <f ca="1">AJ5+1</f>
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="AL5" s="9">
         <f ca="1">AK5+1</f>
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44169</v>
+        <v>44176</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44170</v>
+        <v>44177</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="AR5" s="10">
         <f ca="1">AQ5+1</f>
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="AS5" s="9">
         <f ca="1">AR5+1</f>
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44174</v>
+        <v>44181</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44175</v>
+        <v>44182</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44177</v>
+        <v>44184</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="AY5" s="10">
         <f ca="1">AX5+1</f>
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="AZ5" s="9">
         <f ca="1">AY5+1</f>
-        <v>44180</v>
+        <v>44187</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44182</v>
+        <v>44189</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44183</v>
+        <v>44190</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44184</v>
+        <v>44191</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44185</v>
+        <v>44192</v>
       </c>
       <c r="BF5" s="10">
         <f ca="1">BE5+1</f>
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="BG5" s="9">
         <f ca="1">BF5+1</f>
-        <v>44187</v>
+        <v>44194</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44190</v>
+        <v>44197</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44191</v>
+        <v>44198</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44192</v>
+        <v>44199</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3456,11 +3426,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3539,11 +3509,11 @@
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3620,11 +3590,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -3925,7 +3895,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>57</v>
@@ -4006,7 +3976,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>57</v>
@@ -4239,7 +4209,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>58</v>
@@ -4330,11 +4300,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4401,7 +4371,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4411,11 +4381,11 @@
       </c>
       <c r="E21" s="57">
         <f ca="1">E10+15</f>
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="F21" s="57">
         <f ca="1">E21+5</f>
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -4563,7 +4533,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>57</v>
@@ -4573,11 +4543,11 @@
       </c>
       <c r="E23" s="57">
         <f ca="1">F20+1</f>
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4796,7 +4766,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>58</v>
@@ -4875,7 +4845,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>57</v>
@@ -4954,7 +4924,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>57</v>
@@ -5185,7 +5155,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>57</v>
@@ -5266,7 +5236,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="66" t="s">
         <v>56</v>
@@ -5424,7 +5394,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="66" t="s">
         <v>57</v>
@@ -5503,7 +5473,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>55</v>
@@ -5582,7 +5552,7 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>55</v>
@@ -5734,7 +5704,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="66" t="s">
         <v>56</v>
@@ -6041,7 +6011,7 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="66" t="s">
         <v>55</v>
@@ -6197,7 +6167,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="66" t="s">
         <v>55</v>
@@ -6490,7 +6460,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="34"/>
@@ -6557,7 +6527,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6624,7 +6594,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
@@ -6694,7 +6664,7 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="66" t="s">
         <v>54</v>
@@ -6772,7 +6742,7 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="66"/>
       <c r="D52" s="34"/>
@@ -6839,7 +6809,7 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="34"/>
@@ -6906,7 +6876,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6973,7 +6943,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="68"/>
       <c r="D55" s="69"/>
@@ -7043,7 +7013,7 @@
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>54</v>
@@ -7121,7 +7091,7 @@
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="66"/>
       <c r="D57" s="34"/>
@@ -7258,6 +7228,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7265,11 +7240,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 D47 D7:D14 D17:D18 D23:D26 D20:D21">
     <cfRule type="dataBar" priority="182">
@@ -7286,15 +7256,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21">
-    <cfRule type="expression" dxfId="107" priority="201">
+    <cfRule type="expression" dxfId="104" priority="201">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21">
-    <cfRule type="expression" dxfId="106" priority="195">
+    <cfRule type="expression" dxfId="103" priority="195">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="196" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7313,15 +7283,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="104" priority="168">
+    <cfRule type="expression" dxfId="101" priority="168">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="103" priority="166">
+    <cfRule type="expression" dxfId="100" priority="166">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="167" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7340,15 +7310,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="101" priority="164">
+    <cfRule type="expression" dxfId="98" priority="164">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="100" priority="162">
+    <cfRule type="expression" dxfId="97" priority="162">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="163" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7367,15 +7337,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="98" priority="160">
+    <cfRule type="expression" dxfId="95" priority="160">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="97" priority="158">
+    <cfRule type="expression" dxfId="94" priority="158">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7394,15 +7364,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="95" priority="152">
+    <cfRule type="expression" dxfId="92" priority="152">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="94" priority="150">
+    <cfRule type="expression" dxfId="91" priority="150">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="151" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7421,15 +7391,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="92" priority="148">
+    <cfRule type="expression" dxfId="89" priority="148">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="91" priority="146">
+    <cfRule type="expression" dxfId="88" priority="146">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7448,15 +7418,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="89" priority="144">
+    <cfRule type="expression" dxfId="86" priority="144">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="88" priority="142">
+    <cfRule type="expression" dxfId="85" priority="142">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7475,15 +7445,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="86" priority="140">
+    <cfRule type="expression" dxfId="83" priority="140">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="85" priority="138">
+    <cfRule type="expression" dxfId="82" priority="138">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="139" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7502,15 +7472,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="83" priority="136">
+    <cfRule type="expression" dxfId="80" priority="136">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="82" priority="134">
+    <cfRule type="expression" dxfId="79" priority="134">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7529,15 +7499,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="80" priority="132">
+    <cfRule type="expression" dxfId="77" priority="132">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="79" priority="130">
+    <cfRule type="expression" dxfId="76" priority="130">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7556,15 +7526,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="77" priority="128">
+    <cfRule type="expression" dxfId="74" priority="128">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="76" priority="126">
+    <cfRule type="expression" dxfId="73" priority="126">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="127" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7583,15 +7553,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="74" priority="116">
+    <cfRule type="expression" dxfId="71" priority="116">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="73" priority="114">
+    <cfRule type="expression" dxfId="70" priority="114">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="115" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,15 +7580,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="71" priority="112">
+    <cfRule type="expression" dxfId="68" priority="112">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="70" priority="110">
+    <cfRule type="expression" dxfId="67" priority="110">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7637,15 +7607,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="68" priority="108">
+    <cfRule type="expression" dxfId="65" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="67" priority="106">
+    <cfRule type="expression" dxfId="64" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7664,15 +7634,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="65" priority="100">
+    <cfRule type="expression" dxfId="62" priority="100">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="64" priority="98">
+    <cfRule type="expression" dxfId="61" priority="98">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7691,15 +7661,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="62" priority="96">
+    <cfRule type="expression" dxfId="59" priority="96">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="61" priority="94">
+    <cfRule type="expression" dxfId="58" priority="94">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7718,15 +7688,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="59" priority="92">
+    <cfRule type="expression" dxfId="56" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="58" priority="90">
+    <cfRule type="expression" dxfId="55" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7745,15 +7715,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="56" priority="84">
+    <cfRule type="expression" dxfId="53" priority="84">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="55" priority="82">
+    <cfRule type="expression" dxfId="52" priority="82">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7772,15 +7742,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="53" priority="80">
+    <cfRule type="expression" dxfId="50" priority="80">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="52" priority="78">
+    <cfRule type="expression" dxfId="49" priority="78">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="79" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7799,15 +7769,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="50" priority="76">
+    <cfRule type="expression" dxfId="47" priority="76">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="49" priority="74">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7826,15 +7796,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="47" priority="72">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="46" priority="70">
+    <cfRule type="expression" dxfId="43" priority="70">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7853,15 +7823,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="44" priority="68">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="43" priority="66">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="67" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E5580A-FC78-465D-BD08-886460A2020C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70412D8D-391A-4A78-BBE2-AFC090AB1F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>Cập nhật thông tin nhân viên</t>
   </si>
   <si>
-    <t>Cập nhật công nợ</t>
-  </si>
-  <si>
     <t>Danh sách thông tin khách hàng</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Xem lịch sử mua hàng</t>
+  </si>
+  <si>
+    <t>In phiếu thanh toán nợ</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1028,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1040,13 +1047,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2637,8 +2637,8 @@
   <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2683,15 +2683,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="94">
+      <c r="D3" s="92"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>44143</v>
-      </c>
-      <c r="F3" s="94"/>
+        <v>44144</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2700,104 +2700,104 @@
       <c r="B4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
         <v>44144</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
         <v>44151</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
         <v>44158</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
         <v>44165</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
         <v>44172</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
         <v>44179</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
         <v>44186</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
         <v>44193</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44144</v>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3509,11 +3509,11 @@
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3590,11 +3590,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -3895,7 +3895,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>57</v>
@@ -3976,7 +3976,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>57</v>
@@ -4209,7 +4209,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>58</v>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4371,7 +4371,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4381,11 +4381,11 @@
       </c>
       <c r="E21" s="57">
         <f ca="1">E10+15</f>
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="F21" s="57">
         <f ca="1">E21+5</f>
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -4533,7 +4533,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>57</v>
@@ -4543,11 +4543,11 @@
       </c>
       <c r="E23" s="57">
         <f ca="1">F20+1</f>
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4766,7 +4766,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>58</v>
@@ -4845,7 +4845,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>57</v>
@@ -4924,7 +4924,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>57</v>
@@ -5394,7 +5394,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="66" t="s">
         <v>57</v>
@@ -5473,7 +5473,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>55</v>
@@ -5552,7 +5552,7 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>55</v>
@@ -5704,7 +5704,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="66" t="s">
         <v>56</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="75" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C42" s="66" t="s">
         <v>55</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="66" t="s">
         <v>55</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="34"/>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="66" t="s">
         <v>54</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="66"/>
       <c r="D52" s="34"/>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="34"/>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="68"/>
       <c r="D55" s="69"/>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>54</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="66"/>
       <c r="D57" s="34"/>
@@ -7228,11 +7228,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7240,6 +7235,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 D47 D7:D14 D17:D18 D23:D26 D20:D21">
     <cfRule type="dataBar" priority="182">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70412D8D-391A-4A78-BBE2-AFC090AB1F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D807EB-7C53-4C1B-8D77-509AB7C05403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2880" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Project Start:</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Tìm kiếm thông tin khách hàng</t>
   </si>
   <si>
-    <t>Tạo thông tin khách hàng</t>
-  </si>
-  <si>
     <t>Tạo thông tin nhân viên</t>
   </si>
   <si>
@@ -355,6 +352,12 @@
   </si>
   <si>
     <t>In phiếu thanh toán nợ</t>
+  </si>
+  <si>
+    <t>Xem danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -2634,11 +2637,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL59"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2692,7 @@
       <c r="D3" s="92"/>
       <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>44144</v>
+        <v>44147</v>
       </c>
       <c r="F3" s="97"/>
     </row>
@@ -3351,7 +3354,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H46" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H47" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3426,11 +3429,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44144</v>
+        <v>44147</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44147</v>
+        <v>44150</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3509,11 +3512,11 @@
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44147</v>
+        <v>44150</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3590,11 +3593,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -3895,7 +3898,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>57</v>
@@ -3976,7 +3979,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>57</v>
@@ -4209,7 +4212,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>58</v>
@@ -4300,11 +4303,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44164</v>
+        <v>44167</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4371,7 +4374,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4381,11 +4384,11 @@
       </c>
       <c r="E21" s="57">
         <f ca="1">E10+15</f>
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="F21" s="57">
         <f ca="1">E21+5</f>
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -4533,7 +4536,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>57</v>
@@ -4543,11 +4546,11 @@
       </c>
       <c r="E23" s="57">
         <f ca="1">F20+1</f>
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4766,7 +4769,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>58</v>
@@ -4845,7 +4848,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>57</v>
@@ -4924,7 +4927,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>57</v>
@@ -5155,7 +5158,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>57</v>
@@ -5236,11 +5239,9 @@
         <v>24</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>56</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C32" s="66"/>
       <c r="D32" s="34">
         <v>0.5</v>
       </c>
@@ -5251,10 +5252,7 @@
         <v>44141</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
@@ -5315,24 +5313,24 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="58">
-        <v>44131</v>
+        <v>44138</v>
       </c>
       <c r="F33" s="58">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
@@ -5394,7 +5392,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C34" s="66" t="s">
         <v>57</v>
@@ -5473,24 +5471,24 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
       </c>
       <c r="E35" s="58">
-        <v>44134</v>
+        <v>44131</v>
       </c>
       <c r="F35" s="58">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
@@ -5552,7 +5550,7 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>55</v>
@@ -5630,17 +5628,25 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
-      <c r="B37" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
+      <c r="B37" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="58">
+        <v>44134</v>
+      </c>
+      <c r="F37" s="58">
+        <v>44137</v>
+      </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
@@ -5703,25 +5709,17 @@
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E38" s="58">
-        <v>44138</v>
-      </c>
-      <c r="F38" s="58">
-        <v>44141</v>
-      </c>
+      <c r="B38" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="14">
+      <c r="H38" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5785,24 +5783,24 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="E39" s="58">
-        <v>44142</v>
+        <v>44138</v>
       </c>
       <c r="F39" s="58">
-        <v>44146</v>
+        <v>44141</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5863,7 +5861,7 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C40" s="66" t="s">
         <v>58</v>
@@ -5940,17 +5938,25 @@
       <c r="BL40" s="35"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
+      <c r="B41" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E41" s="58">
+        <v>44142</v>
+      </c>
+      <c r="F41" s="58">
+        <v>44146</v>
+      </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -6010,25 +6016,17 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="34">
-        <v>1</v>
-      </c>
-      <c r="E42" s="58">
-        <v>44148</v>
-      </c>
-      <c r="F42" s="58">
-        <v>44150</v>
-      </c>
+      <c r="B42" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
+      <c r="H42" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -6089,24 +6087,24 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="34">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="E43" s="58">
         <v>44148</v>
       </c>
       <c r="F43" s="58">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -6167,19 +6165,19 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="34">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="E44" s="58">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F44" s="58">
-        <v>44155</v>
+        <v>44151</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14">
@@ -6244,17 +6242,25 @@
       <c r="BL44" s="35"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="71"/>
+      <c r="B45" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="58">
+        <v>44152</v>
+      </c>
+      <c r="F45" s="58">
+        <v>44155</v>
+      </c>
       <c r="G45" s="14"/>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -6314,25 +6320,17 @@
       <c r="BL45" s="35"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E46" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F46" s="58">
-        <v>44159</v>
-      </c>
+      <c r="B46" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14">
+      <c r="H46" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -6393,14 +6391,25 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
+        <v>95</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E47" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F47" s="58">
+        <v>44159</v>
+      </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
@@ -6460,7 +6469,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="34"/>
@@ -6527,7 +6536,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6593,18 +6602,15 @@
       <c r="BL49" s="35"/>
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="71"/>
+      <c r="B50" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="14" t="str">
-        <f t="shared" ref="H50:H51" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
@@ -6663,25 +6669,17 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E51" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F51" s="58">
-        <v>44159</v>
-      </c>
+      <c r="B51" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="H51" s="14" t="str">
+        <f t="shared" ref="H51:H52" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
@@ -6742,14 +6740,25 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E52" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F52" s="58">
+        <v>44159</v>
+      </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
@@ -6809,7 +6818,7 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="34"/>
@@ -6876,7 +6885,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6942,18 +6951,15 @@
       <c r="BL54" s="35"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="71"/>
+      <c r="B55" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="14" t="str">
-        <f t="shared" ref="H55:H56" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H55" s="14"/>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
@@ -7012,25 +7018,17 @@
       <c r="BL55" s="35"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E56" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F56" s="58">
-        <v>44159</v>
-      </c>
+      <c r="B56" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
+      <c r="H56" s="14" t="str">
+        <f t="shared" ref="H56:H57" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
@@ -7091,14 +7089,25 @@
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
+        <v>88</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E57" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F57" s="58">
+        <v>44159</v>
+      </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
@@ -7158,7 +7167,7 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="75" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="34"/>
@@ -7223,8 +7232,75 @@
       <c r="BK58" s="35"/>
       <c r="BL58" s="35"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59"/>
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
+      <c r="AR59" s="35"/>
+      <c r="AS59" s="35"/>
+      <c r="AT59" s="35"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="35"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="35"/>
+      <c r="AY59" s="35"/>
+      <c r="AZ59" s="35"/>
+      <c r="BA59" s="35"/>
+      <c r="BB59" s="35"/>
+      <c r="BC59" s="35"/>
+      <c r="BD59" s="35"/>
+      <c r="BE59" s="35"/>
+      <c r="BF59" s="35"/>
+      <c r="BG59" s="35"/>
+      <c r="BH59" s="35"/>
+      <c r="BI59" s="35"/>
+      <c r="BJ59" s="35"/>
+      <c r="BK59" s="35"/>
+      <c r="BL59" s="35"/>
+    </row>
+    <row r="60" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7241,8 +7317,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 D47 D7:D14 D17:D18 D23:D26 D20:D21">
-    <cfRule type="dataBar" priority="182">
+  <conditionalFormatting sqref="D48 D29 D7:D14 D17:D18 D23:D26 D20:D21">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7255,21 +7331,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21">
-    <cfRule type="expression" dxfId="104" priority="201">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32">
+    <cfRule type="expression" dxfId="104" priority="202">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21">
-    <cfRule type="expression" dxfId="103" priority="195">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32">
+    <cfRule type="expression" dxfId="103" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="197" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="165">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7283,20 +7359,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="101" priority="168">
+    <cfRule type="expression" dxfId="101" priority="169">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="100" priority="166">
+    <cfRule type="expression" dxfId="100" priority="167">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="161">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7309,21 +7385,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="98" priority="164">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="98" priority="165">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="97" priority="162">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="97" priority="163">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="164" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="157">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7336,21 +7412,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="95" priority="160">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="95" priority="161">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="94" priority="158">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="94" priority="159">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="160" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="149">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7363,21 +7439,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="92" priority="152">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="92" priority="153">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="91" priority="150">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="91" priority="151">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="152" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="145">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7390,21 +7466,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="89" priority="148">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="89" priority="149">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="88" priority="146">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="88" priority="147">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="148" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="141">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7417,21 +7493,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="86" priority="144">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="86" priority="145">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="85" priority="142">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="85" priority="143">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="144" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="137">
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7444,21 +7520,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="83" priority="140">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="83" priority="141">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="82" priority="138">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="82" priority="139">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="140" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="133">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7471,21 +7547,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="80" priority="136">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="80" priority="137">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="79" priority="134">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="79" priority="135">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="136" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7498,21 +7574,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="77" priority="132">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="77" priority="133">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="76" priority="130">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="76" priority="131">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="132" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7525,21 +7601,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="74" priority="128">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="74" priority="129">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="73" priority="126">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="73" priority="127">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="113">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7552,21 +7628,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="71" priority="116">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="71" priority="117">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="70" priority="114">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="70" priority="115">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="116" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7579,21 +7655,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="68" priority="112">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="68" priority="113">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="67" priority="110">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="67" priority="111">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="112" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="105">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7606,21 +7682,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="65" priority="108">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="65" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="64" priority="106">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="64" priority="107">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7634,20 +7710,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="62" priority="100">
+    <cfRule type="expression" dxfId="62" priority="101">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="61" priority="98">
+    <cfRule type="expression" dxfId="61" priority="99">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="100" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="93">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7660,21 +7736,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="59" priority="96">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="59" priority="97">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="58" priority="94">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="58" priority="95">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7687,21 +7763,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="56" priority="92">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="56" priority="93">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="55" priority="90">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="55" priority="91">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7715,20 +7791,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="53" priority="84">
+    <cfRule type="expression" dxfId="53" priority="85">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="52" priority="82">
+    <cfRule type="expression" dxfId="52" priority="83">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7742,20 +7818,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="50" priority="80">
+    <cfRule type="expression" dxfId="50" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="49" priority="78">
+    <cfRule type="expression" dxfId="49" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7769,20 +7845,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="47" priority="76">
+    <cfRule type="expression" dxfId="47" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="46" priority="74">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7796,20 +7872,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="44" priority="72">
+    <cfRule type="expression" dxfId="44" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="43" priority="70">
+    <cfRule type="expression" dxfId="43" priority="71">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7822,21 +7898,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="41" priority="68">
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="41" priority="69">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="40" priority="66">
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7849,21 +7925,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="38" priority="60">
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="38" priority="61">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="37" priority="58">
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="37" priority="59">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7877,20 +7953,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="35" priority="52">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="34" priority="51">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7903,21 +7979,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="32" priority="48">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="32" priority="49">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="31" priority="46">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7930,21 +8006,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="29" priority="44">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="29" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="28" priority="42">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="28" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7957,21 +8033,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="26" priority="40">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="25" priority="38">
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="40" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7984,21 +8060,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="23" priority="36">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="22" priority="34">
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="36" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8011,21 +8087,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="20" priority="32">
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="19" priority="30">
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8038,21 +8114,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="17" priority="28">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="16" priority="26">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8065,21 +8141,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="14" priority="24">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="13" priority="22">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8092,21 +8168,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="11" priority="20">
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="10" priority="18">
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D57">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8119,21 +8195,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="8" priority="16">
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="7" priority="14">
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8146,21 +8222,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="5" priority="12">
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="4" priority="10">
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8174,16 +8250,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9CB3533F-9C4E-4000-BD74-A12298E78DEE}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8213,7 +8303,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29 D47 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
+          <xm:sqref>D48 D29 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8243,7 +8333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
@@ -8258,7 +8348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
@@ -8273,7 +8363,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
@@ -8288,7 +8378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{865C26A2-5F9B-4F2A-8497-BB5408076D73}">
@@ -8303,7 +8393,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E847273-086C-4AA5-859E-6BF82F44FA57}">
@@ -8318,7 +8408,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8333,7 +8423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -8348,7 +8438,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -8363,7 +8453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
@@ -8378,7 +8468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
@@ -8393,7 +8483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
@@ -8408,7 +8498,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8438,7 +8528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}">
@@ -8453,7 +8543,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8528,7 +8618,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0DD4499A-6C6E-44BD-9395-A72B26BB1533}">
@@ -8543,7 +8633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
@@ -8573,7 +8663,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8588,7 +8678,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8603,7 +8693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8618,7 +8708,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8633,7 +8723,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
@@ -8648,7 +8738,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F083EF58-7FA3-4ADC-A83C-B309605218D3}">
@@ -8663,7 +8753,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8678,7 +8768,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8693,7 +8783,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8708,7 +8798,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">
@@ -8724,6 +8814,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9CB3533F-9C4E-4000-BD74-A12298E78DEE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D807EB-7C53-4C1B-8D77-509AB7C05403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3697A722-6F51-454C-9A3A-66C8D2E916F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2880" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Project Start:</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Cập nhật thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo phiếu nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1034,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1038,18 +1053,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2637,11 +2640,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2686,15 +2689,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="97">
+      <c r="D3" s="96"/>
+      <c r="E3" s="94">
         <f ca="1">TODAY()</f>
-        <v>44147</v>
-      </c>
-      <c r="F3" s="97"/>
+        <v>44150</v>
+      </c>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2703,327 +2706,327 @@
       <c r="B4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="91">
         <f ca="1">I5</f>
-        <v>44144</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+        <v>44151</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f ca="1">P5</f>
-        <v>44151</v>
-      </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+        <v>44158</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f ca="1">W5</f>
-        <v>44158</v>
-      </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+        <v>44165</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f ca="1">AD5</f>
-        <v>44165</v>
-      </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+        <v>44172</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f ca="1">AK5</f>
-        <v>44172</v>
-      </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+        <v>44179</v>
+      </c>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f ca="1">AR5</f>
-        <v>44179</v>
-      </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+        <v>44186</v>
+      </c>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f ca="1">AY5</f>
-        <v>44186</v>
-      </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+        <v>44193</v>
+      </c>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f ca="1">BF5</f>
-        <v>44193</v>
-      </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+        <v>44200</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="J5" s="9">
         <f ca="1">I5+1</f>
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44147</v>
+        <v>44154</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44149</v>
+        <v>44156</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="P5" s="10">
         <f ca="1">O5+1</f>
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="Q5" s="9">
         <f ca="1">P5+1</f>
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44154</v>
+        <v>44161</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44156</v>
+        <v>44163</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="W5" s="10">
         <f ca="1">V5+1</f>
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">W5+1</f>
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44163</v>
+        <v>44170</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="AD5" s="10">
         <f ca="1">AC5+1</f>
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="AE5" s="9">
         <f ca="1">AD5+1</f>
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44169</v>
+        <v>44176</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44170</v>
+        <v>44177</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="AK5" s="10">
         <f ca="1">AJ5+1</f>
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="AL5" s="9">
         <f ca="1">AK5+1</f>
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44174</v>
+        <v>44181</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44175</v>
+        <v>44182</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44177</v>
+        <v>44184</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="AR5" s="10">
         <f ca="1">AQ5+1</f>
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="AS5" s="9">
         <f ca="1">AR5+1</f>
-        <v>44180</v>
+        <v>44187</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
+        <v>44189</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44183</v>
+        <v>44190</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44184</v>
+        <v>44191</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44185</v>
+        <v>44192</v>
       </c>
       <c r="AY5" s="10">
         <f ca="1">AX5+1</f>
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="AZ5" s="9">
         <f ca="1">AY5+1</f>
-        <v>44187</v>
+        <v>44194</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44190</v>
+        <v>44197</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44191</v>
+        <v>44198</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44192</v>
+        <v>44199</v>
       </c>
       <c r="BF5" s="10">
         <f ca="1">BE5+1</f>
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="BG5" s="9">
         <f ca="1">BF5+1</f>
-        <v>44194</v>
+        <v>44201</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44197</v>
+        <v>44204</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44198</v>
+        <v>44205</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44199</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3429,11 +3432,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44147</v>
+        <v>44150</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44150</v>
+        <v>44153</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3512,11 +3515,11 @@
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44150</v>
+        <v>44153</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44152</v>
+        <v>44155</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3593,11 +3596,11 @@
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44152</v>
+        <v>44155</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44156</v>
+        <v>44159</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -4303,11 +4306,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4384,11 +4387,11 @@
       </c>
       <c r="E21" s="57">
         <f ca="1">E10+15</f>
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="F21" s="57">
         <f ca="1">E21+5</f>
-        <v>44170</v>
+        <v>44173</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -4546,11 +4549,11 @@
       </c>
       <c r="E23" s="57">
         <f ca="1">F20+1</f>
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44172</v>
+        <v>44175</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -7167,7 +7170,7 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="75" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="34"/>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="75" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="34"/>
@@ -7299,11 +7302,83 @@
       <c r="BK59" s="35"/>
       <c r="BL59" s="35"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60"/>
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="35"/>
+      <c r="AM60" s="35"/>
+      <c r="AN60" s="35"/>
+      <c r="AO60" s="35"/>
+      <c r="AP60" s="35"/>
+      <c r="AQ60" s="35"/>
+      <c r="AR60" s="35"/>
+      <c r="AS60" s="35"/>
+      <c r="AT60" s="35"/>
+      <c r="AU60" s="35"/>
+      <c r="AV60" s="35"/>
+      <c r="AW60" s="35"/>
+      <c r="AX60" s="35"/>
+      <c r="AY60" s="35"/>
+      <c r="AZ60" s="35"/>
+      <c r="BA60" s="35"/>
+      <c r="BB60" s="35"/>
+      <c r="BC60" s="35"/>
+      <c r="BD60" s="35"/>
+      <c r="BE60" s="35"/>
+      <c r="BF60" s="35"/>
+      <c r="BG60" s="35"/>
+      <c r="BH60" s="35"/>
+      <c r="BI60" s="35"/>
+      <c r="BJ60" s="35"/>
+      <c r="BK60" s="35"/>
+      <c r="BL60" s="35"/>
+    </row>
+    <row r="61" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7311,13 +7386,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D48 D29 D7:D14 D17:D18 D23:D26 D20:D21">
+  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D18 D23:D26 D20:D21 D58">
     <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7331,12 +7401,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I58:BL58">
     <cfRule type="expression" dxfId="104" priority="202">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32">
+  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I58:BL58">
     <cfRule type="expression" dxfId="103" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8127,7 +8197,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8141,12 +8211,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="14" priority="25">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="13" priority="23">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8208,7 +8278,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8222,12 +8292,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8303,7 +8373,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48 D29 D7:D14 D17:D18 D23:D26 D20:D21</xm:sqref>
+          <xm:sqref>D29 D48 D7:D14 D17:D18 D23:D26 D20:D21 D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8753,7 +8823,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8798,7 +8868,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3697A722-6F51-454C-9A3A-66C8D2E916F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEAFB32-912B-47CC-92D1-1653A9933E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2880" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Project Start:</t>
   </si>
@@ -219,148 +219,151 @@
     <t>Quản lý nhân viên</t>
   </si>
   <si>
+    <t xml:space="preserve"> Công nợ</t>
+  </si>
+  <si>
+    <t>Thiết lập chấm công</t>
+  </si>
+  <si>
+    <t>Hồng Thái</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Tân</t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Yến Nhi</t>
+  </si>
+  <si>
+    <t>Từ Chí Huy</t>
+  </si>
+  <si>
+    <t>Lê Quang Sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ PHẦN MỀM</t>
+  </si>
+  <si>
+    <t>Lập phiếu thanh toán nợ</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng thân thiện</t>
+  </si>
+  <si>
+    <t>Quản lý kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra cứu hàng trong kho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm hàng </t>
+  </si>
+  <si>
+    <t>Tạo phiếu gửi trả hàng cho nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Danh sách thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Thống kê sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê chi </t>
+  </si>
+  <si>
+    <t>In hóa đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra thẻ thành viên </t>
+  </si>
+  <si>
+    <t>Thống kê công nợ</t>
+  </si>
+  <si>
+    <t>Xem Danh sách công nợ</t>
+  </si>
+  <si>
+    <t>Đặt lịch</t>
+  </si>
+  <si>
+    <t>Sắp xếp lịch làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị ca làm việc </t>
+  </si>
+  <si>
+    <t>Kiểm tra nhập hàng</t>
+  </si>
+  <si>
+    <t>Tạo công nợ</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Danh mục khách hàng</t>
+  </si>
+  <si>
+    <t>Danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Danh mục nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Danh mục nhân viên</t>
+  </si>
+  <si>
+    <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
+  </si>
+  <si>
+    <t>Xem lịch sử nhập hàng</t>
+  </si>
+  <si>
+    <t>Lập phiếu đặt hàng</t>
+  </si>
+  <si>
+    <t>Thêm mới hàng trong kho</t>
+  </si>
+  <si>
+    <t>Xem lịch sử mua hàng</t>
+  </si>
+  <si>
+    <t>In phiếu thanh toán nợ</t>
+  </si>
+  <si>
+    <t>Xem danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo phiếu nhập hàng</t>
+  </si>
+  <si>
     <t>Quản lý nhà cung cấp</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tạo nhà cung cấp</t>
+  </si>
+  <si>
     <t>Cập nhật thông tin nhà cung cấp</t>
   </si>
   <si>
-    <t xml:space="preserve"> Công nợ</t>
-  </si>
-  <si>
-    <t>Thiết lập chấm công</t>
-  </si>
-  <si>
     <t>Lịch sử nhập trả hàng</t>
-  </si>
-  <si>
-    <t>Hồng Thái</t>
-  </si>
-  <si>
-    <t>Lê Hoàng Tân</t>
-  </si>
-  <si>
-    <t>Trương Nguyễn Yến Nhi</t>
-  </si>
-  <si>
-    <t>Từ Chí Huy</t>
-  </si>
-  <si>
-    <t>Lê Quang Sang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CÔNG NGHỆ PHẦN MỀM</t>
-  </si>
-  <si>
-    <t>Lập phiếu thanh toán nợ</t>
-  </si>
-  <si>
-    <t>Quản lý khách hàng thân thiện</t>
-  </si>
-  <si>
-    <t>Quản lý kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tra cứu hàng trong kho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm hàng </t>
-  </si>
-  <si>
-    <t>Tạo phiếu gửi trả hàng cho nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Tạo thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Danh sách thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Tạo nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Thống kê sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thống kê chi </t>
-  </si>
-  <si>
-    <t>In hóa đơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra thẻ thành viên </t>
-  </si>
-  <si>
-    <t>Thống kê công nợ</t>
-  </si>
-  <si>
-    <t>Xem Danh sách công nợ</t>
-  </si>
-  <si>
-    <t>Đặt lịch</t>
-  </si>
-  <si>
-    <t>Sắp xếp lịch làm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị ca làm việc </t>
-  </si>
-  <si>
-    <t>Kiểm tra nhập hàng</t>
-  </si>
-  <si>
-    <t>Tạo công nợ</t>
-  </si>
-  <si>
-    <t>Quản lý danh mục</t>
-  </si>
-  <si>
-    <t>Danh mục khách hàng</t>
-  </si>
-  <si>
-    <t>Danh mục sản phẩm</t>
-  </si>
-  <si>
-    <t>Danh mục nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Danh mục nhân viên</t>
-  </si>
-  <si>
-    <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
-  </si>
-  <si>
-    <t>Xem lịch sử nhập hàng</t>
-  </si>
-  <si>
-    <t>Lập phiếu đặt hàng</t>
-  </si>
-  <si>
-    <t>Thêm mới hàng trong kho</t>
-  </si>
-  <si>
-    <t>Xem lịch sử mua hàng</t>
-  </si>
-  <si>
-    <t>In phiếu thanh toán nợ</t>
-  </si>
-  <si>
-    <t>Xem danh sách nhân viên</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Tạo phiếu nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -612,13 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +777,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1018,21 +1021,6 @@
     <xf numFmtId="164" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1053,6 +1041,39 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1069,127 +1090,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -2216,15 +2117,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="113"/>
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="totalRow" dxfId="111"/>
-      <tableStyleElement type="firstColumn" dxfId="110"/>
-      <tableStyleElement type="lastColumn" dxfId="109"/>
-      <tableStyleElement type="firstRowStripe" dxfId="108"/>
-      <tableStyleElement type="secondRowStripe" dxfId="107"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="106"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="105"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstColumn" dxfId="98"/>
+      <tableStyleElement type="lastColumn" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="94"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="93"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2640,11 +2541,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2666,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2680,7 +2581,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I2" s="50"/>
     </row>
@@ -2689,344 +2590,344 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="94">
+      <c r="D3" s="91"/>
+      <c r="E3" s="89">
         <f ca="1">TODAY()</f>
-        <v>44150</v>
-      </c>
-      <c r="F3" s="94"/>
+        <v>44157</v>
+      </c>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="86">
         <f ca="1">I5</f>
-        <v>44151</v>
-      </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+        <v>44158</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f ca="1">P5</f>
-        <v>44158</v>
-      </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+        <v>44165</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f ca="1">W5</f>
-        <v>44165</v>
-      </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+        <v>44172</v>
+      </c>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f ca="1">AD5</f>
-        <v>44172</v>
-      </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+        <v>44179</v>
+      </c>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f ca="1">AK5</f>
-        <v>44179</v>
-      </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+        <v>44186</v>
+      </c>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f ca="1">AR5</f>
-        <v>44186</v>
-      </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+        <v>44193</v>
+      </c>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f ca="1">AY5</f>
-        <v>44193</v>
-      </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+        <v>44200</v>
+      </c>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f ca="1">BF5</f>
-        <v>44200</v>
-      </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+        <v>44207</v>
+      </c>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="J5" s="9">
         <f ca="1">I5+1</f>
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44154</v>
+        <v>44161</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44156</v>
+        <v>44163</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="P5" s="10">
         <f ca="1">O5+1</f>
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="Q5" s="9">
         <f ca="1">P5+1</f>
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44163</v>
+        <v>44170</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="W5" s="10">
         <f ca="1">V5+1</f>
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">W5+1</f>
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44169</v>
+        <v>44176</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44170</v>
+        <v>44177</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="AD5" s="10">
         <f ca="1">AC5+1</f>
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="AE5" s="9">
         <f ca="1">AD5+1</f>
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44174</v>
+        <v>44181</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44175</v>
+        <v>44182</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44177</v>
+        <v>44184</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="AK5" s="10">
         <f ca="1">AJ5+1</f>
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="AL5" s="9">
         <f ca="1">AK5+1</f>
-        <v>44180</v>
+        <v>44187</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
+        <v>44189</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44183</v>
+        <v>44190</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44184</v>
+        <v>44191</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44185</v>
+        <v>44192</v>
       </c>
       <c r="AR5" s="10">
         <f ca="1">AQ5+1</f>
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="AS5" s="9">
         <f ca="1">AR5+1</f>
-        <v>44187</v>
+        <v>44194</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44190</v>
+        <v>44197</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44191</v>
+        <v>44198</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44192</v>
+        <v>44199</v>
       </c>
       <c r="AY5" s="10">
         <f ca="1">AX5+1</f>
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="AZ5" s="9">
         <f ca="1">AY5+1</f>
-        <v>44194</v>
+        <v>44201</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44204</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44198</v>
+        <v>44205</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44199</v>
+        <v>44206</v>
       </c>
       <c r="BF5" s="10">
         <f ca="1">BE5+1</f>
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="BG5" s="9">
         <f ca="1">BF5+1</f>
-        <v>44201</v>
+        <v>44208</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44202</v>
+        <v>44209</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44203</v>
+        <v>44210</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44205</v>
+        <v>44212</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44206</v>
+        <v>44213</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3357,7 +3258,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H47" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3425,18 +3326,18 @@
         <v>38</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3508,18 +3409,18 @@
         <v>39</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="55">
         <f ca="1">F9</f>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="F10" s="55">
         <f ca="1">E10+2</f>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -3589,18 +3490,18 @@
         <v>40</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="19">
         <v>0.5</v>
       </c>
       <c r="E11" s="55">
         <f ca="1">F10</f>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="F11" s="55">
         <f ca="1">E11+4</f>
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -3738,10 +3639,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
@@ -3823,7 +3724,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="24">
         <v>0.5</v>
@@ -3901,10 +3802,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
@@ -3982,10 +3883,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
@@ -4066,7 +3967,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -4144,7 +4045,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="26"/>
@@ -4215,10 +4116,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="29">
         <v>0.12</v>
@@ -4296,21 +4197,21 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="29">
         <v>0.12</v>
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44170</v>
+        <v>44177</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4377,21 +4278,21 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="29">
         <v>0.12</v>
       </c>
       <c r="E21" s="57">
         <f ca="1">E10+15</f>
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="F21" s="57">
         <f ca="1">E21+5</f>
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -4461,7 +4362,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" s="29">
         <v>0.25</v>
@@ -4539,21 +4440,21 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="29">
         <v>0.25</v>
       </c>
       <c r="E23" s="57">
         <f ca="1">F20+1</f>
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="F23" s="57">
         <f ca="1">E23+4</f>
-        <v>44175</v>
+        <v>44182</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4694,7 +4595,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
@@ -4772,10 +4673,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="34">
         <v>0.2</v>
@@ -4851,10 +4752,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="34">
         <v>0.25</v>
@@ -4930,10 +4831,10 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
@@ -5012,7 +4913,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
@@ -5042,7 +4943,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -5161,10 +5062,10 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
@@ -5242,7 +5143,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="34">
@@ -5316,10 +5217,10 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" s="34">
         <v>0.5</v>
@@ -5395,10 +5296,10 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D34" s="34">
         <v>0.25</v>
@@ -5474,10 +5375,10 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
@@ -5553,10 +5454,10 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="34">
         <v>0.25</v>
@@ -5632,10 +5533,10 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="B37" s="75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="34">
         <v>0.25</v>
@@ -5786,24 +5687,24 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" s="34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E39" s="58">
-        <v>44138</v>
+        <v>44148</v>
       </c>
       <c r="F39" s="58">
-        <v>44141</v>
+        <v>44150</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5864,24 +5765,24 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D40" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="E40" s="58">
-        <v>44142</v>
+        <v>44148</v>
       </c>
       <c r="F40" s="58">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -5942,24 +5843,24 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="75" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D41" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="E41" s="58">
-        <v>44142</v>
+        <v>44152</v>
       </c>
       <c r="F41" s="58">
-        <v>44146</v>
+        <v>44155</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -6019,13 +5920,13 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="B42" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6090,24 +5991,24 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" s="34">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E43" s="58">
-        <v>44148</v>
+        <v>44156</v>
       </c>
       <c r="F43" s="58">
-        <v>44150</v>
+        <v>44159</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -6168,25 +6069,14 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="E44" s="58">
-        <v>44148</v>
-      </c>
-      <c r="F44" s="58">
-        <v>44151</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H44" s="14"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
@@ -6246,25 +6136,14 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F45" s="58">
-        <v>44155</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C45" s="66"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
@@ -6323,18 +6202,15 @@
       <c r="BL45" s="35"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
+      <c r="B46" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
@@ -6393,25 +6269,17 @@
       <c r="BL46" s="35"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E47" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F47" s="58">
-        <v>44159</v>
-      </c>
+      <c r="B47" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+      <c r="H47" s="14" t="str">
+        <f t="shared" ref="H47:H48" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -6472,14 +6340,25 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
+        <v>80</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E48" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F48" s="58">
+        <v>44159</v>
+      </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
@@ -6539,7 +6418,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="75" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6606,7 +6485,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="75" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="34"/>
@@ -6672,18 +6551,15 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="14" t="str">
-        <f t="shared" ref="H51:H52" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H51" s="14"/>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -6742,25 +6618,17 @@
       <c r="BL51" s="35"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E52" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F52" s="58">
-        <v>44159</v>
-      </c>
+      <c r="B52" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="H52" s="14" t="str">
+        <f t="shared" ref="H52:H53" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -6821,14 +6689,25 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
+        <v>84</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E53" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F53" s="58">
+        <v>44159</v>
+      </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
@@ -6888,7 +6767,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6955,7 +6834,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="34"/>
@@ -7021,18 +6900,15 @@
       <c r="BL55" s="35"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
+      <c r="B56" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="14" t="str">
-        <f t="shared" ref="H56:H57" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
@@ -7091,286 +6967,304 @@
       <c r="BL56" s="35"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E57" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F57" s="58">
-        <v>44159</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="35"/>
-      <c r="AM57" s="35"/>
-      <c r="AN57" s="35"/>
-      <c r="AO57" s="35"/>
-      <c r="AP57" s="35"/>
-      <c r="AQ57" s="35"/>
-      <c r="AR57" s="35"/>
-      <c r="AS57" s="35"/>
-      <c r="AT57" s="35"/>
-      <c r="AU57" s="35"/>
-      <c r="AV57" s="35"/>
-      <c r="AW57" s="35"/>
-      <c r="AX57" s="35"/>
-      <c r="AY57" s="35"/>
-      <c r="AZ57" s="35"/>
-      <c r="BA57" s="35"/>
-      <c r="BB57" s="35"/>
-      <c r="BC57" s="35"/>
-      <c r="BD57" s="35"/>
-      <c r="BE57" s="35"/>
-      <c r="BF57" s="35"/>
-      <c r="BG57" s="35"/>
-      <c r="BH57" s="35"/>
-      <c r="BI57" s="35"/>
-      <c r="BJ57" s="35"/>
-      <c r="BK57" s="35"/>
-      <c r="BL57" s="35"/>
+      <c r="B57" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95"/>
+      <c r="AF57" s="95"/>
+      <c r="AG57" s="95"/>
+      <c r="AH57" s="95"/>
+      <c r="AI57" s="95"/>
+      <c r="AJ57" s="95"/>
+      <c r="AK57" s="95"/>
+      <c r="AL57" s="95"/>
+      <c r="AM57" s="95"/>
+      <c r="AN57" s="95"/>
+      <c r="AO57" s="95"/>
+      <c r="AP57" s="95"/>
+      <c r="AQ57" s="95"/>
+      <c r="AR57" s="95"/>
+      <c r="AS57" s="95"/>
+      <c r="AT57" s="95"/>
+      <c r="AU57" s="95"/>
+      <c r="AV57" s="95"/>
+      <c r="AW57" s="95"/>
+      <c r="AX57" s="95"/>
+      <c r="AY57" s="95"/>
+      <c r="AZ57" s="95"/>
+      <c r="BA57" s="95"/>
+      <c r="BB57" s="95"/>
+      <c r="BC57" s="95"/>
+      <c r="BD57" s="95"/>
+      <c r="BE57" s="95"/>
+      <c r="BF57" s="95"/>
+      <c r="BG57" s="95"/>
+      <c r="BH57" s="95"/>
+      <c r="BI57" s="95"/>
+      <c r="BJ57" s="95"/>
+      <c r="BK57" s="95"/>
+      <c r="BL57" s="95"/>
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="35"/>
-      <c r="AJ58" s="35"/>
-      <c r="AK58" s="35"/>
-      <c r="AL58" s="35"/>
-      <c r="AM58" s="35"/>
-      <c r="AN58" s="35"/>
-      <c r="AO58" s="35"/>
-      <c r="AP58" s="35"/>
-      <c r="AQ58" s="35"/>
-      <c r="AR58" s="35"/>
-      <c r="AS58" s="35"/>
-      <c r="AT58" s="35"/>
-      <c r="AU58" s="35"/>
-      <c r="AV58" s="35"/>
-      <c r="AW58" s="35"/>
-      <c r="AX58" s="35"/>
-      <c r="AY58" s="35"/>
-      <c r="AZ58" s="35"/>
-      <c r="BA58" s="35"/>
-      <c r="BB58" s="35"/>
-      <c r="BC58" s="35"/>
-      <c r="BD58" s="35"/>
-      <c r="BE58" s="35"/>
-      <c r="BF58" s="35"/>
-      <c r="BG58" s="35"/>
-      <c r="BH58" s="35"/>
-      <c r="BI58" s="35"/>
-      <c r="BJ58" s="35"/>
-      <c r="BK58" s="35"/>
-      <c r="BL58" s="35"/>
+      <c r="B58" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="96">
+        <v>44138</v>
+      </c>
+      <c r="F58" s="96">
+        <v>44141</v>
+      </c>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93">
+        <v>4</v>
+      </c>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95"/>
+      <c r="AF58" s="95"/>
+      <c r="AG58" s="95"/>
+      <c r="AH58" s="95"/>
+      <c r="AI58" s="95"/>
+      <c r="AJ58" s="95"/>
+      <c r="AK58" s="95"/>
+      <c r="AL58" s="95"/>
+      <c r="AM58" s="95"/>
+      <c r="AN58" s="95"/>
+      <c r="AO58" s="95"/>
+      <c r="AP58" s="95"/>
+      <c r="AQ58" s="95"/>
+      <c r="AR58" s="95"/>
+      <c r="AS58" s="95"/>
+      <c r="AT58" s="95"/>
+      <c r="AU58" s="95"/>
+      <c r="AV58" s="95"/>
+      <c r="AW58" s="95"/>
+      <c r="AX58" s="95"/>
+      <c r="AY58" s="95"/>
+      <c r="AZ58" s="95"/>
+      <c r="BA58" s="95"/>
+      <c r="BB58" s="95"/>
+      <c r="BC58" s="95"/>
+      <c r="BD58" s="95"/>
+      <c r="BE58" s="95"/>
+      <c r="BF58" s="95"/>
+      <c r="BG58" s="95"/>
+      <c r="BH58" s="95"/>
+      <c r="BI58" s="95"/>
+      <c r="BJ58" s="95"/>
+      <c r="BK58" s="95"/>
+      <c r="BL58" s="95"/>
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="35"/>
-      <c r="AW59" s="35"/>
-      <c r="AX59" s="35"/>
-      <c r="AY59" s="35"/>
-      <c r="AZ59" s="35"/>
-      <c r="BA59" s="35"/>
-      <c r="BB59" s="35"/>
-      <c r="BC59" s="35"/>
-      <c r="BD59" s="35"/>
-      <c r="BE59" s="35"/>
-      <c r="BF59" s="35"/>
-      <c r="BG59" s="35"/>
-      <c r="BH59" s="35"/>
-      <c r="BI59" s="35"/>
-      <c r="BJ59" s="35"/>
-      <c r="BK59" s="35"/>
-      <c r="BL59" s="35"/>
+      <c r="B59" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="94">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E59" s="96">
+        <v>44142</v>
+      </c>
+      <c r="F59" s="96">
+        <v>44146</v>
+      </c>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93">
+        <v>5</v>
+      </c>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="95"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
+      <c r="AC59" s="95"/>
+      <c r="AD59" s="95"/>
+      <c r="AE59" s="95"/>
+      <c r="AF59" s="95"/>
+      <c r="AG59" s="95"/>
+      <c r="AH59" s="95"/>
+      <c r="AI59" s="95"/>
+      <c r="AJ59" s="95"/>
+      <c r="AK59" s="95"/>
+      <c r="AL59" s="95"/>
+      <c r="AM59" s="95"/>
+      <c r="AN59" s="95"/>
+      <c r="AO59" s="95"/>
+      <c r="AP59" s="95"/>
+      <c r="AQ59" s="95"/>
+      <c r="AR59" s="95"/>
+      <c r="AS59" s="95"/>
+      <c r="AT59" s="95"/>
+      <c r="AU59" s="95"/>
+      <c r="AV59" s="95"/>
+      <c r="AW59" s="95"/>
+      <c r="AX59" s="95"/>
+      <c r="AY59" s="95"/>
+      <c r="AZ59" s="95"/>
+      <c r="BA59" s="95"/>
+      <c r="BB59" s="95"/>
+      <c r="BC59" s="95"/>
+      <c r="BD59" s="95"/>
+      <c r="BE59" s="95"/>
+      <c r="BF59" s="95"/>
+      <c r="BG59" s="95"/>
+      <c r="BH59" s="95"/>
+      <c r="BI59" s="95"/>
+      <c r="BJ59" s="95"/>
+      <c r="BK59" s="95"/>
+      <c r="BL59" s="95"/>
     </row>
     <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="35"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="35"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="35"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="35"/>
-      <c r="AT60" s="35"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="35"/>
-      <c r="AW60" s="35"/>
-      <c r="AX60" s="35"/>
-      <c r="AY60" s="35"/>
-      <c r="AZ60" s="35"/>
-      <c r="BA60" s="35"/>
-      <c r="BB60" s="35"/>
-      <c r="BC60" s="35"/>
-      <c r="BD60" s="35"/>
-      <c r="BE60" s="35"/>
-      <c r="BF60" s="35"/>
-      <c r="BG60" s="35"/>
-      <c r="BH60" s="35"/>
-      <c r="BI60" s="35"/>
-      <c r="BJ60" s="35"/>
-      <c r="BK60" s="35"/>
-      <c r="BL60" s="35"/>
-    </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61"/>
+      <c r="B60" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="94">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E60" s="96">
+        <v>44142</v>
+      </c>
+      <c r="F60" s="96">
+        <v>44146</v>
+      </c>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93">
+        <v>5</v>
+      </c>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="95"/>
+      <c r="X60" s="95"/>
+      <c r="Y60" s="95"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="95"/>
+      <c r="AD60" s="95"/>
+      <c r="AE60" s="95"/>
+      <c r="AF60" s="95"/>
+      <c r="AG60" s="95"/>
+      <c r="AH60" s="95"/>
+      <c r="AI60" s="95"/>
+      <c r="AJ60" s="95"/>
+      <c r="AK60" s="95"/>
+      <c r="AL60" s="95"/>
+      <c r="AM60" s="95"/>
+      <c r="AN60" s="95"/>
+      <c r="AO60" s="95"/>
+      <c r="AP60" s="95"/>
+      <c r="AQ60" s="95"/>
+      <c r="AR60" s="95"/>
+      <c r="AS60" s="95"/>
+      <c r="AT60" s="95"/>
+      <c r="AU60" s="95"/>
+      <c r="AV60" s="95"/>
+      <c r="AW60" s="95"/>
+      <c r="AX60" s="95"/>
+      <c r="AY60" s="95"/>
+      <c r="AZ60" s="95"/>
+      <c r="BA60" s="95"/>
+      <c r="BB60" s="95"/>
+      <c r="BC60" s="95"/>
+      <c r="BD60" s="95"/>
+      <c r="BE60" s="95"/>
+      <c r="BF60" s="95"/>
+      <c r="BG60" s="95"/>
+      <c r="BH60" s="95"/>
+      <c r="BI60" s="95"/>
+      <c r="BJ60" s="95"/>
+      <c r="BK60" s="95"/>
+      <c r="BL60" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7387,7 +7281,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 D48 D7:D14 D17:D18 D23:D26 D20:D21 D58">
+  <conditionalFormatting sqref="D29 D44 D7:D14 D17:D18 D23:D26 D20:D21 D54">
     <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7401,16 +7295,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I58:BL58">
-    <cfRule type="expression" dxfId="104" priority="202">
+  <conditionalFormatting sqref="I44:BL44 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I54:BL54">
+    <cfRule type="expression" dxfId="92" priority="202">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I58:BL58">
-    <cfRule type="expression" dxfId="103" priority="196">
+  <conditionalFormatting sqref="I44:BL44 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I54:BL54">
+    <cfRule type="expression" dxfId="91" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="197" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7429,46 +7323,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="101" priority="169">
+    <cfRule type="expression" dxfId="89" priority="169">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="100" priority="167">
+    <cfRule type="expression" dxfId="88" priority="167">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="162">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1B12D0B7-14CB-44EB-BD4D-F5F40742ECC1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="98" priority="165">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="97" priority="163">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="164" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7482,16 +7349,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="95" priority="161">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="86" priority="161">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="94" priority="159">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="85" priority="159">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="160" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7510,15 +7377,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="92" priority="153">
+    <cfRule type="expression" dxfId="83" priority="153">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="91" priority="151">
+    <cfRule type="expression" dxfId="82" priority="151">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="152" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7537,73 +7404,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="89" priority="149">
+    <cfRule type="expression" dxfId="80" priority="149">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="88" priority="147">
+    <cfRule type="expression" dxfId="79" priority="147">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="148" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="142">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{865C26A2-5F9B-4F2A-8497-BB5408076D73}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="86" priority="145">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="85" priority="143">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="144" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="138">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4E847273-086C-4AA5-859E-6BF82F44FA57}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="83" priority="141">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="82" priority="139">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="140" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7617,20 +7430,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="80" priority="137">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="77" priority="137">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="79" priority="135">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="76" priority="135">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="136" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7644,20 +7457,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="77" priority="133">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="74" priority="133">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="76" priority="131">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="73" priority="131">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="132" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7671,20 +7484,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="74" priority="129">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="71" priority="129">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="73" priority="127">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="70" priority="127">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7698,20 +7511,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="71" priority="117">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="68" priority="117">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="70" priority="115">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="67" priority="115">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="116" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7725,20 +7538,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="68" priority="113">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="65" priority="113">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="67" priority="111">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="64" priority="111">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="112" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7752,16 +7565,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="65" priority="109">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="62" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="64" priority="107">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="61" priority="107">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7780,19 +7593,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="62" priority="101">
+    <cfRule type="expression" dxfId="59" priority="101">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="61" priority="99">
+    <cfRule type="expression" dxfId="58" priority="99">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="100" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7806,43 +7619,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="59" priority="97">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="56" priority="97">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="58" priority="95">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="55" priority="95">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="96" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="90">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="56" priority="93">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="55" priority="91">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,7 +7821,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D49">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8049,12 +7835,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="32" priority="49">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="31" priority="47">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8062,7 +7848,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8076,12 +7862,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="29" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="28" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8089,7 +7875,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8103,12 +7889,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="26" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="25" priority="39">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8116,7 +7902,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D50">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8130,12 +7916,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="23" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8143,7 +7929,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D51">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8157,12 +7943,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="19" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8197,7 +7983,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D55">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8211,12 +7997,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="14" priority="25">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="13" priority="23">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8224,7 +8010,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D52">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8238,12 +8024,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="11" priority="21">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="10" priority="19">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8251,7 +8037,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D53">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8265,12 +8051,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8278,7 +8064,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8292,12 +8078,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8373,7 +8159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29 D48 D7:D14 D17:D18 D23:D26 D20:D21 D58</xm:sqref>
+          <xm:sqref>D29 D44 D7:D14 D17:D18 D23:D26 D20:D21 D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8391,7 +8177,7 @@
           <xm:sqref>D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1B12D0B7-14CB-44EB-BD4D-F5F40742ECC1}">
+          <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8404,21 +8190,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
@@ -8451,7 +8222,7 @@
           <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{865C26A2-5F9B-4F2A-8497-BB5408076D73}">
+          <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8466,7 +8237,22 @@
           <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4E847273-086C-4AA5-859E-6BF82F44FA57}">
+          <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8481,7 +8267,22 @@
           <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
+          <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8496,22 +8297,7 @@
           <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
+          <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8524,51 +8310,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8598,22 +8339,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E62BDA41-A23E-4974-8AA5-16C1DA3F8E3F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8733,7 +8459,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8748,7 +8474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8763,7 +8489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8778,7 +8504,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8793,7 +8519,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
@@ -8823,7 +8549,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8838,7 +8564,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8853,7 +8579,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8868,7 +8594,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEAFB32-912B-47CC-92D1-1653A9933E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A3A22-DCB2-49F2-8C92-5908392ABEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2880" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3225" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1022,6 +1022,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1032,46 +1072,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2544,8 +2544,8 @@
   <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2590,15 +2590,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89">
+      <c r="D3" s="98"/>
+      <c r="E3" s="103">
         <f ca="1">TODAY()</f>
         <v>44157</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2607,104 +2607,104 @@
       <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="100">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="100">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="100">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="100">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="100">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="100">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="100">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="100">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="102"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -6967,312 +6967,307 @@
       <c r="BL56" s="35"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="99" t="s">
+      <c r="B57" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93" t="s">
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="95"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="95"/>
-      <c r="U57" s="95"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
-      <c r="X57" s="95"/>
-      <c r="Y57" s="95"/>
-      <c r="Z57" s="95"/>
-      <c r="AA57" s="95"/>
-      <c r="AB57" s="95"/>
-      <c r="AC57" s="95"/>
-      <c r="AD57" s="95"/>
-      <c r="AE57" s="95"/>
-      <c r="AF57" s="95"/>
-      <c r="AG57" s="95"/>
-      <c r="AH57" s="95"/>
-      <c r="AI57" s="95"/>
-      <c r="AJ57" s="95"/>
-      <c r="AK57" s="95"/>
-      <c r="AL57" s="95"/>
-      <c r="AM57" s="95"/>
-      <c r="AN57" s="95"/>
-      <c r="AO57" s="95"/>
-      <c r="AP57" s="95"/>
-      <c r="AQ57" s="95"/>
-      <c r="AR57" s="95"/>
-      <c r="AS57" s="95"/>
-      <c r="AT57" s="95"/>
-      <c r="AU57" s="95"/>
-      <c r="AV57" s="95"/>
-      <c r="AW57" s="95"/>
-      <c r="AX57" s="95"/>
-      <c r="AY57" s="95"/>
-      <c r="AZ57" s="95"/>
-      <c r="BA57" s="95"/>
-      <c r="BB57" s="95"/>
-      <c r="BC57" s="95"/>
-      <c r="BD57" s="95"/>
-      <c r="BE57" s="95"/>
-      <c r="BF57" s="95"/>
-      <c r="BG57" s="95"/>
-      <c r="BH57" s="95"/>
-      <c r="BI57" s="95"/>
-      <c r="BJ57" s="95"/>
-      <c r="BK57" s="95"/>
-      <c r="BL57" s="95"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
+      <c r="AO57" s="88"/>
+      <c r="AP57" s="88"/>
+      <c r="AQ57" s="88"/>
+      <c r="AR57" s="88"/>
+      <c r="AS57" s="88"/>
+      <c r="AT57" s="88"/>
+      <c r="AU57" s="88"/>
+      <c r="AV57" s="88"/>
+      <c r="AW57" s="88"/>
+      <c r="AX57" s="88"/>
+      <c r="AY57" s="88"/>
+      <c r="AZ57" s="88"/>
+      <c r="BA57" s="88"/>
+      <c r="BB57" s="88"/>
+      <c r="BC57" s="88"/>
+      <c r="BD57" s="88"/>
+      <c r="BE57" s="88"/>
+      <c r="BF57" s="88"/>
+      <c r="BG57" s="88"/>
+      <c r="BH57" s="88"/>
+      <c r="BI57" s="88"/>
+      <c r="BJ57" s="88"/>
+      <c r="BK57" s="88"/>
+      <c r="BL57" s="88"/>
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="94">
+      <c r="D58" s="87">
         <v>0.25</v>
       </c>
-      <c r="E58" s="96">
+      <c r="E58" s="89">
         <v>44138</v>
       </c>
-      <c r="F58" s="96">
+      <c r="F58" s="89">
         <v>44141</v>
       </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93">
+      <c r="G58" s="86"/>
+      <c r="H58" s="86">
         <v>4</v>
       </c>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="95"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="95"/>
-      <c r="U58" s="95"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
-      <c r="X58" s="95"/>
-      <c r="Y58" s="95"/>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="95"/>
-      <c r="AG58" s="95"/>
-      <c r="AH58" s="95"/>
-      <c r="AI58" s="95"/>
-      <c r="AJ58" s="95"/>
-      <c r="AK58" s="95"/>
-      <c r="AL58" s="95"/>
-      <c r="AM58" s="95"/>
-      <c r="AN58" s="95"/>
-      <c r="AO58" s="95"/>
-      <c r="AP58" s="95"/>
-      <c r="AQ58" s="95"/>
-      <c r="AR58" s="95"/>
-      <c r="AS58" s="95"/>
-      <c r="AT58" s="95"/>
-      <c r="AU58" s="95"/>
-      <c r="AV58" s="95"/>
-      <c r="AW58" s="95"/>
-      <c r="AX58" s="95"/>
-      <c r="AY58" s="95"/>
-      <c r="AZ58" s="95"/>
-      <c r="BA58" s="95"/>
-      <c r="BB58" s="95"/>
-      <c r="BC58" s="95"/>
-      <c r="BD58" s="95"/>
-      <c r="BE58" s="95"/>
-      <c r="BF58" s="95"/>
-      <c r="BG58" s="95"/>
-      <c r="BH58" s="95"/>
-      <c r="BI58" s="95"/>
-      <c r="BJ58" s="95"/>
-      <c r="BK58" s="95"/>
-      <c r="BL58" s="95"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88"/>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
+      <c r="AO58" s="88"/>
+      <c r="AP58" s="88"/>
+      <c r="AQ58" s="88"/>
+      <c r="AR58" s="88"/>
+      <c r="AS58" s="88"/>
+      <c r="AT58" s="88"/>
+      <c r="AU58" s="88"/>
+      <c r="AV58" s="88"/>
+      <c r="AW58" s="88"/>
+      <c r="AX58" s="88"/>
+      <c r="AY58" s="88"/>
+      <c r="AZ58" s="88"/>
+      <c r="BA58" s="88"/>
+      <c r="BB58" s="88"/>
+      <c r="BC58" s="88"/>
+      <c r="BD58" s="88"/>
+      <c r="BE58" s="88"/>
+      <c r="BF58" s="88"/>
+      <c r="BG58" s="88"/>
+      <c r="BH58" s="88"/>
+      <c r="BI58" s="88"/>
+      <c r="BJ58" s="88"/>
+      <c r="BK58" s="88"/>
+      <c r="BL58" s="88"/>
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="94">
+      <c r="D59" s="87">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E59" s="96">
+      <c r="E59" s="89">
         <v>44142</v>
       </c>
-      <c r="F59" s="96">
+      <c r="F59" s="89">
         <v>44146</v>
       </c>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93">
+      <c r="G59" s="86"/>
+      <c r="H59" s="86">
         <v>5</v>
       </c>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="95"/>
-      <c r="S59" s="95"/>
-      <c r="T59" s="95"/>
-      <c r="U59" s="95"/>
-      <c r="V59" s="95"/>
-      <c r="W59" s="95"/>
-      <c r="X59" s="95"/>
-      <c r="Y59" s="95"/>
-      <c r="Z59" s="95"/>
-      <c r="AA59" s="95"/>
-      <c r="AB59" s="95"/>
-      <c r="AC59" s="95"/>
-      <c r="AD59" s="95"/>
-      <c r="AE59" s="95"/>
-      <c r="AF59" s="95"/>
-      <c r="AG59" s="95"/>
-      <c r="AH59" s="95"/>
-      <c r="AI59" s="95"/>
-      <c r="AJ59" s="95"/>
-      <c r="AK59" s="95"/>
-      <c r="AL59" s="95"/>
-      <c r="AM59" s="95"/>
-      <c r="AN59" s="95"/>
-      <c r="AO59" s="95"/>
-      <c r="AP59" s="95"/>
-      <c r="AQ59" s="95"/>
-      <c r="AR59" s="95"/>
-      <c r="AS59" s="95"/>
-      <c r="AT59" s="95"/>
-      <c r="AU59" s="95"/>
-      <c r="AV59" s="95"/>
-      <c r="AW59" s="95"/>
-      <c r="AX59" s="95"/>
-      <c r="AY59" s="95"/>
-      <c r="AZ59" s="95"/>
-      <c r="BA59" s="95"/>
-      <c r="BB59" s="95"/>
-      <c r="BC59" s="95"/>
-      <c r="BD59" s="95"/>
-      <c r="BE59" s="95"/>
-      <c r="BF59" s="95"/>
-      <c r="BG59" s="95"/>
-      <c r="BH59" s="95"/>
-      <c r="BI59" s="95"/>
-      <c r="BJ59" s="95"/>
-      <c r="BK59" s="95"/>
-      <c r="BL59" s="95"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88"/>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
+      <c r="AO59" s="88"/>
+      <c r="AP59" s="88"/>
+      <c r="AQ59" s="88"/>
+      <c r="AR59" s="88"/>
+      <c r="AS59" s="88"/>
+      <c r="AT59" s="88"/>
+      <c r="AU59" s="88"/>
+      <c r="AV59" s="88"/>
+      <c r="AW59" s="88"/>
+      <c r="AX59" s="88"/>
+      <c r="AY59" s="88"/>
+      <c r="AZ59" s="88"/>
+      <c r="BA59" s="88"/>
+      <c r="BB59" s="88"/>
+      <c r="BC59" s="88"/>
+      <c r="BD59" s="88"/>
+      <c r="BE59" s="88"/>
+      <c r="BF59" s="88"/>
+      <c r="BG59" s="88"/>
+      <c r="BH59" s="88"/>
+      <c r="BI59" s="88"/>
+      <c r="BJ59" s="88"/>
+      <c r="BK59" s="88"/>
+      <c r="BL59" s="88"/>
     </row>
     <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="94">
+      <c r="D60" s="87">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E60" s="96">
+      <c r="E60" s="89">
         <v>44142</v>
       </c>
-      <c r="F60" s="96">
+      <c r="F60" s="89">
         <v>44146</v>
       </c>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93">
+      <c r="G60" s="86"/>
+      <c r="H60" s="86">
         <v>5</v>
       </c>
-      <c r="I60" s="95"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="95"/>
-      <c r="Q60" s="95"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="95"/>
-      <c r="U60" s="95"/>
-      <c r="V60" s="95"/>
-      <c r="W60" s="95"/>
-      <c r="X60" s="95"/>
-      <c r="Y60" s="95"/>
-      <c r="Z60" s="95"/>
-      <c r="AA60" s="95"/>
-      <c r="AB60" s="95"/>
-      <c r="AC60" s="95"/>
-      <c r="AD60" s="95"/>
-      <c r="AE60" s="95"/>
-      <c r="AF60" s="95"/>
-      <c r="AG60" s="95"/>
-      <c r="AH60" s="95"/>
-      <c r="AI60" s="95"/>
-      <c r="AJ60" s="95"/>
-      <c r="AK60" s="95"/>
-      <c r="AL60" s="95"/>
-      <c r="AM60" s="95"/>
-      <c r="AN60" s="95"/>
-      <c r="AO60" s="95"/>
-      <c r="AP60" s="95"/>
-      <c r="AQ60" s="95"/>
-      <c r="AR60" s="95"/>
-      <c r="AS60" s="95"/>
-      <c r="AT60" s="95"/>
-      <c r="AU60" s="95"/>
-      <c r="AV60" s="95"/>
-      <c r="AW60" s="95"/>
-      <c r="AX60" s="95"/>
-      <c r="AY60" s="95"/>
-      <c r="AZ60" s="95"/>
-      <c r="BA60" s="95"/>
-      <c r="BB60" s="95"/>
-      <c r="BC60" s="95"/>
-      <c r="BD60" s="95"/>
-      <c r="BE60" s="95"/>
-      <c r="BF60" s="95"/>
-      <c r="BG60" s="95"/>
-      <c r="BH60" s="95"/>
-      <c r="BI60" s="95"/>
-      <c r="BJ60" s="95"/>
-      <c r="BK60" s="95"/>
-      <c r="BL60" s="95"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
+      <c r="AO60" s="88"/>
+      <c r="AP60" s="88"/>
+      <c r="AQ60" s="88"/>
+      <c r="AR60" s="88"/>
+      <c r="AS60" s="88"/>
+      <c r="AT60" s="88"/>
+      <c r="AU60" s="88"/>
+      <c r="AV60" s="88"/>
+      <c r="AW60" s="88"/>
+      <c r="AX60" s="88"/>
+      <c r="AY60" s="88"/>
+      <c r="AZ60" s="88"/>
+      <c r="BA60" s="88"/>
+      <c r="BB60" s="88"/>
+      <c r="BC60" s="88"/>
+      <c r="BD60" s="88"/>
+      <c r="BE60" s="88"/>
+      <c r="BF60" s="88"/>
+      <c r="BG60" s="88"/>
+      <c r="BH60" s="88"/>
+      <c r="BI60" s="88"/>
+      <c r="BJ60" s="88"/>
+      <c r="BK60" s="88"/>
+      <c r="BL60" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7280,6 +7275,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 D44 D7:D14 D17:D18 D23:D26 D20:D21 D54">
     <cfRule type="dataBar" priority="183">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A3A22-DCB2-49F2-8C92-5908392ABEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136FA86-87E3-4647-A75B-B222A59B0F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3225" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3570" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Project Start:</t>
   </si>
@@ -222,9 +222,6 @@
     <t xml:space="preserve"> Công nợ</t>
   </si>
   <si>
-    <t>Thiết lập chấm công</t>
-  </si>
-  <si>
     <t>Hồng Thái</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
   </si>
   <si>
     <t>Xem Danh sách công nợ</t>
-  </si>
-  <si>
-    <t>Đặt lịch</t>
   </si>
   <si>
     <t>Sắp xếp lịch làm</t>
@@ -1055,6 +1049,18 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1062,18 +1068,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2541,11 +2535,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2561,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2581,7 +2575,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="50"/>
     </row>
@@ -2590,15 +2584,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="103">
+      <c r="D3" s="102"/>
+      <c r="E3" s="100">
         <f ca="1">TODAY()</f>
         <v>44157</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2607,104 +2601,104 @@
       <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="97">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="100">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="97">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="100">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="97">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="100">
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="97">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="100">
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="97">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="100">
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="97">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="100">
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="97">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="100">
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="97">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="102"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="99"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -3258,7 +3252,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3326,7 +3320,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
@@ -3409,7 +3403,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -3490,7 +3484,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="19">
         <v>0.5</v>
@@ -3639,10 +3633,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
@@ -3724,7 +3718,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="24">
         <v>0.5</v>
@@ -3802,10 +3796,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
@@ -3883,10 +3877,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
@@ -3967,7 +3961,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -4045,7 +4039,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="26"/>
@@ -4116,10 +4110,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="29">
         <v>0.12</v>
@@ -4197,10 +4191,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="29">
         <v>0.12</v>
@@ -4278,10 +4272,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="29">
         <v>0.12</v>
@@ -4362,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="29">
         <v>0.25</v>
@@ -4440,10 +4434,10 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="29">
         <v>0.25</v>
@@ -4595,7 +4589,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
@@ -4673,10 +4667,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="34">
         <v>0.2</v>
@@ -4752,10 +4746,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="34">
         <v>0.25</v>
@@ -4831,10 +4825,10 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
@@ -4913,7 +4907,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
@@ -4943,7 +4937,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -5062,10 +5056,10 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
@@ -5143,7 +5137,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="34">
@@ -5217,10 +5211,10 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="34">
         <v>0.5</v>
@@ -5296,24 +5290,24 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="34">
         <v>0.25</v>
       </c>
       <c r="E34" s="58">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="F34" s="58">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -5378,21 +5372,21 @@
         <v>74</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
       </c>
       <c r="E35" s="58">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="F35" s="58">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
@@ -5453,25 +5447,17 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
-      <c r="B36" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="58">
-        <v>44134</v>
-      </c>
-      <c r="F36" s="58">
-        <v>44137</v>
-      </c>
+      <c r="B36" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="14">
+      <c r="H36" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -5533,24 +5519,24 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="B37" s="75" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E37" s="58">
-        <v>44134</v>
+        <v>44148</v>
       </c>
       <c r="F37" s="58">
-        <v>44137</v>
+        <v>44150</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
@@ -5613,17 +5599,25 @@
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
+      <c r="B38" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F38" s="58">
+        <v>44151</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5687,24 +5681,24 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E39" s="58">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F39" s="58">
-        <v>44150</v>
+        <v>44155</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5764,25 +5758,17 @@
       <c r="BL39" s="35"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="E40" s="58">
-        <v>44148</v>
-      </c>
-      <c r="F40" s="58">
-        <v>44151</v>
-      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14">
+      <c r="H40" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -5843,19 +5829,19 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="75" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="34">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="E41" s="58">
-        <v>44152</v>
+        <v>44156</v>
       </c>
       <c r="F41" s="58">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14">
@@ -5920,18 +5906,15 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
+      <c r="B42" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35"/>
@@ -5991,25 +5974,14 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E43" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F43" s="58">
-        <v>44159</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H43" s="14"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="35"/>
@@ -6069,7 +6041,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="34"/>
@@ -6135,15 +6107,18 @@
       <c r="BL44" s="35"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
+      <c r="B45" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="14" t="str">
+        <f t="shared" ref="H45:H46" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
@@ -6203,14 +6178,25 @@
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+        <v>78</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E46" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F46" s="58">
+        <v>44159</v>
+      </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
@@ -6269,18 +6255,15 @@
       <c r="BL46" s="35"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14" t="str">
-        <f t="shared" ref="H47:H48" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
@@ -6342,23 +6325,12 @@
       <c r="B48" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E48" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F48" s="58">
-        <v>44159</v>
-      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
@@ -6484,15 +6456,18 @@
       <c r="BL49" s="35"/>
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
+      <c r="B50" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="14" t="str">
+        <f t="shared" ref="H50:H51" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
@@ -6552,14 +6527,25 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E51" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F51" s="58">
+        <v>44159</v>
+      </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -6618,18 +6604,15 @@
       <c r="BL51" s="35"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="B52" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="14" t="str">
-        <f t="shared" ref="H52:H53" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
@@ -6689,25 +6672,14 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E53" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F53" s="58">
-        <v>44159</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
@@ -6767,7 +6739,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6833,150 +6805,170 @@
       <c r="BL54" s="35"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="35"/>
-      <c r="AR55" s="35"/>
-      <c r="AS55" s="35"/>
-      <c r="AT55" s="35"/>
-      <c r="AU55" s="35"/>
-      <c r="AV55" s="35"/>
-      <c r="AW55" s="35"/>
-      <c r="AX55" s="35"/>
-      <c r="AY55" s="35"/>
-      <c r="AZ55" s="35"/>
-      <c r="BA55" s="35"/>
-      <c r="BB55" s="35"/>
-      <c r="BC55" s="35"/>
-      <c r="BD55" s="35"/>
-      <c r="BE55" s="35"/>
-      <c r="BF55" s="35"/>
-      <c r="BG55" s="35"/>
-      <c r="BH55" s="35"/>
-      <c r="BI55" s="35"/>
-      <c r="BJ55" s="35"/>
-      <c r="BK55" s="35"/>
-      <c r="BL55" s="35"/>
+      <c r="B55" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="93"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88"/>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
+      <c r="AO55" s="88"/>
+      <c r="AP55" s="88"/>
+      <c r="AQ55" s="88"/>
+      <c r="AR55" s="88"/>
+      <c r="AS55" s="88"/>
+      <c r="AT55" s="88"/>
+      <c r="AU55" s="88"/>
+      <c r="AV55" s="88"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="88"/>
+      <c r="AY55" s="88"/>
+      <c r="AZ55" s="88"/>
+      <c r="BA55" s="88"/>
+      <c r="BB55" s="88"/>
+      <c r="BC55" s="88"/>
+      <c r="BD55" s="88"/>
+      <c r="BE55" s="88"/>
+      <c r="BF55" s="88"/>
+      <c r="BG55" s="88"/>
+      <c r="BH55" s="88"/>
+      <c r="BI55" s="88"/>
+      <c r="BJ55" s="88"/>
+      <c r="BK55" s="88"/>
+      <c r="BL55" s="88"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="35"/>
-      <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-      <c r="AO56" s="35"/>
-      <c r="AP56" s="35"/>
-      <c r="AQ56" s="35"/>
-      <c r="AR56" s="35"/>
-      <c r="AS56" s="35"/>
-      <c r="AT56" s="35"/>
-      <c r="AU56" s="35"/>
-      <c r="AV56" s="35"/>
-      <c r="AW56" s="35"/>
-      <c r="AX56" s="35"/>
-      <c r="AY56" s="35"/>
-      <c r="AZ56" s="35"/>
-      <c r="BA56" s="35"/>
-      <c r="BB56" s="35"/>
-      <c r="BC56" s="35"/>
-      <c r="BD56" s="35"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
-      <c r="BI56" s="35"/>
-      <c r="BJ56" s="35"/>
-      <c r="BK56" s="35"/>
-      <c r="BL56" s="35"/>
+      <c r="B56" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="89">
+        <v>44138</v>
+      </c>
+      <c r="F56" s="89">
+        <v>44141</v>
+      </c>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86">
+        <v>4</v>
+      </c>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
+      <c r="AO56" s="88"/>
+      <c r="AP56" s="88"/>
+      <c r="AQ56" s="88"/>
+      <c r="AR56" s="88"/>
+      <c r="AS56" s="88"/>
+      <c r="AT56" s="88"/>
+      <c r="AU56" s="88"/>
+      <c r="AV56" s="88"/>
+      <c r="AW56" s="88"/>
+      <c r="AX56" s="88"/>
+      <c r="AY56" s="88"/>
+      <c r="AZ56" s="88"/>
+      <c r="BA56" s="88"/>
+      <c r="BB56" s="88"/>
+      <c r="BC56" s="88"/>
+      <c r="BD56" s="88"/>
+      <c r="BE56" s="88"/>
+      <c r="BF56" s="88"/>
+      <c r="BG56" s="88"/>
+      <c r="BH56" s="88"/>
+      <c r="BI56" s="88"/>
+      <c r="BJ56" s="88"/>
+      <c r="BK56" s="88"/>
+      <c r="BL56" s="88"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="96"/>
+      <c r="B57" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="87">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E57" s="89">
+        <v>44142</v>
+      </c>
+      <c r="F57" s="89">
+        <v>44146</v>
+      </c>
       <c r="G57" s="86"/>
-      <c r="H57" s="86" t="s">
-        <v>94</v>
+      <c r="H57" s="86">
+        <v>5</v>
       </c>
       <c r="I57" s="88"/>
       <c r="J57" s="88"/>
@@ -7040,20 +7032,20 @@
         <v>95</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58" s="87">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E58" s="89">
-        <v>44138</v>
+        <v>44142</v>
       </c>
       <c r="F58" s="89">
-        <v>44141</v>
+        <v>44146</v>
       </c>
       <c r="G58" s="86"/>
       <c r="H58" s="86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="88"/>
@@ -7112,162 +7104,13 @@
       <c r="BK58" s="88"/>
       <c r="BL58" s="88"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E59" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F59" s="89">
-        <v>44146</v>
-      </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86">
-        <v>5</v>
-      </c>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88"/>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="88"/>
-      <c r="AN59" s="88"/>
-      <c r="AO59" s="88"/>
-      <c r="AP59" s="88"/>
-      <c r="AQ59" s="88"/>
-      <c r="AR59" s="88"/>
-      <c r="AS59" s="88"/>
-      <c r="AT59" s="88"/>
-      <c r="AU59" s="88"/>
-      <c r="AV59" s="88"/>
-      <c r="AW59" s="88"/>
-      <c r="AX59" s="88"/>
-      <c r="AY59" s="88"/>
-      <c r="AZ59" s="88"/>
-      <c r="BA59" s="88"/>
-      <c r="BB59" s="88"/>
-      <c r="BC59" s="88"/>
-      <c r="BD59" s="88"/>
-      <c r="BE59" s="88"/>
-      <c r="BF59" s="88"/>
-      <c r="BG59" s="88"/>
-      <c r="BH59" s="88"/>
-      <c r="BI59" s="88"/>
-      <c r="BJ59" s="88"/>
-      <c r="BK59" s="88"/>
-      <c r="BL59" s="88"/>
-    </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E60" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F60" s="89">
-        <v>44146</v>
-      </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86">
-        <v>5</v>
-      </c>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88"/>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="88"/>
-      <c r="AN60" s="88"/>
-      <c r="AO60" s="88"/>
-      <c r="AP60" s="88"/>
-      <c r="AQ60" s="88"/>
-      <c r="AR60" s="88"/>
-      <c r="AS60" s="88"/>
-      <c r="AT60" s="88"/>
-      <c r="AU60" s="88"/>
-      <c r="AV60" s="88"/>
-      <c r="AW60" s="88"/>
-      <c r="AX60" s="88"/>
-      <c r="AY60" s="88"/>
-      <c r="AZ60" s="88"/>
-      <c r="BA60" s="88"/>
-      <c r="BB60" s="88"/>
-      <c r="BC60" s="88"/>
-      <c r="BD60" s="88"/>
-      <c r="BE60" s="88"/>
-      <c r="BF60" s="88"/>
-      <c r="BG60" s="88"/>
-      <c r="BH60" s="88"/>
-      <c r="BI60" s="88"/>
-      <c r="BJ60" s="88"/>
-      <c r="BK60" s="88"/>
-      <c r="BL60" s="88"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7275,13 +7118,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 D44 D7:D14 D17:D18 D23:D26 D20:D21 D54">
+  <conditionalFormatting sqref="D29 D42 D7:D14 D17:D18 D23:D26 D20:D21 D52">
     <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7295,12 +7133,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I54:BL54">
+  <conditionalFormatting sqref="I42:BL42 I29:BL29 I5:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I52:BL52">
     <cfRule type="expression" dxfId="92" priority="202">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I54:BL54">
+  <conditionalFormatting sqref="I42:BL42 I29:BL29 I7:BL14 I17:BL18 I23:BL26 I20:BL21 I32:BL32 I52:BL52">
     <cfRule type="expression" dxfId="91" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7335,7 +7173,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7349,12 +7187,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="86" priority="161">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="85" priority="159">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7362,34 +7200,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="150">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="83" priority="153">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="82" priority="151">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="152" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7403,12 +7214,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="80" priority="149">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="79" priority="147">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7416,7 +7227,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7430,12 +7241,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="77" priority="137">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="76" priority="135">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7443,7 +7254,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7457,12 +7268,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="74" priority="133">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="73" priority="131">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7470,7 +7281,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7484,12 +7295,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="71" priority="129">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="70" priority="127">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7497,7 +7308,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7511,12 +7322,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="68" priority="117">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="67" priority="115">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7524,7 +7335,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7538,12 +7349,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="65" priority="113">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="64" priority="111">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7551,7 +7362,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7565,12 +7376,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="62" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="61" priority="107">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7605,7 +7416,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7619,12 +7430,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="56" priority="97">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="55" priority="95">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7740,34 +7551,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="66">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96AADDBC-48E1-4E00-8374-CF4997D23808}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="41" priority="69">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="40" priority="67">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D34">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7781,12 +7565,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="38" priority="61">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="37" priority="59">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7821,7 +7605,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7835,12 +7619,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="32" priority="49">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="31" priority="47">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7848,7 +7632,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7862,12 +7646,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="29" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="28" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7875,7 +7659,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7889,12 +7673,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="26" priority="41">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="25" priority="39">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7902,7 +7686,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7916,12 +7700,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="23" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7929,7 +7713,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D49">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7943,12 +7727,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="19" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7983,7 +7767,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D53">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7997,12 +7781,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="14" priority="25">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I53:BL53">
     <cfRule type="expression" dxfId="13" priority="23">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8010,7 +7794,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D50">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8024,12 +7808,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="11" priority="21">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="10" priority="19">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8037,7 +7821,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D51">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8051,12 +7835,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8064,7 +7848,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D54">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8078,12 +7862,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8159,7 +7943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29 D44 D7:D14 D17:D18 D23:D26 D20:D21 D54</xm:sqref>
+          <xm:sqref>D29 D42 D7:D14 D17:D18 D23:D26 D20:D21 D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8189,22 +7973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D4B26597-A923-4FC1-BDC5-A4D6F94E588D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
@@ -8219,7 +7988,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8234,7 +8003,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -8249,7 +8018,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -8264,7 +8033,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
@@ -8279,7 +8048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
@@ -8294,7 +8063,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
@@ -8309,7 +8078,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8339,7 +8108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8402,21 +8171,6 @@
           <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96AADDBC-48E1-4E00-8374-CF4997D23808}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0DD4499A-6C6E-44BD-9395-A72B26BB1533}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -8429,7 +8183,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
@@ -8459,7 +8213,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8474,7 +8228,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8489,7 +8243,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8504,7 +8258,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8519,7 +8273,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
@@ -8549,7 +8303,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8564,7 +8318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8579,7 +8333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8594,7 +8348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC52269F-EE83-46B0-8CAE-9380B83BFFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3570" windowWidth="21600" windowHeight="11355"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Project Start:</t>
   </si>
@@ -188,9 +189,6 @@
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
     <t>Quản lý bán hàng</t>
   </si>
   <si>
@@ -356,19 +354,22 @@
     <t>Lịch sử nhập trả hàng</t>
   </si>
   <si>
-    <t>Đổi mật khẩu</t>
-  </si>
-  <si>
     <t>Thanh toán</t>
   </si>
   <si>
     <t>Cập nhật hàng hóa</t>
+  </si>
+  <si>
+    <t>Phân quyền cho quản lý</t>
+  </si>
+  <si>
+    <t>Phân quyền cho nhân viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -1054,6 +1055,21 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1061,36 +1077,21 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="99">
     <dxf>
@@ -2088,7 +2089,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="98"/>
       <tableStyleElement type="headerRow" dxfId="97"/>
       <tableStyleElement type="totalRow" dxfId="96"/>
@@ -2509,15 +2510,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2540,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2553,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="50"/>
     </row>
@@ -2562,15 +2563,15 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="103">
+      <c r="D3" s="103"/>
+      <c r="E3" s="101">
         <f ca="1">TODAY()</f>
         <v>44160</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -2579,104 +2580,104 @@
       <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="98">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="100">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="100">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="100">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="100">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="100">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="100">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="100">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="102"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -3230,7 +3231,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3295,10 +3296,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
@@ -3378,26 +3379,20 @@
         <v>35</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
-        <f ca="1">F9</f>
-        <v>44163</v>
-      </c>
-      <c r="F10" s="55">
-        <f ca="1">E10+2</f>
-        <v>44165</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+      <c r="H10" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -3411,8 +3406,8 @@
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -3458,27 +3453,17 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
-      <c r="B11" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="55">
-        <f ca="1">F10</f>
-        <v>44165</v>
-      </c>
-      <c r="F11" s="55">
-        <f ca="1">E11+4</f>
-        <v>44169</v>
-      </c>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H11" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
@@ -3539,17 +3524,26 @@
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
-      <c r="B12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="56">
+        <v>44129</v>
+      </c>
+      <c r="F12" s="56">
+        <f>E12+4</f>
+        <v>44133</v>
+      </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -3611,25 +3605,26 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
       </c>
       <c r="E13" s="56">
-        <v>44129</v>
+        <f>E12+2</f>
+        <v>44131</v>
       </c>
       <c r="F13" s="56">
-        <f>E13+4</f>
-        <v>44133</v>
+        <f>E13+5</f>
+        <v>44136</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -3643,8 +3638,8 @@
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -3693,26 +3688,26 @@
         <v>36</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="56">
-        <f>E13+2</f>
-        <v>44131</v>
+        <f>F12</f>
+        <v>44133</v>
       </c>
       <c r="F14" s="56">
-        <f>E14+5</f>
+        <f>E14+3</f>
         <v>44136</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -3726,8 +3721,8 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -3777,13 +3772,13 @@
         <v>68</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
       </c>
       <c r="E15" s="56">
-        <f>F13</f>
+        <f>F12</f>
         <v>44133</v>
       </c>
       <c r="F15" s="56">
@@ -3855,21 +3850,21 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
       </c>
       <c r="E16" s="56">
         <f>F13</f>
-        <v>44133</v>
+        <v>44136</v>
       </c>
       <c r="F16" s="56">
         <f>E16+3</f>
-        <v>44136</v>
+        <v>44139</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
@@ -3935,27 +3930,17 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
-      <c r="B17" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="56">
-        <f>F14</f>
-        <v>44136</v>
-      </c>
-      <c r="F17" s="56">
-        <f>E17+3</f>
-        <v>44139</v>
-      </c>
+      <c r="B17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="H17" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -4016,17 +4001,27 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
-      <c r="B18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E18" s="57">
+        <f>E8+15</f>
+        <v>15</v>
+      </c>
+      <c r="F18" s="57">
+        <f>E18+5</f>
+        <v>20</v>
+      </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -4088,25 +4083,25 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="29">
         <v>0.12</v>
       </c>
       <c r="E19" s="57">
-        <f>E8+15</f>
-        <v>15</v>
+        <f ca="1">E9+15</f>
+        <v>44175</v>
       </c>
       <c r="F19" s="57">
-        <f>E19+5</f>
-        <v>20</v>
+        <f ca="1">E19+5</f>
+        <v>44180</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="I19" s="35"/>
@@ -4169,26 +4164,26 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="29">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="57">
-        <f ca="1">E9+15</f>
-        <v>44175</v>
+        <f>F16+1</f>
+        <v>44140</v>
       </c>
       <c r="F20" s="57">
-        <f ca="1">E20+5</f>
-        <v>44180</v>
+        <f>E20+4</f>
+        <v>44144</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>5</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -4250,25 +4245,25 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="29">
         <v>0.25</v>
       </c>
       <c r="E21" s="57">
         <f>F17+1</f>
-        <v>44140</v>
+        <v>1</v>
       </c>
       <c r="F21" s="57">
         <f>E21+4</f>
-        <v>44144</v>
+        <v>5</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I21" s="35"/>
@@ -4331,108 +4326,105 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="97" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="29">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="E22" s="57">
-        <f>F18+1</f>
-        <v>1</v>
+        <f>E11+15</f>
+        <v>15</v>
       </c>
       <c r="F22" s="57">
-        <f>E22+4</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
+        <f>E22+5</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="88"/>
+      <c r="AN22" s="88"/>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="88"/>
+      <c r="AQ22" s="88"/>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="88"/>
+      <c r="AT22" s="88"/>
+      <c r="AU22" s="88"/>
+      <c r="AV22" s="88"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="88"/>
+      <c r="AY22" s="88"/>
+      <c r="AZ22" s="88"/>
+      <c r="BA22" s="88"/>
+      <c r="BB22" s="88"/>
+      <c r="BC22" s="88"/>
+      <c r="BD22" s="88"/>
+      <c r="BE22" s="88"/>
+      <c r="BF22" s="88"/>
+      <c r="BG22" s="88"/>
+      <c r="BH22" s="88"/>
+      <c r="BI22" s="88"/>
+      <c r="BJ22" s="88"/>
+      <c r="BK22" s="88"/>
+      <c r="BL22" s="88"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="104" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="29">
         <v>0.12</v>
       </c>
       <c r="E23" s="57">
         <f>E12+15</f>
-        <v>15</v>
+        <v>44144</v>
       </c>
       <c r="F23" s="57">
         <f>E23+5</f>
-        <v>20</v>
+        <v>44149</v>
       </c>
       <c r="G23" s="86"/>
-      <c r="H23" s="86">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
+      <c r="H23" s="86"/>
       <c r="I23" s="88"/>
       <c r="J23" s="88"/>
       <c r="K23" s="88"/>
@@ -4493,104 +4485,97 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
       <c r="B24" s="74" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="29">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="E24" s="57">
-        <f>E13+15</f>
-        <v>44144</v>
+        <f ca="1">F19+1</f>
+        <v>44181</v>
       </c>
       <c r="F24" s="57">
-        <f>E24+5</f>
-        <v>44149</v>
-      </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="88"/>
-      <c r="AN24" s="88"/>
-      <c r="AO24" s="88"/>
-      <c r="AP24" s="88"/>
-      <c r="AQ24" s="88"/>
-      <c r="AR24" s="88"/>
-      <c r="AS24" s="88"/>
-      <c r="AT24" s="88"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="88"/>
-      <c r="AW24" s="88"/>
-      <c r="AX24" s="88"/>
-      <c r="AY24" s="88"/>
-      <c r="AZ24" s="88"/>
-      <c r="BA24" s="88"/>
-      <c r="BB24" s="88"/>
-      <c r="BC24" s="88"/>
-      <c r="BD24" s="88"/>
-      <c r="BE24" s="88"/>
-      <c r="BF24" s="88"/>
-      <c r="BG24" s="88"/>
-      <c r="BH24" s="88"/>
-      <c r="BI24" s="88"/>
-      <c r="BJ24" s="88"/>
-      <c r="BK24" s="88"/>
-      <c r="BL24" s="88"/>
+        <f ca="1">E24+4</f>
+        <v>44185</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
+      <c r="BF24" s="35"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="35"/>
+      <c r="BJ24" s="35"/>
+      <c r="BK24" s="35"/>
+      <c r="BL24" s="35"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
-      <c r="B25" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="57">
-        <f ca="1">F20+1</f>
-        <v>44181</v>
-      </c>
-      <c r="F25" s="57">
-        <f ca="1">E25+4</f>
-        <v>44185</v>
-      </c>
+      <c r="B25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H25" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
@@ -4653,17 +4638,25 @@
       <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="C26" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1</v>
+      </c>
+      <c r="E26" s="58">
+        <v>44121</v>
+      </c>
+      <c r="F26" s="58">
+        <v>44124</v>
+      </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -4725,24 +4718,24 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="34">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="58">
         <v>44121</v>
       </c>
       <c r="F27" s="58">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -4804,24 +4797,24 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E28" s="58">
-        <v>44121</v>
+        <v>44131</v>
       </c>
       <c r="F28" s="58">
-        <v>44125</v>
+        <v>44133</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -4883,10 +4876,10 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
@@ -4962,23 +4955,23 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="B30" s="75" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="34">
         <v>0.25</v>
       </c>
       <c r="E30" s="58">
-        <v>44131</v>
+        <v>44126</v>
       </c>
       <c r="F30" s="58">
-        <v>44133</v>
+        <v>44128</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I30" s="35"/>
@@ -4994,7 +4987,9 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
+      <c r="V30" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -5040,25 +5035,17 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="58">
-        <v>44126</v>
-      </c>
-      <c r="F31" s="58">
-        <v>44128</v>
-      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
+      <c r="H31" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -5073,9 +5060,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
-      <c r="V31" s="35" t="s">
-        <v>54</v>
-      </c>
+      <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -5123,17 +5108,25 @@
       <c r="A32" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
+      <c r="B32" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="58">
+        <v>44131</v>
+      </c>
+      <c r="F32" s="58">
+        <v>44133</v>
+      </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H32" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
@@ -5195,25 +5188,20 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>52</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C33" s="66"/>
       <c r="D33" s="34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="58">
-        <v>44131</v>
+        <v>44138</v>
       </c>
       <c r="F33" s="58">
-        <v>44133</v>
+        <v>44141</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
-      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
@@ -5274,9 +5262,11 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="66"/>
+        <v>63</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="D34" s="34">
         <v>0.5</v>
       </c>
@@ -5287,7 +5277,10 @@
         <v>44141</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35"/>
@@ -5348,19 +5341,19 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E35" s="58">
-        <v>44138</v>
+        <v>44134</v>
       </c>
       <c r="F35" s="58">
-        <v>44141</v>
+        <v>44137</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
@@ -5430,7 +5423,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="34">
         <v>0.25</v>
@@ -5505,25 +5498,17 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
-      <c r="B37" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="58">
-        <v>44134</v>
-      </c>
-      <c r="F37" s="58">
-        <v>44137</v>
-      </c>
+      <c r="B37" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="14">
+      <c r="H37" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
@@ -5586,17 +5571,25 @@
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
+      <c r="B38" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="34">
+        <v>1</v>
+      </c>
+      <c r="E38" s="58">
+        <v>44148</v>
+      </c>
+      <c r="F38" s="58">
+        <v>44150</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5660,24 +5653,24 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="34">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E39" s="58">
         <v>44148</v>
       </c>
       <c r="F39" s="58">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -5738,19 +5731,19 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C40" s="66" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="34">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="58">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F40" s="58">
-        <v>44151</v>
+        <v>44155</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14">
@@ -5815,25 +5808,17 @@
       <c r="BL40" s="35"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F41" s="58">
-        <v>44155</v>
-      </c>
+      <c r="B41" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14">
+      <c r="H41" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -5893,17 +5878,25 @@
       <c r="BL41" s="35"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
+      <c r="B42" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E42" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F42" s="58">
+        <v>44159</v>
+      </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -5964,25 +5957,14 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E43" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F43" s="58">
-        <v>44159</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H43" s="14"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="35"/>
@@ -6042,7 +6024,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="34"/>
@@ -6109,7 +6091,7 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="34"/>
@@ -6175,15 +6157,18 @@
       <c r="BL45" s="35"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="B46" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14" t="str">
+        <f t="shared" ref="H46:H47" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
@@ -6242,17 +6227,25 @@
       <c r="BL46" s="35"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
+      <c r="C47" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E47" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F47" s="58">
+        <v>44159</v>
+      </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14" t="str">
-        <f t="shared" ref="H47:H48" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H47" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -6315,23 +6308,12 @@
       <c r="B48" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E48" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F48" s="58">
-        <v>44159</v>
-      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
@@ -6524,15 +6506,18 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+      <c r="B51" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14" t="str">
+        <f t="shared" ref="H51:H52" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -6591,17 +6576,25 @@
       <c r="BL51" s="35"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="B52" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E52" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F52" s="58">
+        <v>44159</v>
+      </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14" t="str">
-        <f t="shared" ref="H52:H53" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H52" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -6662,25 +6655,14 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E53" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F53" s="58">
-        <v>44159</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
@@ -6740,7 +6722,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="75" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="34"/>
@@ -6807,7 +6789,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="75" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="34"/>
@@ -6873,83 +6855,93 @@
       <c r="BL55" s="35"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="35"/>
-      <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-      <c r="AO56" s="35"/>
-      <c r="AP56" s="35"/>
-      <c r="AQ56" s="35"/>
-      <c r="AR56" s="35"/>
-      <c r="AS56" s="35"/>
-      <c r="AT56" s="35"/>
-      <c r="AU56" s="35"/>
-      <c r="AV56" s="35"/>
-      <c r="AW56" s="35"/>
-      <c r="AX56" s="35"/>
-      <c r="AY56" s="35"/>
-      <c r="AZ56" s="35"/>
-      <c r="BA56" s="35"/>
-      <c r="BB56" s="35"/>
-      <c r="BC56" s="35"/>
-      <c r="BD56" s="35"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
-      <c r="BI56" s="35"/>
-      <c r="BJ56" s="35"/>
-      <c r="BK56" s="35"/>
-      <c r="BL56" s="35"/>
+      <c r="B56" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
+      <c r="AO56" s="88"/>
+      <c r="AP56" s="88"/>
+      <c r="AQ56" s="88"/>
+      <c r="AR56" s="88"/>
+      <c r="AS56" s="88"/>
+      <c r="AT56" s="88"/>
+      <c r="AU56" s="88"/>
+      <c r="AV56" s="88"/>
+      <c r="AW56" s="88"/>
+      <c r="AX56" s="88"/>
+      <c r="AY56" s="88"/>
+      <c r="AZ56" s="88"/>
+      <c r="BA56" s="88"/>
+      <c r="BB56" s="88"/>
+      <c r="BC56" s="88"/>
+      <c r="BD56" s="88"/>
+      <c r="BE56" s="88"/>
+      <c r="BF56" s="88"/>
+      <c r="BG56" s="88"/>
+      <c r="BH56" s="88"/>
+      <c r="BI56" s="88"/>
+      <c r="BJ56" s="88"/>
+      <c r="BK56" s="88"/>
+      <c r="BL56" s="88"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="96"/>
+      <c r="B57" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="89">
+        <v>44138</v>
+      </c>
+      <c r="F57" s="89">
+        <v>44141</v>
+      </c>
       <c r="G57" s="86"/>
-      <c r="H57" s="86" t="s">
-        <v>91</v>
+      <c r="H57" s="86">
+        <v>4</v>
       </c>
       <c r="I57" s="88"/>
       <c r="J57" s="88"/>
@@ -7013,20 +7005,20 @@
         <v>92</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58" s="87">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E58" s="89">
-        <v>44138</v>
+        <v>44142</v>
       </c>
       <c r="F58" s="89">
-        <v>44141</v>
+        <v>44146</v>
       </c>
       <c r="G58" s="86"/>
       <c r="H58" s="86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="88"/>
@@ -7090,7 +7082,7 @@
         <v>93</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="87">
         <v>0.55000000000000004</v>
@@ -7162,85 +7154,13 @@
       <c r="BK59" s="88"/>
       <c r="BL59" s="88"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E60" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F60" s="89">
-        <v>44146</v>
-      </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86">
-        <v>5</v>
-      </c>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88"/>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="88"/>
-      <c r="AN60" s="88"/>
-      <c r="AO60" s="88"/>
-      <c r="AP60" s="88"/>
-      <c r="AQ60" s="88"/>
-      <c r="AR60" s="88"/>
-      <c r="AS60" s="88"/>
-      <c r="AT60" s="88"/>
-      <c r="AU60" s="88"/>
-      <c r="AV60" s="88"/>
-      <c r="AW60" s="88"/>
-      <c r="AX60" s="88"/>
-      <c r="AY60" s="88"/>
-      <c r="AZ60" s="88"/>
-      <c r="BA60" s="88"/>
-      <c r="BB60" s="88"/>
-      <c r="BC60" s="88"/>
-      <c r="BD60" s="88"/>
-      <c r="BE60" s="88"/>
-      <c r="BF60" s="88"/>
-      <c r="BG60" s="88"/>
-      <c r="BH60" s="88"/>
-      <c r="BI60" s="88"/>
-      <c r="BJ60" s="88"/>
-      <c r="BK60" s="88"/>
-      <c r="BL60" s="88"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7248,13 +7168,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44 D31 D7:D14 D17:D18 D20 D54 D25:D28">
+  <conditionalFormatting sqref="D30 D43 D16:D17 D19 D53 D24:D27 D7:D13">
     <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7268,12 +7183,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44 I31:BL31 I5:BL14 I17:BL18 I20:BL21 I34:BL34 I54:BL54 I24:BL28">
+  <conditionalFormatting sqref="I43:BL43 I30:BL30 I16:BL17 I19:BL20 I33:BL33 I53:BL53 I23:BL27 I5:BL13">
     <cfRule type="expression" dxfId="89" priority="208">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44 I31:BL31 I7:BL14 I17:BL18 I20:BL21 I34:BL34 I54:BL54 I24:BL28">
+  <conditionalFormatting sqref="I43:BL43 I30:BL30 I16:BL17 I19:BL20 I33:BL33 I53:BL53 I23:BL27 I7:BL13">
     <cfRule type="expression" dxfId="88" priority="202">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7281,7 +7196,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D31">
     <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7295,12 +7210,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I31:BL31">
     <cfRule type="expression" dxfId="86" priority="175">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I31:BL31">
     <cfRule type="expression" dxfId="85" priority="173">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7308,7 +7223,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7322,12 +7237,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="83" priority="167">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I37:BL37">
     <cfRule type="expression" dxfId="82" priority="165">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7335,7 +7250,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7349,12 +7264,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="80" priority="155">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="79" priority="153">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7362,7 +7277,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7376,12 +7291,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="77" priority="143">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="76" priority="141">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7389,7 +7304,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7403,12 +7318,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="74" priority="139">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="73" priority="137">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7416,7 +7331,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7430,12 +7345,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="71" priority="135">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="70" priority="133">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7443,7 +7358,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7457,12 +7372,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="68" priority="123">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="67" priority="121">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7470,7 +7385,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7484,12 +7399,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="65" priority="119">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="64" priority="117">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7497,7 +7412,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7511,12 +7426,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="62" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="61" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7524,7 +7439,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7538,12 +7453,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="59" priority="107">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="58" priority="105">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7551,7 +7466,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7565,12 +7480,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="56" priority="103">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="55" priority="101">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7578,7 +7493,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7592,12 +7507,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I29:BL29">
     <cfRule type="expression" dxfId="53" priority="91">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I29:BL29">
     <cfRule type="expression" dxfId="52" priority="89">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7605,7 +7520,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D14">
     <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7619,12 +7534,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
+  <conditionalFormatting sqref="I14:BL14">
     <cfRule type="expression" dxfId="50" priority="87">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
+  <conditionalFormatting sqref="I14:BL14">
     <cfRule type="expression" dxfId="49" priority="85">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7632,7 +7547,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7646,12 +7561,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I15:BL15">
     <cfRule type="expression" dxfId="47" priority="83">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I15:BL15">
     <cfRule type="expression" dxfId="46" priority="81">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7659,7 +7574,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D28">
     <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7673,12 +7588,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
+  <conditionalFormatting sqref="I28:BL28">
     <cfRule type="expression" dxfId="44" priority="79">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL29">
+  <conditionalFormatting sqref="I28:BL28">
     <cfRule type="expression" dxfId="43" priority="77">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7686,7 +7601,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7700,12 +7615,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="41" priority="67">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I35:BL35">
     <cfRule type="expression" dxfId="40" priority="65">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7713,7 +7628,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D21">
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7727,12 +7642,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
+  <conditionalFormatting sqref="I21:BL21">
     <cfRule type="expression" dxfId="38" priority="59">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
+  <conditionalFormatting sqref="I21:BL21">
     <cfRule type="expression" dxfId="37" priority="57">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7740,7 +7655,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7754,12 +7669,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="35" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="34" priority="53">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7767,7 +7682,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7781,12 +7696,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="32" priority="51">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="31" priority="49">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7794,7 +7709,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7808,12 +7723,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="29" priority="47">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="28" priority="45">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7821,7 +7736,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D49">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7835,12 +7750,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="26" priority="43">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="25" priority="41">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7848,7 +7763,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D50">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7862,12 +7777,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="23" priority="39">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="22" priority="37">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7875,7 +7790,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D34">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7889,12 +7804,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="20" priority="35">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I34:BL34">
     <cfRule type="expression" dxfId="19" priority="33">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7902,7 +7817,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D54">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7916,12 +7831,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="17" priority="31">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="16" priority="29">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7929,7 +7844,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D51">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7943,12 +7858,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="14" priority="27">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="13" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7956,7 +7871,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D52">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7970,12 +7885,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="11" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="10" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7983,7 +7898,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D55">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7997,12 +7912,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="7" priority="17">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8010,7 +7925,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D18">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8024,12 +7939,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+  <conditionalFormatting sqref="I18:BL18">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
+  <conditionalFormatting sqref="I18:BL18">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8037,7 +7952,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D33">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8051,7 +7966,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D22">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8065,12 +7980,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
+  <conditionalFormatting sqref="I22:BL22">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL23">
+  <conditionalFormatting sqref="I22:BL22">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8078,7 +7993,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8092,7 +8007,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D20">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8107,7 +8022,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -8133,7 +8048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44 D31 D7:D14 D17:D18 D20 D54 D25:D28</xm:sqref>
+          <xm:sqref>D30 D43 D16:D17 D19 D53 D24:D27 D7:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8148,7 +8063,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
@@ -8163,7 +8078,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
@@ -8178,7 +8093,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8193,7 +8108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -8208,7 +8123,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -8223,7 +8138,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
@@ -8238,7 +8153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
@@ -8253,7 +8168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
@@ -8268,7 +8183,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8283,7 +8198,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12113B73-062D-4323-9450-E08AD7CA3A54}">
@@ -8298,7 +8213,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8313,7 +8228,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6A64E59F-FA0B-43B1-B5DC-30AECD78C97F}">
@@ -8328,7 +8243,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15</xm:sqref>
+          <xm:sqref>D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11365A62-DD73-436E-8179-D3807FD833E1}">
@@ -8343,7 +8258,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2D21947-8299-40F2-B4EC-301D66A5C514}">
@@ -8358,7 +8273,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0DD4499A-6C6E-44BD-9395-A72B26BB1533}">
@@ -8373,7 +8288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBE71B1F-953F-4484-968A-62C8A2B711A6}">
@@ -8388,7 +8303,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB6AD927-8701-4D26-84BE-08BE5AC82680}">
@@ -8403,7 +8318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8418,7 +8333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8433,7 +8348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8448,7 +8363,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8463,7 +8378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
@@ -8478,7 +8393,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F083EF58-7FA3-4ADC-A83C-B309605218D3}">
@@ -8493,7 +8408,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8508,7 +8423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8523,7 +8438,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8538,7 +8453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">
@@ -8553,7 +8468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D19</xm:sqref>
+          <xm:sqref>D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB3533F-9C4E-4000-BD74-A12298E78DEE}">
@@ -8568,7 +8483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4FD312F6-476C-48FF-A7F6-D7B044C7293C}">
@@ -8583,7 +8498,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77DDE640-E5E6-4951-9630-53BEE2CBEA60}">
@@ -8598,7 +8513,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4431F8C9-74CA-4900-9D3B-AE23AAAD2429}">
@@ -8613,7 +8528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D21</xm:sqref>
+          <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8622,7 +8537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8713,10 +8628,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC52269F-EE83-46B0-8CAE-9380B83BFFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28858203-5EE6-456E-B5A1-C9D078D76C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>Project Start:</t>
   </si>
@@ -276,9 +276,6 @@
     <t>In hóa đơn</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra thẻ thành viên </t>
-  </si>
-  <si>
     <t>Thống kê công nợ</t>
   </si>
   <si>
@@ -300,30 +297,12 @@
     <t>Quản lý danh mục</t>
   </si>
   <si>
-    <t>Danh mục khách hàng</t>
-  </si>
-  <si>
-    <t>Danh mục sản phẩm</t>
-  </si>
-  <si>
-    <t>Danh mục nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Danh mục nhân viên</t>
-  </si>
-  <si>
     <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
   </si>
   <si>
-    <t>Xem lịch sử nhập hàng</t>
-  </si>
-  <si>
     <t>Lập phiếu đặt hàng</t>
   </si>
   <si>
-    <t>Thêm mới hàng trong kho</t>
-  </si>
-  <si>
     <t>Xem lịch sử mua hàng</t>
   </si>
   <si>
@@ -354,9 +333,6 @@
     <t>Lịch sử nhập trả hàng</t>
   </si>
   <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
     <t>Cập nhật hàng hóa</t>
   </si>
   <si>
@@ -364,6 +340,39 @@
   </si>
   <si>
     <t>Phân quyền cho nhân viên</t>
+  </si>
+  <si>
+    <t>Thanh toán***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm khách hàng </t>
+  </si>
+  <si>
+    <t>Tích điểm</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Cập nhật danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm sản phẩm </t>
+  </si>
+  <si>
+    <t>Danh mục phiếu nhập hàng</t>
+  </si>
+  <si>
+    <t>Danh mục phiếu trả hàng</t>
+  </si>
+  <si>
+    <t>Danh mục hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1067,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1070,13 +1086,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1093,7 +1102,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2090,15 +2129,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="98"/>
-      <tableStyleElement type="headerRow" dxfId="97"/>
-      <tableStyleElement type="totalRow" dxfId="96"/>
-      <tableStyleElement type="firstColumn" dxfId="95"/>
-      <tableStyleElement type="lastColumn" dxfId="94"/>
-      <tableStyleElement type="firstRowStripe" dxfId="93"/>
-      <tableStyleElement type="secondRowStripe" dxfId="92"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="91"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="90"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstColumn" dxfId="98"/>
+      <tableStyleElement type="lastColumn" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="94"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="93"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2514,14 +2553,14 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL59"/>
+  <dimension ref="A1:BL63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX45" sqref="AX45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
@@ -2535,7 +2574,7 @@
     <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2588,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="A2" s="48" t="s">
         <v>23</v>
       </c>
@@ -2558,126 +2597,126 @@
       </c>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="101">
+      <c r="D3" s="99"/>
+      <c r="E3" s="104">
         <f ca="1">TODAY()</f>
-        <v>44160</v>
-      </c>
-      <c r="F3" s="101"/>
+        <v>44161</v>
+      </c>
+      <c r="F3" s="104"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="101">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="101">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="101">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="101">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="101">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="101">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="101">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="101">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -2903,7 +2942,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
@@ -3151,7 +3190,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
@@ -3218,7 +3257,7 @@
       <c r="BK7" s="35"/>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="49" t="s">
         <v>33</v>
       </c>
@@ -3231,7 +3270,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H38" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3291,12 +3330,12 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>50</v>
@@ -3306,11 +3345,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3374,12 +3413,12 @@
       <c r="BK9" s="35"/>
       <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>50</v>
@@ -3451,7 +3490,7 @@
       <c r="BK10" s="35"/>
       <c r="BL10" s="35"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="48"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
@@ -3522,7 +3561,7 @@
       <c r="BK11" s="35"/>
       <c r="BL11" s="35"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="48"/>
       <c r="B12" s="73" t="s">
         <v>59</v>
@@ -3602,7 +3641,7 @@
       <c r="BK12" s="35"/>
       <c r="BL12" s="35"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
         <v>40</v>
@@ -3683,93 +3722,80 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
-        <f>F12</f>
-        <v>44133</v>
-      </c>
-      <c r="F14" s="56">
-        <f>E14+3</f>
-        <v>44136</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="35"/>
-      <c r="BI14" s="35"/>
-      <c r="BJ14" s="35"/>
-      <c r="BK14" s="35"/>
-      <c r="BL14" s="35"/>
+        <v>92</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>51</v>
@@ -3847,10 +3873,10 @@
       <c r="BK15" s="35"/>
       <c r="BL15" s="35"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>51</v>
@@ -3859,12 +3885,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="56">
-        <f>F13</f>
-        <v>44136</v>
+        <f>F12</f>
+        <v>44133</v>
       </c>
       <c r="F16" s="56">
         <f>E16+3</f>
-        <v>44139</v>
+        <v>44136</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
@@ -3928,19 +3954,29 @@
       <c r="BK16" s="35"/>
       <c r="BL16" s="35"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="48"/>
-      <c r="B17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="56">
+        <f>F13</f>
+        <v>44136</v>
+      </c>
+      <c r="F17" s="56">
+        <f>E17+3</f>
+        <v>44139</v>
+      </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -3999,29 +4035,19 @@
       <c r="BK17" s="35"/>
       <c r="BL17" s="35"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="48"/>
-      <c r="B18" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.12</v>
-      </c>
-      <c r="E18" s="57">
-        <f>E8+15</f>
-        <v>15</v>
-      </c>
-      <c r="F18" s="57">
-        <f>E18+5</f>
-        <v>20</v>
-      </c>
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -4080,10 +4106,10 @@
       <c r="BK18" s="35"/>
       <c r="BL18" s="35"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>52</v>
@@ -4092,16 +4118,16 @@
         <v>0.12</v>
       </c>
       <c r="E19" s="57">
-        <f ca="1">E9+15</f>
-        <v>44175</v>
+        <f>E8+15</f>
+        <v>15</v>
       </c>
       <c r="F19" s="57">
-        <f ca="1">E19+5</f>
-        <v>44180</v>
+        <f>E19+5</f>
+        <v>20</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I19" s="35"/>
@@ -4161,29 +4187,29 @@
       <c r="BK19" s="35"/>
       <c r="BL19" s="35"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="29">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="E20" s="57">
-        <f>F16+1</f>
-        <v>44140</v>
+        <f ca="1">E9+15</f>
+        <v>44176</v>
       </c>
       <c r="F20" s="57">
-        <f>E20+4</f>
-        <v>44144</v>
+        <f ca="1">E20+5</f>
+        <v>44181</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -4242,10 +4268,10 @@
       <c r="BK20" s="35"/>
       <c r="BL20" s="35"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>51</v>
@@ -4255,15 +4281,15 @@
       </c>
       <c r="E21" s="57">
         <f>F17+1</f>
-        <v>1</v>
+        <v>44140</v>
       </c>
       <c r="F21" s="57">
         <f>E21+4</f>
-        <v>5</v>
+        <v>44144</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f t="shared" si="6"/>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>5</v>
       </c>
       <c r="I21" s="35"/>
@@ -4323,91 +4349,91 @@
       <c r="BK21" s="35"/>
       <c r="BL21" s="35"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="29">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="57">
-        <f>E11+15</f>
-        <v>15</v>
+        <f>F18+1</f>
+        <v>1</v>
       </c>
       <c r="F22" s="57">
-        <f>E22+5</f>
-        <v>20</v>
-      </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="88"/>
-      <c r="AY22" s="88"/>
-      <c r="AZ22" s="88"/>
-      <c r="BA22" s="88"/>
-      <c r="BB22" s="88"/>
-      <c r="BC22" s="88"/>
-      <c r="BD22" s="88"/>
-      <c r="BE22" s="88"/>
-      <c r="BF22" s="88"/>
-      <c r="BG22" s="88"/>
-      <c r="BH22" s="88"/>
-      <c r="BI22" s="88"/>
-      <c r="BJ22" s="88"/>
-      <c r="BK22" s="88"/>
-      <c r="BL22" s="88"/>
+        <f>E22+4</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>52</v>
@@ -4482,10 +4508,10 @@
       <c r="BK23" s="88"/>
       <c r="BL23" s="88"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="48"/>
       <c r="B24" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>51</v>
@@ -4494,12 +4520,12 @@
         <v>0.25</v>
       </c>
       <c r="E24" s="57">
-        <f ca="1">F19+1</f>
-        <v>44181</v>
+        <f ca="1">F20+1</f>
+        <v>44182</v>
       </c>
       <c r="F24" s="57">
         <f ca="1">E24+4</f>
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
@@ -4563,7 +4589,7 @@
       <c r="BK24" s="35"/>
       <c r="BL24" s="35"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="48"/>
       <c r="B25" s="30" t="s">
         <v>43</v>
@@ -4634,7 +4660,7 @@
       <c r="BK25" s="35"/>
       <c r="BL25" s="35"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
@@ -4715,7 +4741,7 @@
       <c r="BK26" s="35"/>
       <c r="BL26" s="35"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
         <v>65</v>
@@ -4794,10 +4820,10 @@
       <c r="BK27" s="35"/>
       <c r="BL27" s="35"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>51</v>
@@ -4873,7 +4899,7 @@
       <c r="BK28" s="35"/>
       <c r="BL28" s="35"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
         <v>66</v>
@@ -4952,7 +4978,7 @@
       <c r="BK29" s="35"/>
       <c r="BL29" s="35"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="48"/>
       <c r="B30" s="75" t="s">
         <v>45</v>
@@ -5033,7 +5059,7 @@
       <c r="BK30" s="35"/>
       <c r="BL30" s="35"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="48"/>
       <c r="B31" s="76" t="s">
         <v>46</v>
@@ -5104,7 +5130,7 @@
       <c r="BK31" s="35"/>
       <c r="BL31" s="35"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="48" t="s">
         <v>24</v>
       </c>
@@ -5185,10 +5211,10 @@
       <c r="BK32" s="35"/>
       <c r="BL32" s="35"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="34">
@@ -5259,7 +5285,7 @@
       <c r="BK33" s="35"/>
       <c r="BL33" s="35"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
         <v>63</v>
@@ -5338,10 +5364,10 @@
       <c r="BK34" s="35"/>
       <c r="BL34" s="35"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>49</v>
@@ -5417,10 +5443,10 @@
       <c r="BK35" s="35"/>
       <c r="BL35" s="35"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>49</v>
@@ -5496,15 +5522,15 @@
       <c r="BK36" s="35"/>
       <c r="BL36" s="35"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="48"/>
-      <c r="B37" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
+      <c r="B37" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14" t="str">
         <f t="shared" si="6"/>
@@ -5567,29 +5593,29 @@
       <c r="BK37" s="35"/>
       <c r="BL37" s="35"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="34">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E38" s="58">
-        <v>44148</v>
+        <v>44156</v>
       </c>
       <c r="F38" s="58">
-        <v>44150</v>
+        <v>44159</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -5648,30 +5674,19 @@
       <c r="BK38" s="35"/>
       <c r="BL38" s="35"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="E39" s="58">
-        <v>44148</v>
-      </c>
-      <c r="F39" s="58">
-        <v>44151</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H39" s="14"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="35"/>
@@ -5729,27 +5744,16 @@
       <c r="BK39" s="35"/>
       <c r="BL39" s="35"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="58">
-        <v>44152</v>
-      </c>
-      <c r="F40" s="58">
-        <v>44155</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H40" s="14"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
       <c r="K40" s="35"/>
@@ -5807,19 +5811,16 @@
       <c r="BK40" s="35"/>
       <c r="BL40" s="35"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B41" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H41" s="14"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
       <c r="K41" s="35"/>
@@ -5877,26 +5878,18 @@
       <c r="BK41" s="35"/>
       <c r="BL41" s="35"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E42" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F42" s="58">
-        <v>44159</v>
-      </c>
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B42" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+      <c r="H42" s="14" t="str">
+        <f t="shared" ref="H42:H43" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -5955,16 +5948,27 @@
       <c r="BK42" s="35"/>
       <c r="BL42" s="35"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B43" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
+        <v>98</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E43" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F43" s="58">
+        <v>44159</v>
+      </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="H43" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="35"/>
@@ -6022,9 +6026,9 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="75" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="34"/>
@@ -6089,86 +6093,83 @@
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="35"/>
-      <c r="AN45" s="35"/>
-      <c r="AO45" s="35"/>
-      <c r="AP45" s="35"/>
-      <c r="AQ45" s="35"/>
-      <c r="AR45" s="35"/>
-      <c r="AS45" s="35"/>
-      <c r="AT45" s="35"/>
-      <c r="AU45" s="35"/>
-      <c r="AV45" s="35"/>
-      <c r="AW45" s="35"/>
-      <c r="AX45" s="35"/>
-      <c r="AY45" s="35"/>
-      <c r="AZ45" s="35"/>
-      <c r="BA45" s="35"/>
-      <c r="BB45" s="35"/>
-      <c r="BC45" s="35"/>
-      <c r="BD45" s="35"/>
-      <c r="BE45" s="35"/>
-      <c r="BF45" s="35"/>
-      <c r="BG45" s="35"/>
-      <c r="BH45" s="35"/>
-      <c r="BI45" s="35"/>
-      <c r="BJ45" s="35"/>
-      <c r="BK45" s="35"/>
-      <c r="BL45" s="35"/>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B45" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88"/>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
+      <c r="AO45" s="88"/>
+      <c r="AP45" s="88"/>
+      <c r="AQ45" s="88"/>
+      <c r="AR45" s="88"/>
+      <c r="AS45" s="88"/>
+      <c r="AT45" s="88"/>
+      <c r="AU45" s="88"/>
+      <c r="AV45" s="88"/>
+      <c r="AW45" s="88"/>
+      <c r="AX45" s="88"/>
+      <c r="AY45" s="88"/>
+      <c r="AZ45" s="88"/>
+      <c r="BA45" s="88"/>
+      <c r="BB45" s="88"/>
+      <c r="BC45" s="88"/>
+      <c r="BD45" s="88"/>
+      <c r="BE45" s="88"/>
+      <c r="BF45" s="88"/>
+      <c r="BG45" s="88"/>
+      <c r="BH45" s="88"/>
+      <c r="BI45" s="88"/>
+      <c r="BJ45" s="88"/>
+      <c r="BK45" s="88"/>
+      <c r="BL45" s="88"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B46" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
-        <f t="shared" ref="H46:H47" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
@@ -6226,26 +6227,18 @@
       <c r="BK46" s="35"/>
       <c r="BL46" s="35"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E47" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F47" s="58">
-        <v>44159</v>
-      </c>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B47" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="H47" s="14" t="str">
+        <f t="shared" ref="H47:H48" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -6304,16 +6297,27 @@
       <c r="BK47" s="35"/>
       <c r="BL47" s="35"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B48" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
+        <v>75</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E48" s="58">
+        <v>44156</v>
+      </c>
+      <c r="F48" s="58">
+        <v>44159</v>
+      </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
@@ -6371,9 +6375,9 @@
       <c r="BK48" s="35"/>
       <c r="BL48" s="35"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B49" s="75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6438,9 +6442,9 @@
       <c r="BK49" s="35"/>
       <c r="BL49" s="35"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="75" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="34"/>
@@ -6505,366 +6509,396 @@
       <c r="BK50" s="35"/>
       <c r="BL50" s="35"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14" t="str">
-        <f t="shared" ref="H51:H52" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B51" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="88"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="88"/>
+      <c r="AR51" s="88"/>
+      <c r="AS51" s="88"/>
+      <c r="AT51" s="88"/>
+      <c r="AU51" s="88"/>
+      <c r="AV51" s="88"/>
+      <c r="AW51" s="88"/>
+      <c r="AX51" s="88"/>
+      <c r="AY51" s="88"/>
+      <c r="AZ51" s="88"/>
+      <c r="BA51" s="88"/>
+      <c r="BB51" s="88"/>
+      <c r="BC51" s="88"/>
+      <c r="BD51" s="88"/>
+      <c r="BE51" s="88"/>
+      <c r="BF51" s="88"/>
+      <c r="BG51" s="88"/>
+      <c r="BH51" s="88"/>
+      <c r="BI51" s="88"/>
+      <c r="BJ51" s="88"/>
+      <c r="BK51" s="88"/>
+      <c r="BL51" s="88"/>
+    </row>
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B52" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="89">
+        <v>44138</v>
+      </c>
+      <c r="F52" s="89">
+        <v>44141</v>
+      </c>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86">
+        <v>4</v>
+      </c>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="88"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="88"/>
+      <c r="AR52" s="88"/>
+      <c r="AS52" s="88"/>
+      <c r="AT52" s="88"/>
+      <c r="AU52" s="88"/>
+      <c r="AV52" s="88"/>
+      <c r="AW52" s="88"/>
+      <c r="AX52" s="88"/>
+      <c r="AY52" s="88"/>
+      <c r="AZ52" s="88"/>
+      <c r="BA52" s="88"/>
+      <c r="BB52" s="88"/>
+      <c r="BC52" s="88"/>
+      <c r="BD52" s="88"/>
+      <c r="BE52" s="88"/>
+      <c r="BF52" s="88"/>
+      <c r="BG52" s="88"/>
+      <c r="BH52" s="88"/>
+      <c r="BI52" s="88"/>
+      <c r="BJ52" s="88"/>
+      <c r="BK52" s="88"/>
+      <c r="BL52" s="88"/>
+    </row>
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B53" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="87">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E53" s="89">
+        <v>44142</v>
+      </c>
+      <c r="F53" s="89">
+        <v>44146</v>
+      </c>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86">
+        <v>5</v>
+      </c>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="88"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="88"/>
+      <c r="AR53" s="88"/>
+      <c r="AS53" s="88"/>
+      <c r="AT53" s="88"/>
+      <c r="AU53" s="88"/>
+      <c r="AV53" s="88"/>
+      <c r="AW53" s="88"/>
+      <c r="AX53" s="88"/>
+      <c r="AY53" s="88"/>
+      <c r="AZ53" s="88"/>
+      <c r="BA53" s="88"/>
+      <c r="BB53" s="88"/>
+      <c r="BC53" s="88"/>
+      <c r="BD53" s="88"/>
+      <c r="BE53" s="88"/>
+      <c r="BF53" s="88"/>
+      <c r="BG53" s="88"/>
+      <c r="BH53" s="88"/>
+      <c r="BI53" s="88"/>
+      <c r="BJ53" s="88"/>
+      <c r="BK53" s="88"/>
+      <c r="BL53" s="88"/>
+    </row>
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B54" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="87">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E54" s="89">
+        <v>44142</v>
+      </c>
+      <c r="F54" s="89">
+        <v>44146</v>
+      </c>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86">
+        <v>5</v>
+      </c>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88"/>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
+      <c r="AO54" s="88"/>
+      <c r="AP54" s="88"/>
+      <c r="AQ54" s="88"/>
+      <c r="AR54" s="88"/>
+      <c r="AS54" s="88"/>
+      <c r="AT54" s="88"/>
+      <c r="AU54" s="88"/>
+      <c r="AV54" s="88"/>
+      <c r="AW54" s="88"/>
+      <c r="AX54" s="88"/>
+      <c r="AY54" s="88"/>
+      <c r="AZ54" s="88"/>
+      <c r="BA54" s="88"/>
+      <c r="BB54" s="88"/>
+      <c r="BC54" s="88"/>
+      <c r="BD54" s="88"/>
+      <c r="BE54" s="88"/>
+      <c r="BF54" s="88"/>
+      <c r="BG54" s="88"/>
+      <c r="BH54" s="88"/>
+      <c r="BI54" s="88"/>
+      <c r="BJ54" s="88"/>
+      <c r="BK54" s="88"/>
+      <c r="BL54" s="88"/>
+    </row>
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B55" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="81"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86" t="str">
+        <f t="shared" ref="H55:H58" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="35"/>
-      <c r="AQ51" s="35"/>
-      <c r="AR51" s="35"/>
-      <c r="AS51" s="35"/>
-      <c r="AT51" s="35"/>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="35"/>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="35"/>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="35"/>
-      <c r="BA51" s="35"/>
-      <c r="BB51" s="35"/>
-      <c r="BC51" s="35"/>
-      <c r="BD51" s="35"/>
-      <c r="BE51" s="35"/>
-      <c r="BF51" s="35"/>
-      <c r="BG51" s="35"/>
-      <c r="BH51" s="35"/>
-      <c r="BI51" s="35"/>
-      <c r="BJ51" s="35"/>
-      <c r="BK51" s="35"/>
-      <c r="BL51" s="35"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88"/>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
+      <c r="AO55" s="88"/>
+      <c r="AP55" s="88"/>
+      <c r="AQ55" s="88"/>
+      <c r="AR55" s="88"/>
+      <c r="AS55" s="88"/>
+      <c r="AT55" s="88"/>
+      <c r="AU55" s="88"/>
+      <c r="AV55" s="88"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="88"/>
+      <c r="AY55" s="88"/>
+      <c r="AZ55" s="88"/>
+      <c r="BA55" s="88"/>
+      <c r="BB55" s="88"/>
+      <c r="BC55" s="88"/>
+      <c r="BD55" s="88"/>
+      <c r="BE55" s="88"/>
+      <c r="BF55" s="88"/>
+      <c r="BG55" s="88"/>
+      <c r="BH55" s="88"/>
+      <c r="BI55" s="88"/>
+      <c r="BJ55" s="88"/>
+      <c r="BK55" s="88"/>
+      <c r="BL55" s="88"/>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="E52" s="58">
-        <v>44156</v>
-      </c>
-      <c r="F52" s="58">
-        <v>44159</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="35"/>
-      <c r="AQ52" s="35"/>
-      <c r="AR52" s="35"/>
-      <c r="AS52" s="35"/>
-      <c r="AT52" s="35"/>
-      <c r="AU52" s="35"/>
-      <c r="AV52" s="35"/>
-      <c r="AW52" s="35"/>
-      <c r="AX52" s="35"/>
-      <c r="AY52" s="35"/>
-      <c r="AZ52" s="35"/>
-      <c r="BA52" s="35"/>
-      <c r="BB52" s="35"/>
-      <c r="BC52" s="35"/>
-      <c r="BD52" s="35"/>
-      <c r="BE52" s="35"/>
-      <c r="BF52" s="35"/>
-      <c r="BG52" s="35"/>
-      <c r="BH52" s="35"/>
-      <c r="BI52" s="35"/>
-      <c r="BJ52" s="35"/>
-      <c r="BK52" s="35"/>
-      <c r="BL52" s="35"/>
-    </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35"/>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
-      <c r="BB53" s="35"/>
-      <c r="BC53" s="35"/>
-      <c r="BD53" s="35"/>
-      <c r="BE53" s="35"/>
-      <c r="BF53" s="35"/>
-      <c r="BG53" s="35"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="35"/>
-      <c r="BK53" s="35"/>
-      <c r="BL53" s="35"/>
-    </row>
-    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="35"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="35"/>
-      <c r="AQ54" s="35"/>
-      <c r="AR54" s="35"/>
-      <c r="AS54" s="35"/>
-      <c r="AT54" s="35"/>
-      <c r="AU54" s="35"/>
-      <c r="AV54" s="35"/>
-      <c r="AW54" s="35"/>
-      <c r="AX54" s="35"/>
-      <c r="AY54" s="35"/>
-      <c r="AZ54" s="35"/>
-      <c r="BA54" s="35"/>
-      <c r="BB54" s="35"/>
-      <c r="BC54" s="35"/>
-      <c r="BD54" s="35"/>
-      <c r="BE54" s="35"/>
-      <c r="BF54" s="35"/>
-      <c r="BG54" s="35"/>
-      <c r="BH54" s="35"/>
-      <c r="BI54" s="35"/>
-      <c r="BJ54" s="35"/>
-      <c r="BK54" s="35"/>
-      <c r="BL54" s="35"/>
-    </row>
-    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="35"/>
-      <c r="AR55" s="35"/>
-      <c r="AS55" s="35"/>
-      <c r="AT55" s="35"/>
-      <c r="AU55" s="35"/>
-      <c r="AV55" s="35"/>
-      <c r="AW55" s="35"/>
-      <c r="AX55" s="35"/>
-      <c r="AY55" s="35"/>
-      <c r="AZ55" s="35"/>
-      <c r="BA55" s="35"/>
-      <c r="BB55" s="35"/>
-      <c r="BC55" s="35"/>
-      <c r="BD55" s="35"/>
-      <c r="BE55" s="35"/>
-      <c r="BF55" s="35"/>
-      <c r="BG55" s="35"/>
-      <c r="BH55" s="35"/>
-      <c r="BI55" s="35"/>
-      <c r="BJ55" s="35"/>
-      <c r="BK55" s="35"/>
-      <c r="BL55" s="35"/>
-    </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="96"/>
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B56" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="87">
+        <v>1</v>
+      </c>
+      <c r="E56" s="89">
+        <v>44148</v>
+      </c>
+      <c r="F56" s="89">
+        <v>44150</v>
+      </c>
       <c r="G56" s="86"/>
-      <c r="H56" s="86" t="s">
-        <v>90</v>
+      <c r="H56" s="86">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="I56" s="88"/>
       <c r="J56" s="88"/>
@@ -6923,24 +6957,25 @@
       <c r="BK56" s="88"/>
       <c r="BL56" s="88"/>
     </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="91" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57" s="87">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="E57" s="89">
-        <v>44138</v>
+        <v>44148</v>
       </c>
       <c r="F57" s="89">
-        <v>44141</v>
+        <v>44151</v>
       </c>
       <c r="G57" s="86"/>
       <c r="H57" s="86">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I57" s="88"/>
@@ -7000,25 +7035,26 @@
       <c r="BK57" s="88"/>
       <c r="BL57" s="88"/>
     </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B58" s="91" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D58" s="87">
-        <v>0.55000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="E58" s="89">
-        <v>44142</v>
+        <v>44152</v>
       </c>
       <c r="F58" s="89">
-        <v>44146</v>
+        <v>44155</v>
       </c>
       <c r="G58" s="86"/>
       <c r="H58" s="86">
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="88"/>
@@ -7077,25 +7113,18 @@
       <c r="BK58" s="88"/>
       <c r="BL58" s="88"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E59" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F59" s="89">
-        <v>44146</v>
-      </c>
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B59" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="71"/>
       <c r="G59" s="86"/>
-      <c r="H59" s="86">
-        <v>5</v>
+      <c r="H59" s="86" t="str">
+        <f t="shared" ref="H59:H60" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I59" s="88"/>
       <c r="J59" s="88"/>
@@ -7154,13 +7183,300 @@
       <c r="BK59" s="88"/>
       <c r="BL59" s="88"/>
     </row>
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B60" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="87">
+        <v>0.35</v>
+      </c>
+      <c r="E60" s="89">
+        <v>44156</v>
+      </c>
+      <c r="F60" s="89">
+        <v>44159</v>
+      </c>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
+      <c r="AO60" s="88"/>
+      <c r="AP60" s="88"/>
+      <c r="AQ60" s="88"/>
+      <c r="AR60" s="88"/>
+      <c r="AS60" s="88"/>
+      <c r="AT60" s="88"/>
+      <c r="AU60" s="88"/>
+      <c r="AV60" s="88"/>
+      <c r="AW60" s="88"/>
+      <c r="AX60" s="88"/>
+      <c r="AY60" s="88"/>
+      <c r="AZ60" s="88"/>
+      <c r="BA60" s="88"/>
+      <c r="BB60" s="88"/>
+      <c r="BC60" s="88"/>
+      <c r="BD60" s="88"/>
+      <c r="BE60" s="88"/>
+      <c r="BF60" s="88"/>
+      <c r="BG60" s="88"/>
+      <c r="BH60" s="88"/>
+      <c r="BI60" s="88"/>
+      <c r="BJ60" s="88"/>
+      <c r="BK60" s="88"/>
+      <c r="BL60" s="88"/>
+    </row>
+    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B61" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E61" s="57">
+        <f>E49+15</f>
+        <v>15</v>
+      </c>
+      <c r="F61" s="57">
+        <f>E61+5</f>
+        <v>20</v>
+      </c>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88"/>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
+      <c r="AO61" s="88"/>
+      <c r="AP61" s="88"/>
+      <c r="AQ61" s="88"/>
+      <c r="AR61" s="88"/>
+      <c r="AS61" s="88"/>
+      <c r="AT61" s="88"/>
+      <c r="AU61" s="88"/>
+      <c r="AV61" s="88"/>
+      <c r="AW61" s="88"/>
+      <c r="AX61" s="88"/>
+      <c r="AY61" s="88"/>
+      <c r="AZ61" s="88"/>
+      <c r="BA61" s="88"/>
+      <c r="BB61" s="88"/>
+      <c r="BC61" s="88"/>
+      <c r="BD61" s="88"/>
+      <c r="BE61" s="88"/>
+      <c r="BF61" s="88"/>
+      <c r="BG61" s="88"/>
+      <c r="BH61" s="88"/>
+      <c r="BI61" s="88"/>
+      <c r="BJ61" s="88"/>
+      <c r="BK61" s="88"/>
+      <c r="BL61" s="88"/>
+    </row>
+    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B62" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="97"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
+      <c r="AO62" s="88"/>
+      <c r="AP62" s="88"/>
+      <c r="AQ62" s="88"/>
+      <c r="AR62" s="88"/>
+      <c r="AS62" s="88"/>
+      <c r="AT62" s="88"/>
+      <c r="AU62" s="88"/>
+      <c r="AV62" s="88"/>
+      <c r="AW62" s="88"/>
+      <c r="AX62" s="88"/>
+      <c r="AY62" s="88"/>
+      <c r="AZ62" s="88"/>
+      <c r="BA62" s="88"/>
+      <c r="BB62" s="88"/>
+      <c r="BC62" s="88"/>
+      <c r="BD62" s="88"/>
+      <c r="BE62" s="88"/>
+      <c r="BF62" s="88"/>
+      <c r="BG62" s="88"/>
+      <c r="BH62" s="88"/>
+      <c r="BI62" s="88"/>
+      <c r="BJ62" s="88"/>
+      <c r="BK62" s="88"/>
+      <c r="BL62" s="88"/>
+    </row>
+    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B63" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="90"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88"/>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
+      <c r="AO63" s="88"/>
+      <c r="AP63" s="88"/>
+      <c r="AQ63" s="88"/>
+      <c r="AR63" s="88"/>
+      <c r="AS63" s="88"/>
+      <c r="AT63" s="88"/>
+      <c r="AU63" s="88"/>
+      <c r="AV63" s="88"/>
+      <c r="AW63" s="88"/>
+      <c r="AX63" s="88"/>
+      <c r="AY63" s="88"/>
+      <c r="AZ63" s="88"/>
+      <c r="BA63" s="88"/>
+      <c r="BB63" s="88"/>
+      <c r="BC63" s="88"/>
+      <c r="BD63" s="88"/>
+      <c r="BE63" s="88"/>
+      <c r="BF63" s="88"/>
+      <c r="BG63" s="88"/>
+      <c r="BH63" s="88"/>
+      <c r="BI63" s="88"/>
+      <c r="BJ63" s="88"/>
+      <c r="BK63" s="88"/>
+      <c r="BL63" s="88"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7168,9 +7484,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D30 D43 D16:D17 D19 D53 D24:D27 D7:D13">
-    <cfRule type="dataBar" priority="189">
+  <conditionalFormatting sqref="D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D62 D45">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7183,21 +7504,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43 I30:BL30 I16:BL17 I19:BL20 I33:BL33 I53:BL53 I23:BL27 I5:BL13">
-    <cfRule type="expression" dxfId="89" priority="208">
+  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I5:BL14 I62:BL62 I45:BL45">
+    <cfRule type="expression" dxfId="92" priority="244">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43 I30:BL30 I16:BL17 I19:BL20 I33:BL33 I53:BL53 I23:BL27 I7:BL13">
-    <cfRule type="expression" dxfId="88" priority="202">
+  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I7:BL14 I62:BL62 I45:BL45">
+    <cfRule type="expression" dxfId="91" priority="238">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="239" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7211,47 +7532,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="86" priority="175">
+    <cfRule type="expression" dxfId="89" priority="211">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="85" priority="173">
+    <cfRule type="expression" dxfId="88" priority="209">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="210" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="164">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0096AF1A-393A-435C-8015-41D0DD370232}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="83" priority="167">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="82" priority="165">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="166" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7265,20 +7559,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="80" priority="155">
+    <cfRule type="expression" dxfId="86" priority="191">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="79" priority="153">
+    <cfRule type="expression" dxfId="85" priority="189">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="190" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="140">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7291,21 +7585,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="77" priority="143">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="83" priority="159">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="76" priority="141">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="82" priority="157">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="136">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7318,21 +7612,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="74" priority="139">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="80" priority="155">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="73" priority="137">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="79" priority="153">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="154" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7346,101 +7640,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="71" priority="135">
+    <cfRule type="expression" dxfId="77" priority="151">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="70" priority="133">
+    <cfRule type="expression" dxfId="76" priority="149">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="150" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="120">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D712486D-7533-424A-A845-4D223E96E211}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="68" priority="123">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="67" priority="121">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="116">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B8D883F3-4418-4D7D-AF20-AD12CE96228A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="65" priority="119">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="64" priority="117">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="118" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="112">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="62" priority="115">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="61" priority="113">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="114" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7454,20 +7667,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="59" priority="107">
+    <cfRule type="expression" dxfId="74" priority="143">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="58" priority="105">
+    <cfRule type="expression" dxfId="73" priority="141">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="142" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="100">
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7480,21 +7693,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="56" priority="103">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="71" priority="139">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="55" priority="101">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="70" priority="137">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="138" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7508,20 +7721,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="53" priority="91">
+    <cfRule type="expression" dxfId="68" priority="127">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="52" priority="89">
+    <cfRule type="expression" dxfId="67" priority="125">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="126" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="dataBar" priority="84">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7534,21 +7747,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="50" priority="87">
+  <conditionalFormatting sqref="I15:BL15">
+    <cfRule type="expression" dxfId="65" priority="123">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="49" priority="85">
+  <conditionalFormatting sqref="I15:BL15">
+    <cfRule type="expression" dxfId="64" priority="121">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="122" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="80">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7561,21 +7774,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="47" priority="83">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="62" priority="119">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="46" priority="81">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="61" priority="117">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="118" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7589,20 +7802,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="44" priority="79">
+    <cfRule type="expression" dxfId="59" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="43" priority="77">
+    <cfRule type="expression" dxfId="58" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7616,20 +7829,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="41" priority="67">
+    <cfRule type="expression" dxfId="56" priority="103">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="40" priority="65">
+    <cfRule type="expression" dxfId="55" priority="101">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="56">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7642,21 +7855,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="38" priority="59">
+  <conditionalFormatting sqref="I22:BL22">
+    <cfRule type="expression" dxfId="53" priority="95">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="37" priority="57">
+  <conditionalFormatting sqref="I22:BL22">
+    <cfRule type="expression" dxfId="52" priority="93">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="94" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="52">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7669,21 +7882,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="35" priority="55">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="50" priority="71">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="34" priority="53">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="49" priority="69">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7696,21 +7909,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="32" priority="51">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="47" priority="87">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="31" priority="49">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="46" priority="85">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="44">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7723,21 +7936,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="29" priority="47">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="44" priority="83">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="28" priority="45">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="43" priority="81">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="82" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="40">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7750,21 +7963,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="26" priority="43">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="41" priority="79">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="25" priority="41">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="40" priority="77">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="36">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7777,75 +7990,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="23" priority="39">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="38" priority="75">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="22" priority="37">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="37" priority="73">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7649434C-FFDA-47B7-B479-23E477DFB6E6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="20" priority="35">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F083EF58-7FA3-4ADC-A83C-B309605218D3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="16" priority="29">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7858,21 +8017,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="14" priority="27">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="35" priority="63">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="13" priority="25">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="34" priority="61">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="20">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7885,21 +8044,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="32" priority="59">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="10" priority="21">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7912,21 +8071,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="8" priority="19">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="29" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="28" priority="53">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7939,21 +8098,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="5" priority="11">
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="26" priority="47">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="4" priority="9">
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="25" priority="45">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="46" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7966,35 +8125,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FD312F6-476C-48FF-A7F6-D7B044C7293C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8007,8 +8139,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8019,6 +8151,222 @@
           <x14:id>{4431F8C9-74CA-4900-9D3B-AE23AAAD2429}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0660A8FF-4BA0-497E-B8B2-535E167C5AB9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="23" priority="36">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A83FB9DE-1143-4B08-88BF-2542FCF85F42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B0318E4-966D-4EF2-A6D4-FB4E5E991E97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="17" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="16" priority="26">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F08EE57-E16D-4602-B8B1-278E2EBEEB0E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="14" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EED533C-4486-4D94-B9F5-0351D40BB2D9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="11" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B34501E5-5DBE-4846-A912-F8DA725340FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{507BED7D-5931-42DA-905A-19A2496FF1FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:BL63">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:BL63">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{455033F3-7A95-4631-B1C1-A667600551E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8048,7 +8396,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30 D43 D16:D17 D19 D53 D24:D27 D7:D13</xm:sqref>
+          <xm:sqref>D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D62 D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8064,21 +8412,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0096AF1A-393A-435C-8015-41D0DD370232}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D9320E5-A90E-437D-95B7-E01E17503720}">
@@ -8108,7 +8441,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{746A8A69-4303-484A-9428-BB46CDB16B19}">
@@ -8123,7 +8456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84A7E2-E9E6-4BF2-B658-15D81FC470AE}">
@@ -8139,51 +8472,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D712486D-7533-424A-A845-4D223E96E211}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B8D883F3-4418-4D7D-AF20-AD12CE96228A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11B7A088-D8C3-40EB-8C27-1589CB10CFF4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{485CF41D-A6CA-4084-9D69-B8EDBA33F4BC}">
@@ -8213,7 +8501,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBF254AF-B480-422F-B5BE-2DAAD93F6F2A}">
@@ -8243,7 +8531,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11365A62-DD73-436E-8179-D3807FD833E1}">
@@ -8258,7 +8546,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15</xm:sqref>
+          <xm:sqref>D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2D21947-8299-40F2-B4EC-301D66A5C514}">
@@ -8303,7 +8591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D21</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB6AD927-8701-4D26-84BE-08BE5AC82680}">
@@ -8318,7 +8606,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8333,7 +8621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FE56A3A-A40B-46CB-8493-F121AFEF59C1}">
@@ -8348,7 +8636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10A6CA6A-D043-41E9-9CBD-6A680E0244A8}">
@@ -8363,7 +8651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CB5E189-86CB-4E67-8EB6-FB3FC8ABF181}">
@@ -8378,37 +8666,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7649434C-FFDA-47B7-B479-23E477DFB6E6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F083EF58-7FA3-4ADC-A83C-B309605218D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8423,7 +8681,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BC19FE3-5612-45A0-AC9B-98885C2CBB77}">
@@ -8438,7 +8696,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{035C63EA-A9B5-4A07-9B62-9F4F83C063D1}">
@@ -8453,7 +8711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BC3692-3B2D-4B85-A1DC-054E03ECC8E3}">
@@ -8468,7 +8726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18</xm:sqref>
+          <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB3533F-9C4E-4000-BD74-A12298E78DEE}">
@@ -8484,21 +8742,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FD312F6-476C-48FF-A7F6-D7B044C7293C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77DDE640-E5E6-4951-9630-53BEE2CBEA60}">
@@ -8528,7 +8771,127 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D20</xm:sqref>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0660A8FF-4BA0-497E-B8B2-535E167C5AB9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A83FB9DE-1143-4B08-88BF-2542FCF85F42}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B0318E4-966D-4EF2-A6D4-FB4E5E991E97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F08EE57-E16D-4602-B8B1-278E2EBEEB0E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EED533C-4486-4D94-B9F5-0351D40BB2D9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B34501E5-5DBE-4846-A912-F8DA725340FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{507BED7D-5931-42DA-905A-19A2496FF1FB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{455033F3-7A95-4631-B1C1-A667600551E2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8542,86 +8905,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="87.140625" style="38" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="40" customFormat="1" ht="15.75">
       <c r="A2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="1:2" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="41" customFormat="1" ht="26.25">
       <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="38" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="38" customFormat="1" ht="204.95" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="41" customFormat="1" ht="26.25">
       <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1">
       <c r="A10" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="41" customFormat="1" ht="26.25">
       <c r="A11" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1">
       <c r="A13" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="41" customFormat="1" ht="26.25">
       <c r="A14" s="42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75">
       <c r="A16" s="43" t="s">
         <v>15</v>
       </c>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2E2C5-E045-40C2-8CEF-218BB3943B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D1DD09-F100-4F21-8E85-C899E4A4BDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>Project Start:</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Quản lý nhân viên</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Công nợ</t>
   </si>
   <si>
     <t>Hồng Thái</t>
@@ -540,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,12 +619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +780,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1018,21 +1009,6 @@
     <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,19 +1028,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -2556,11 +2532,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V58" sqref="V58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2582,7 +2558,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2596,7 +2572,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="50"/>
     </row>
@@ -2605,121 +2581,121 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="104">
+      <c r="D3" s="94"/>
+      <c r="E3" s="99">
         <f ca="1">TODAY()</f>
         <v>44161</v>
       </c>
-      <c r="F3" s="104"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="96">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="101">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="101">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="101">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="101">
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="101">
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="101">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="101">
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="96">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="103"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -3338,10 +3314,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="19">
         <v>0.5</v>
@@ -3421,10 +3397,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="19">
         <v>0.5</v>
@@ -3567,10 +3543,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="48"/>
       <c r="B12" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="24">
         <v>0.5</v>
@@ -3650,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="24">
         <v>0.5</v>
@@ -3730,78 +3706,78 @@
         <v>36</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="24"/>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-      <c r="BE14" s="88"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
-      <c r="BK14" s="88"/>
-      <c r="BL14" s="88"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="83"/>
+      <c r="BC14" s="83"/>
+      <c r="BD14" s="83"/>
+      <c r="BE14" s="83"/>
+      <c r="BF14" s="83"/>
+      <c r="BG14" s="83"/>
+      <c r="BH14" s="83"/>
+      <c r="BI14" s="83"/>
+      <c r="BJ14" s="83"/>
+      <c r="BK14" s="83"/>
+      <c r="BL14" s="83"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
@@ -3879,10 +3855,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
@@ -3963,7 +3939,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -4041,7 +4017,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="48"/>
       <c r="B18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="26"/>
@@ -4112,10 +4088,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="29">
         <v>0.12</v>
@@ -4193,10 +4169,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="29">
         <v>0.12</v>
@@ -4277,7 +4253,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="29">
         <v>0.25</v>
@@ -4355,10 +4331,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="29">
         <v>0.25</v>
@@ -4436,10 +4412,10 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="29">
         <v>0.12</v>
@@ -4452,72 +4428,72 @@
         <f>E23+5</f>
         <v>44149</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="88"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="88"/>
-      <c r="AR23" s="88"/>
-      <c r="AS23" s="88"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="88"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="88"/>
-      <c r="AY23" s="88"/>
-      <c r="AZ23" s="88"/>
-      <c r="BA23" s="88"/>
-      <c r="BB23" s="88"/>
-      <c r="BC23" s="88"/>
-      <c r="BD23" s="88"/>
-      <c r="BE23" s="88"/>
-      <c r="BF23" s="88"/>
-      <c r="BG23" s="88"/>
-      <c r="BH23" s="88"/>
-      <c r="BI23" s="88"/>
-      <c r="BJ23" s="88"/>
-      <c r="BK23" s="88"/>
-      <c r="BL23" s="88"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="83"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="83"/>
+      <c r="BC23" s="83"/>
+      <c r="BD23" s="83"/>
+      <c r="BE23" s="83"/>
+      <c r="BF23" s="83"/>
+      <c r="BG23" s="83"/>
+      <c r="BH23" s="83"/>
+      <c r="BI23" s="83"/>
+      <c r="BJ23" s="83"/>
+      <c r="BK23" s="83"/>
+      <c r="BL23" s="83"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="48"/>
       <c r="B24" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="29">
         <v>0.25</v>
@@ -4671,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="34">
         <v>1</v>
@@ -4747,10 +4723,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="34">
         <v>0.2</v>
@@ -4826,10 +4802,10 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
@@ -4905,10 +4881,10 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
@@ -4987,7 +4963,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="34">
         <v>0.25</v>
@@ -5017,7 +4993,7 @@
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -5138,10 +5114,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="34">
         <v>0.25</v>
@@ -5217,7 +5193,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="34">
@@ -5291,10 +5267,10 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="34">
         <v>0.5</v>
@@ -5370,10 +5346,10 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="34">
         <v>0.25</v>
@@ -5449,10 +5425,10 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="34">
         <v>0.25</v>
@@ -5528,7 +5504,7 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="48"/>
       <c r="B37" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="69"/>
@@ -5601,10 +5577,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="34">
         <v>0.35</v>
@@ -5682,7 +5658,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="66"/>
       <c r="D39" s="34"/>
@@ -5749,7 +5725,7 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="66"/>
       <c r="D40" s="34"/>
@@ -5816,7 +5792,7 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="66"/>
       <c r="D41" s="34"/>
@@ -5883,7 +5859,7 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="68"/>
       <c r="D42" s="69"/>
@@ -5953,10 +5929,10 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B43" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="34">
         <v>0.35</v>
@@ -6031,7 +6007,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="34"/>
@@ -6097,75 +6073,75 @@
       <c r="BL44" s="35"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
-      <c r="AO45" s="88"/>
-      <c r="AP45" s="88"/>
-      <c r="AQ45" s="88"/>
-      <c r="AR45" s="88"/>
-      <c r="AS45" s="88"/>
-      <c r="AT45" s="88"/>
-      <c r="AU45" s="88"/>
-      <c r="AV45" s="88"/>
-      <c r="AW45" s="88"/>
-      <c r="AX45" s="88"/>
-      <c r="AY45" s="88"/>
-      <c r="AZ45" s="88"/>
-      <c r="BA45" s="88"/>
-      <c r="BB45" s="88"/>
-      <c r="BC45" s="88"/>
-      <c r="BD45" s="88"/>
-      <c r="BE45" s="88"/>
-      <c r="BF45" s="88"/>
-      <c r="BG45" s="88"/>
-      <c r="BH45" s="88"/>
-      <c r="BI45" s="88"/>
-      <c r="BJ45" s="88"/>
-      <c r="BK45" s="88"/>
-      <c r="BL45" s="88"/>
+      <c r="B45" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="85"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="83"/>
+      <c r="AR45" s="83"/>
+      <c r="AS45" s="83"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="83"/>
+      <c r="AV45" s="83"/>
+      <c r="AW45" s="83"/>
+      <c r="AX45" s="83"/>
+      <c r="AY45" s="83"/>
+      <c r="AZ45" s="83"/>
+      <c r="BA45" s="83"/>
+      <c r="BB45" s="83"/>
+      <c r="BC45" s="83"/>
+      <c r="BD45" s="83"/>
+      <c r="BE45" s="83"/>
+      <c r="BF45" s="83"/>
+      <c r="BG45" s="83"/>
+      <c r="BH45" s="83"/>
+      <c r="BI45" s="83"/>
+      <c r="BJ45" s="83"/>
+      <c r="BK45" s="83"/>
+      <c r="BL45" s="83"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B46" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="34"/>
@@ -6232,7 +6208,7 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="68"/>
       <c r="D47" s="69"/>
@@ -6302,10 +6278,10 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B48" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="34">
         <v>0.35</v>
@@ -6380,7 +6356,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B49" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="34"/>
@@ -6447,7 +6423,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="34"/>
@@ -6513,970 +6489,900 @@
       <c r="BL50" s="35"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88"/>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="88"/>
-      <c r="AN51" s="88"/>
-      <c r="AO51" s="88"/>
-      <c r="AP51" s="88"/>
-      <c r="AQ51" s="88"/>
-      <c r="AR51" s="88"/>
-      <c r="AS51" s="88"/>
-      <c r="AT51" s="88"/>
-      <c r="AU51" s="88"/>
-      <c r="AV51" s="88"/>
-      <c r="AW51" s="88"/>
-      <c r="AX51" s="88"/>
-      <c r="AY51" s="88"/>
-      <c r="AZ51" s="88"/>
-      <c r="BA51" s="88"/>
-      <c r="BB51" s="88"/>
-      <c r="BC51" s="88"/>
-      <c r="BD51" s="88"/>
-      <c r="BE51" s="88"/>
-      <c r="BF51" s="88"/>
-      <c r="BG51" s="88"/>
-      <c r="BH51" s="88"/>
-      <c r="BI51" s="88"/>
-      <c r="BJ51" s="88"/>
-      <c r="BK51" s="88"/>
-      <c r="BL51" s="88"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="83"/>
+      <c r="X51" s="83"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="83"/>
+      <c r="AA51" s="83"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="83"/>
+      <c r="AD51" s="83"/>
+      <c r="AE51" s="83"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="83"/>
+      <c r="AH51" s="83"/>
+      <c r="AI51" s="83"/>
+      <c r="AJ51" s="83"/>
+      <c r="AK51" s="83"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="83"/>
+      <c r="AN51" s="83"/>
+      <c r="AO51" s="83"/>
+      <c r="AP51" s="83"/>
+      <c r="AQ51" s="83"/>
+      <c r="AR51" s="83"/>
+      <c r="AS51" s="83"/>
+      <c r="AT51" s="83"/>
+      <c r="AU51" s="83"/>
+      <c r="AV51" s="83"/>
+      <c r="AW51" s="83"/>
+      <c r="AX51" s="83"/>
+      <c r="AY51" s="83"/>
+      <c r="AZ51" s="83"/>
+      <c r="BA51" s="83"/>
+      <c r="BB51" s="83"/>
+      <c r="BC51" s="83"/>
+      <c r="BD51" s="83"/>
+      <c r="BE51" s="83"/>
+      <c r="BF51" s="83"/>
+      <c r="BG51" s="83"/>
+      <c r="BH51" s="83"/>
+      <c r="BI51" s="83"/>
+      <c r="BJ51" s="83"/>
+      <c r="BK51" s="83"/>
+      <c r="BL51" s="83"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="87">
+      <c r="B52" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="82">
         <v>0.25</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="84">
         <v>44138</v>
       </c>
-      <c r="F52" s="89">
+      <c r="F52" s="84">
         <v>44141</v>
       </c>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86">
+      <c r="G52" s="81"/>
+      <c r="H52" s="81">
         <v>4</v>
       </c>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88"/>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="88"/>
-      <c r="AN52" s="88"/>
-      <c r="AO52" s="88"/>
-      <c r="AP52" s="88"/>
-      <c r="AQ52" s="88"/>
-      <c r="AR52" s="88"/>
-      <c r="AS52" s="88"/>
-      <c r="AT52" s="88"/>
-      <c r="AU52" s="88"/>
-      <c r="AV52" s="88"/>
-      <c r="AW52" s="88"/>
-      <c r="AX52" s="88"/>
-      <c r="AY52" s="88"/>
-      <c r="AZ52" s="88"/>
-      <c r="BA52" s="88"/>
-      <c r="BB52" s="88"/>
-      <c r="BC52" s="88"/>
-      <c r="BD52" s="88"/>
-      <c r="BE52" s="88"/>
-      <c r="BF52" s="88"/>
-      <c r="BG52" s="88"/>
-      <c r="BH52" s="88"/>
-      <c r="BI52" s="88"/>
-      <c r="BJ52" s="88"/>
-      <c r="BK52" s="88"/>
-      <c r="BL52" s="88"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="83"/>
+      <c r="AA52" s="83"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="83"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="83"/>
+      <c r="AH52" s="83"/>
+      <c r="AI52" s="83"/>
+      <c r="AJ52" s="83"/>
+      <c r="AK52" s="83"/>
+      <c r="AL52" s="83"/>
+      <c r="AM52" s="83"/>
+      <c r="AN52" s="83"/>
+      <c r="AO52" s="83"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="83"/>
+      <c r="AR52" s="83"/>
+      <c r="AS52" s="83"/>
+      <c r="AT52" s="83"/>
+      <c r="AU52" s="83"/>
+      <c r="AV52" s="83"/>
+      <c r="AW52" s="83"/>
+      <c r="AX52" s="83"/>
+      <c r="AY52" s="83"/>
+      <c r="AZ52" s="83"/>
+      <c r="BA52" s="83"/>
+      <c r="BB52" s="83"/>
+      <c r="BC52" s="83"/>
+      <c r="BD52" s="83"/>
+      <c r="BE52" s="83"/>
+      <c r="BF52" s="83"/>
+      <c r="BG52" s="83"/>
+      <c r="BH52" s="83"/>
+      <c r="BI52" s="83"/>
+      <c r="BJ52" s="83"/>
+      <c r="BK52" s="83"/>
+      <c r="BL52" s="83"/>
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="87">
+      <c r="B53" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="82">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="84">
         <v>44142</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="84">
         <v>44146</v>
       </c>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86">
+      <c r="G53" s="81"/>
+      <c r="H53" s="81">
         <v>5</v>
       </c>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="88"/>
-      <c r="AD53" s="88"/>
-      <c r="AE53" s="88"/>
-      <c r="AF53" s="88"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="88"/>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="88"/>
-      <c r="AK53" s="88"/>
-      <c r="AL53" s="88"/>
-      <c r="AM53" s="88"/>
-      <c r="AN53" s="88"/>
-      <c r="AO53" s="88"/>
-      <c r="AP53" s="88"/>
-      <c r="AQ53" s="88"/>
-      <c r="AR53" s="88"/>
-      <c r="AS53" s="88"/>
-      <c r="AT53" s="88"/>
-      <c r="AU53" s="88"/>
-      <c r="AV53" s="88"/>
-      <c r="AW53" s="88"/>
-      <c r="AX53" s="88"/>
-      <c r="AY53" s="88"/>
-      <c r="AZ53" s="88"/>
-      <c r="BA53" s="88"/>
-      <c r="BB53" s="88"/>
-      <c r="BC53" s="88"/>
-      <c r="BD53" s="88"/>
-      <c r="BE53" s="88"/>
-      <c r="BF53" s="88"/>
-      <c r="BG53" s="88"/>
-      <c r="BH53" s="88"/>
-      <c r="BI53" s="88"/>
-      <c r="BJ53" s="88"/>
-      <c r="BK53" s="88"/>
-      <c r="BL53" s="88"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="83"/>
+      <c r="W53" s="83"/>
+      <c r="X53" s="83"/>
+      <c r="Y53" s="83"/>
+      <c r="Z53" s="83"/>
+      <c r="AA53" s="83"/>
+      <c r="AB53" s="83"/>
+      <c r="AC53" s="83"/>
+      <c r="AD53" s="83"/>
+      <c r="AE53" s="83"/>
+      <c r="AF53" s="83"/>
+      <c r="AG53" s="83"/>
+      <c r="AH53" s="83"/>
+      <c r="AI53" s="83"/>
+      <c r="AJ53" s="83"/>
+      <c r="AK53" s="83"/>
+      <c r="AL53" s="83"/>
+      <c r="AM53" s="83"/>
+      <c r="AN53" s="83"/>
+      <c r="AO53" s="83"/>
+      <c r="AP53" s="83"/>
+      <c r="AQ53" s="83"/>
+      <c r="AR53" s="83"/>
+      <c r="AS53" s="83"/>
+      <c r="AT53" s="83"/>
+      <c r="AU53" s="83"/>
+      <c r="AV53" s="83"/>
+      <c r="AW53" s="83"/>
+      <c r="AX53" s="83"/>
+      <c r="AY53" s="83"/>
+      <c r="AZ53" s="83"/>
+      <c r="BA53" s="83"/>
+      <c r="BB53" s="83"/>
+      <c r="BC53" s="83"/>
+      <c r="BD53" s="83"/>
+      <c r="BE53" s="83"/>
+      <c r="BF53" s="83"/>
+      <c r="BG53" s="83"/>
+      <c r="BH53" s="83"/>
+      <c r="BI53" s="83"/>
+      <c r="BJ53" s="83"/>
+      <c r="BK53" s="83"/>
+      <c r="BL53" s="83"/>
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="87">
+      <c r="B54" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="82">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="84">
         <v>44142</v>
       </c>
-      <c r="F54" s="89">
+      <c r="F54" s="84">
         <v>44146</v>
       </c>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86">
+      <c r="G54" s="81"/>
+      <c r="H54" s="81">
         <v>5</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="88"/>
-      <c r="AD54" s="88"/>
-      <c r="AE54" s="88"/>
-      <c r="AF54" s="88"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="88"/>
-      <c r="AI54" s="88"/>
-      <c r="AJ54" s="88"/>
-      <c r="AK54" s="88"/>
-      <c r="AL54" s="88"/>
-      <c r="AM54" s="88"/>
-      <c r="AN54" s="88"/>
-      <c r="AO54" s="88"/>
-      <c r="AP54" s="88"/>
-      <c r="AQ54" s="88"/>
-      <c r="AR54" s="88"/>
-      <c r="AS54" s="88"/>
-      <c r="AT54" s="88"/>
-      <c r="AU54" s="88"/>
-      <c r="AV54" s="88"/>
-      <c r="AW54" s="88"/>
-      <c r="AX54" s="88"/>
-      <c r="AY54" s="88"/>
-      <c r="AZ54" s="88"/>
-      <c r="BA54" s="88"/>
-      <c r="BB54" s="88"/>
-      <c r="BC54" s="88"/>
-      <c r="BD54" s="88"/>
-      <c r="BE54" s="88"/>
-      <c r="BF54" s="88"/>
-      <c r="BG54" s="88"/>
-      <c r="BH54" s="88"/>
-      <c r="BI54" s="88"/>
-      <c r="BJ54" s="88"/>
-      <c r="BK54" s="88"/>
-      <c r="BL54" s="88"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="83"/>
+      <c r="W54" s="83"/>
+      <c r="X54" s="83"/>
+      <c r="Y54" s="83"/>
+      <c r="Z54" s="83"/>
+      <c r="AA54" s="83"/>
+      <c r="AB54" s="83"/>
+      <c r="AC54" s="83"/>
+      <c r="AD54" s="83"/>
+      <c r="AE54" s="83"/>
+      <c r="AF54" s="83"/>
+      <c r="AG54" s="83"/>
+      <c r="AH54" s="83"/>
+      <c r="AI54" s="83"/>
+      <c r="AJ54" s="83"/>
+      <c r="AK54" s="83"/>
+      <c r="AL54" s="83"/>
+      <c r="AM54" s="83"/>
+      <c r="AN54" s="83"/>
+      <c r="AO54" s="83"/>
+      <c r="AP54" s="83"/>
+      <c r="AQ54" s="83"/>
+      <c r="AR54" s="83"/>
+      <c r="AS54" s="83"/>
+      <c r="AT54" s="83"/>
+      <c r="AU54" s="83"/>
+      <c r="AV54" s="83"/>
+      <c r="AW54" s="83"/>
+      <c r="AX54" s="83"/>
+      <c r="AY54" s="83"/>
+      <c r="AZ54" s="83"/>
+      <c r="BA54" s="83"/>
+      <c r="BB54" s="83"/>
+      <c r="BC54" s="83"/>
+      <c r="BD54" s="83"/>
+      <c r="BE54" s="83"/>
+      <c r="BF54" s="83"/>
+      <c r="BG54" s="83"/>
+      <c r="BH54" s="83"/>
+      <c r="BI54" s="83"/>
+      <c r="BJ54" s="83"/>
+      <c r="BK54" s="83"/>
+      <c r="BL54" s="83"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86" t="str">
-        <f t="shared" ref="H55:H58" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="88"/>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="88"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="88"/>
-      <c r="AM55" s="88"/>
-      <c r="AN55" s="88"/>
-      <c r="AO55" s="88"/>
-      <c r="AP55" s="88"/>
-      <c r="AQ55" s="88"/>
-      <c r="AR55" s="88"/>
-      <c r="AS55" s="88"/>
-      <c r="AT55" s="88"/>
-      <c r="AU55" s="88"/>
-      <c r="AV55" s="88"/>
-      <c r="AW55" s="88"/>
-      <c r="AX55" s="88"/>
-      <c r="AY55" s="88"/>
-      <c r="AZ55" s="88"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="88"/>
-      <c r="BC55" s="88"/>
-      <c r="BD55" s="88"/>
-      <c r="BE55" s="88"/>
-      <c r="BF55" s="88"/>
-      <c r="BG55" s="88"/>
-      <c r="BH55" s="88"/>
-      <c r="BI55" s="88"/>
-      <c r="BJ55" s="88"/>
-      <c r="BK55" s="88"/>
-      <c r="BL55" s="88"/>
+      <c r="B55" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="82">
+        <v>1</v>
+      </c>
+      <c r="E55" s="84">
+        <v>44148</v>
+      </c>
+      <c r="F55" s="84">
+        <v>44150</v>
+      </c>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="83"/>
+      <c r="Z55" s="83"/>
+      <c r="AA55" s="83"/>
+      <c r="AB55" s="83"/>
+      <c r="AC55" s="83"/>
+      <c r="AD55" s="83"/>
+      <c r="AE55" s="83"/>
+      <c r="AF55" s="83"/>
+      <c r="AG55" s="83"/>
+      <c r="AH55" s="83"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="83"/>
+      <c r="AK55" s="83"/>
+      <c r="AL55" s="83"/>
+      <c r="AM55" s="83"/>
+      <c r="AN55" s="83"/>
+      <c r="AO55" s="83"/>
+      <c r="AP55" s="83"/>
+      <c r="AQ55" s="83"/>
+      <c r="AR55" s="83"/>
+      <c r="AS55" s="83"/>
+      <c r="AT55" s="83"/>
+      <c r="AU55" s="83"/>
+      <c r="AV55" s="83"/>
+      <c r="AW55" s="83"/>
+      <c r="AX55" s="83"/>
+      <c r="AY55" s="83"/>
+      <c r="AZ55" s="83"/>
+      <c r="BA55" s="83"/>
+      <c r="BB55" s="83"/>
+      <c r="BC55" s="83"/>
+      <c r="BD55" s="83"/>
+      <c r="BE55" s="83"/>
+      <c r="BF55" s="83"/>
+      <c r="BG55" s="83"/>
+      <c r="BH55" s="83"/>
+      <c r="BI55" s="83"/>
+      <c r="BJ55" s="83"/>
+      <c r="BK55" s="83"/>
+      <c r="BL55" s="83"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="87">
-        <v>1</v>
-      </c>
-      <c r="E56" s="89">
+      <c r="B56" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="E56" s="84">
         <v>44148</v>
       </c>
-      <c r="F56" s="89">
-        <v>44150</v>
-      </c>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86">
+      <c r="F56" s="84">
+        <v>44151</v>
+      </c>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
-      </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="88"/>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="88"/>
-      <c r="AF56" s="88"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="88"/>
-      <c r="AI56" s="88"/>
-      <c r="AJ56" s="88"/>
-      <c r="AK56" s="88"/>
-      <c r="AL56" s="88"/>
-      <c r="AM56" s="88"/>
-      <c r="AN56" s="88"/>
-      <c r="AO56" s="88"/>
-      <c r="AP56" s="88"/>
-      <c r="AQ56" s="88"/>
-      <c r="AR56" s="88"/>
-      <c r="AS56" s="88"/>
-      <c r="AT56" s="88"/>
-      <c r="AU56" s="88"/>
-      <c r="AV56" s="88"/>
-      <c r="AW56" s="88"/>
-      <c r="AX56" s="88"/>
-      <c r="AY56" s="88"/>
-      <c r="AZ56" s="88"/>
-      <c r="BA56" s="88"/>
-      <c r="BB56" s="88"/>
-      <c r="BC56" s="88"/>
-      <c r="BD56" s="88"/>
-      <c r="BE56" s="88"/>
-      <c r="BF56" s="88"/>
-      <c r="BG56" s="88"/>
-      <c r="BH56" s="88"/>
-      <c r="BI56" s="88"/>
-      <c r="BJ56" s="88"/>
-      <c r="BK56" s="88"/>
-      <c r="BL56" s="88"/>
+        <v>4</v>
+      </c>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="83"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="83"/>
+      <c r="Y56" s="83"/>
+      <c r="Z56" s="83"/>
+      <c r="AA56" s="83"/>
+      <c r="AB56" s="83"/>
+      <c r="AC56" s="83"/>
+      <c r="AD56" s="83"/>
+      <c r="AE56" s="83"/>
+      <c r="AF56" s="83"/>
+      <c r="AG56" s="83"/>
+      <c r="AH56" s="83"/>
+      <c r="AI56" s="83"/>
+      <c r="AJ56" s="83"/>
+      <c r="AK56" s="83"/>
+      <c r="AL56" s="83"/>
+      <c r="AM56" s="83"/>
+      <c r="AN56" s="83"/>
+      <c r="AO56" s="83"/>
+      <c r="AP56" s="83"/>
+      <c r="AQ56" s="83"/>
+      <c r="AR56" s="83"/>
+      <c r="AS56" s="83"/>
+      <c r="AT56" s="83"/>
+      <c r="AU56" s="83"/>
+      <c r="AV56" s="83"/>
+      <c r="AW56" s="83"/>
+      <c r="AX56" s="83"/>
+      <c r="AY56" s="83"/>
+      <c r="AZ56" s="83"/>
+      <c r="BA56" s="83"/>
+      <c r="BB56" s="83"/>
+      <c r="BC56" s="83"/>
+      <c r="BD56" s="83"/>
+      <c r="BE56" s="83"/>
+      <c r="BF56" s="83"/>
+      <c r="BG56" s="83"/>
+      <c r="BH56" s="83"/>
+      <c r="BI56" s="83"/>
+      <c r="BJ56" s="83"/>
+      <c r="BK56" s="83"/>
+      <c r="BL56" s="83"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="90" t="s">
+      <c r="B57" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="87">
-        <v>0.45</v>
-      </c>
-      <c r="E57" s="89">
-        <v>44148</v>
-      </c>
-      <c r="F57" s="89">
-        <v>44151</v>
-      </c>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86">
+      <c r="D57" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="84">
+        <v>44152</v>
+      </c>
+      <c r="F57" s="84">
+        <v>44155</v>
+      </c>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88"/>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="88"/>
-      <c r="AL57" s="88"/>
-      <c r="AM57" s="88"/>
-      <c r="AN57" s="88"/>
-      <c r="AO57" s="88"/>
-      <c r="AP57" s="88"/>
-      <c r="AQ57" s="88"/>
-      <c r="AR57" s="88"/>
-      <c r="AS57" s="88"/>
-      <c r="AT57" s="88"/>
-      <c r="AU57" s="88"/>
-      <c r="AV57" s="88"/>
-      <c r="AW57" s="88"/>
-      <c r="AX57" s="88"/>
-      <c r="AY57" s="88"/>
-      <c r="AZ57" s="88"/>
-      <c r="BA57" s="88"/>
-      <c r="BB57" s="88"/>
-      <c r="BC57" s="88"/>
-      <c r="BD57" s="88"/>
-      <c r="BE57" s="88"/>
-      <c r="BF57" s="88"/>
-      <c r="BG57" s="88"/>
-      <c r="BH57" s="88"/>
-      <c r="BI57" s="88"/>
-      <c r="BJ57" s="88"/>
-      <c r="BK57" s="88"/>
-      <c r="BL57" s="88"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="83"/>
+      <c r="AA57" s="83"/>
+      <c r="AB57" s="83"/>
+      <c r="AC57" s="83"/>
+      <c r="AD57" s="83"/>
+      <c r="AE57" s="83"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="83"/>
+      <c r="AH57" s="83"/>
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="83"/>
+      <c r="AK57" s="83"/>
+      <c r="AL57" s="83"/>
+      <c r="AM57" s="83"/>
+      <c r="AN57" s="83"/>
+      <c r="AO57" s="83"/>
+      <c r="AP57" s="83"/>
+      <c r="AQ57" s="83"/>
+      <c r="AR57" s="83"/>
+      <c r="AS57" s="83"/>
+      <c r="AT57" s="83"/>
+      <c r="AU57" s="83"/>
+      <c r="AV57" s="83"/>
+      <c r="AW57" s="83"/>
+      <c r="AX57" s="83"/>
+      <c r="AY57" s="83"/>
+      <c r="AZ57" s="83"/>
+      <c r="BA57" s="83"/>
+      <c r="BB57" s="83"/>
+      <c r="BC57" s="83"/>
+      <c r="BD57" s="83"/>
+      <c r="BE57" s="83"/>
+      <c r="BF57" s="83"/>
+      <c r="BG57" s="83"/>
+      <c r="BH57" s="83"/>
+      <c r="BI57" s="83"/>
+      <c r="BJ57" s="83"/>
+      <c r="BK57" s="83"/>
+      <c r="BL57" s="83"/>
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="E58" s="89">
-        <v>44152</v>
-      </c>
-      <c r="F58" s="89">
-        <v>44155</v>
-      </c>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
-      </c>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
-      <c r="AC58" s="88"/>
-      <c r="AD58" s="88"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="88"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="88"/>
-      <c r="AI58" s="88"/>
-      <c r="AJ58" s="88"/>
-      <c r="AK58" s="88"/>
-      <c r="AL58" s="88"/>
-      <c r="AM58" s="88"/>
-      <c r="AN58" s="88"/>
-      <c r="AO58" s="88"/>
-      <c r="AP58" s="88"/>
-      <c r="AQ58" s="88"/>
-      <c r="AR58" s="88"/>
-      <c r="AS58" s="88"/>
-      <c r="AT58" s="88"/>
-      <c r="AU58" s="88"/>
-      <c r="AV58" s="88"/>
-      <c r="AW58" s="88"/>
-      <c r="AX58" s="88"/>
-      <c r="AY58" s="88"/>
-      <c r="AZ58" s="88"/>
-      <c r="BA58" s="88"/>
-      <c r="BB58" s="88"/>
-      <c r="BC58" s="88"/>
-      <c r="BD58" s="88"/>
-      <c r="BE58" s="88"/>
-      <c r="BF58" s="88"/>
-      <c r="BG58" s="88"/>
-      <c r="BH58" s="88"/>
-      <c r="BI58" s="88"/>
-      <c r="BJ58" s="88"/>
-      <c r="BK58" s="88"/>
-      <c r="BL58" s="88"/>
+      <c r="B58" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81" t="str">
+        <f t="shared" ref="H58:H59" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="83"/>
+      <c r="AA58" s="83"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="83"/>
+      <c r="AF58" s="83"/>
+      <c r="AG58" s="83"/>
+      <c r="AH58" s="83"/>
+      <c r="AI58" s="83"/>
+      <c r="AJ58" s="83"/>
+      <c r="AK58" s="83"/>
+      <c r="AL58" s="83"/>
+      <c r="AM58" s="83"/>
+      <c r="AN58" s="83"/>
+      <c r="AO58" s="83"/>
+      <c r="AP58" s="83"/>
+      <c r="AQ58" s="83"/>
+      <c r="AR58" s="83"/>
+      <c r="AS58" s="83"/>
+      <c r="AT58" s="83"/>
+      <c r="AU58" s="83"/>
+      <c r="AV58" s="83"/>
+      <c r="AW58" s="83"/>
+      <c r="AX58" s="83"/>
+      <c r="AY58" s="83"/>
+      <c r="AZ58" s="83"/>
+      <c r="BA58" s="83"/>
+      <c r="BB58" s="83"/>
+      <c r="BC58" s="83"/>
+      <c r="BD58" s="83"/>
+      <c r="BE58" s="83"/>
+      <c r="BF58" s="83"/>
+      <c r="BG58" s="83"/>
+      <c r="BH58" s="83"/>
+      <c r="BI58" s="83"/>
+      <c r="BJ58" s="83"/>
+      <c r="BK58" s="83"/>
+      <c r="BL58" s="83"/>
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86" t="str">
-        <f t="shared" ref="H59:H60" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88"/>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="88"/>
-      <c r="AN59" s="88"/>
-      <c r="AO59" s="88"/>
-      <c r="AP59" s="88"/>
-      <c r="AQ59" s="88"/>
-      <c r="AR59" s="88"/>
-      <c r="AS59" s="88"/>
-      <c r="AT59" s="88"/>
-      <c r="AU59" s="88"/>
-      <c r="AV59" s="88"/>
-      <c r="AW59" s="88"/>
-      <c r="AX59" s="88"/>
-      <c r="AY59" s="88"/>
-      <c r="AZ59" s="88"/>
-      <c r="BA59" s="88"/>
-      <c r="BB59" s="88"/>
-      <c r="BC59" s="88"/>
-      <c r="BD59" s="88"/>
-      <c r="BE59" s="88"/>
-      <c r="BF59" s="88"/>
-      <c r="BG59" s="88"/>
-      <c r="BH59" s="88"/>
-      <c r="BI59" s="88"/>
-      <c r="BJ59" s="88"/>
-      <c r="BK59" s="88"/>
-      <c r="BL59" s="88"/>
+      <c r="C59" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="82">
+        <v>0.35</v>
+      </c>
+      <c r="E59" s="84">
+        <v>44156</v>
+      </c>
+      <c r="F59" s="84">
+        <v>44159</v>
+      </c>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="83"/>
+      <c r="AF59" s="83"/>
+      <c r="AG59" s="83"/>
+      <c r="AH59" s="83"/>
+      <c r="AI59" s="83"/>
+      <c r="AJ59" s="83"/>
+      <c r="AK59" s="83"/>
+      <c r="AL59" s="83"/>
+      <c r="AM59" s="83"/>
+      <c r="AN59" s="83"/>
+      <c r="AO59" s="83"/>
+      <c r="AP59" s="83"/>
+      <c r="AQ59" s="83"/>
+      <c r="AR59" s="83"/>
+      <c r="AS59" s="83"/>
+      <c r="AT59" s="83"/>
+      <c r="AU59" s="83"/>
+      <c r="AV59" s="83"/>
+      <c r="AW59" s="83"/>
+      <c r="AX59" s="83"/>
+      <c r="AY59" s="83"/>
+      <c r="AZ59" s="83"/>
+      <c r="BA59" s="83"/>
+      <c r="BB59" s="83"/>
+      <c r="BC59" s="83"/>
+      <c r="BD59" s="83"/>
+      <c r="BE59" s="83"/>
+      <c r="BF59" s="83"/>
+      <c r="BG59" s="83"/>
+      <c r="BH59" s="83"/>
+      <c r="BI59" s="83"/>
+      <c r="BJ59" s="83"/>
+      <c r="BK59" s="83"/>
+      <c r="BL59" s="83"/>
     </row>
     <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="87">
-        <v>0.35</v>
-      </c>
-      <c r="E60" s="89">
-        <v>44156</v>
-      </c>
-      <c r="F60" s="89">
-        <v>44159</v>
-      </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88"/>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="88"/>
-      <c r="AN60" s="88"/>
-      <c r="AO60" s="88"/>
-      <c r="AP60" s="88"/>
-      <c r="AQ60" s="88"/>
-      <c r="AR60" s="88"/>
-      <c r="AS60" s="88"/>
-      <c r="AT60" s="88"/>
-      <c r="AU60" s="88"/>
-      <c r="AV60" s="88"/>
-      <c r="AW60" s="88"/>
-      <c r="AX60" s="88"/>
-      <c r="AY60" s="88"/>
-      <c r="AZ60" s="88"/>
-      <c r="BA60" s="88"/>
-      <c r="BB60" s="88"/>
-      <c r="BC60" s="88"/>
-      <c r="BD60" s="88"/>
-      <c r="BE60" s="88"/>
-      <c r="BF60" s="88"/>
-      <c r="BG60" s="88"/>
-      <c r="BH60" s="88"/>
-      <c r="BI60" s="88"/>
-      <c r="BJ60" s="88"/>
-      <c r="BK60" s="88"/>
-      <c r="BL60" s="88"/>
+      <c r="B60" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E60" s="57">
+        <f>E49+15</f>
+        <v>15</v>
+      </c>
+      <c r="F60" s="57">
+        <f>E60+5</f>
+        <v>20</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="83"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="83"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="83"/>
+      <c r="AC60" s="83"/>
+      <c r="AD60" s="83"/>
+      <c r="AE60" s="83"/>
+      <c r="AF60" s="83"/>
+      <c r="AG60" s="83"/>
+      <c r="AH60" s="83"/>
+      <c r="AI60" s="83"/>
+      <c r="AJ60" s="83"/>
+      <c r="AK60" s="83"/>
+      <c r="AL60" s="83"/>
+      <c r="AM60" s="83"/>
+      <c r="AN60" s="83"/>
+      <c r="AO60" s="83"/>
+      <c r="AP60" s="83"/>
+      <c r="AQ60" s="83"/>
+      <c r="AR60" s="83"/>
+      <c r="AS60" s="83"/>
+      <c r="AT60" s="83"/>
+      <c r="AU60" s="83"/>
+      <c r="AV60" s="83"/>
+      <c r="AW60" s="83"/>
+      <c r="AX60" s="83"/>
+      <c r="AY60" s="83"/>
+      <c r="AZ60" s="83"/>
+      <c r="BA60" s="83"/>
+      <c r="BB60" s="83"/>
+      <c r="BC60" s="83"/>
+      <c r="BD60" s="83"/>
+      <c r="BE60" s="83"/>
+      <c r="BF60" s="83"/>
+      <c r="BG60" s="83"/>
+      <c r="BH60" s="83"/>
+      <c r="BI60" s="83"/>
+      <c r="BJ60" s="83"/>
+      <c r="BK60" s="83"/>
+      <c r="BL60" s="83"/>
     </row>
     <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B61" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="29">
-        <v>0.12</v>
-      </c>
-      <c r="E61" s="57">
-        <f>E49+15</f>
-        <v>15</v>
-      </c>
-      <c r="F61" s="57">
-        <f>E61+5</f>
-        <v>20</v>
-      </c>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
-      <c r="AC61" s="88"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88"/>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="88"/>
-      <c r="AN61" s="88"/>
-      <c r="AO61" s="88"/>
-      <c r="AP61" s="88"/>
-      <c r="AQ61" s="88"/>
-      <c r="AR61" s="88"/>
-      <c r="AS61" s="88"/>
-      <c r="AT61" s="88"/>
-      <c r="AU61" s="88"/>
-      <c r="AV61" s="88"/>
-      <c r="AW61" s="88"/>
-      <c r="AX61" s="88"/>
-      <c r="AY61" s="88"/>
-      <c r="AZ61" s="88"/>
-      <c r="BA61" s="88"/>
-      <c r="BB61" s="88"/>
-      <c r="BC61" s="88"/>
-      <c r="BD61" s="88"/>
-      <c r="BE61" s="88"/>
-      <c r="BF61" s="88"/>
-      <c r="BG61" s="88"/>
-      <c r="BH61" s="88"/>
-      <c r="BI61" s="88"/>
-      <c r="BJ61" s="88"/>
-      <c r="BK61" s="88"/>
-      <c r="BL61" s="88"/>
+        <v>96</v>
+      </c>
+      <c r="C61" s="92"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="83"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="83"/>
+      <c r="Y61" s="83"/>
+      <c r="Z61" s="83"/>
+      <c r="AA61" s="83"/>
+      <c r="AB61" s="83"/>
+      <c r="AC61" s="83"/>
+      <c r="AD61" s="83"/>
+      <c r="AE61" s="83"/>
+      <c r="AF61" s="83"/>
+      <c r="AG61" s="83"/>
+      <c r="AH61" s="83"/>
+      <c r="AI61" s="83"/>
+      <c r="AJ61" s="83"/>
+      <c r="AK61" s="83"/>
+      <c r="AL61" s="83"/>
+      <c r="AM61" s="83"/>
+      <c r="AN61" s="83"/>
+      <c r="AO61" s="83"/>
+      <c r="AP61" s="83"/>
+      <c r="AQ61" s="83"/>
+      <c r="AR61" s="83"/>
+      <c r="AS61" s="83"/>
+      <c r="AT61" s="83"/>
+      <c r="AU61" s="83"/>
+      <c r="AV61" s="83"/>
+      <c r="AW61" s="83"/>
+      <c r="AX61" s="83"/>
+      <c r="AY61" s="83"/>
+      <c r="AZ61" s="83"/>
+      <c r="BA61" s="83"/>
+      <c r="BB61" s="83"/>
+      <c r="BC61" s="83"/>
+      <c r="BD61" s="83"/>
+      <c r="BE61" s="83"/>
+      <c r="BF61" s="83"/>
+      <c r="BG61" s="83"/>
+      <c r="BH61" s="83"/>
+      <c r="BI61" s="83"/>
+      <c r="BJ61" s="83"/>
+      <c r="BK61" s="83"/>
+      <c r="BL61" s="83"/>
     </row>
     <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="88"/>
-      <c r="AI62" s="88"/>
-      <c r="AJ62" s="88"/>
-      <c r="AK62" s="88"/>
-      <c r="AL62" s="88"/>
-      <c r="AM62" s="88"/>
-      <c r="AN62" s="88"/>
-      <c r="AO62" s="88"/>
-      <c r="AP62" s="88"/>
-      <c r="AQ62" s="88"/>
-      <c r="AR62" s="88"/>
-      <c r="AS62" s="88"/>
-      <c r="AT62" s="88"/>
-      <c r="AU62" s="88"/>
-      <c r="AV62" s="88"/>
-      <c r="AW62" s="88"/>
-      <c r="AX62" s="88"/>
-      <c r="AY62" s="88"/>
-      <c r="AZ62" s="88"/>
-      <c r="BA62" s="88"/>
-      <c r="BB62" s="88"/>
-      <c r="BC62" s="88"/>
-      <c r="BD62" s="88"/>
-      <c r="BE62" s="88"/>
-      <c r="BF62" s="88"/>
-      <c r="BG62" s="88"/>
-      <c r="BH62" s="88"/>
-      <c r="BI62" s="88"/>
-      <c r="BJ62" s="88"/>
-      <c r="BK62" s="88"/>
-      <c r="BL62" s="88"/>
-    </row>
-    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
-      <c r="AC63" s="88"/>
-      <c r="AD63" s="88"/>
-      <c r="AE63" s="88"/>
-      <c r="AF63" s="88"/>
-      <c r="AG63" s="88"/>
-      <c r="AH63" s="88"/>
-      <c r="AI63" s="88"/>
-      <c r="AJ63" s="88"/>
-      <c r="AK63" s="88"/>
-      <c r="AL63" s="88"/>
-      <c r="AM63" s="88"/>
-      <c r="AN63" s="88"/>
-      <c r="AO63" s="88"/>
-      <c r="AP63" s="88"/>
-      <c r="AQ63" s="88"/>
-      <c r="AR63" s="88"/>
-      <c r="AS63" s="88"/>
-      <c r="AT63" s="88"/>
-      <c r="AU63" s="88"/>
-      <c r="AV63" s="88"/>
-      <c r="AW63" s="88"/>
-      <c r="AX63" s="88"/>
-      <c r="AY63" s="88"/>
-      <c r="AZ63" s="88"/>
-      <c r="BA63" s="88"/>
-      <c r="BB63" s="88"/>
-      <c r="BC63" s="88"/>
-      <c r="BD63" s="88"/>
-      <c r="BE63" s="88"/>
-      <c r="BF63" s="88"/>
-      <c r="BG63" s="88"/>
-      <c r="BH63" s="88"/>
-      <c r="BI63" s="88"/>
-      <c r="BJ63" s="88"/>
-      <c r="BK63" s="88"/>
-      <c r="BL63" s="88"/>
+      <c r="B62" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="85"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="83"/>
+      <c r="W62" s="83"/>
+      <c r="X62" s="83"/>
+      <c r="Y62" s="83"/>
+      <c r="Z62" s="83"/>
+      <c r="AA62" s="83"/>
+      <c r="AB62" s="83"/>
+      <c r="AC62" s="83"/>
+      <c r="AD62" s="83"/>
+      <c r="AE62" s="83"/>
+      <c r="AF62" s="83"/>
+      <c r="AG62" s="83"/>
+      <c r="AH62" s="83"/>
+      <c r="AI62" s="83"/>
+      <c r="AJ62" s="83"/>
+      <c r="AK62" s="83"/>
+      <c r="AL62" s="83"/>
+      <c r="AM62" s="83"/>
+      <c r="AN62" s="83"/>
+      <c r="AO62" s="83"/>
+      <c r="AP62" s="83"/>
+      <c r="AQ62" s="83"/>
+      <c r="AR62" s="83"/>
+      <c r="AS62" s="83"/>
+      <c r="AT62" s="83"/>
+      <c r="AU62" s="83"/>
+      <c r="AV62" s="83"/>
+      <c r="AW62" s="83"/>
+      <c r="AX62" s="83"/>
+      <c r="AY62" s="83"/>
+      <c r="AZ62" s="83"/>
+      <c r="BA62" s="83"/>
+      <c r="BB62" s="83"/>
+      <c r="BC62" s="83"/>
+      <c r="BD62" s="83"/>
+      <c r="BE62" s="83"/>
+      <c r="BF62" s="83"/>
+      <c r="BG62" s="83"/>
+      <c r="BH62" s="83"/>
+      <c r="BI62" s="83"/>
+      <c r="BJ62" s="83"/>
+      <c r="BK62" s="83"/>
+      <c r="BL62" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7493,7 +7399,7 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D62 D45">
+  <conditionalFormatting sqref="D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D61 D45">
     <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7507,12 +7413,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I5:BL14 I62:BL62 I45:BL45">
+  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I5:BL14 I61:BL61 I45:BL45">
     <cfRule type="expression" dxfId="92" priority="244">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I7:BL14 I62:BL62 I45:BL45">
+  <conditionalFormatting sqref="I39:BL39 I30:BL30 I17:BL18 I20:BL21 I33:BL33 I49:BL49 I23:BL27 I7:BL14 I61:BL61 I45:BL45">
     <cfRule type="expression" dxfId="91" priority="238">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8157,33 +8063,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0660A8FF-4BA0-497E-B8B2-535E167C5AB9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="23" priority="36">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="22" priority="34">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8197,12 +8076,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="20" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="19" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8210,7 +8089,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8224,12 +8103,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="17" priority="28">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="16" priority="26">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8237,7 +8116,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8251,12 +8130,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8264,7 +8143,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D58">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8278,12 +8157,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8291,7 +8170,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D59">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8305,12 +8184,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8318,7 +8197,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D62">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8332,12 +8211,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8345,7 +8224,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D60">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8359,12 +8238,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8399,7 +8278,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D62 D45</xm:sqref>
+          <xm:sqref>D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D61 D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8777,7 +8656,7 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0660A8FF-4BA0-497E-B8B2-535E167C5AB9}">
+          <x14:cfRule type="dataBar" id="{A83FB9DE-1143-4B08-88BF-2542FCF85F42}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8792,7 +8671,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A83FB9DE-1143-4B08-88BF-2542FCF85F42}">
+          <x14:cfRule type="dataBar" id="{0B0318E4-966D-4EF2-A6D4-FB4E5E991E97}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8807,7 +8686,7 @@
           <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0B0318E4-966D-4EF2-A6D4-FB4E5E991E97}">
+          <x14:cfRule type="dataBar" id="{5F08EE57-E16D-4602-B8B1-278E2EBEEB0E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8822,7 +8701,7 @@
           <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F08EE57-E16D-4602-B8B1-278E2EBEEB0E}">
+          <x14:cfRule type="dataBar" id="{5EED533C-4486-4D94-B9F5-0351D40BB2D9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8837,7 +8716,7 @@
           <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EED533C-4486-4D94-B9F5-0351D40BB2D9}">
+          <x14:cfRule type="dataBar" id="{B34501E5-5DBE-4846-A912-F8DA725340FE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8852,21 +8731,6 @@
           <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B34501E5-5DBE-4846-A912-F8DA725340FE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{507BED7D-5931-42DA-905A-19A2496FF1FB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -8879,7 +8743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{455033F3-7A95-4631-B1C1-A667600551E2}">
@@ -8894,7 +8758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2E2C5-E045-40C2-8CEF-218BB3943B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C698CFA4-C550-4B05-9B1C-2F72A18DD6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -389,7 +389,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,6 +1070,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1077,18 +1089,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2559,25 +2559,25 @@
   <dimension ref="A1:BL63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="49" t="s">
         <v>28</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>23</v>
       </c>
@@ -2600,126 +2600,126 @@
       </c>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="104">
+      <c r="D3" s="103"/>
+      <c r="E3" s="101">
         <f ca="1">TODAY()</f>
-        <v>44161</v>
-      </c>
-      <c r="F3" s="104"/>
+        <v>44162</v>
+      </c>
+      <c r="F3" s="101"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="98">
         <f ca="1">I5</f>
         <v>44158</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="101">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f ca="1">P5</f>
         <v>44165</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="101">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f ca="1">W5</f>
         <v>44172</v>
       </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="101">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f ca="1">AD5</f>
         <v>44179</v>
       </c>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="101">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f ca="1">AK5</f>
         <v>44186</v>
       </c>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="101">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f ca="1">AR5</f>
         <v>44193</v>
       </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="101">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f ca="1">AY5</f>
         <v>44200</v>
       </c>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="101">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f ca="1">BF5</f>
         <v>44207</v>
       </c>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="103"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="10">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44158</v>
@@ -2945,7 +2945,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="BK7" s="35"/>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
         <v>33</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
         <v>34</v>
       </c>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="E9" s="55">
         <f ca="1">Project_Start</f>
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="F9" s="55">
         <f ca="1">E9+3</f>
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -3416,7 +3416,7 @@
       <c r="BK9" s="35"/>
       <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
         <v>35</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="BK10" s="35"/>
       <c r="BL10" s="35"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
@@ -3564,7 +3564,7 @@
       <c r="BK11" s="35"/>
       <c r="BL11" s="35"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="48"/>
       <c r="B12" s="73" t="s">
         <v>59</v>
@@ -3644,7 +3644,7 @@
       <c r="BK12" s="35"/>
       <c r="BL12" s="35"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48"/>
       <c r="B13" s="73" t="s">
         <v>40</v>
@@ -3725,7 +3725,7 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="BK14" s="88"/>
       <c r="BL14" s="88"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="49"/>
       <c r="B15" s="73" t="s">
         <v>67</v>
@@ -3876,7 +3876,7 @@
       <c r="BK15" s="35"/>
       <c r="BL15" s="35"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49"/>
       <c r="B16" s="73" t="s">
         <v>91</v>
@@ -3957,7 +3957,7 @@
       <c r="BK16" s="35"/>
       <c r="BL16" s="35"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
       <c r="B17" s="73" t="s">
         <v>41</v>
@@ -4038,7 +4038,7 @@
       <c r="BK17" s="35"/>
       <c r="BL17" s="35"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48"/>
       <c r="B18" s="25" t="s">
         <v>57</v>
@@ -4109,7 +4109,7 @@
       <c r="BK18" s="35"/>
       <c r="BL18" s="35"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48"/>
       <c r="B19" s="74" t="s">
         <v>76</v>
@@ -4190,7 +4190,7 @@
       <c r="BK19" s="35"/>
       <c r="BL19" s="35"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48"/>
       <c r="B20" s="74" t="s">
         <v>58</v>
@@ -4203,11 +4203,11 @@
       </c>
       <c r="E20" s="57">
         <f ca="1">E9+15</f>
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="F20" s="57">
         <f ca="1">E20+5</f>
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -4271,7 +4271,7 @@
       <c r="BK20" s="35"/>
       <c r="BL20" s="35"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48"/>
       <c r="B21" s="74" t="s">
         <v>42</v>
@@ -4352,7 +4352,7 @@
       <c r="BK21" s="35"/>
       <c r="BL21" s="35"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
         <v>87</v>
@@ -4433,7 +4433,7 @@
       <c r="BK22" s="35"/>
       <c r="BL22" s="35"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
       <c r="B23" s="74" t="s">
         <v>90</v>
@@ -4511,7 +4511,7 @@
       <c r="BK23" s="88"/>
       <c r="BL23" s="88"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48"/>
       <c r="B24" s="74" t="s">
         <v>73</v>
@@ -4524,11 +4524,11 @@
       </c>
       <c r="E24" s="57">
         <f ca="1">F20+1</f>
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="F24" s="57">
         <f ca="1">E24+4</f>
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
@@ -4592,7 +4592,7 @@
       <c r="BK24" s="35"/>
       <c r="BL24" s="35"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48"/>
       <c r="B25" s="30" t="s">
         <v>43</v>
@@ -4663,7 +4663,7 @@
       <c r="BK25" s="35"/>
       <c r="BL25" s="35"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="BK26" s="35"/>
       <c r="BL26" s="35"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
         <v>65</v>
@@ -4823,7 +4823,7 @@
       <c r="BK27" s="35"/>
       <c r="BL27" s="35"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48"/>
       <c r="B28" s="75" t="s">
         <v>68</v>
@@ -4902,7 +4902,7 @@
       <c r="BK28" s="35"/>
       <c r="BL28" s="35"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="75" t="s">
         <v>66</v>
@@ -4981,7 +4981,7 @@
       <c r="BK29" s="35"/>
       <c r="BL29" s="35"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48"/>
       <c r="B30" s="75" t="s">
         <v>45</v>
@@ -5062,7 +5062,7 @@
       <c r="BK30" s="35"/>
       <c r="BL30" s="35"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48"/>
       <c r="B31" s="76" t="s">
         <v>46</v>
@@ -5133,7 +5133,7 @@
       <c r="BK31" s="35"/>
       <c r="BL31" s="35"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>24</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="BK32" s="35"/>
       <c r="BL32" s="35"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="48"/>
       <c r="B33" s="75" t="s">
         <v>79</v>
@@ -5288,7 +5288,7 @@
       <c r="BK33" s="35"/>
       <c r="BL33" s="35"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="48"/>
       <c r="B34" s="75" t="s">
         <v>63</v>
@@ -5367,7 +5367,7 @@
       <c r="BK34" s="35"/>
       <c r="BL34" s="35"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48"/>
       <c r="B35" s="75" t="s">
         <v>70</v>
@@ -5446,7 +5446,7 @@
       <c r="BK35" s="35"/>
       <c r="BL35" s="35"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48"/>
       <c r="B36" s="75" t="s">
         <v>71</v>
@@ -5525,7 +5525,7 @@
       <c r="BK36" s="35"/>
       <c r="BL36" s="35"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="48"/>
       <c r="B37" s="67" t="s">
         <v>56</v>
@@ -5596,7 +5596,7 @@
       <c r="BK37" s="35"/>
       <c r="BL37" s="35"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
         <v>26</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="BK38" s="35"/>
       <c r="BL38" s="35"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="49" t="s">
         <v>25</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="BK39" s="35"/>
       <c r="BL39" s="35"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="75" t="s">
         <v>77</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="BK40" s="35"/>
       <c r="BL40" s="35"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="75" t="s">
         <v>64</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="BK41" s="35"/>
       <c r="BL41" s="35"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="67" t="s">
         <v>74</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="BK42" s="35"/>
       <c r="BL42" s="35"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="75" t="s">
         <v>98</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="75" t="s">
         <v>99</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="91" t="s">
         <v>101</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="BK45" s="88"/>
       <c r="BL45" s="88"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="75" t="s">
         <v>100</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="BK46" s="35"/>
       <c r="BL46" s="35"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="67" t="s">
         <v>72</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="BK47" s="35"/>
       <c r="BL47" s="35"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="75" t="s">
         <v>75</v>
       </c>
@@ -6378,7 +6378,7 @@
       <c r="BK48" s="35"/>
       <c r="BL48" s="35"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="75" t="s">
         <v>81</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="BK49" s="35"/>
       <c r="BL49" s="35"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="75" t="s">
         <v>60</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="BK50" s="35"/>
       <c r="BL50" s="35"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="92" t="s">
         <v>82</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="BK51" s="88"/>
       <c r="BL51" s="88"/>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="91" t="s">
         <v>84</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="BK52" s="88"/>
       <c r="BL52" s="88"/>
     </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="91" t="s">
         <v>85</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="BK53" s="88"/>
       <c r="BL53" s="88"/>
     </row>
-    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="91" t="s">
         <v>86</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="BK54" s="88"/>
       <c r="BL54" s="88"/>
     </row>
-    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="80" t="s">
         <v>47</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="F55" s="84"/>
       <c r="G55" s="86"/>
       <c r="H55" s="86" t="str">
-        <f t="shared" ref="H55:H58" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H55" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I55" s="88"/>
@@ -6882,7 +6882,7 @@
       <c r="BK55" s="88"/>
       <c r="BL55" s="88"/>
     </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="91" t="s">
         <v>78</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="BK56" s="88"/>
       <c r="BL56" s="88"/>
     </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="91" t="s">
         <v>55</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="BK57" s="88"/>
       <c r="BL57" s="88"/>
     </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="91" t="s">
         <v>69</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="BK58" s="88"/>
       <c r="BL58" s="88"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="67" t="s">
         <v>94</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="BK59" s="88"/>
       <c r="BL59" s="88"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="91" t="s">
         <v>95</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="BK60" s="88"/>
       <c r="BL60" s="88"/>
     </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="74" t="s">
         <v>93</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="BK61" s="88"/>
       <c r="BL61" s="88"/>
     </row>
-    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="74" t="s">
         <v>97</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="BK62" s="88"/>
       <c r="BL62" s="88"/>
     </row>
-    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="91" t="s">
         <v>96</v>
       </c>
@@ -7480,6 +7480,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7487,11 +7492,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D30 D39 D17:D18 D20 D49 D24:D27 D7:D14 D62 D45">
     <cfRule type="dataBar" priority="225">
@@ -8908,86 +8908,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="38" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="38" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="40" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="1:2" s="41" customFormat="1" ht="26.25">
+    <row r="4" spans="1:2" s="41" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="38" customFormat="1" ht="204.95" customHeight="1">
+    <row r="7" spans="1:2" s="38" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="41" customFormat="1" ht="26.25">
+    <row r="8" spans="1:2" s="41" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1">
+    <row r="10" spans="1:2" s="38" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="41" customFormat="1" ht="26.25">
+    <row r="11" spans="1:2" s="41" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="38" customFormat="1" ht="27.95" customHeight="1">
+    <row r="13" spans="1:2" s="38" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="41" customFormat="1" ht="26.25">
+    <row r="14" spans="1:2" s="41" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>15</v>
       </c>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DC3E8-C9BC-450D-A2D8-85E9467880B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240599D-7A37-44B2-88A1-2C8D3BF594D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>Project Start:</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Lập hóa đơn</t>
   </si>
   <si>
-    <t>Lịch sử nhập hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thống kê </t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>Quản lý danh mục</t>
   </si>
   <si>
-    <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
-  </si>
-  <si>
     <t>Lập phiếu đặt hàng</t>
   </si>
   <si>
@@ -348,9 +342,6 @@
     <t>Quản lý sản phẩm</t>
   </si>
   <si>
-    <t>Xem danh sách sản phẩm</t>
-  </si>
-  <si>
     <t>Cập nhật danh mục sản phẩm</t>
   </si>
   <si>
@@ -379,6 +370,12 @@
   </si>
   <si>
     <t>Hoàng Tân</t>
+  </si>
+  <si>
+    <t>Xem danh sách phiếu đặt hàng</t>
+  </si>
+  <si>
+    <t>Xem lịch sử nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -993,6 +990,51 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1012,51 +1054,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1073,247 +1070,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="150">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -2580,15 +2337,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="149"/>
-      <tableStyleElement type="headerRow" dxfId="148"/>
-      <tableStyleElement type="totalRow" dxfId="147"/>
-      <tableStyleElement type="firstColumn" dxfId="146"/>
-      <tableStyleElement type="lastColumn" dxfId="145"/>
-      <tableStyleElement type="firstRowStripe" dxfId="144"/>
-      <tableStyleElement type="secondRowStripe" dxfId="143"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="141"/>
+      <tableStyleElement type="wholeTable" dxfId="125"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstColumn" dxfId="122"/>
+      <tableStyleElement type="lastColumn" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3004,11 +2761,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3076,7 +2833,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -3090,7 +2847,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="41"/>
     </row>
@@ -3099,14 +2856,14 @@
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76">
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
         <v>44117</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -3115,104 +2872,104 @@
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="73">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="73">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="73">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="73">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="73">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="73">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="73">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="74"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -3766,7 +3523,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="26"/>
@@ -3831,19 +3588,19 @@
         <v>34</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19">
         <v>0.8</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="73">
         <f>Project_Start</f>
         <v>44117</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="73">
         <f>E9+3</f>
         <v>44120</v>
       </c>
@@ -3914,18 +3671,18 @@
         <v>35</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="19">
         <v>0.8</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="73">
         <v>44123</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="73">
         <v>44127</v>
       </c>
       <c r="G10" s="14"/>
@@ -3997,8 +3754,8 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="str">
         <f t="shared" si="6"/>
@@ -4064,18 +3821,18 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="39"/>
       <c r="B12" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="19">
         <v>0.8</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="76">
         <v>44129</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="76">
         <f>E12+4</f>
         <v>44133</v>
       </c>
@@ -4147,16 +3904,16 @@
         <v>40</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19">
         <v>0.8</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="76">
         <f>F12+4</f>
         <v>44137</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="76">
         <f>E13+3</f>
         <v>44140</v>
       </c>
@@ -4227,19 +3984,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="19">
         <v>0.8</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="76">
         <f>F13+3</f>
         <v>44143</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="76">
         <v>44147</v>
       </c>
       <c r="G14" s="65"/>
@@ -4304,19 +4061,19 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="40"/>
       <c r="B15" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="19">
         <v>0.8</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="76">
         <f>F14+2</f>
         <v>44149</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="76">
         <v>44152</v>
       </c>
       <c r="G15" s="14"/>
@@ -4384,19 +4141,19 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="19">
         <v>0.8</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="76">
         <f>F15+2</f>
         <v>44154</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="76">
         <f>E16+4</f>
         <v>44158</v>
       </c>
@@ -4465,12 +4222,12 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="str">
         <f t="shared" si="6"/>
@@ -4536,18 +4293,18 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="19">
         <v>0.8</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="79">
         <v>44117</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="79">
         <v>44120</v>
       </c>
       <c r="G18" s="65"/>
@@ -4615,18 +4372,18 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="39"/>
       <c r="B19" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="19">
         <v>0.8</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="79">
         <v>44123</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="79">
         <v>44127</v>
       </c>
       <c r="G19" s="14"/>
@@ -4694,258 +4451,250 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="19">
         <v>0.8</v>
       </c>
-      <c r="E20" s="86">
-        <v>44127</v>
-      </c>
-      <c r="F20" s="86">
-        <v>44130</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65">
+      <c r="E20" s="79">
+        <v>44132</v>
+      </c>
+      <c r="F20" s="79">
+        <v>44136</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="66"/>
       <c r="X20" s="66"/>
       <c r="Y20" s="66"/>
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
       <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="19">
         <v>0.8</v>
       </c>
-      <c r="E21" s="86">
-        <v>44132</v>
-      </c>
-      <c r="F21" s="86">
-        <v>44136</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="E21" s="79">
+        <v>44138</v>
+      </c>
+      <c r="F21" s="79">
+        <v>44142</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="66"/>
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="19">
         <v>0.8</v>
       </c>
-      <c r="E22" s="86">
-        <v>44138</v>
-      </c>
-      <c r="F22" s="86">
-        <v>44142</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="E22" s="79">
+        <v>44144</v>
+      </c>
+      <c r="F22" s="79">
+        <v>44147</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="66"/>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
-      <c r="BA22" s="66"/>
-      <c r="BB22" s="66"/>
-      <c r="BC22" s="66"/>
-      <c r="BD22" s="66"/>
-      <c r="BE22" s="66"/>
-      <c r="BF22" s="66"/>
-      <c r="BG22" s="66"/>
-      <c r="BH22" s="66"/>
-      <c r="BI22" s="66"/>
-      <c r="BJ22" s="66"/>
-      <c r="BK22" s="66"/>
-      <c r="BL22" s="66"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="86">
-        <v>44144</v>
-      </c>
-      <c r="F23" s="86">
-        <v>44147</v>
-      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="H23" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -4958,12 +4707,12 @@
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
@@ -5006,17 +4755,25 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="39"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
+      <c r="C24" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F24" s="82">
+        <v>44151</v>
+      </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
@@ -5078,24 +4835,24 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="39"/>
       <c r="B25" s="60" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="19">
         <v>0.8</v>
       </c>
-      <c r="E25" s="89">
-        <v>44148</v>
-      </c>
-      <c r="F25" s="89">
-        <v>44151</v>
+      <c r="E25" s="82">
+        <v>44152</v>
+      </c>
+      <c r="F25" s="82">
+        <v>44156</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -5159,24 +4916,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19">
         <v>0.8</v>
       </c>
-      <c r="E26" s="89">
-        <v>44152</v>
-      </c>
-      <c r="F26" s="89">
-        <v>44156</v>
+      <c r="E26" s="82">
+        <v>44157</v>
+      </c>
+      <c r="F26" s="82">
+        <v>44158</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>2</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -5238,24 +4995,24 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="39"/>
       <c r="B27" s="60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="19">
         <v>0.8</v>
       </c>
-      <c r="E27" s="89">
-        <v>44157</v>
-      </c>
-      <c r="F27" s="89">
-        <v>44158</v>
+      <c r="E27" s="82">
+        <v>44160</v>
+      </c>
+      <c r="F27" s="82">
+        <v>44162</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -5317,23 +5074,23 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="39"/>
       <c r="B28" s="60" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="19">
         <v>0.8</v>
       </c>
-      <c r="E28" s="89">
-        <v>44160</v>
-      </c>
-      <c r="F28" s="89">
-        <v>44162</v>
+      <c r="E28" s="82">
+        <v>44164</v>
+      </c>
+      <c r="F28" s="82">
+        <v>44166</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I28" s="26"/>
@@ -5349,7 +5106,9 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="V28" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
@@ -5395,25 +5154,17 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="39"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E29" s="89">
-        <v>44164</v>
-      </c>
-      <c r="F29" s="89">
-        <v>44166</v>
-      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="H29" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
@@ -5428,9 +5179,7 @@
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
@@ -5476,17 +5225,25 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
+      <c r="B30" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="82">
+        <v>44117</v>
+      </c>
+      <c r="F30" s="82">
+        <v>44120</v>
+      </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H30" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -5548,25 +5305,22 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="19">
         <v>0.8</v>
       </c>
-      <c r="E31" s="89">
-        <v>44117</v>
-      </c>
-      <c r="F31" s="89">
-        <v>44120</v>
+      <c r="E31" s="82">
+        <v>44123</v>
+      </c>
+      <c r="F31" s="82">
+        <v>44127</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
-      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -5629,154 +5383,157 @@
         <v>24</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="19">
         <v>0.8</v>
       </c>
-      <c r="E32" s="89">
-        <v>44123</v>
-      </c>
-      <c r="F32" s="89">
+      <c r="E32" s="82">
         <v>44127</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
+      <c r="F32" s="82">
+        <v>44130</v>
+      </c>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="66"/>
+      <c r="BA32" s="66"/>
+      <c r="BB32" s="66"/>
+      <c r="BC32" s="66"/>
+      <c r="BD32" s="66"/>
+      <c r="BE32" s="66"/>
+      <c r="BF32" s="66"/>
+      <c r="BG32" s="66"/>
+      <c r="BH32" s="66"/>
+      <c r="BI32" s="66"/>
+      <c r="BJ32" s="66"/>
+      <c r="BK32" s="66"/>
+      <c r="BL32" s="66"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="19">
         <v>0.8</v>
       </c>
-      <c r="E33" s="89">
-        <v>44127</v>
-      </c>
-      <c r="F33" s="89">
-        <v>44130</v>
-      </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
-      <c r="BA33" s="66"/>
-      <c r="BB33" s="66"/>
-      <c r="BC33" s="66"/>
-      <c r="BD33" s="66"/>
-      <c r="BE33" s="66"/>
-      <c r="BF33" s="66"/>
-      <c r="BG33" s="66"/>
-      <c r="BH33" s="66"/>
-      <c r="BI33" s="66"/>
-      <c r="BJ33" s="66"/>
-      <c r="BK33" s="66"/>
-      <c r="BL33" s="66"/>
+      <c r="E33" s="82">
+        <v>44132</v>
+      </c>
+      <c r="F33" s="82">
+        <v>44136</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="39"/>
@@ -5784,21 +5541,21 @@
         <v>67</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="19">
         <v>0.8</v>
       </c>
-      <c r="E34" s="89">
-        <v>44132</v>
-      </c>
-      <c r="F34" s="89">
-        <v>44136</v>
+      <c r="E34" s="82">
+        <v>44137</v>
+      </c>
+      <c r="F34" s="82">
+        <v>44140</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -5859,25 +5616,17 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="39"/>
-      <c r="B35" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E35" s="89">
-        <v>44137</v>
-      </c>
-      <c r="F35" s="89">
-        <v>44140</v>
-      </c>
+      <c r="B35" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14">
+      <c r="H35" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -5938,17 +5687,25 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="39"/>
-      <c r="B36" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
+      <c r="B36" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="82">
+        <v>44142</v>
+      </c>
+      <c r="F36" s="82">
+        <v>44145</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
@@ -6010,25 +5767,22 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="39"/>
       <c r="B37" s="60" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="19">
         <v>0.8</v>
       </c>
-      <c r="E37" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F37" s="89">
-        <v>44145</v>
+      <c r="E37" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F37" s="82">
+        <v>44152</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -6091,19 +5845,19 @@
         <v>26</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="19">
         <v>0.8</v>
       </c>
-      <c r="E38" s="89">
-        <v>44148</v>
-      </c>
-      <c r="F38" s="89">
-        <v>44152</v>
+      <c r="E38" s="82">
+        <v>44155</v>
+      </c>
+      <c r="F38" s="82">
+        <v>44158</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -6169,19 +5923,19 @@
         <v>25</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="19">
         <v>0.8</v>
       </c>
-      <c r="E39" s="89">
-        <v>44155</v>
-      </c>
-      <c r="F39" s="89">
-        <v>44158</v>
+      <c r="E39" s="82">
+        <v>44160</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>98</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -6243,23 +5997,18 @@
       <c r="BL39" s="26"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="89">
-        <v>44160</v>
-      </c>
-      <c r="F40" s="89" t="s">
-        <v>101</v>
-      </c>
+      <c r="B40" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14" t="str">
+        <f t="shared" ref="H40:H41" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -6318,17 +6067,25 @@
       <c r="BL40" s="26"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92"/>
+      <c r="B41" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="82">
+        <v>44117</v>
+      </c>
+      <c r="F41" s="82">
+        <v>44120</v>
+      </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="14" t="str">
-        <f t="shared" ref="H41:H42" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H41" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
@@ -6389,25 +6146,22 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="19">
         <v>0.8</v>
       </c>
-      <c r="E42" s="89">
-        <v>44117</v>
-      </c>
-      <c r="F42" s="89">
-        <v>44120</v>
+      <c r="E42" s="82">
+        <v>44123</v>
+      </c>
+      <c r="F42" s="82">
+        <v>44127</v>
       </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6466,173 +6220,168 @@
       <c r="BL42" s="26"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>47</v>
+      <c r="B43" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="19">
         <v>0.8</v>
       </c>
-      <c r="E43" s="89">
-        <v>44123</v>
-      </c>
-      <c r="F43" s="89">
+      <c r="E43" s="82">
         <v>44127</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
-      <c r="BD43" s="26"/>
-      <c r="BE43" s="26"/>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
-      <c r="BL43" s="26"/>
+      <c r="F43" s="82">
+        <v>44130</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="66"/>
+      <c r="AZ43" s="66"/>
+      <c r="BA43" s="66"/>
+      <c r="BB43" s="66"/>
+      <c r="BC43" s="66"/>
+      <c r="BD43" s="66"/>
+      <c r="BE43" s="66"/>
+      <c r="BF43" s="66"/>
+      <c r="BG43" s="66"/>
+      <c r="BH43" s="66"/>
+      <c r="BI43" s="66"/>
+      <c r="BJ43" s="66"/>
+      <c r="BK43" s="66"/>
+      <c r="BL43" s="66"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>47</v>
+      <c r="B44" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="19">
         <v>0.8</v>
       </c>
-      <c r="E44" s="89">
-        <v>44127</v>
-      </c>
-      <c r="F44" s="89">
-        <v>44130</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="66"/>
-      <c r="AZ44" s="66"/>
-      <c r="BA44" s="66"/>
-      <c r="BB44" s="66"/>
-      <c r="BC44" s="66"/>
-      <c r="BD44" s="66"/>
-      <c r="BE44" s="66"/>
-      <c r="BF44" s="66"/>
-      <c r="BG44" s="66"/>
-      <c r="BH44" s="66"/>
-      <c r="BI44" s="66"/>
-      <c r="BJ44" s="66"/>
-      <c r="BK44" s="66"/>
-      <c r="BL44" s="66"/>
+      <c r="E44" s="82">
+        <v>44132</v>
+      </c>
+      <c r="F44" s="82">
+        <v>44136</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="26"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="26"/>
+      <c r="BH44" s="26"/>
+      <c r="BI44" s="26"/>
+      <c r="BJ44" s="26"/>
+      <c r="BK44" s="26"/>
+      <c r="BL44" s="26"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="89">
-        <v>44132</v>
-      </c>
-      <c r="F45" s="89">
-        <v>44136</v>
-      </c>
+      <c r="B45" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="14" t="str">
+        <f t="shared" ref="H45:H46" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -6691,17 +6440,25 @@
       <c r="BL45" s="26"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
+      <c r="B46" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E46" s="82">
+        <v>44142</v>
+      </c>
+      <c r="F46" s="82">
+        <v>44145</v>
+      </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
-        <f t="shared" ref="H46:H47" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H46" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -6762,25 +6519,22 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="D47" s="19">
         <v>0.8</v>
       </c>
-      <c r="E47" s="89">
-        <v>44142</v>
-      </c>
-      <c r="F47" s="89">
-        <v>44145</v>
+      <c r="E47" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F47" s="82">
+        <v>44152</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
@@ -6839,94 +6593,88 @@
       <c r="BL47" s="26"/>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="60" t="s">
-        <v>78</v>
+      <c r="B48" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E48" s="89">
-        <v>44148</v>
-      </c>
-      <c r="F48" s="89">
-        <v>44152</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="26"/>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-      <c r="AV48" s="26"/>
-      <c r="AW48" s="26"/>
-      <c r="AX48" s="26"/>
-      <c r="AY48" s="26"/>
-      <c r="AZ48" s="26"/>
-      <c r="BA48" s="26"/>
-      <c r="BB48" s="26"/>
-      <c r="BC48" s="26"/>
-      <c r="BD48" s="26"/>
-      <c r="BE48" s="26"/>
-      <c r="BF48" s="26"/>
-      <c r="BG48" s="26"/>
-      <c r="BH48" s="26"/>
-      <c r="BI48" s="26"/>
-      <c r="BJ48" s="26"/>
-      <c r="BK48" s="26"/>
-      <c r="BL48" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="66"/>
+      <c r="AV48" s="66"/>
+      <c r="AW48" s="66"/>
+      <c r="AX48" s="66"/>
+      <c r="AY48" s="66"/>
+      <c r="AZ48" s="66"/>
+      <c r="BA48" s="66"/>
+      <c r="BB48" s="66"/>
+      <c r="BC48" s="66"/>
+      <c r="BD48" s="66"/>
+      <c r="BE48" s="66"/>
+      <c r="BF48" s="66"/>
+      <c r="BG48" s="66"/>
+      <c r="BH48" s="66"/>
+      <c r="BI48" s="66"/>
+      <c r="BJ48" s="66"/>
+      <c r="BK48" s="66"/>
+      <c r="BL48" s="66"/>
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B49" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="19">
         <v>0.8</v>
       </c>
-      <c r="E49" s="89">
+      <c r="E49" s="82">
         <v>44155</v>
       </c>
-      <c r="F49" s="89">
+      <c r="F49" s="82">
         <v>44158</v>
       </c>
       <c r="G49" s="14"/>
@@ -6990,15 +6738,15 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="94"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="65"/>
       <c r="H50" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
@@ -7059,23 +6807,23 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B51" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="19">
         <v>0.8</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51" s="82">
         <v>44117</v>
       </c>
-      <c r="F51" s="89">
+      <c r="F51" s="82">
         <v>44120</v>
       </c>
       <c r="G51" s="65"/>
       <c r="H51" s="65">
-        <f t="shared" ref="H51:H52" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H51" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I51" s="66"/>
@@ -7137,18 +6885,18 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="19">
         <v>0.8</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="82">
         <v>44123</v>
       </c>
-      <c r="F52" s="89">
+      <c r="F52" s="82">
         <v>44127</v>
       </c>
       <c r="G52" s="65"/>
@@ -7212,18 +6960,18 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="19">
         <v>0.8</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="82">
         <v>44127</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="82">
         <v>44130</v>
       </c>
       <c r="G53" s="65"/>
@@ -7287,18 +7035,18 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="19">
         <v>0.8</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="82">
         <v>44132</v>
       </c>
-      <c r="F54" s="89">
+      <c r="F54" s="82">
         <v>44136</v>
       </c>
       <c r="G54" s="65"/>
@@ -7362,23 +7110,23 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="19">
         <v>0.8</v>
       </c>
-      <c r="E55" s="89">
+      <c r="E55" s="82">
         <v>44142</v>
       </c>
-      <c r="F55" s="89">
+      <c r="F55" s="82">
         <v>44145</v>
       </c>
       <c r="G55" s="65"/>
       <c r="H55" s="65">
-        <f t="shared" ref="H55:H56" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H55" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I55" s="66"/>
@@ -7440,18 +7188,18 @@
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B56" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="19">
         <v>0.8</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56" s="82">
         <v>44148</v>
       </c>
-      <c r="F56" s="89">
+      <c r="F56" s="82">
         <v>44152</v>
       </c>
       <c r="G56" s="65"/>
@@ -7515,18 +7263,18 @@
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="19">
         <v>0.8</v>
       </c>
-      <c r="E57" s="89">
+      <c r="E57" s="82">
         <v>44155</v>
       </c>
-      <c r="F57" s="89">
+      <c r="F57" s="82">
         <v>44158</v>
       </c>
       <c r="G57" s="65"/>
@@ -7590,15 +7338,15 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B58" s="54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="56"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="92"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="65"/>
       <c r="H58" s="65" t="str">
-        <f t="shared" ref="H58:H59" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H58" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I58" s="66"/>
@@ -7659,25 +7407,27 @@
       <c r="BL58" s="66"/>
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="67" t="s">
-        <v>49</v>
+      <c r="B59" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="19">
         <v>0.8</v>
       </c>
-      <c r="E59" s="89">
-        <v>44160</v>
-      </c>
-      <c r="F59" s="89">
-        <v>44162</v>
+      <c r="E59" s="79">
+        <f>E47+15</f>
+        <v>44163</v>
+      </c>
+      <c r="F59" s="79">
+        <f>E59+5</f>
+        <v>44168</v>
       </c>
       <c r="G59" s="65"/>
       <c r="H59" s="65">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
       </c>
       <c r="I59" s="66"/>
       <c r="J59" s="66"/>
@@ -7738,27 +7488,22 @@
     </row>
     <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B60" s="59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="19">
         <v>0.8</v>
       </c>
-      <c r="E60" s="86">
-        <f>E48+15</f>
-        <v>44163</v>
-      </c>
-      <c r="F60" s="86">
-        <f>E60+5</f>
-        <v>44168</v>
+      <c r="E60" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F60" s="82">
+        <v>44152</v>
       </c>
       <c r="G60" s="65"/>
-      <c r="H60" s="65">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
+      <c r="H60" s="65"/>
       <c r="I60" s="66"/>
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
@@ -7818,19 +7563,19 @@
     </row>
     <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B61" s="59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="19">
         <v>0.8</v>
       </c>
-      <c r="E61" s="89">
-        <v>44148</v>
-      </c>
-      <c r="F61" s="89">
-        <v>44152</v>
+      <c r="E61" s="82">
+        <v>44155</v>
+      </c>
+      <c r="F61" s="82">
+        <v>44158</v>
       </c>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
@@ -7892,20 +7637,20 @@
       <c r="BL61" s="66"/>
     </row>
     <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="72" t="s">
-        <v>49</v>
+      <c r="B62" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="D62" s="19">
         <v>0.8</v>
       </c>
-      <c r="E62" s="89">
-        <v>44155</v>
-      </c>
-      <c r="F62" s="89">
-        <v>44158</v>
+      <c r="E62" s="82">
+        <v>44132</v>
+      </c>
+      <c r="F62" s="82">
+        <v>44136</v>
       </c>
       <c r="G62" s="65"/>
       <c r="H62" s="65"/>
@@ -7966,81 +7711,6 @@
       <c r="BK62" s="66"/>
       <c r="BL62" s="66"/>
     </row>
-    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E63" s="89">
-        <v>44132</v>
-      </c>
-      <c r="F63" s="89">
-        <v>44136</v>
-      </c>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
-      <c r="AK63" s="66"/>
-      <c r="AL63" s="66"/>
-      <c r="AM63" s="66"/>
-      <c r="AN63" s="66"/>
-      <c r="AO63" s="66"/>
-      <c r="AP63" s="66"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
-      <c r="AU63" s="66"/>
-      <c r="AV63" s="66"/>
-      <c r="AW63" s="66"/>
-      <c r="AX63" s="66"/>
-      <c r="AY63" s="66"/>
-      <c r="AZ63" s="66"/>
-      <c r="BA63" s="66"/>
-      <c r="BB63" s="66"/>
-      <c r="BC63" s="66"/>
-      <c r="BD63" s="66"/>
-      <c r="BE63" s="66"/>
-      <c r="BF63" s="66"/>
-      <c r="BG63" s="66"/>
-      <c r="BH63" s="66"/>
-      <c r="BI63" s="66"/>
-      <c r="BJ63" s="66"/>
-      <c r="BK63" s="66"/>
-      <c r="BL63" s="66"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C3:D3"/>
@@ -8056,7 +7726,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D14 D17 D19 D23:D26 D29 D38 D61:D62">
+  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61">
     <cfRule type="dataBar" priority="336">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8070,20 +7740,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="140" priority="355">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
+    <cfRule type="expression" dxfId="116" priority="355">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="139" priority="349">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
+    <cfRule type="expression" dxfId="115" priority="349">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="350" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8097,33 +7767,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="137" priority="322">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="113" priority="322">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="136" priority="320">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="112" priority="320">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="321" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="134" priority="302">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="110" priority="302">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="133" priority="300">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="109" priority="300">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="301" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8137,150 +7807,150 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="107" priority="270">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="106" priority="268">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="269" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="131" priority="270">
+    <cfRule type="expression" dxfId="104" priority="266">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="130" priority="268">
+    <cfRule type="expression" dxfId="103" priority="264">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="265" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="128" priority="266">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="101" priority="262">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="127" priority="264">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="100" priority="260">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="261" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="98" priority="254">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="97" priority="252">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="253" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="125" priority="262">
+    <cfRule type="expression" dxfId="95" priority="250">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="124" priority="260">
+    <cfRule type="expression" dxfId="94" priority="248">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="249" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="122" priority="254">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="92" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="121" priority="252">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="91" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="119" priority="250">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="89" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="118" priority="248">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="88" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="116" priority="238">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="86" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="115" priority="236">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="85" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="229" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="113" priority="234">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="83" priority="226">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="112" priority="232">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="82" priority="224">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="225" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="110" priority="230">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="80" priority="214">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="109" priority="228">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="79" priority="212">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="213" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="107" priority="226">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="77" priority="206">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="106" priority="224">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="76" priority="204">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="205" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="104" priority="214">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="103" priority="212">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="213" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="101" priority="206">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="100" priority="204">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="205" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8294,59 +7964,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="74" priority="198">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="73" priority="196">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="197" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="95" priority="198">
+    <cfRule type="expression" dxfId="71" priority="194">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="94" priority="196">
+    <cfRule type="expression" dxfId="70" priority="192">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="92" priority="194">
+    <cfRule type="expression" dxfId="68" priority="190">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="91" priority="192">
+    <cfRule type="expression" dxfId="67" priority="188">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="189" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="89" priority="190">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="65" priority="186">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="88" priority="188">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="64" priority="184">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="185" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="86" priority="186">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="85" priority="184">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="185" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8360,42 +8030,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="62" priority="174">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="61" priority="172">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="173" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="83" priority="174">
+    <cfRule type="expression" dxfId="59" priority="170">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="82" priority="172">
+    <cfRule type="expression" dxfId="58" priority="168">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="80" priority="170">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="56" priority="166">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="79" priority="168">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="55" priority="164">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="169" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="77" priority="166">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="76" priority="164">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="165" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8414,94 +8084,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="65" priority="131">
+    <cfRule type="expression" dxfId="53" priority="131">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="64" priority="129">
+    <cfRule type="expression" dxfId="52" priority="129">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="130" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="62" priority="127">
+    <cfRule type="expression" dxfId="50" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="61" priority="125">
+    <cfRule type="expression" dxfId="49" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="56" priority="115">
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="47" priority="105">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="55" priority="113">
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="46" priority="103">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="53" priority="105">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="52" priority="103">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="50" priority="102">
+    <cfRule type="expression" dxfId="44" priority="102">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="49" priority="100">
+    <cfRule type="expression" dxfId="43" priority="100">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="47" priority="99">
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="41" priority="99">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="46" priority="97">
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="40" priority="97">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="41" priority="88">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="40" priority="86">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
@@ -8517,12 +8161,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="35" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="34" priority="75">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8530,12 +8174,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="32" priority="74">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="31" priority="72">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8634,12 +8278,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="8" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="7" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8647,12 +8291,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="4" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8660,12 +8304,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="2" priority="42">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="1" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8673,7 +8317,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16 D20:D22 D18">
+  <conditionalFormatting sqref="D15:D16 D18">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8687,7 +8331,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8701,7 +8345,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D35">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8715,7 +8359,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40 D37">
+  <conditionalFormatting sqref="D38:D39 D36">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8729,7 +8373,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D45 D47:D49">
+  <conditionalFormatting sqref="D41:D44">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8743,7 +8387,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D57 D63 D59:D60">
+  <conditionalFormatting sqref="D51:D57 D62">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8784,7 +8428,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D17 D19 D23:D26 D29 D38 D61:D62</xm:sqref>
+          <xm:sqref>D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8799,7 +8443,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8814,7 +8458,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8829,7 +8473,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8844,7 +8488,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5EED533C-4486-4D94-B9F5-0351D40BB2D9}">
@@ -8874,7 +8518,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16 D20:D22 D18</xm:sqref>
+          <xm:sqref>D15:D16 D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B91F733-85CA-4B17-83FC-65CF49637700}">
@@ -8889,7 +8533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27:D28</xm:sqref>
+          <xm:sqref>D26:D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8559CF00-2CC2-42F1-AEFA-72F9594735F9}">
@@ -8904,7 +8548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31:D35</xm:sqref>
+          <xm:sqref>D30:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77793674-38C2-4352-9FD8-A57AF1CEECA5}">
@@ -8919,7 +8563,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39:D40 D37</xm:sqref>
+          <xm:sqref>D38:D39 D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F7A8AA8-3CC3-4105-A120-D6C95EAE2D6D}">
@@ -8934,7 +8578,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42:D45 D47:D49</xm:sqref>
+          <xm:sqref>D41:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72392D49-F08A-4D5F-A1D2-4692633B9922}">
@@ -8949,7 +8593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51:D57 D63 D59:D60</xm:sqref>
+          <xm:sqref>D51:D57 D62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DC3E8-C9BC-450D-A2D8-85E9467880B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326493BB-3F46-4C67-B6B0-BA5147F34C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t xml:space="preserve">Tra cứu hàng trong kho </t>
   </si>
   <si>
-    <t xml:space="preserve">Tìm kiếm hàng </t>
-  </si>
-  <si>
     <t>Tạo phiếu gửi trả hàng cho nhà cung cấp</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>Hoàng Tân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra cứu hàng </t>
   </si>
 </sst>
 </file>
@@ -391,9 +391,9 @@
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +993,58 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1003,58 +1055,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,187 +1073,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="150">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="132">
     <dxf>
       <fill>
         <patternFill>
@@ -2580,15 +2400,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="149"/>
-      <tableStyleElement type="headerRow" dxfId="148"/>
-      <tableStyleElement type="totalRow" dxfId="147"/>
-      <tableStyleElement type="firstColumn" dxfId="146"/>
-      <tableStyleElement type="lastColumn" dxfId="145"/>
-      <tableStyleElement type="firstRowStripe" dxfId="144"/>
-      <tableStyleElement type="secondRowStripe" dxfId="143"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="141"/>
+      <tableStyleElement type="wholeTable" dxfId="131"/>
+      <tableStyleElement type="headerRow" dxfId="130"/>
+      <tableStyleElement type="totalRow" dxfId="129"/>
+      <tableStyleElement type="firstColumn" dxfId="128"/>
+      <tableStyleElement type="lastColumn" dxfId="127"/>
+      <tableStyleElement type="firstRowStripe" dxfId="126"/>
+      <tableStyleElement type="secondRowStripe" dxfId="125"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="124"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="123"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3007,71 +2827,71 @@
   <dimension ref="A1:BL63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="26" width="3.28515625" customWidth="1"/>
-    <col min="27" max="27" width="3.140625" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" customWidth="1"/>
-    <col min="32" max="32" width="3.7109375" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="34" width="4.28515625" customWidth="1"/>
-    <col min="35" max="36" width="4.140625" customWidth="1"/>
-    <col min="37" max="37" width="4.28515625" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" customWidth="1"/>
-    <col min="40" max="40" width="3.42578125" customWidth="1"/>
-    <col min="41" max="41" width="4.140625" customWidth="1"/>
-    <col min="42" max="42" width="3.7109375" customWidth="1"/>
-    <col min="43" max="44" width="3.5703125" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" customWidth="1"/>
-    <col min="46" max="46" width="3.28515625" customWidth="1"/>
-    <col min="47" max="47" width="4.42578125" customWidth="1"/>
-    <col min="48" max="48" width="3.28515625" customWidth="1"/>
-    <col min="49" max="49" width="3.5703125" customWidth="1"/>
-    <col min="50" max="50" width="4.140625" customWidth="1"/>
-    <col min="51" max="51" width="3.42578125" customWidth="1"/>
-    <col min="52" max="52" width="4.140625" customWidth="1"/>
-    <col min="53" max="53" width="3.7109375" customWidth="1"/>
-    <col min="54" max="54" width="3.28515625" customWidth="1"/>
-    <col min="55" max="55" width="3.85546875" customWidth="1"/>
-    <col min="56" max="56" width="4.140625" customWidth="1"/>
-    <col min="57" max="58" width="3.5703125" customWidth="1"/>
-    <col min="59" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" customWidth="1"/>
+    <col min="18" max="18" width="3.5546875" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.88671875" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" customWidth="1"/>
+    <col min="23" max="23" width="3.88671875" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" customWidth="1"/>
+    <col min="25" max="26" width="3.33203125" customWidth="1"/>
+    <col min="27" max="27" width="3.109375" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" customWidth="1"/>
+    <col min="31" max="31" width="3.88671875" customWidth="1"/>
+    <col min="32" max="32" width="3.6640625" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" customWidth="1"/>
+    <col min="34" max="34" width="4.33203125" customWidth="1"/>
+    <col min="35" max="36" width="4.109375" customWidth="1"/>
+    <col min="37" max="37" width="4.33203125" customWidth="1"/>
+    <col min="38" max="38" width="4.109375" customWidth="1"/>
+    <col min="39" max="39" width="4.33203125" customWidth="1"/>
+    <col min="40" max="40" width="3.44140625" customWidth="1"/>
+    <col min="41" max="41" width="4.109375" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" customWidth="1"/>
+    <col min="43" max="44" width="3.5546875" customWidth="1"/>
+    <col min="45" max="45" width="4.44140625" customWidth="1"/>
+    <col min="46" max="46" width="3.33203125" customWidth="1"/>
+    <col min="47" max="47" width="4.44140625" customWidth="1"/>
+    <col min="48" max="48" width="3.33203125" customWidth="1"/>
+    <col min="49" max="49" width="3.5546875" customWidth="1"/>
+    <col min="50" max="50" width="4.109375" customWidth="1"/>
+    <col min="51" max="51" width="3.44140625" customWidth="1"/>
+    <col min="52" max="52" width="4.109375" customWidth="1"/>
+    <col min="53" max="53" width="3.6640625" customWidth="1"/>
+    <col min="54" max="54" width="3.33203125" customWidth="1"/>
+    <col min="55" max="55" width="3.88671875" customWidth="1"/>
+    <col min="56" max="56" width="4.109375" customWidth="1"/>
+    <col min="57" max="58" width="3.5546875" customWidth="1"/>
+    <col min="59" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
         <v>28</v>
       </c>
@@ -3085,7 +2905,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
@@ -3094,125 +2914,125 @@
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76">
+      <c r="D3" s="89"/>
+      <c r="E3" s="94">
         <v>44117</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="94"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="73">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="73">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="73">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="73">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="73">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="73">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="73">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="74"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -3438,7 +3258,7 @@
         <v>44171</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>32</v>
       </c>
@@ -3686,7 +3506,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
@@ -3753,7 +3573,7 @@
       <c r="BK7" s="26"/>
       <c r="BL7" s="26"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>33</v>
       </c>
@@ -3826,12 +3646,12 @@
       <c r="BK8" s="26"/>
       <c r="BL8" s="26"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>48</v>
@@ -3839,11 +3659,11 @@
       <c r="D9" s="19">
         <v>0.8</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="73">
         <f>Project_Start</f>
         <v>44117</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="73">
         <f>E9+3</f>
         <v>44120</v>
       </c>
@@ -3909,12 +3729,12 @@
       <c r="BK9" s="26"/>
       <c r="BL9" s="26"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>48</v>
@@ -3922,10 +3742,10 @@
       <c r="D10" s="19">
         <v>0.8</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="73">
         <v>44123</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="73">
         <v>44127</v>
       </c>
       <c r="G10" s="14"/>
@@ -3990,15 +3810,15 @@
       <c r="BK10" s="26"/>
       <c r="BL10" s="26"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="str">
         <f t="shared" si="6"/>
@@ -4061,10 +3881,10 @@
       <c r="BK11" s="26"/>
       <c r="BL11" s="26"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="58" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>48</v>
@@ -4072,10 +3892,10 @@
       <c r="D12" s="19">
         <v>0.8</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="76">
         <v>44129</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="76">
         <f>E12+4</f>
         <v>44133</v>
       </c>
@@ -4141,7 +3961,7 @@
       <c r="BK12" s="66"/>
       <c r="BL12" s="66"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="58" t="s">
         <v>40</v>
@@ -4152,11 +3972,11 @@
       <c r="D13" s="19">
         <v>0.8</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="76">
         <f>F12+4</f>
         <v>44137</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="76">
         <f>E13+3</f>
         <v>44140</v>
       </c>
@@ -4222,12 +4042,12 @@
       <c r="BK13" s="26"/>
       <c r="BL13" s="26"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>48</v>
@@ -4235,11 +4055,11 @@
       <c r="D14" s="19">
         <v>0.8</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="76">
         <f>F13+3</f>
         <v>44143</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="76">
         <v>44147</v>
       </c>
       <c r="G14" s="65"/>
@@ -4301,10 +4121,10 @@
       <c r="BK14" s="66"/>
       <c r="BL14" s="66"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>48</v>
@@ -4312,11 +4132,11 @@
       <c r="D15" s="19">
         <v>0.8</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="76">
         <f>F14+2</f>
         <v>44149</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="76">
         <v>44152</v>
       </c>
       <c r="G15" s="14"/>
@@ -4381,10 +4201,10 @@
       <c r="BK15" s="26"/>
       <c r="BL15" s="26"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>48</v>
@@ -4392,11 +4212,11 @@
       <c r="D16" s="19">
         <v>0.8</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="76">
         <f>F15+2</f>
         <v>44154</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="76">
         <f>E16+4</f>
         <v>44158</v>
       </c>
@@ -4462,15 +4282,15 @@
       <c r="BK16" s="26"/>
       <c r="BL16" s="26"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="str">
         <f t="shared" si="6"/>
@@ -4533,10 +4353,10 @@
       <c r="BK17" s="26"/>
       <c r="BL17" s="26"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>46</v>
@@ -4544,10 +4364,10 @@
       <c r="D18" s="19">
         <v>0.8</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="79">
         <v>44117</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="79">
         <v>44120</v>
       </c>
       <c r="G18" s="65"/>
@@ -4612,7 +4432,7 @@
       <c r="BK18" s="66"/>
       <c r="BL18" s="66"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="59" t="s">
         <v>55</v>
@@ -4623,10 +4443,10 @@
       <c r="D19" s="19">
         <v>0.8</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="79">
         <v>44123</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="79">
         <v>44127</v>
       </c>
       <c r="G19" s="14"/>
@@ -4691,7 +4511,7 @@
       <c r="BK19" s="26"/>
       <c r="BL19" s="26"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
         <v>41</v>
@@ -4702,10 +4522,10 @@
       <c r="D20" s="19">
         <v>0.8</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="79">
         <v>44127</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="79">
         <v>44130</v>
       </c>
       <c r="G20" s="65"/>
@@ -4770,10 +4590,10 @@
       <c r="BK20" s="66"/>
       <c r="BL20" s="66"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>46</v>
@@ -4781,10 +4601,10 @@
       <c r="D21" s="19">
         <v>0.8</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="79">
         <v>44132</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="79">
         <v>44136</v>
       </c>
       <c r="G21" s="14"/>
@@ -4849,10 +4669,10 @@
       <c r="BK21" s="26"/>
       <c r="BL21" s="26"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>46</v>
@@ -4860,10 +4680,10 @@
       <c r="D22" s="19">
         <v>0.8</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="79">
         <v>44138</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="79">
         <v>44142</v>
       </c>
       <c r="G22" s="65"/>
@@ -4925,10 +4745,10 @@
       <c r="BK22" s="66"/>
       <c r="BL22" s="66"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>46</v>
@@ -4936,10 +4756,10 @@
       <c r="D23" s="19">
         <v>0.8</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="79">
         <v>44144</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="79">
         <v>44147</v>
       </c>
       <c r="G23" s="14"/>
@@ -5004,15 +4824,15 @@
       <c r="BK23" s="26"/>
       <c r="BL23" s="26"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="str">
         <f t="shared" si="6"/>
@@ -5075,7 +4895,7 @@
       <c r="BK24" s="26"/>
       <c r="BL24" s="26"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="60" t="s">
         <v>43</v>
@@ -5086,10 +4906,10 @@
       <c r="D25" s="19">
         <v>0.8</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="82">
         <v>44148</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="82">
         <v>44151</v>
       </c>
       <c r="G25" s="14"/>
@@ -5154,12 +4974,12 @@
       <c r="BK25" s="26"/>
       <c r="BL25" s="26"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>46</v>
@@ -5167,10 +4987,10 @@
       <c r="D26" s="19">
         <v>0.8</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="82">
         <v>44152</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="82">
         <v>44156</v>
       </c>
       <c r="G26" s="14"/>
@@ -5235,10 +5055,10 @@
       <c r="BK26" s="26"/>
       <c r="BL26" s="26"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>46</v>
@@ -5246,10 +5066,10 @@
       <c r="D27" s="19">
         <v>0.8</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="82">
         <v>44157</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="82">
         <v>44158</v>
       </c>
       <c r="G27" s="14"/>
@@ -5314,10 +5134,10 @@
       <c r="BK27" s="26"/>
       <c r="BL27" s="26"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>46</v>
@@ -5325,10 +5145,10 @@
       <c r="D28" s="19">
         <v>0.8</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="82">
         <v>44160</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="82">
         <v>44162</v>
       </c>
       <c r="G28" s="14"/>
@@ -5393,7 +5213,7 @@
       <c r="BK28" s="26"/>
       <c r="BL28" s="26"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="60" t="s">
         <v>44</v>
@@ -5404,10 +5224,10 @@
       <c r="D29" s="19">
         <v>0.8</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="82">
         <v>44164</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="82">
         <v>44166</v>
       </c>
       <c r="G29" s="14"/>
@@ -5474,15 +5294,15 @@
       <c r="BK29" s="26"/>
       <c r="BL29" s="26"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39"/>
       <c r="B30" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="62"/>
       <c r="D30" s="63"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="str">
         <f t="shared" si="6"/>
@@ -5545,21 +5365,21 @@
       <c r="BK30" s="26"/>
       <c r="BL30" s="26"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="19">
         <v>0.8</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="82">
         <v>44117</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="82">
         <v>44120</v>
       </c>
       <c r="G31" s="14"/>
@@ -5624,23 +5444,23 @@
       <c r="BK31" s="26"/>
       <c r="BL31" s="26"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="19">
         <v>0.8</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="82">
         <v>44123</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="82">
         <v>44127</v>
       </c>
       <c r="G32" s="14"/>
@@ -5702,21 +5522,21 @@
       <c r="BK32" s="26"/>
       <c r="BL32" s="26"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="19">
         <v>0.8</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="82">
         <v>44127</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="82">
         <v>44130</v>
       </c>
       <c r="G33" s="65"/>
@@ -5778,21 +5598,21 @@
       <c r="BK33" s="66"/>
       <c r="BL33" s="66"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39"/>
       <c r="B34" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="19">
         <v>0.8</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34" s="82">
         <v>44132</v>
       </c>
-      <c r="F34" s="89">
+      <c r="F34" s="82">
         <v>44136</v>
       </c>
       <c r="G34" s="14"/>
@@ -5857,21 +5677,21 @@
       <c r="BK34" s="26"/>
       <c r="BL34" s="26"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39"/>
       <c r="B35" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="19">
         <v>0.8</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35" s="82">
         <v>44137</v>
       </c>
-      <c r="F35" s="89">
+      <c r="F35" s="82">
         <v>44140</v>
       </c>
       <c r="G35" s="14"/>
@@ -5936,15 +5756,15 @@
       <c r="BK35" s="26"/>
       <c r="BL35" s="26"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39"/>
       <c r="B36" s="54" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="56"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6007,21 +5827,21 @@
       <c r="BK36" s="26"/>
       <c r="BL36" s="26"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="19">
         <v>0.8</v>
       </c>
-      <c r="E37" s="89">
+      <c r="E37" s="82">
         <v>44142</v>
       </c>
-      <c r="F37" s="89">
+      <c r="F37" s="82">
         <v>44145</v>
       </c>
       <c r="G37" s="14"/>
@@ -6086,23 +5906,23 @@
       <c r="BK37" s="26"/>
       <c r="BL37" s="26"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="19">
         <v>0.8</v>
       </c>
-      <c r="E38" s="89">
+      <c r="E38" s="82">
         <v>44148</v>
       </c>
-      <c r="F38" s="89">
+      <c r="F38" s="82">
         <v>44152</v>
       </c>
       <c r="G38" s="14"/>
@@ -6164,23 +5984,23 @@
       <c r="BK38" s="26"/>
       <c r="BL38" s="26"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="19">
         <v>0.8</v>
       </c>
-      <c r="E39" s="89">
+      <c r="E39" s="82">
         <v>44155</v>
       </c>
-      <c r="F39" s="89">
+      <c r="F39" s="82">
         <v>44158</v>
       </c>
       <c r="G39" s="14"/>
@@ -6242,21 +6062,21 @@
       <c r="BK39" s="26"/>
       <c r="BL39" s="26"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="19">
         <v>0.8</v>
       </c>
-      <c r="E40" s="89">
+      <c r="E40" s="82">
         <v>44160</v>
       </c>
-      <c r="F40" s="89" t="s">
-        <v>101</v>
+      <c r="F40" s="82" t="s">
+        <v>100</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -6317,14 +6137,14 @@
       <c r="BK40" s="26"/>
       <c r="BL40" s="26"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="56"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14" t="str">
         <f t="shared" ref="H41:H42" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -6387,9 +6207,9 @@
       <c r="BK41" s="26"/>
       <c r="BL41" s="26"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>47</v>
@@ -6397,10 +6217,10 @@
       <c r="D42" s="19">
         <v>0.8</v>
       </c>
-      <c r="E42" s="89">
+      <c r="E42" s="82">
         <v>44117</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="82">
         <v>44120</v>
       </c>
       <c r="G42" s="14"/>
@@ -6465,9 +6285,9 @@
       <c r="BK42" s="26"/>
       <c r="BL42" s="26"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>47</v>
@@ -6475,10 +6295,10 @@
       <c r="D43" s="19">
         <v>0.8</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43" s="82">
         <v>44123</v>
       </c>
-      <c r="F43" s="89">
+      <c r="F43" s="82">
         <v>44127</v>
       </c>
       <c r="G43" s="14"/>
@@ -6540,9 +6360,9 @@
       <c r="BK43" s="26"/>
       <c r="BL43" s="26"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="67" t="s">
         <v>47</v>
@@ -6550,10 +6370,10 @@
       <c r="D44" s="19">
         <v>0.8</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="82">
         <v>44127</v>
       </c>
-      <c r="F44" s="89">
+      <c r="F44" s="82">
         <v>44130</v>
       </c>
       <c r="G44" s="65"/>
@@ -6615,9 +6435,9 @@
       <c r="BK44" s="66"/>
       <c r="BL44" s="66"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>47</v>
@@ -6625,10 +6445,10 @@
       <c r="D45" s="19">
         <v>0.8</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="82">
         <v>44132</v>
       </c>
-      <c r="F45" s="89">
+      <c r="F45" s="82">
         <v>44136</v>
       </c>
       <c r="G45" s="14"/>
@@ -6690,14 +6510,14 @@
       <c r="BK45" s="26"/>
       <c r="BL45" s="26"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="56"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14" t="str">
         <f t="shared" ref="H46:H47" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -6760,9 +6580,9 @@
       <c r="BK46" s="26"/>
       <c r="BL46" s="26"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>47</v>
@@ -6770,10 +6590,10 @@
       <c r="D47" s="19">
         <v>0.8</v>
       </c>
-      <c r="E47" s="89">
+      <c r="E47" s="82">
         <v>44142</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="82">
         <v>44145</v>
       </c>
       <c r="G47" s="14"/>
@@ -6838,9 +6658,9 @@
       <c r="BK47" s="26"/>
       <c r="BL47" s="26"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="67" t="s">
         <v>47</v>
@@ -6848,10 +6668,10 @@
       <c r="D48" s="19">
         <v>0.8</v>
       </c>
-      <c r="E48" s="89">
+      <c r="E48" s="82">
         <v>44148</v>
       </c>
-      <c r="F48" s="89">
+      <c r="F48" s="82">
         <v>44152</v>
       </c>
       <c r="G48" s="14"/>
@@ -6913,9 +6733,9 @@
       <c r="BK48" s="26"/>
       <c r="BL48" s="26"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="67" t="s">
         <v>47</v>
@@ -6923,10 +6743,10 @@
       <c r="D49" s="19">
         <v>0.8</v>
       </c>
-      <c r="E49" s="89">
+      <c r="E49" s="82">
         <v>44155</v>
       </c>
-      <c r="F49" s="89">
+      <c r="F49" s="82">
         <v>44158</v>
       </c>
       <c r="G49" s="14"/>
@@ -6988,17 +6808,17 @@
       <c r="BK49" s="26"/>
       <c r="BL49" s="26"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="94"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="65"/>
       <c r="H50" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
@@ -7057,9 +6877,9 @@
       <c r="BK50" s="66"/>
       <c r="BL50" s="66"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="67" t="s">
         <v>49</v>
@@ -7067,15 +6887,15 @@
       <c r="D51" s="19">
         <v>0.8</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51" s="82">
         <v>44117</v>
       </c>
-      <c r="F51" s="89">
+      <c r="F51" s="82">
         <v>44120</v>
       </c>
       <c r="G51" s="65"/>
       <c r="H51" s="65">
-        <f t="shared" ref="H51:H52" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H51" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I51" s="66"/>
@@ -7135,9 +6955,9 @@
       <c r="BK51" s="66"/>
       <c r="BL51" s="66"/>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="67" t="s">
         <v>49</v>
@@ -7145,10 +6965,10 @@
       <c r="D52" s="19">
         <v>0.8</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="82">
         <v>44123</v>
       </c>
-      <c r="F52" s="89">
+      <c r="F52" s="82">
         <v>44127</v>
       </c>
       <c r="G52" s="65"/>
@@ -7210,9 +7030,9 @@
       <c r="BK52" s="66"/>
       <c r="BL52" s="66"/>
     </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>49</v>
@@ -7220,10 +7040,10 @@
       <c r="D53" s="19">
         <v>0.8</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="82">
         <v>44127</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="82">
         <v>44130</v>
       </c>
       <c r="G53" s="65"/>
@@ -7285,9 +7105,9 @@
       <c r="BK53" s="66"/>
       <c r="BL53" s="66"/>
     </row>
-    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="67" t="s">
         <v>49</v>
@@ -7295,10 +7115,10 @@
       <c r="D54" s="19">
         <v>0.8</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="82">
         <v>44132</v>
       </c>
-      <c r="F54" s="89">
+      <c r="F54" s="82">
         <v>44136</v>
       </c>
       <c r="G54" s="65"/>
@@ -7360,9 +7180,9 @@
       <c r="BK54" s="66"/>
       <c r="BL54" s="66"/>
     </row>
-    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="67" t="s">
         <v>49</v>
@@ -7370,15 +7190,15 @@
       <c r="D55" s="19">
         <v>0.8</v>
       </c>
-      <c r="E55" s="89">
+      <c r="E55" s="82">
         <v>44142</v>
       </c>
-      <c r="F55" s="89">
+      <c r="F55" s="82">
         <v>44145</v>
       </c>
       <c r="G55" s="65"/>
       <c r="H55" s="65">
-        <f t="shared" ref="H55:H56" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H55" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I55" s="66"/>
@@ -7438,7 +7258,7 @@
       <c r="BK55" s="66"/>
       <c r="BL55" s="66"/>
     </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="68" t="s">
         <v>52</v>
       </c>
@@ -7448,10 +7268,10 @@
       <c r="D56" s="19">
         <v>0.8</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56" s="82">
         <v>44148</v>
       </c>
-      <c r="F56" s="89">
+      <c r="F56" s="82">
         <v>44152</v>
       </c>
       <c r="G56" s="65"/>
@@ -7513,9 +7333,9 @@
       <c r="BK56" s="66"/>
       <c r="BL56" s="66"/>
     </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="67" t="s">
         <v>49</v>
@@ -7523,10 +7343,10 @@
       <c r="D57" s="19">
         <v>0.8</v>
       </c>
-      <c r="E57" s="89">
+      <c r="E57" s="82">
         <v>44155</v>
       </c>
-      <c r="F57" s="89">
+      <c r="F57" s="82">
         <v>44158</v>
       </c>
       <c r="G57" s="65"/>
@@ -7588,14 +7408,14 @@
       <c r="BK57" s="66"/>
       <c r="BL57" s="66"/>
     </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="56"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="92"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="65"/>
       <c r="H58" s="65" t="str">
         <f t="shared" ref="H58:H59" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -7658,9 +7478,9 @@
       <c r="BK58" s="66"/>
       <c r="BL58" s="66"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="67" t="s">
         <v>49</v>
@@ -7668,10 +7488,10 @@
       <c r="D59" s="19">
         <v>0.8</v>
       </c>
-      <c r="E59" s="89">
+      <c r="E59" s="82">
         <v>44160</v>
       </c>
-      <c r="F59" s="89">
+      <c r="F59" s="82">
         <v>44162</v>
       </c>
       <c r="G59" s="65"/>
@@ -7736,9 +7556,9 @@
       <c r="BK59" s="66"/>
       <c r="BL59" s="66"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="72" t="s">
         <v>49</v>
@@ -7746,11 +7566,11 @@
       <c r="D60" s="19">
         <v>0.8</v>
       </c>
-      <c r="E60" s="86">
+      <c r="E60" s="79">
         <f>E48+15</f>
         <v>44163</v>
       </c>
-      <c r="F60" s="86">
+      <c r="F60" s="79">
         <f>E60+5</f>
         <v>44168</v>
       </c>
@@ -7816,9 +7636,9 @@
       <c r="BK60" s="66"/>
       <c r="BL60" s="66"/>
     </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="72" t="s">
         <v>49</v>
@@ -7826,10 +7646,10 @@
       <c r="D61" s="19">
         <v>0.8</v>
       </c>
-      <c r="E61" s="89">
+      <c r="E61" s="82">
         <v>44148</v>
       </c>
-      <c r="F61" s="89">
+      <c r="F61" s="82">
         <v>44152</v>
       </c>
       <c r="G61" s="65"/>
@@ -7891,9 +7711,9 @@
       <c r="BK61" s="66"/>
       <c r="BL61" s="66"/>
     </row>
-    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="72" t="s">
         <v>49</v>
@@ -7901,10 +7721,10 @@
       <c r="D62" s="19">
         <v>0.8</v>
       </c>
-      <c r="E62" s="89">
+      <c r="E62" s="82">
         <v>44155</v>
       </c>
-      <c r="F62" s="89">
+      <c r="F62" s="82">
         <v>44158</v>
       </c>
       <c r="G62" s="65"/>
@@ -7966,9 +7786,9 @@
       <c r="BK62" s="66"/>
       <c r="BL62" s="66"/>
     </row>
-    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="67" t="s">
         <v>49</v>
@@ -7976,10 +7796,10 @@
       <c r="D63" s="19">
         <v>0.8</v>
       </c>
-      <c r="E63" s="89">
+      <c r="E63" s="82">
         <v>44132</v>
       </c>
-      <c r="F63" s="89">
+      <c r="F63" s="82">
         <v>44136</v>
       </c>
       <c r="G63" s="65"/>
@@ -8043,11 +7863,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8055,6 +7870,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D14 D17 D19 D23:D26 D29 D38 D61:D62">
     <cfRule type="dataBar" priority="336">
@@ -8071,15 +7891,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="140" priority="355">
+    <cfRule type="expression" dxfId="122" priority="355">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="139" priority="349">
+    <cfRule type="expression" dxfId="121" priority="349">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="350" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8098,28 +7918,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="137" priority="322">
+    <cfRule type="expression" dxfId="119" priority="322">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="136" priority="320">
+    <cfRule type="expression" dxfId="118" priority="320">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="321" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="134" priority="302">
+    <cfRule type="expression" dxfId="116" priority="302">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="133" priority="300">
+    <cfRule type="expression" dxfId="115" priority="300">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="301" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8138,145 +7958,145 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="131" priority="270">
+    <cfRule type="expression" dxfId="113" priority="270">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="130" priority="268">
+    <cfRule type="expression" dxfId="112" priority="268">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="269" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="128" priority="266">
+    <cfRule type="expression" dxfId="110" priority="266">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="127" priority="264">
+    <cfRule type="expression" dxfId="109" priority="264">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="265" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="125" priority="262">
+    <cfRule type="expression" dxfId="107" priority="262">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="124" priority="260">
+    <cfRule type="expression" dxfId="106" priority="260">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="261" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="122" priority="254">
+    <cfRule type="expression" dxfId="104" priority="254">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="121" priority="252">
+    <cfRule type="expression" dxfId="103" priority="252">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="253" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="119" priority="250">
+    <cfRule type="expression" dxfId="101" priority="250">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="118" priority="248">
+    <cfRule type="expression" dxfId="100" priority="248">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="249" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="116" priority="238">
+    <cfRule type="expression" dxfId="98" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="115" priority="236">
+    <cfRule type="expression" dxfId="97" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="113" priority="234">
+    <cfRule type="expression" dxfId="95" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="112" priority="232">
+    <cfRule type="expression" dxfId="94" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="110" priority="230">
+    <cfRule type="expression" dxfId="92" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="109" priority="228">
+    <cfRule type="expression" dxfId="91" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="229" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="107" priority="226">
+    <cfRule type="expression" dxfId="89" priority="226">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="106" priority="224">
+    <cfRule type="expression" dxfId="88" priority="224">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="225" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="104" priority="214">
+    <cfRule type="expression" dxfId="86" priority="214">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="103" priority="212">
+    <cfRule type="expression" dxfId="85" priority="212">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="213" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="101" priority="206">
+    <cfRule type="expression" dxfId="83" priority="206">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="100" priority="204">
+    <cfRule type="expression" dxfId="82" priority="204">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="205" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8295,54 +8115,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="95" priority="198">
+    <cfRule type="expression" dxfId="80" priority="198">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="94" priority="196">
+    <cfRule type="expression" dxfId="79" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="197" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="92" priority="194">
+    <cfRule type="expression" dxfId="77" priority="194">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="91" priority="192">
+    <cfRule type="expression" dxfId="76" priority="192">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="89" priority="190">
+    <cfRule type="expression" dxfId="74" priority="190">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="88" priority="188">
+    <cfRule type="expression" dxfId="73" priority="188">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="189" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="86" priority="186">
+    <cfRule type="expression" dxfId="71" priority="186">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="85" priority="184">
+    <cfRule type="expression" dxfId="70" priority="184">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="185" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8361,41 +8181,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="83" priority="174">
+    <cfRule type="expression" dxfId="68" priority="174">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="82" priority="172">
+    <cfRule type="expression" dxfId="67" priority="172">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="173" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="80" priority="170">
+    <cfRule type="expression" dxfId="65" priority="170">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="79" priority="168">
+    <cfRule type="expression" dxfId="64" priority="168">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="77" priority="166">
+    <cfRule type="expression" dxfId="62" priority="166">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="76" priority="164">
+    <cfRule type="expression" dxfId="61" priority="164">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="165" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8414,80 +8234,80 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="65" priority="131">
+    <cfRule type="expression" dxfId="59" priority="131">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="64" priority="129">
+    <cfRule type="expression" dxfId="58" priority="129">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="130" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="62" priority="127">
+    <cfRule type="expression" dxfId="56" priority="127">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="61" priority="125">
+    <cfRule type="expression" dxfId="55" priority="125">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="126" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="56" priority="115">
+    <cfRule type="expression" dxfId="53" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="55" priority="113">
+    <cfRule type="expression" dxfId="52" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="53" priority="105">
+    <cfRule type="expression" dxfId="50" priority="105">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="52" priority="103">
+    <cfRule type="expression" dxfId="49" priority="103">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="50" priority="102">
+    <cfRule type="expression" dxfId="47" priority="102">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="49" priority="100">
+    <cfRule type="expression" dxfId="46" priority="100">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="47" priority="99">
+    <cfRule type="expression" dxfId="44" priority="99">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="46" priority="97">
+    <cfRule type="expression" dxfId="43" priority="97">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8963,86 +8783,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="4" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.95" customHeight="1">
+    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="8" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
+    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="11" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
+    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="14" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>15</v>
       </c>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240599D-7A37-44B2-88A1-2C8D3BF594D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980D7B1-6FA7-41BB-99C6-EADC6C5016B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2764,8 +2764,8 @@
   <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:BL60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326493BB-3F46-4C67-B6B0-BA5147F34C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980D7B1-6FA7-41BB-99C6-EADC6C5016B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>Project Start:</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Lập hóa đơn</t>
   </si>
   <si>
-    <t>Lịch sử nhập hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thống kê </t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t xml:space="preserve">Tra cứu hàng trong kho </t>
   </si>
   <si>
+    <t xml:space="preserve">Tìm kiếm hàng </t>
+  </si>
+  <si>
     <t>Tạo phiếu gửi trả hàng cho nhà cung cấp</t>
   </si>
   <si>
@@ -285,9 +285,6 @@
     <t>Quản lý danh mục</t>
   </si>
   <si>
-    <t>Kiểm tra hàng dựa trên phiếu nhập hàng</t>
-  </si>
-  <si>
     <t>Lập phiếu đặt hàng</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>Quản lý sản phẩm</t>
   </si>
   <si>
-    <t>Xem danh sách sản phẩm</t>
-  </si>
-  <si>
     <t>Cập nhật danh mục sản phẩm</t>
   </si>
   <si>
@@ -378,7 +372,10 @@
     <t>Hoàng Tân</t>
   </si>
   <si>
-    <t xml:space="preserve">Tra cứu hàng </t>
+    <t>Xem danh sách phiếu đặt hàng</t>
+  </si>
+  <si>
+    <t>Xem lịch sử nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,6 +1035,18 @@
     <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1045,18 +1054,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1073,67 +1070,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -2400,15 +2337,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="131"/>
-      <tableStyleElement type="headerRow" dxfId="130"/>
-      <tableStyleElement type="totalRow" dxfId="129"/>
-      <tableStyleElement type="firstColumn" dxfId="128"/>
-      <tableStyleElement type="lastColumn" dxfId="127"/>
-      <tableStyleElement type="firstRowStripe" dxfId="126"/>
-      <tableStyleElement type="secondRowStripe" dxfId="125"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="124"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="123"/>
+      <tableStyleElement type="wholeTable" dxfId="125"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstColumn" dxfId="122"/>
+      <tableStyleElement type="lastColumn" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2824,79 +2761,79 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:BL60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" customWidth="1"/>
-    <col min="18" max="18" width="3.5546875" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="3.5546875" customWidth="1"/>
-    <col min="22" max="22" width="4.109375" customWidth="1"/>
-    <col min="23" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="24" width="3.5546875" customWidth="1"/>
-    <col min="25" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="27" width="3.109375" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" customWidth="1"/>
-    <col min="30" max="30" width="4.44140625" customWidth="1"/>
-    <col min="31" max="31" width="3.88671875" customWidth="1"/>
-    <col min="32" max="32" width="3.6640625" customWidth="1"/>
-    <col min="33" max="33" width="4.109375" customWidth="1"/>
-    <col min="34" max="34" width="4.33203125" customWidth="1"/>
-    <col min="35" max="36" width="4.109375" customWidth="1"/>
-    <col min="37" max="37" width="4.33203125" customWidth="1"/>
-    <col min="38" max="38" width="4.109375" customWidth="1"/>
-    <col min="39" max="39" width="4.33203125" customWidth="1"/>
-    <col min="40" max="40" width="3.44140625" customWidth="1"/>
-    <col min="41" max="41" width="4.109375" customWidth="1"/>
-    <col min="42" max="42" width="3.6640625" customWidth="1"/>
-    <col min="43" max="44" width="3.5546875" customWidth="1"/>
-    <col min="45" max="45" width="4.44140625" customWidth="1"/>
-    <col min="46" max="46" width="3.33203125" customWidth="1"/>
-    <col min="47" max="47" width="4.44140625" customWidth="1"/>
-    <col min="48" max="48" width="3.33203125" customWidth="1"/>
-    <col min="49" max="49" width="3.5546875" customWidth="1"/>
-    <col min="50" max="50" width="4.109375" customWidth="1"/>
-    <col min="51" max="51" width="3.44140625" customWidth="1"/>
-    <col min="52" max="52" width="4.109375" customWidth="1"/>
-    <col min="53" max="53" width="3.6640625" customWidth="1"/>
-    <col min="54" max="54" width="3.33203125" customWidth="1"/>
-    <col min="55" max="55" width="3.88671875" customWidth="1"/>
-    <col min="56" max="56" width="4.109375" customWidth="1"/>
-    <col min="57" max="58" width="3.5546875" customWidth="1"/>
-    <col min="59" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" customWidth="1"/>
+    <col min="25" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="27" width="3.140625" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="4.140625" customWidth="1"/>
+    <col min="34" max="34" width="4.28515625" customWidth="1"/>
+    <col min="35" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.140625" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" customWidth="1"/>
+    <col min="40" max="40" width="3.42578125" customWidth="1"/>
+    <col min="41" max="41" width="4.140625" customWidth="1"/>
+    <col min="42" max="42" width="3.7109375" customWidth="1"/>
+    <col min="43" max="44" width="3.5703125" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" customWidth="1"/>
+    <col min="46" max="46" width="3.28515625" customWidth="1"/>
+    <col min="47" max="47" width="4.42578125" customWidth="1"/>
+    <col min="48" max="48" width="3.28515625" customWidth="1"/>
+    <col min="49" max="49" width="3.5703125" customWidth="1"/>
+    <col min="50" max="50" width="4.140625" customWidth="1"/>
+    <col min="51" max="51" width="3.42578125" customWidth="1"/>
+    <col min="52" max="52" width="4.140625" customWidth="1"/>
+    <col min="53" max="53" width="3.7109375" customWidth="1"/>
+    <col min="54" max="54" width="3.28515625" customWidth="1"/>
+    <col min="55" max="55" width="3.85546875" customWidth="1"/>
+    <col min="56" max="56" width="4.140625" customWidth="1"/>
+    <col min="57" max="58" width="3.5703125" customWidth="1"/>
+    <col min="59" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2905,134 +2842,134 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="94">
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
         <v>44117</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="91"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -3258,7 +3195,7 @@
         <v>44171</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>32</v>
       </c>
@@ -3506,7 +3443,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
@@ -3573,7 +3510,7 @@
       <c r="BK7" s="26"/>
       <c r="BL7" s="26"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>33</v>
       </c>
@@ -3586,7 +3523,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="26"/>
@@ -3646,15 +3583,15 @@
       <c r="BK8" s="26"/>
       <c r="BL8" s="26"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19">
         <v>0.8</v>
@@ -3729,15 +3666,15 @@
       <c r="BK9" s="26"/>
       <c r="BL9" s="26"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="19">
         <v>0.8</v>
@@ -3810,7 +3747,7 @@
       <c r="BK10" s="26"/>
       <c r="BL10" s="26"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
@@ -3881,13 +3818,13 @@
       <c r="BK11" s="26"/>
       <c r="BL11" s="26"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="39"/>
       <c r="B12" s="58" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="19">
         <v>0.8</v>
@@ -3961,13 +3898,13 @@
       <c r="BK12" s="66"/>
       <c r="BL12" s="66"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="39"/>
       <c r="B13" s="58" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19">
         <v>0.8</v>
@@ -4042,15 +3979,15 @@
       <c r="BK13" s="26"/>
       <c r="BL13" s="26"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="19">
         <v>0.8</v>
@@ -4121,13 +4058,13 @@
       <c r="BK14" s="66"/>
       <c r="BL14" s="66"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="40"/>
       <c r="B15" s="58" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="19">
         <v>0.8</v>
@@ -4201,13 +4138,13 @@
       <c r="BK15" s="26"/>
       <c r="BL15" s="26"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="19">
         <v>0.8</v>
@@ -4282,10 +4219,10 @@
       <c r="BK16" s="26"/>
       <c r="BL16" s="26"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="23"/>
@@ -4353,13 +4290,13 @@
       <c r="BK17" s="26"/>
       <c r="BL17" s="26"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="19">
         <v>0.8</v>
@@ -4432,13 +4369,13 @@
       <c r="BK18" s="66"/>
       <c r="BL18" s="66"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="39"/>
       <c r="B19" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="19">
         <v>0.8</v>
@@ -4511,261 +4448,253 @@
       <c r="BK19" s="26"/>
       <c r="BL19" s="26"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="19">
         <v>0.8</v>
       </c>
       <c r="E20" s="79">
-        <v>44127</v>
+        <v>44132</v>
       </c>
       <c r="F20" s="79">
-        <v>44130</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65">
+        <v>44136</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="66"/>
       <c r="X20" s="66"/>
       <c r="Y20" s="66"/>
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
       <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="19">
         <v>0.8</v>
       </c>
       <c r="E21" s="79">
-        <v>44132</v>
+        <v>44138</v>
       </c>
       <c r="F21" s="79">
-        <v>44136</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+        <v>44142</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="66"/>
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="19">
         <v>0.8</v>
       </c>
       <c r="E22" s="79">
-        <v>44138</v>
+        <v>44144</v>
       </c>
       <c r="F22" s="79">
-        <v>44142</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+        <v>44147</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="66"/>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
-      <c r="BA22" s="66"/>
-      <c r="BB22" s="66"/>
-      <c r="BC22" s="66"/>
-      <c r="BD22" s="66"/>
-      <c r="BE22" s="66"/>
-      <c r="BF22" s="66"/>
-      <c r="BG22" s="66"/>
-      <c r="BH22" s="66"/>
-      <c r="BI22" s="66"/>
-      <c r="BJ22" s="66"/>
-      <c r="BK22" s="66"/>
-      <c r="BL22" s="66"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="79">
-        <v>44144</v>
-      </c>
-      <c r="F23" s="79">
-        <v>44147</v>
-      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="H23" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -4778,12 +4707,12 @@
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
@@ -4824,19 +4753,27 @@
       <c r="BK23" s="26"/>
       <c r="BL23" s="26"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="39"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F24" s="82">
+        <v>44151</v>
+      </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
@@ -4895,27 +4832,27 @@
       <c r="BK24" s="26"/>
       <c r="BL24" s="26"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="39"/>
       <c r="B25" s="60" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="19">
         <v>0.8</v>
       </c>
       <c r="E25" s="82">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F25" s="82">
-        <v>44151</v>
+        <v>44156</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -4974,29 +4911,29 @@
       <c r="BK25" s="26"/>
       <c r="BL25" s="26"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19">
         <v>0.8</v>
       </c>
       <c r="E26" s="82">
-        <v>44152</v>
+        <v>44157</v>
       </c>
       <c r="F26" s="82">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>2</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -5055,27 +4992,27 @@
       <c r="BK26" s="26"/>
       <c r="BL26" s="26"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="39"/>
       <c r="B27" s="60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="19">
         <v>0.8</v>
       </c>
       <c r="E27" s="82">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="F27" s="82">
-        <v>44158</v>
+        <v>44162</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -5134,26 +5071,26 @@
       <c r="BK27" s="26"/>
       <c r="BL27" s="26"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="39"/>
       <c r="B28" s="60" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="19">
         <v>0.8</v>
       </c>
       <c r="E28" s="82">
-        <v>44160</v>
+        <v>44164</v>
       </c>
       <c r="F28" s="82">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I28" s="26"/>
@@ -5169,7 +5106,9 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="V28" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
@@ -5213,27 +5152,19 @@
       <c r="BK28" s="26"/>
       <c r="BL28" s="26"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="39"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E29" s="82">
-        <v>44164</v>
-      </c>
-      <c r="F29" s="82">
-        <v>44166</v>
-      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="H29" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
@@ -5248,9 +5179,7 @@
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
@@ -5294,19 +5223,27 @@
       <c r="BK29" s="26"/>
       <c r="BL29" s="26"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
+      <c r="B30" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="82">
+        <v>44117</v>
+      </c>
+      <c r="F30" s="82">
+        <v>44120</v>
+      </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H30" s="14">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -5365,28 +5302,25 @@
       <c r="BK30" s="26"/>
       <c r="BL30" s="26"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="19">
         <v>0.8</v>
       </c>
       <c r="E31" s="82">
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="F31" s="82">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
-      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -5444,181 +5378,184 @@
       <c r="BK31" s="26"/>
       <c r="BL31" s="26"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="19">
         <v>0.8</v>
       </c>
       <c r="E32" s="82">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="F32" s="82">
-        <v>44127</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
+        <v>44130</v>
+      </c>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="66"/>
+      <c r="BA32" s="66"/>
+      <c r="BB32" s="66"/>
+      <c r="BC32" s="66"/>
+      <c r="BD32" s="66"/>
+      <c r="BE32" s="66"/>
+      <c r="BF32" s="66"/>
+      <c r="BG32" s="66"/>
+      <c r="BH32" s="66"/>
+      <c r="BI32" s="66"/>
+      <c r="BJ32" s="66"/>
+      <c r="BK32" s="66"/>
+      <c r="BL32" s="66"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="19">
         <v>0.8</v>
       </c>
       <c r="E33" s="82">
-        <v>44127</v>
+        <v>44132</v>
       </c>
       <c r="F33" s="82">
-        <v>44130</v>
-      </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
-      <c r="BA33" s="66"/>
-      <c r="BB33" s="66"/>
-      <c r="BC33" s="66"/>
-      <c r="BD33" s="66"/>
-      <c r="BE33" s="66"/>
-      <c r="BF33" s="66"/>
-      <c r="BG33" s="66"/>
-      <c r="BH33" s="66"/>
-      <c r="BI33" s="66"/>
-      <c r="BJ33" s="66"/>
-      <c r="BK33" s="66"/>
-      <c r="BL33" s="66"/>
+        <v>44136</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="39"/>
       <c r="B34" s="60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="19">
         <v>0.8</v>
       </c>
       <c r="E34" s="82">
-        <v>44132</v>
+        <v>44137</v>
       </c>
       <c r="F34" s="82">
-        <v>44136</v>
+        <v>44140</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -5677,27 +5614,19 @@
       <c r="BK34" s="26"/>
       <c r="BL34" s="26"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="39"/>
-      <c r="B35" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E35" s="82">
-        <v>44137</v>
-      </c>
-      <c r="F35" s="82">
-        <v>44140</v>
-      </c>
+      <c r="B35" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14">
+      <c r="H35" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -5756,19 +5685,27 @@
       <c r="BK35" s="26"/>
       <c r="BL35" s="26"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="39"/>
-      <c r="B36" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
+      <c r="B36" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="82">
+        <v>44142</v>
+      </c>
+      <c r="F36" s="82">
+        <v>44145</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
@@ -5827,28 +5764,25 @@
       <c r="BK36" s="26"/>
       <c r="BL36" s="26"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="39"/>
       <c r="B37" s="60" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="19">
         <v>0.8</v>
       </c>
       <c r="E37" s="82">
-        <v>44142</v>
+        <v>44148</v>
       </c>
       <c r="F37" s="82">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -5906,24 +5840,24 @@
       <c r="BK37" s="26"/>
       <c r="BL37" s="26"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="19">
         <v>0.8</v>
       </c>
       <c r="E38" s="82">
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="F38" s="82">
-        <v>44152</v>
+        <v>44158</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -5984,24 +5918,24 @@
       <c r="BK38" s="26"/>
       <c r="BL38" s="26"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="19">
         <v>0.8</v>
       </c>
       <c r="E39" s="82">
-        <v>44155</v>
-      </c>
-      <c r="F39" s="82">
-        <v>44158</v>
+        <v>44160</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>98</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -6062,24 +5996,19 @@
       <c r="BK39" s="26"/>
       <c r="BL39" s="26"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="82">
-        <v>44160</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>100</v>
-      </c>
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B40" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14" t="str">
+        <f t="shared" ref="H40:H41" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -6137,18 +6066,26 @@
       <c r="BK40" s="26"/>
       <c r="BL40" s="26"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B41" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="82">
+        <v>44117</v>
+      </c>
+      <c r="F41" s="82">
+        <v>44120</v>
+      </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="14" t="str">
-        <f t="shared" ref="H41:H42" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H41" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
@@ -6207,27 +6144,24 @@
       <c r="BK41" s="26"/>
       <c r="BL41" s="26"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="19">
         <v>0.8</v>
       </c>
       <c r="E42" s="82">
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="F42" s="82">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6285,174 +6219,169 @@
       <c r="BK42" s="26"/>
       <c r="BL42" s="26"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="60" t="s">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B43" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="53" t="s">
-        <v>47</v>
+      <c r="C43" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="19">
         <v>0.8</v>
       </c>
       <c r="E43" s="82">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="F43" s="82">
-        <v>44127</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
-      <c r="BD43" s="26"/>
-      <c r="BE43" s="26"/>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
-      <c r="BL43" s="26"/>
+        <v>44130</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="66"/>
+      <c r="AZ43" s="66"/>
+      <c r="BA43" s="66"/>
+      <c r="BB43" s="66"/>
+      <c r="BC43" s="66"/>
+      <c r="BD43" s="66"/>
+      <c r="BE43" s="66"/>
+      <c r="BF43" s="66"/>
+      <c r="BG43" s="66"/>
+      <c r="BH43" s="66"/>
+      <c r="BI43" s="66"/>
+      <c r="BJ43" s="66"/>
+      <c r="BK43" s="66"/>
+      <c r="BL43" s="66"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>47</v>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B44" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="19">
         <v>0.8</v>
       </c>
       <c r="E44" s="82">
-        <v>44127</v>
+        <v>44132</v>
       </c>
       <c r="F44" s="82">
-        <v>44130</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="66"/>
-      <c r="AZ44" s="66"/>
-      <c r="BA44" s="66"/>
-      <c r="BB44" s="66"/>
-      <c r="BC44" s="66"/>
-      <c r="BD44" s="66"/>
-      <c r="BE44" s="66"/>
-      <c r="BF44" s="66"/>
-      <c r="BG44" s="66"/>
-      <c r="BH44" s="66"/>
-      <c r="BI44" s="66"/>
-      <c r="BJ44" s="66"/>
-      <c r="BK44" s="66"/>
-      <c r="BL44" s="66"/>
+        <v>44136</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="26"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="26"/>
+      <c r="BH44" s="26"/>
+      <c r="BI44" s="26"/>
+      <c r="BJ44" s="26"/>
+      <c r="BK44" s="26"/>
+      <c r="BL44" s="26"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="82">
-        <v>44132</v>
-      </c>
-      <c r="F45" s="82">
-        <v>44136</v>
-      </c>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B45" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="14" t="str">
+        <f t="shared" ref="H45:H46" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -6510,18 +6439,26 @@
       <c r="BK45" s="26"/>
       <c r="BL45" s="26"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B46" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E46" s="82">
+        <v>44142</v>
+      </c>
+      <c r="F46" s="82">
+        <v>44145</v>
+      </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14" t="str">
-        <f t="shared" ref="H46:H47" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H46" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -6580,27 +6517,24 @@
       <c r="BK46" s="26"/>
       <c r="BL46" s="26"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="D47" s="19">
         <v>0.8</v>
       </c>
       <c r="E47" s="82">
-        <v>44142</v>
+        <v>44148</v>
       </c>
       <c r="F47" s="82">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
@@ -6658,87 +6592,81 @@
       <c r="BK47" s="26"/>
       <c r="BL47" s="26"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="60" t="s">
-        <v>77</v>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B48" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E48" s="82">
-        <v>44148</v>
-      </c>
-      <c r="F48" s="82">
-        <v>44152</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="26"/>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-      <c r="AV48" s="26"/>
-      <c r="AW48" s="26"/>
-      <c r="AX48" s="26"/>
-      <c r="AY48" s="26"/>
-      <c r="AZ48" s="26"/>
-      <c r="BA48" s="26"/>
-      <c r="BB48" s="26"/>
-      <c r="BC48" s="26"/>
-      <c r="BD48" s="26"/>
-      <c r="BE48" s="26"/>
-      <c r="BF48" s="26"/>
-      <c r="BG48" s="26"/>
-      <c r="BH48" s="26"/>
-      <c r="BI48" s="26"/>
-      <c r="BJ48" s="26"/>
-      <c r="BK48" s="26"/>
-      <c r="BL48" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="66"/>
+      <c r="AV48" s="66"/>
+      <c r="AW48" s="66"/>
+      <c r="AX48" s="66"/>
+      <c r="AY48" s="66"/>
+      <c r="AZ48" s="66"/>
+      <c r="BA48" s="66"/>
+      <c r="BB48" s="66"/>
+      <c r="BC48" s="66"/>
+      <c r="BD48" s="66"/>
+      <c r="BE48" s="66"/>
+      <c r="BF48" s="66"/>
+      <c r="BG48" s="66"/>
+      <c r="BH48" s="66"/>
+      <c r="BI48" s="66"/>
+      <c r="BJ48" s="66"/>
+      <c r="BK48" s="66"/>
+      <c r="BL48" s="66"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="19">
         <v>0.8</v>
@@ -6808,9 +6736,9 @@
       <c r="BK49" s="26"/>
       <c r="BL49" s="26"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
@@ -6818,7 +6746,7 @@
       <c r="F50" s="87"/>
       <c r="G50" s="65"/>
       <c r="H50" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
@@ -6877,12 +6805,12 @@
       <c r="BK50" s="66"/>
       <c r="BL50" s="66"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B51" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="19">
         <v>0.8</v>
@@ -6955,12 +6883,12 @@
       <c r="BK51" s="66"/>
       <c r="BL51" s="66"/>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="19">
         <v>0.8</v>
@@ -7030,12 +6958,12 @@
       <c r="BK52" s="66"/>
       <c r="BL52" s="66"/>
     </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="19">
         <v>0.8</v>
@@ -7105,12 +7033,12 @@
       <c r="BK53" s="66"/>
       <c r="BL53" s="66"/>
     </row>
-    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="19">
         <v>0.8</v>
@@ -7180,12 +7108,12 @@
       <c r="BK54" s="66"/>
       <c r="BL54" s="66"/>
     </row>
-    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="19">
         <v>0.8</v>
@@ -7258,12 +7186,12 @@
       <c r="BK55" s="66"/>
       <c r="BL55" s="66"/>
     </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B56" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="19">
         <v>0.8</v>
@@ -7333,12 +7261,12 @@
       <c r="BK56" s="66"/>
       <c r="BL56" s="66"/>
     </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="68" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="19">
         <v>0.8</v>
@@ -7408,9 +7336,9 @@
       <c r="BK57" s="66"/>
       <c r="BL57" s="66"/>
     </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B58" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="56"/>
@@ -7418,7 +7346,7 @@
       <c r="F58" s="85"/>
       <c r="G58" s="65"/>
       <c r="H58" s="65" t="str">
-        <f t="shared" ref="H58:H59" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H58" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I58" s="66"/>
@@ -7478,26 +7406,28 @@
       <c r="BK58" s="66"/>
       <c r="BL58" s="66"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="67" t="s">
-        <v>49</v>
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B59" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="19">
         <v>0.8</v>
       </c>
-      <c r="E59" s="82">
-        <v>44160</v>
-      </c>
-      <c r="F59" s="82">
-        <v>44162</v>
+      <c r="E59" s="79">
+        <f>E47+15</f>
+        <v>44163</v>
+      </c>
+      <c r="F59" s="79">
+        <f>E59+5</f>
+        <v>44168</v>
       </c>
       <c r="G59" s="65"/>
       <c r="H59" s="65">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
       </c>
       <c r="I59" s="66"/>
       <c r="J59" s="66"/>
@@ -7556,29 +7486,24 @@
       <c r="BK59" s="66"/>
       <c r="BL59" s="66"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B60" s="59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C60" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="19">
         <v>0.8</v>
       </c>
-      <c r="E60" s="79">
-        <f>E48+15</f>
-        <v>44163</v>
-      </c>
-      <c r="F60" s="79">
-        <f>E60+5</f>
-        <v>44168</v>
+      <c r="E60" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F60" s="82">
+        <v>44152</v>
       </c>
       <c r="G60" s="65"/>
-      <c r="H60" s="65">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
+      <c r="H60" s="65"/>
       <c r="I60" s="66"/>
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
@@ -7636,21 +7561,21 @@
       <c r="BK60" s="66"/>
       <c r="BL60" s="66"/>
     </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B61" s="59" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="19">
         <v>0.8</v>
       </c>
       <c r="E61" s="82">
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="F61" s="82">
-        <v>44152</v>
+        <v>44158</v>
       </c>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
@@ -7711,21 +7636,21 @@
       <c r="BK61" s="66"/>
       <c r="BL61" s="66"/>
     </row>
-    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="72" t="s">
-        <v>49</v>
+    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
+      <c r="B62" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="D62" s="19">
         <v>0.8</v>
       </c>
       <c r="E62" s="82">
-        <v>44155</v>
+        <v>44132</v>
       </c>
       <c r="F62" s="82">
-        <v>44158</v>
+        <v>44136</v>
       </c>
       <c r="G62" s="65"/>
       <c r="H62" s="65"/>
@@ -7786,83 +7711,13 @@
       <c r="BK62" s="66"/>
       <c r="BL62" s="66"/>
     </row>
-    <row r="63" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E63" s="82">
-        <v>44132</v>
-      </c>
-      <c r="F63" s="82">
-        <v>44136</v>
-      </c>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
-      <c r="AK63" s="66"/>
-      <c r="AL63" s="66"/>
-      <c r="AM63" s="66"/>
-      <c r="AN63" s="66"/>
-      <c r="AO63" s="66"/>
-      <c r="AP63" s="66"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
-      <c r="AU63" s="66"/>
-      <c r="AV63" s="66"/>
-      <c r="AW63" s="66"/>
-      <c r="AX63" s="66"/>
-      <c r="AY63" s="66"/>
-      <c r="AZ63" s="66"/>
-      <c r="BA63" s="66"/>
-      <c r="BB63" s="66"/>
-      <c r="BC63" s="66"/>
-      <c r="BD63" s="66"/>
-      <c r="BE63" s="66"/>
-      <c r="BF63" s="66"/>
-      <c r="BG63" s="66"/>
-      <c r="BH63" s="66"/>
-      <c r="BI63" s="66"/>
-      <c r="BJ63" s="66"/>
-      <c r="BK63" s="66"/>
-      <c r="BL63" s="66"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7870,13 +7725,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D14 D17 D19 D23:D26 D29 D38 D61:D62">
+  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61">
     <cfRule type="dataBar" priority="336">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7890,20 +7740,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="122" priority="355">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
+    <cfRule type="expression" dxfId="116" priority="355">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38 I29:BL29 I32:BL32 I48:BL48 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I22:BL26">
-    <cfRule type="expression" dxfId="121" priority="349">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
+    <cfRule type="expression" dxfId="115" priority="349">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="350" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7917,33 +7767,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="119" priority="322">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="113" priority="322">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="118" priority="320">
+  <conditionalFormatting sqref="I29:BL29">
+    <cfRule type="expression" dxfId="112" priority="320">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="321" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="116" priority="302">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="110" priority="302">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="115" priority="300">
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="109" priority="300">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="301" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7957,150 +7807,150 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="107" priority="270">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="106" priority="268">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="269" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="113" priority="270">
+    <cfRule type="expression" dxfId="104" priority="266">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="112" priority="268">
+    <cfRule type="expression" dxfId="103" priority="264">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="265" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="110" priority="266">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="101" priority="262">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="109" priority="264">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="100" priority="260">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="261" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="98" priority="254">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="97" priority="252">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="253" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="107" priority="262">
+    <cfRule type="expression" dxfId="95" priority="250">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="106" priority="260">
+    <cfRule type="expression" dxfId="94" priority="248">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="249" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="104" priority="254">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="92" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="103" priority="252">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="91" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="101" priority="250">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="89" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="100" priority="248">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="88" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="98" priority="238">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="86" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="97" priority="236">
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="85" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="229" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="95" priority="234">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="83" priority="226">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="94" priority="232">
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="82" priority="224">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="225" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="92" priority="230">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="80" priority="214">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="91" priority="228">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="79" priority="212">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="213" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="89" priority="226">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="77" priority="206">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="88" priority="224">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="76" priority="204">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="205" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="86" priority="214">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="85" priority="212">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="213" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="83" priority="206">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:V21 AC21:BL21">
-    <cfRule type="expression" dxfId="82" priority="204">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="205" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8114,59 +7964,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="74" priority="198">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="73" priority="196">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="197" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="80" priority="198">
+    <cfRule type="expression" dxfId="71" priority="194">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="79" priority="196">
+    <cfRule type="expression" dxfId="70" priority="192">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="77" priority="194">
+    <cfRule type="expression" dxfId="68" priority="190">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="76" priority="192">
+    <cfRule type="expression" dxfId="67" priority="188">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="189" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="74" priority="190">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="65" priority="186">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="73" priority="188">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="64" priority="184">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="185" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="71" priority="186">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="70" priority="184">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="185" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8180,42 +8030,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="62" priority="174">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="61" priority="172">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="173" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="68" priority="174">
+    <cfRule type="expression" dxfId="59" priority="170">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="67" priority="172">
+    <cfRule type="expression" dxfId="58" priority="168">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="65" priority="170">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="56" priority="166">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="64" priority="168">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="55" priority="164">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="169" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="62" priority="166">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="61" priority="164">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="165" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8234,94 +8084,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="59" priority="131">
+    <cfRule type="expression" dxfId="53" priority="131">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="58" priority="129">
+    <cfRule type="expression" dxfId="52" priority="129">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="130" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="56" priority="127">
+    <cfRule type="expression" dxfId="50" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="55" priority="125">
+    <cfRule type="expression" dxfId="49" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="53" priority="115">
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="47" priority="105">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="52" priority="113">
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="46" priority="103">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="50" priority="105">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="49" priority="103">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="104" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="47" priority="102">
+    <cfRule type="expression" dxfId="44" priority="102">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="46" priority="100">
+    <cfRule type="expression" dxfId="43" priority="100">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="44" priority="99">
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="41" priority="99">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:AB21">
-    <cfRule type="expression" dxfId="43" priority="97">
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="40" priority="97">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="41" priority="88">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="40" priority="86">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
@@ -8337,12 +8161,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="35" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="34" priority="75">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8350,12 +8174,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="32" priority="74">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I43:BL43">
     <cfRule type="expression" dxfId="31" priority="72">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8454,12 +8278,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="8" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="7" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8467,12 +8291,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="4" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8480,12 +8304,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="2" priority="42">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="1" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8493,7 +8317,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16 D20:D22 D18">
+  <conditionalFormatting sqref="D15:D16 D18">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8507,7 +8331,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8521,7 +8345,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D35">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8535,7 +8359,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40 D37">
+  <conditionalFormatting sqref="D38:D39 D36">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8549,7 +8373,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D45 D47:D49">
+  <conditionalFormatting sqref="D41:D44">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8563,7 +8387,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D57 D63 D59:D60">
+  <conditionalFormatting sqref="D51:D57 D62">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8604,7 +8428,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D17 D19 D23:D26 D29 D38 D61:D62</xm:sqref>
+          <xm:sqref>D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8619,7 +8443,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA2124C7-6797-44E6-8FD0-5B4542DBAA0C}">
@@ -8634,7 +8458,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{24113A02-1DBE-4064-9FC4-A65D86479F5A}">
@@ -8649,7 +8473,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CAB61D51-B9A4-4432-B966-CFC42510F8F6}">
@@ -8664,7 +8488,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5EED533C-4486-4D94-B9F5-0351D40BB2D9}">
@@ -8694,7 +8518,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16 D20:D22 D18</xm:sqref>
+          <xm:sqref>D15:D16 D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B91F733-85CA-4B17-83FC-65CF49637700}">
@@ -8709,7 +8533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27:D28</xm:sqref>
+          <xm:sqref>D26:D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8559CF00-2CC2-42F1-AEFA-72F9594735F9}">
@@ -8724,7 +8548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31:D35</xm:sqref>
+          <xm:sqref>D30:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77793674-38C2-4352-9FD8-A57AF1CEECA5}">
@@ -8739,7 +8563,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39:D40 D37</xm:sqref>
+          <xm:sqref>D38:D39 D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F7A8AA8-3CC3-4105-A120-D6C95EAE2D6D}">
@@ -8754,7 +8578,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42:D45 D47:D49</xm:sqref>
+          <xm:sqref>D41:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72392D49-F08A-4D5F-A1D2-4692633B9922}">
@@ -8769,7 +8593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51:D57 D63 D59:D60</xm:sqref>
+          <xm:sqref>D51:D57 D62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8783,86 +8607,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.140625" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="32" customFormat="1" ht="26.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.95" customHeight="1">
       <c r="A7" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="32" customFormat="1" ht="26.25">
       <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="32" customFormat="1" ht="26.25">
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="32" customFormat="1" ht="26.25">
       <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75">
       <c r="A16" s="34" t="s">
         <v>15</v>
       </c>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980D7B1-6FA7-41BB-99C6-EADC6C5016B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A5FB1-1CFE-4A17-ACC7-848A9EEE4B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,6 +1035,13 @@
     <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1047,13 +1054,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2764,8 +2764,8 @@
   <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:BL60"/>
+      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2856,14 +2856,14 @@
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91">
+      <c r="D3" s="89"/>
+      <c r="E3" s="94">
         <v>44117</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -2872,104 +2872,104 @@
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -7713,11 +7713,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7725,6 +7720,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61">
     <cfRule type="dataBar" priority="336">

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A5FB1-1CFE-4A17-ACC7-848A9EEE4B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E2F66-FCB1-48C9-B5A9-02CE01413273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>Project Start:</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Thống kê công nợ</t>
-  </si>
-  <si>
-    <t>Xem Danh sách công nợ</t>
   </si>
   <si>
     <t>Sắp xếp lịch làm</t>
@@ -2761,11 +2758,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL62"/>
+  <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56:BK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3588,7 +3585,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>47</v>
@@ -3671,7 +3668,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>47</v>
@@ -3984,7 +3981,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>47</v>
@@ -4141,7 +4138,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>47</v>
@@ -4293,7 +4290,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>45</v>
@@ -4451,7 +4448,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>45</v>
@@ -4530,7 +4527,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>45</v>
@@ -4606,7 +4603,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>45</v>
@@ -5229,7 +5226,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="19">
         <v>0.8</v>
@@ -5305,10 +5302,10 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="19">
         <v>0.8</v>
@@ -5386,7 +5383,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="19">
         <v>0.8</v>
@@ -5459,10 +5456,10 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="19">
         <v>0.8</v>
@@ -5538,10 +5535,10 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="39"/>
       <c r="B34" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="19">
         <v>0.8</v>
@@ -5688,10 +5685,10 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="39"/>
       <c r="B36" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="19">
         <v>0.8</v>
@@ -5770,7 +5767,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="19">
         <v>0.8</v>
@@ -5845,10 +5842,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="19">
         <v>0.8</v>
@@ -5926,7 +5923,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="19">
         <v>0.8</v>
@@ -5935,7 +5932,7 @@
         <v>44160</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="56"/>
@@ -6068,7 +6065,7 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>46</v>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>46</v>
@@ -6221,7 +6218,7 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B43" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="67" t="s">
         <v>46</v>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>46</v>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B45" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="56"/>
@@ -6441,7 +6438,7 @@
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B46" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>46</v>
@@ -6519,7 +6516,7 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="67" t="s">
         <v>46</v>
@@ -6594,7 +6591,7 @@
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B48" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="67" t="s">
         <v>46</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
@@ -6746,7 +6743,7 @@
       <c r="F50" s="87"/>
       <c r="G50" s="65"/>
       <c r="H50" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
@@ -6807,7 +6804,7 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B51" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="67" t="s">
         <v>48</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="67" t="s">
         <v>48</v>
@@ -6960,7 +6957,7 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>48</v>
@@ -7035,7 +7032,7 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="67" t="s">
         <v>48</v>
@@ -7110,7 +7107,7 @@
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="67" t="s">
         <v>48</v>
@@ -7262,23 +7259,18 @@
       <c r="BL56" s="66"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E57" s="82">
-        <v>44155</v>
-      </c>
-      <c r="F57" s="82">
-        <v>44158</v>
-      </c>
+      <c r="B57" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
+      <c r="H57" s="65" t="str">
+        <f t="shared" ref="H57" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I57" s="66"/>
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
@@ -7337,17 +7329,27 @@
       <c r="BL57" s="66"/>
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
+      <c r="B58" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="79">
+        <f>E47+15</f>
+        <v>44163</v>
+      </c>
+      <c r="F58" s="79">
+        <f>E58+5</f>
+        <v>44168</v>
+      </c>
       <c r="G58" s="65"/>
-      <c r="H58" s="65" t="str">
-        <f t="shared" ref="H58" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H58" s="65">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
       </c>
       <c r="I58" s="66"/>
       <c r="J58" s="66"/>
@@ -7408,7 +7410,7 @@
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B59" s="59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C59" s="72" t="s">
         <v>48</v>
@@ -7416,19 +7418,14 @@
       <c r="D59" s="19">
         <v>0.8</v>
       </c>
-      <c r="E59" s="79">
-        <f>E47+15</f>
-        <v>44163</v>
-      </c>
-      <c r="F59" s="79">
-        <f>E59+5</f>
-        <v>44168</v>
+      <c r="E59" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F59" s="82">
+        <v>44152</v>
       </c>
       <c r="G59" s="65"/>
-      <c r="H59" s="65">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
+      <c r="H59" s="65"/>
       <c r="I59" s="66"/>
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
@@ -7488,7 +7485,7 @@
     </row>
     <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B60" s="59" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C60" s="72" t="s">
         <v>48</v>
@@ -7497,10 +7494,10 @@
         <v>0.8</v>
       </c>
       <c r="E60" s="82">
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="F60" s="82">
-        <v>44152</v>
+        <v>44158</v>
       </c>
       <c r="G60" s="65"/>
       <c r="H60" s="65"/>
@@ -7562,20 +7559,20 @@
       <c r="BL60" s="66"/>
     </row>
     <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="72" t="s">
+      <c r="B61" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="19">
         <v>0.8</v>
       </c>
       <c r="E61" s="82">
-        <v>44155</v>
+        <v>44132</v>
       </c>
       <c r="F61" s="82">
-        <v>44158</v>
+        <v>44136</v>
       </c>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
@@ -7636,81 +7633,6 @@
       <c r="BK61" s="66"/>
       <c r="BL61" s="66"/>
     </row>
-    <row r="62" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E62" s="82">
-        <v>44132</v>
-      </c>
-      <c r="F62" s="82">
-        <v>44136</v>
-      </c>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="66"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="66"/>
-      <c r="Z62" s="66"/>
-      <c r="AA62" s="66"/>
-      <c r="AB62" s="66"/>
-      <c r="AC62" s="66"/>
-      <c r="AD62" s="66"/>
-      <c r="AE62" s="66"/>
-      <c r="AF62" s="66"/>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="66"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="66"/>
-      <c r="AK62" s="66"/>
-      <c r="AL62" s="66"/>
-      <c r="AM62" s="66"/>
-      <c r="AN62" s="66"/>
-      <c r="AO62" s="66"/>
-      <c r="AP62" s="66"/>
-      <c r="AQ62" s="66"/>
-      <c r="AR62" s="66"/>
-      <c r="AS62" s="66"/>
-      <c r="AT62" s="66"/>
-      <c r="AU62" s="66"/>
-      <c r="AV62" s="66"/>
-      <c r="AW62" s="66"/>
-      <c r="AX62" s="66"/>
-      <c r="AY62" s="66"/>
-      <c r="AZ62" s="66"/>
-      <c r="BA62" s="66"/>
-      <c r="BB62" s="66"/>
-      <c r="BC62" s="66"/>
-      <c r="BD62" s="66"/>
-      <c r="BE62" s="66"/>
-      <c r="BF62" s="66"/>
-      <c r="BG62" s="66"/>
-      <c r="BH62" s="66"/>
-      <c r="BI62" s="66"/>
-      <c r="BJ62" s="66"/>
-      <c r="BK62" s="66"/>
-      <c r="BL62" s="66"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AY4:BE4"/>
@@ -7726,7 +7648,7 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61">
+  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D58:D60">
     <cfRule type="dataBar" priority="336">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8069,7 +7991,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8083,12 +8005,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="53" priority="131">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="52" priority="129">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8096,12 +8018,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="50" priority="115">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
+  <conditionalFormatting sqref="I58:BL58">
     <cfRule type="expression" dxfId="49" priority="113">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8265,25 +8187,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="11" priority="51">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="10" priority="49">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="50" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="8" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="7" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8291,12 +8200,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="4" priority="43">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8304,12 +8213,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="2" priority="42">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
+  <conditionalFormatting sqref="I61:BL61">
     <cfRule type="expression" dxfId="1" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8387,7 +8296,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D57 D62">
+  <conditionalFormatting sqref="D51:D56 D61">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8428,7 +8337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D17 D28 D37 D46:D49 D19:D25 D59:D61</xm:sqref>
+          <xm:sqref>D7:D14 D17 D28 D37 D46:D49 D19:D25 D58:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8503,7 +8412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{278680DF-DE56-491C-BE96-36B51BE7B7BF}">
@@ -8593,7 +8502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51:D57 D62</xm:sqref>
+          <xm:sqref>D51:D56 D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E2F66-FCB1-48C9-B5A9-02CE01413273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408A79D-793D-4F16-8866-7544882DE3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="129">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2334,15 +2364,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="125"/>
-      <tableStyleElement type="headerRow" dxfId="124"/>
-      <tableStyleElement type="totalRow" dxfId="123"/>
-      <tableStyleElement type="firstColumn" dxfId="122"/>
-      <tableStyleElement type="lastColumn" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
+      <tableStyleElement type="wholeTable" dxfId="128"/>
+      <tableStyleElement type="headerRow" dxfId="127"/>
+      <tableStyleElement type="totalRow" dxfId="126"/>
+      <tableStyleElement type="firstColumn" dxfId="125"/>
+      <tableStyleElement type="lastColumn" dxfId="124"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="120"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2760,9 +2790,9 @@
   </sheetPr>
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56:BK56"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -6596,9 +6626,15 @@
       <c r="C48" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
+      <c r="D48" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="82">
+        <v>44155</v>
+      </c>
+      <c r="F48" s="82">
+        <v>44158</v>
+      </c>
       <c r="G48" s="65"/>
       <c r="H48" s="65"/>
       <c r="I48" s="66"/>
@@ -7648,8 +7684,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D49 D19:D25 D58:D60">
-    <cfRule type="dataBar" priority="336">
+  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D47 D19:D25 D58:D60 D49">
+    <cfRule type="dataBar" priority="340">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7662,21 +7698,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
-    <cfRule type="expression" dxfId="116" priority="355">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
+    <cfRule type="expression" dxfId="119" priority="359">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL48">
-    <cfRule type="expression" dxfId="115" priority="349">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
+    <cfRule type="expression" dxfId="118" priority="353">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="354" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="319">
+    <cfRule type="dataBar" priority="323">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7690,33 +7726,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="113" priority="322">
+    <cfRule type="expression" dxfId="116" priority="326">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="112" priority="320">
+    <cfRule type="expression" dxfId="115" priority="324">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="325" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="110" priority="302">
+    <cfRule type="expression" dxfId="113" priority="306">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="109" priority="300">
+    <cfRule type="expression" dxfId="112" priority="304">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="305" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="267">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7730,11 +7766,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="110" priority="274">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="109" priority="272">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="273" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="107" priority="270">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I36:BL36">
     <cfRule type="expression" dxfId="106" priority="268">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7742,12 +7791,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="104" priority="266">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="103" priority="264">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7755,25 +7804,25 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="101" priority="262">
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="101" priority="258">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="100" priority="260">
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="100" priority="256">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="257" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="98" priority="254">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="97" priority="252">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7781,25 +7830,25 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="95" priority="250">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="95" priority="242">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="94" priority="248">
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="94" priority="240">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="241" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
     <cfRule type="expression" dxfId="92" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
     <cfRule type="expression" dxfId="91" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7807,12 +7856,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
+  <conditionalFormatting sqref="I16:BL16">
     <cfRule type="expression" dxfId="89" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
+  <conditionalFormatting sqref="I16:BL16">
     <cfRule type="expression" dxfId="88" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7820,12 +7869,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I26:BL26">
     <cfRule type="expression" dxfId="86" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I26:BL26">
     <cfRule type="expression" dxfId="85" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7833,47 +7882,34 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="83" priority="226">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="83" priority="218">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="82" priority="224">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="82" priority="216">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="217" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="80" priority="214">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="80" priority="210">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="79" priority="212">
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="79" priority="208">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="77" priority="206">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="76" priority="204">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="205" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="195">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7887,11 +7923,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="77" priority="202">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="76" priority="200">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="201" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="74" priority="198">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I41:BL41">
     <cfRule type="expression" dxfId="73" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7899,12 +7948,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="71" priority="194">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
+  <conditionalFormatting sqref="I42:BL42">
     <cfRule type="expression" dxfId="70" priority="192">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7912,12 +7961,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="68" priority="190">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
+  <conditionalFormatting sqref="I44:BL44">
     <cfRule type="expression" dxfId="67" priority="188">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7925,21 +7974,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="65" priority="186">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="64" priority="184">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="185" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7953,11 +7989,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="65" priority="178">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="64" priority="176">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="177" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="62" priority="174">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="61" priority="172">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7965,12 +8014,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="59" priority="170">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I49:BL49">
     <cfRule type="expression" dxfId="58" priority="168">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7978,21 +8027,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="56" priority="166">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="55" priority="164">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="165" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8006,228 +8042,228 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="53" priority="131">
+    <cfRule type="expression" dxfId="56" priority="135">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="52" priority="129">
+    <cfRule type="expression" dxfId="55" priority="133">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="134" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="50" priority="115">
+    <cfRule type="expression" dxfId="53" priority="119">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="49" priority="113">
+    <cfRule type="expression" dxfId="52" priority="117">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="118" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="47" priority="105">
+    <cfRule type="expression" dxfId="50" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="46" priority="103">
+    <cfRule type="expression" dxfId="49" priority="107">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="44" priority="102">
+    <cfRule type="expression" dxfId="47" priority="106">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="43" priority="100">
+    <cfRule type="expression" dxfId="46" priority="104">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="41" priority="99">
+    <cfRule type="expression" dxfId="44" priority="103">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="40" priority="97">
+    <cfRule type="expression" dxfId="43" priority="101">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="38" priority="84">
+    <cfRule type="expression" dxfId="41" priority="88">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="37" priority="82">
+    <cfRule type="expression" dxfId="40" priority="86">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="35" priority="77">
+    <cfRule type="expression" dxfId="38" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="34" priority="75">
+    <cfRule type="expression" dxfId="37" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="32" priority="74">
+    <cfRule type="expression" dxfId="35" priority="78">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="31" priority="72">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="29" priority="69">
+    <cfRule type="expression" dxfId="32" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="28" priority="67">
+    <cfRule type="expression" dxfId="31" priority="71">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="26" priority="66">
+    <cfRule type="expression" dxfId="29" priority="70">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="25" priority="64">
+    <cfRule type="expression" dxfId="28" priority="68">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="69" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="23" priority="63">
+    <cfRule type="expression" dxfId="26" priority="67">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="22" priority="61">
+    <cfRule type="expression" dxfId="25" priority="65">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="20" priority="60">
+    <cfRule type="expression" dxfId="23" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="19" priority="58">
+    <cfRule type="expression" dxfId="22" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="17" priority="57">
+    <cfRule type="expression" dxfId="20" priority="61">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="16" priority="55">
+    <cfRule type="expression" dxfId="19" priority="59">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="14" priority="54">
+    <cfRule type="expression" dxfId="17" priority="58">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="13" priority="52">
+    <cfRule type="expression" dxfId="16" priority="56">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="8" priority="48">
+    <cfRule type="expression" dxfId="11" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="7" priority="46">
+    <cfRule type="expression" dxfId="10" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="4" priority="43">
+    <cfRule type="expression" dxfId="7" priority="47">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="5" priority="46">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16 D18">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8241,7 +8277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8255,7 +8291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D34">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8269,7 +8305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39 D36">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8283,7 +8319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D44">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8297,7 +8333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D56 D61">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8308,6 +8344,33 @@
           <x14:id>{72392D49-F08A-4D5F-A1D2-4692633B9922}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4AD5B72E-C1C9-461B-BEB6-88D5E1CC4818}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8337,7 +8400,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D17 D28 D37 D46:D49 D19:D25 D58:D60</xm:sqref>
+          <xm:sqref>D7:D14 D17 D28 D37 D46:D47 D19:D25 D58:D60 D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8504,6 +8567,21 @@
           </x14:cfRule>
           <xm:sqref>D51:D56 D61</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4AD5B72E-C1C9-461B-BEB6-88D5E1CC4818}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D48</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408A79D-793D-4F16-8866-7544882DE3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E92A3-7494-448A-8265-BED2129E6E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1032,18 @@
     <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1039,18 +1051,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1067,37 +1067,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="129">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -2364,15 +2334,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="128"/>
-      <tableStyleElement type="headerRow" dxfId="127"/>
-      <tableStyleElement type="totalRow" dxfId="126"/>
-      <tableStyleElement type="firstColumn" dxfId="125"/>
-      <tableStyleElement type="lastColumn" dxfId="124"/>
-      <tableStyleElement type="firstRowStripe" dxfId="123"/>
-      <tableStyleElement type="secondRowStripe" dxfId="122"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="120"/>
+      <tableStyleElement type="wholeTable" dxfId="125"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstColumn" dxfId="122"/>
+      <tableStyleElement type="lastColumn" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2791,71 +2761,71 @@
   <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="26" width="3.28515625" customWidth="1"/>
-    <col min="27" max="27" width="3.140625" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" customWidth="1"/>
-    <col min="32" max="32" width="3.7109375" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="34" width="4.28515625" customWidth="1"/>
-    <col min="35" max="36" width="4.140625" customWidth="1"/>
-    <col min="37" max="37" width="4.28515625" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" customWidth="1"/>
-    <col min="40" max="40" width="3.42578125" customWidth="1"/>
-    <col min="41" max="41" width="4.140625" customWidth="1"/>
-    <col min="42" max="42" width="3.7109375" customWidth="1"/>
-    <col min="43" max="44" width="3.5703125" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" customWidth="1"/>
-    <col min="46" max="46" width="3.28515625" customWidth="1"/>
-    <col min="47" max="47" width="4.42578125" customWidth="1"/>
-    <col min="48" max="48" width="3.28515625" customWidth="1"/>
-    <col min="49" max="49" width="3.5703125" customWidth="1"/>
-    <col min="50" max="50" width="4.140625" customWidth="1"/>
-    <col min="51" max="51" width="3.42578125" customWidth="1"/>
-    <col min="52" max="52" width="4.140625" customWidth="1"/>
-    <col min="53" max="53" width="3.7109375" customWidth="1"/>
-    <col min="54" max="54" width="3.28515625" customWidth="1"/>
-    <col min="55" max="55" width="3.85546875" customWidth="1"/>
-    <col min="56" max="56" width="4.140625" customWidth="1"/>
-    <col min="57" max="58" width="3.5703125" customWidth="1"/>
-    <col min="59" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" customWidth="1"/>
+    <col min="18" max="18" width="3.5546875" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.88671875" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" customWidth="1"/>
+    <col min="23" max="23" width="3.88671875" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" customWidth="1"/>
+    <col min="25" max="26" width="3.33203125" customWidth="1"/>
+    <col min="27" max="27" width="3.109375" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" customWidth="1"/>
+    <col min="31" max="31" width="3.88671875" customWidth="1"/>
+    <col min="32" max="32" width="3.6640625" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" customWidth="1"/>
+    <col min="34" max="34" width="4.33203125" customWidth="1"/>
+    <col min="35" max="36" width="4.109375" customWidth="1"/>
+    <col min="37" max="37" width="4.33203125" customWidth="1"/>
+    <col min="38" max="38" width="4.109375" customWidth="1"/>
+    <col min="39" max="39" width="4.33203125" customWidth="1"/>
+    <col min="40" max="40" width="3.44140625" customWidth="1"/>
+    <col min="41" max="41" width="4.109375" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" customWidth="1"/>
+    <col min="43" max="44" width="3.5546875" customWidth="1"/>
+    <col min="45" max="45" width="4.44140625" customWidth="1"/>
+    <col min="46" max="46" width="3.33203125" customWidth="1"/>
+    <col min="47" max="47" width="4.44140625" customWidth="1"/>
+    <col min="48" max="48" width="3.33203125" customWidth="1"/>
+    <col min="49" max="49" width="3.5546875" customWidth="1"/>
+    <col min="50" max="50" width="4.109375" customWidth="1"/>
+    <col min="51" max="51" width="3.44140625" customWidth="1"/>
+    <col min="52" max="52" width="4.109375" customWidth="1"/>
+    <col min="53" max="53" width="3.6640625" customWidth="1"/>
+    <col min="54" max="54" width="3.33203125" customWidth="1"/>
+    <col min="55" max="55" width="3.88671875" customWidth="1"/>
+    <col min="56" max="56" width="4.109375" customWidth="1"/>
+    <col min="57" max="58" width="3.5546875" customWidth="1"/>
+    <col min="59" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
         <v>28</v>
       </c>
@@ -2869,7 +2839,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
@@ -2878,125 +2848,125 @@
       </c>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="94">
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
         <v>44117</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="91"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -3222,7 +3192,7 @@
         <v>44171</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>32</v>
       </c>
@@ -3470,7 +3440,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
@@ -3537,7 +3507,7 @@
       <c r="BK7" s="26"/>
       <c r="BL7" s="26"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>33</v>
       </c>
@@ -3610,7 +3580,7 @@
       <c r="BK8" s="26"/>
       <c r="BL8" s="26"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3591,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="73">
         <f>Project_Start</f>
@@ -3693,7 +3663,7 @@
       <c r="BK9" s="26"/>
       <c r="BL9" s="26"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>35</v>
       </c>
@@ -3704,7 +3674,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="73">
         <v>44123</v>
@@ -3774,7 +3744,7 @@
       <c r="BK10" s="26"/>
       <c r="BL10" s="26"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
@@ -3845,7 +3815,7 @@
       <c r="BK11" s="26"/>
       <c r="BL11" s="26"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="58" t="s">
         <v>55</v>
@@ -3854,7 +3824,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="76">
         <v>44129</v>
@@ -3925,7 +3895,7 @@
       <c r="BK12" s="66"/>
       <c r="BL12" s="66"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="58" t="s">
         <v>40</v>
@@ -3934,7 +3904,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="76">
         <f>F12+4</f>
@@ -4006,7 +3976,7 @@
       <c r="BK13" s="26"/>
       <c r="BL13" s="26"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
@@ -4017,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="76">
         <f>F13+3</f>
@@ -4085,7 +4055,7 @@
       <c r="BK14" s="66"/>
       <c r="BL14" s="66"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="58" t="s">
         <v>63</v>
@@ -4094,7 +4064,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="76">
         <f>F14+2</f>
@@ -4165,7 +4135,7 @@
       <c r="BK15" s="26"/>
       <c r="BL15" s="26"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
         <v>85</v>
@@ -4174,7 +4144,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="76">
         <f>F15+2</f>
@@ -4246,7 +4216,7 @@
       <c r="BK16" s="26"/>
       <c r="BL16" s="26"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
         <v>53</v>
@@ -4317,7 +4287,7 @@
       <c r="BK17" s="26"/>
       <c r="BL17" s="26"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
         <v>70</v>
@@ -4326,7 +4296,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="79">
         <v>44117</v>
@@ -4396,7 +4366,7 @@
       <c r="BK18" s="66"/>
       <c r="BL18" s="66"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="59" t="s">
         <v>54</v>
@@ -4405,7 +4375,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="79">
         <v>44123</v>
@@ -4475,7 +4445,7 @@
       <c r="BK19" s="26"/>
       <c r="BL19" s="26"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
         <v>81</v>
@@ -4484,7 +4454,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="79">
         <v>44132</v>
@@ -4554,7 +4524,7 @@
       <c r="BK20" s="26"/>
       <c r="BL20" s="26"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
         <v>84</v>
@@ -4563,7 +4533,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="79">
         <v>44138</v>
@@ -4630,7 +4600,7 @@
       <c r="BK21" s="66"/>
       <c r="BL21" s="66"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
         <v>68</v>
@@ -4639,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="79">
         <v>44144</v>
@@ -4709,7 +4679,7 @@
       <c r="BK22" s="26"/>
       <c r="BL22" s="26"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="24" t="s">
         <v>41</v>
@@ -4780,7 +4750,7 @@
       <c r="BK23" s="26"/>
       <c r="BL23" s="26"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="60" t="s">
         <v>42</v>
@@ -4789,7 +4759,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="82">
         <v>44148</v>
@@ -4859,7 +4829,7 @@
       <c r="BK24" s="26"/>
       <c r="BL24" s="26"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="60" t="s">
         <v>61</v>
@@ -4868,7 +4838,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="82">
         <v>44152</v>
@@ -4938,7 +4908,7 @@
       <c r="BK25" s="26"/>
       <c r="BL25" s="26"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>24</v>
       </c>
@@ -4949,7 +4919,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="82">
         <v>44157</v>
@@ -5019,7 +4989,7 @@
       <c r="BK26" s="26"/>
       <c r="BL26" s="26"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="60" t="s">
         <v>62</v>
@@ -5028,7 +4998,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E27" s="82">
         <v>44160</v>
@@ -5098,7 +5068,7 @@
       <c r="BK27" s="26"/>
       <c r="BL27" s="26"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="60" t="s">
         <v>43</v>
@@ -5107,7 +5077,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="82">
         <v>44164</v>
@@ -5179,7 +5149,7 @@
       <c r="BK28" s="26"/>
       <c r="BL28" s="26"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="61" t="s">
         <v>44</v>
@@ -5250,7 +5220,7 @@
       <c r="BK29" s="26"/>
       <c r="BL29" s="26"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39"/>
       <c r="B30" s="60" t="s">
         <v>58</v>
@@ -5259,7 +5229,7 @@
         <v>98</v>
       </c>
       <c r="D30" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E30" s="82">
         <v>44117</v>
@@ -5329,7 +5299,7 @@
       <c r="BK30" s="26"/>
       <c r="BL30" s="26"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
         <v>73</v>
@@ -5338,7 +5308,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E31" s="82">
         <v>44123</v>
@@ -5405,7 +5375,7 @@
       <c r="BK31" s="26"/>
       <c r="BL31" s="26"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>24</v>
       </c>
@@ -5416,7 +5386,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="82">
         <v>44127</v>
@@ -5483,7 +5453,7 @@
       <c r="BK32" s="66"/>
       <c r="BL32" s="66"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
         <v>65</v>
@@ -5492,7 +5462,7 @@
         <v>98</v>
       </c>
       <c r="D33" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E33" s="82">
         <v>44132</v>
@@ -5562,7 +5532,7 @@
       <c r="BK33" s="26"/>
       <c r="BL33" s="26"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39"/>
       <c r="B34" s="60" t="s">
         <v>66</v>
@@ -5571,7 +5541,7 @@
         <v>98</v>
       </c>
       <c r="D34" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E34" s="82">
         <v>44137</v>
@@ -5641,7 +5611,7 @@
       <c r="BK34" s="26"/>
       <c r="BL34" s="26"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39"/>
       <c r="B35" s="54" t="s">
         <v>52</v>
@@ -5712,7 +5682,7 @@
       <c r="BK35" s="26"/>
       <c r="BL35" s="26"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39"/>
       <c r="B36" s="60" t="s">
         <v>74</v>
@@ -5721,7 +5691,7 @@
         <v>98</v>
       </c>
       <c r="D36" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E36" s="82">
         <v>44142</v>
@@ -5791,7 +5761,7 @@
       <c r="BK36" s="26"/>
       <c r="BL36" s="26"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="60" t="s">
         <v>57</v>
@@ -5800,7 +5770,7 @@
         <v>98</v>
       </c>
       <c r="D37" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E37" s="82">
         <v>44148</v>
@@ -5867,7 +5837,7 @@
       <c r="BK37" s="26"/>
       <c r="BL37" s="26"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
@@ -5878,7 +5848,7 @@
         <v>98</v>
       </c>
       <c r="D38" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="82">
         <v>44155</v>
@@ -5945,7 +5915,7 @@
       <c r="BK38" s="26"/>
       <c r="BL38" s="26"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>25</v>
       </c>
@@ -5956,7 +5926,7 @@
         <v>98</v>
       </c>
       <c r="D39" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E39" s="82">
         <v>44160</v>
@@ -6023,7 +5993,7 @@
       <c r="BK39" s="26"/>
       <c r="BL39" s="26"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="54" t="s">
         <v>69</v>
       </c>
@@ -6093,7 +6063,7 @@
       <c r="BK40" s="26"/>
       <c r="BL40" s="26"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="60" t="s">
         <v>91</v>
       </c>
@@ -6101,7 +6071,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E41" s="82">
         <v>44117</v>
@@ -6171,7 +6141,7 @@
       <c r="BK41" s="26"/>
       <c r="BL41" s="26"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="60" t="s">
         <v>92</v>
       </c>
@@ -6179,7 +6149,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E42" s="82">
         <v>44123</v>
@@ -6246,7 +6216,7 @@
       <c r="BK42" s="26"/>
       <c r="BL42" s="26"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="68" t="s">
         <v>94</v>
       </c>
@@ -6254,7 +6224,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E43" s="82">
         <v>44127</v>
@@ -6321,7 +6291,7 @@
       <c r="BK43" s="66"/>
       <c r="BL43" s="66"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="60" t="s">
         <v>93</v>
       </c>
@@ -6329,7 +6299,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E44" s="82">
         <v>44132</v>
@@ -6396,7 +6366,7 @@
       <c r="BK44" s="26"/>
       <c r="BL44" s="26"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="54" t="s">
         <v>67</v>
       </c>
@@ -6466,7 +6436,7 @@
       <c r="BK45" s="26"/>
       <c r="BL45" s="26"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="60" t="s">
         <v>100</v>
       </c>
@@ -6474,7 +6444,7 @@
         <v>46</v>
       </c>
       <c r="D46" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46" s="82">
         <v>44142</v>
@@ -6544,7 +6514,7 @@
       <c r="BK46" s="26"/>
       <c r="BL46" s="26"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="60" t="s">
         <v>75</v>
       </c>
@@ -6552,7 +6522,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47" s="82">
         <v>44148</v>
@@ -6619,7 +6589,7 @@
       <c r="BK47" s="26"/>
       <c r="BL47" s="26"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="68" t="s">
         <v>99</v>
       </c>
@@ -6627,7 +6597,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E48" s="82">
         <v>44155</v>
@@ -6694,7 +6664,7 @@
       <c r="BK48" s="66"/>
       <c r="BL48" s="66"/>
     </row>
-    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="60" t="s">
         <v>56</v>
       </c>
@@ -6702,7 +6672,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E49" s="82">
         <v>44155</v>
@@ -6769,7 +6739,7 @@
       <c r="BK49" s="26"/>
       <c r="BL49" s="26"/>
     </row>
-    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="69" t="s">
         <v>76</v>
       </c>
@@ -6838,7 +6808,7 @@
       <c r="BK50" s="66"/>
       <c r="BL50" s="66"/>
     </row>
-    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="68" t="s">
         <v>78</v>
       </c>
@@ -6846,7 +6816,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E51" s="82">
         <v>44117</v>
@@ -6916,7 +6886,7 @@
       <c r="BK51" s="66"/>
       <c r="BL51" s="66"/>
     </row>
-    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="68" t="s">
         <v>79</v>
       </c>
@@ -6924,7 +6894,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E52" s="82">
         <v>44123</v>
@@ -6991,7 +6961,7 @@
       <c r="BK52" s="66"/>
       <c r="BL52" s="66"/>
     </row>
-    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="68" t="s">
         <v>95</v>
       </c>
@@ -6999,7 +6969,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E53" s="82">
         <v>44127</v>
@@ -7066,7 +7036,7 @@
       <c r="BK53" s="66"/>
       <c r="BL53" s="66"/>
     </row>
-    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="68" t="s">
         <v>80</v>
       </c>
@@ -7074,7 +7044,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E54" s="82">
         <v>44132</v>
@@ -7141,7 +7111,7 @@
       <c r="BK54" s="66"/>
       <c r="BL54" s="66"/>
     </row>
-    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="68" t="s">
         <v>72</v>
       </c>
@@ -7149,7 +7119,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E55" s="82">
         <v>44142</v>
@@ -7219,7 +7189,7 @@
       <c r="BK55" s="66"/>
       <c r="BL55" s="66"/>
     </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="68" t="s">
         <v>51</v>
       </c>
@@ -7227,7 +7197,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E56" s="82">
         <v>44148</v>
@@ -7294,7 +7264,7 @@
       <c r="BK56" s="66"/>
       <c r="BL56" s="66"/>
     </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="54" t="s">
         <v>88</v>
       </c>
@@ -7364,7 +7334,7 @@
       <c r="BK57" s="66"/>
       <c r="BL57" s="66"/>
     </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="59" t="s">
         <v>87</v>
       </c>
@@ -7372,7 +7342,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E58" s="79">
         <f>E47+15</f>
@@ -7444,7 +7414,7 @@
       <c r="BK58" s="66"/>
       <c r="BL58" s="66"/>
     </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="59" t="s">
         <v>90</v>
       </c>
@@ -7452,7 +7422,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E59" s="82">
         <v>44148</v>
@@ -7519,7 +7489,7 @@
       <c r="BK59" s="66"/>
       <c r="BL59" s="66"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="59" t="s">
         <v>96</v>
       </c>
@@ -7527,7 +7497,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E60" s="82">
         <v>44155</v>
@@ -7594,7 +7564,7 @@
       <c r="BK60" s="66"/>
       <c r="BL60" s="66"/>
     </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="68" t="s">
         <v>89</v>
       </c>
@@ -7602,7 +7572,7 @@
         <v>48</v>
       </c>
       <c r="D61" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E61" s="82">
         <v>44132</v>
@@ -7671,6 +7641,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7678,11 +7653,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D47 D19:D25 D58:D60 D49">
     <cfRule type="dataBar" priority="340">
@@ -7699,15 +7669,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
-    <cfRule type="expression" dxfId="119" priority="359">
+    <cfRule type="expression" dxfId="116" priority="359">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
-    <cfRule type="expression" dxfId="118" priority="353">
+    <cfRule type="expression" dxfId="115" priority="353">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="354" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7726,28 +7696,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="116" priority="326">
+    <cfRule type="expression" dxfId="113" priority="326">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="115" priority="324">
+    <cfRule type="expression" dxfId="112" priority="324">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="325" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="113" priority="306">
+    <cfRule type="expression" dxfId="110" priority="306">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="112" priority="304">
+    <cfRule type="expression" dxfId="109" priority="304">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="305" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7766,145 +7736,145 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="110" priority="274">
+    <cfRule type="expression" dxfId="107" priority="274">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="109" priority="272">
+    <cfRule type="expression" dxfId="106" priority="272">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="273" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="107" priority="270">
+    <cfRule type="expression" dxfId="104" priority="270">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="106" priority="268">
+    <cfRule type="expression" dxfId="103" priority="268">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="269" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="104" priority="266">
+    <cfRule type="expression" dxfId="101" priority="266">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="103" priority="264">
+    <cfRule type="expression" dxfId="100" priority="264">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="265" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="101" priority="258">
+    <cfRule type="expression" dxfId="98" priority="258">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="100" priority="256">
+    <cfRule type="expression" dxfId="97" priority="256">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="257" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="98" priority="254">
+    <cfRule type="expression" dxfId="95" priority="254">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="97" priority="252">
+    <cfRule type="expression" dxfId="94" priority="252">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="253" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="95" priority="242">
+    <cfRule type="expression" dxfId="92" priority="242">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="94" priority="240">
+    <cfRule type="expression" dxfId="91" priority="240">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="241" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="92" priority="238">
+    <cfRule type="expression" dxfId="89" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="91" priority="236">
+    <cfRule type="expression" dxfId="88" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="89" priority="234">
+    <cfRule type="expression" dxfId="86" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="88" priority="232">
+    <cfRule type="expression" dxfId="85" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="86" priority="230">
+    <cfRule type="expression" dxfId="83" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="85" priority="228">
+    <cfRule type="expression" dxfId="82" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="229" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="83" priority="218">
+    <cfRule type="expression" dxfId="80" priority="218">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="82" priority="216">
+    <cfRule type="expression" dxfId="79" priority="216">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="217" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="80" priority="210">
+    <cfRule type="expression" dxfId="77" priority="210">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="79" priority="208">
+    <cfRule type="expression" dxfId="76" priority="208">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7923,54 +7893,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="77" priority="202">
+    <cfRule type="expression" dxfId="74" priority="202">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="76" priority="200">
+    <cfRule type="expression" dxfId="73" priority="200">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="201" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="74" priority="198">
+    <cfRule type="expression" dxfId="71" priority="198">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="73" priority="196">
+    <cfRule type="expression" dxfId="70" priority="196">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="197" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="71" priority="194">
+    <cfRule type="expression" dxfId="68" priority="194">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="70" priority="192">
+    <cfRule type="expression" dxfId="67" priority="192">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="68" priority="190">
+    <cfRule type="expression" dxfId="65" priority="190">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="67" priority="188">
+    <cfRule type="expression" dxfId="64" priority="188">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="189" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,41 +7959,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="65" priority="178">
+    <cfRule type="expression" dxfId="62" priority="178">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="64" priority="176">
+    <cfRule type="expression" dxfId="61" priority="176">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="177" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="62" priority="174">
+    <cfRule type="expression" dxfId="59" priority="174">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="61" priority="172">
+    <cfRule type="expression" dxfId="58" priority="172">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="173" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="59" priority="170">
+    <cfRule type="expression" dxfId="56" priority="170">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="58" priority="168">
+    <cfRule type="expression" dxfId="55" priority="168">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8042,184 +8012,184 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="56" priority="135">
+    <cfRule type="expression" dxfId="53" priority="135">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="55" priority="133">
+    <cfRule type="expression" dxfId="52" priority="133">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="134" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="53" priority="119">
+    <cfRule type="expression" dxfId="50" priority="119">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="52" priority="117">
+    <cfRule type="expression" dxfId="49" priority="117">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="118" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="50" priority="109">
+    <cfRule type="expression" dxfId="47" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="49" priority="107">
+    <cfRule type="expression" dxfId="46" priority="107">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="47" priority="106">
+    <cfRule type="expression" dxfId="44" priority="106">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="46" priority="104">
+    <cfRule type="expression" dxfId="43" priority="104">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="44" priority="103">
+    <cfRule type="expression" dxfId="41" priority="103">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="43" priority="101">
+    <cfRule type="expression" dxfId="40" priority="101">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="41" priority="88">
+    <cfRule type="expression" dxfId="38" priority="88">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="40" priority="86">
+    <cfRule type="expression" dxfId="37" priority="86">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="38" priority="81">
+    <cfRule type="expression" dxfId="35" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="37" priority="79">
+    <cfRule type="expression" dxfId="34" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="35" priority="78">
+    <cfRule type="expression" dxfId="32" priority="78">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" dxfId="31" priority="76">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="32" priority="73">
+    <cfRule type="expression" dxfId="29" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="29" priority="70">
+    <cfRule type="expression" dxfId="26" priority="70">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="28" priority="68">
+    <cfRule type="expression" dxfId="25" priority="68">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="69" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="26" priority="67">
+    <cfRule type="expression" dxfId="23" priority="67">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="22" priority="65">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="23" priority="64">
+    <cfRule type="expression" dxfId="20" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="22" priority="62">
+    <cfRule type="expression" dxfId="19" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="20" priority="61">
+    <cfRule type="expression" dxfId="17" priority="61">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="19" priority="59">
+    <cfRule type="expression" dxfId="16" priority="59">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="17" priority="58">
+    <cfRule type="expression" dxfId="14" priority="58">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="16" priority="56">
+    <cfRule type="expression" dxfId="13" priority="56">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8594,86 +8564,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="4" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.95" customHeight="1">
+    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="8" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
+    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="11" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1">
+    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="32" customFormat="1" ht="26.25">
+    <row r="14" spans="1:2" s="32" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>15</v>
       </c>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408A79D-793D-4F16-8866-7544882DE3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CED16-07FA-4356-AD0B-A4485B63B1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2791,8 +2791,8 @@
   <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5468EE-85AA-4CEB-968C-6B05D01854AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5DE05C-8D6C-4F56-A136-FE2622C5C21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>Project Start:</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Cập nhật thông tin nhân viên</t>
   </si>
   <si>
-    <t>Danh sách thông tin khách hàng</t>
-  </si>
-  <si>
     <t>Thống kê sản phẩm</t>
   </si>
   <si>
@@ -363,16 +360,10 @@
     <t>Xem danh mục sản phẩm</t>
   </si>
   <si>
-    <t>29/11/2020</t>
-  </si>
-  <si>
     <t>Hoàng Tân</t>
   </si>
   <si>
-    <t>Xem danh sách phiếu đặt hàng</t>
-  </si>
-  <si>
-    <t>Xem lịch sử nhập hàng</t>
+    <t>Danh sách  thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1023,13 @@
     <xf numFmtId="168" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1044,13 +1042,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -2758,11 +2749,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2853,14 +2844,14 @@
         <v>29</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91">
+      <c r="D3" s="89"/>
+      <c r="E3" s="94">
         <v>44117</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -2869,104 +2860,104 @@
       <c r="B4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>44116</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>44123</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>44130</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>44137</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>44144</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>44151</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>44158</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>44165</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44116</v>
@@ -3585,13 +3576,13 @@
         <v>34</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="73">
         <f>Project_Start</f>
@@ -3668,13 +3659,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="73">
         <v>44123</v>
@@ -3824,7 +3815,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="76">
         <v>44129</v>
@@ -3904,7 +3895,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="76">
         <f>F12+4</f>
@@ -3981,13 +3972,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="76">
         <f>F13+3</f>
@@ -4058,13 +4049,13 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="40"/>
       <c r="B15" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="76">
         <f>F14+2</f>
@@ -4138,13 +4129,13 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="76">
         <f>F15+2</f>
@@ -4290,13 +4281,13 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="39"/>
       <c r="B18" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="79">
         <v>44117</v>
@@ -4375,7 +4366,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="79">
         <v>44123</v>
@@ -4448,13 +4439,13 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="39"/>
       <c r="B20" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="79">
         <v>44132</v>
@@ -4527,13 +4518,13 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="39"/>
       <c r="B21" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="79">
         <v>44138</v>
@@ -4603,13 +4594,13 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="39"/>
       <c r="B22" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="79">
         <v>44144</v>
@@ -4759,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="82">
         <v>44148</v>
@@ -4832,13 +4823,13 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="39"/>
       <c r="B25" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="82">
         <v>44152</v>
@@ -4913,13 +4904,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="82">
         <v>44157</v>
@@ -4992,13 +4983,13 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="39"/>
       <c r="B27" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E27" s="82">
         <v>44160</v>
@@ -5077,7 +5068,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="82">
         <v>44164</v>
@@ -5226,10 +5217,10 @@
         <v>58</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E30" s="82">
         <v>44117</v>
@@ -5302,13 +5293,13 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="39"/>
       <c r="B31" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E31" s="82">
         <v>44123</v>
@@ -5383,10 +5374,10 @@
         <v>59</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="82">
         <v>44127</v>
@@ -5456,13 +5447,13 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="39"/>
       <c r="B33" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E33" s="82">
         <v>44132</v>
@@ -5535,13 +5526,13 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="39"/>
       <c r="B34" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E34" s="82">
         <v>44137</v>
@@ -5685,13 +5676,13 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="39"/>
       <c r="B36" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E36" s="82">
         <v>44142</v>
@@ -5767,10 +5758,10 @@
         <v>57</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E37" s="82">
         <v>44148</v>
@@ -5842,13 +5833,13 @@
         <v>26</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="82">
         <v>44155</v>
@@ -5919,83 +5910,83 @@
       <c r="A39" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>98</v>
+      <c r="B39" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="D39" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E39" s="82">
         <v>44160</v>
       </c>
-      <c r="F39" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="26"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="26"/>
-      <c r="AZ39" s="26"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="26"/>
-      <c r="BE39" s="26"/>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="26"/>
-      <c r="BH39" s="26"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
-      <c r="BL39" s="26"/>
+      <c r="F39" s="82">
+        <v>44164</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="66"/>
+      <c r="BB39" s="66"/>
+      <c r="BC39" s="66"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="66"/>
+      <c r="BJ39" s="66"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="66"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="56"/>
@@ -6065,13 +6056,13 @@
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E41" s="82">
         <v>44117</v>
@@ -6143,13 +6134,13 @@
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E42" s="82">
         <v>44123</v>
@@ -6218,13 +6209,13 @@
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B43" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="67" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E43" s="82">
         <v>44127</v>
@@ -6293,13 +6284,13 @@
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E44" s="82">
         <v>44132</v>
@@ -6368,7 +6359,7 @@
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B45" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="56"/>
@@ -6376,7 +6367,7 @@
       <c r="F45" s="85"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14" t="str">
-        <f t="shared" ref="H45:H46" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H45" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I45" s="26"/>
@@ -6438,25 +6429,22 @@
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B46" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46" s="82">
-        <v>44142</v>
+        <v>44148</v>
       </c>
       <c r="F46" s="82">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="14">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
@@ -6516,19 +6504,19 @@
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="60" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C47" s="67" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47" s="82">
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="F47" s="82">
-        <v>44152</v>
+        <v>44158</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -6590,23 +6578,17 @@
       <c r="BL47" s="26"/>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E48" s="82">
-        <v>44155</v>
-      </c>
-      <c r="F48" s="82">
-        <v>44158</v>
-      </c>
+      <c r="B48" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
+      <c r="H48" s="65" t="s">
+        <v>76</v>
+      </c>
       <c r="I48" s="66"/>
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
@@ -6665,92 +6647,101 @@
       <c r="BL48" s="66"/>
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="60" t="s">
-        <v>56</v>
+      <c r="B49" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D49" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E49" s="82">
-        <v>44155</v>
+        <v>44117</v>
       </c>
       <c r="F49" s="82">
-        <v>44158</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="26"/>
-      <c r="AN49" s="26"/>
-      <c r="AO49" s="26"/>
-      <c r="AP49" s="26"/>
-      <c r="AQ49" s="26"/>
-      <c r="AR49" s="26"/>
-      <c r="AS49" s="26"/>
-      <c r="AT49" s="26"/>
-      <c r="AU49" s="26"/>
-      <c r="AV49" s="26"/>
-      <c r="AW49" s="26"/>
-      <c r="AX49" s="26"/>
-      <c r="AY49" s="26"/>
-      <c r="AZ49" s="26"/>
-      <c r="BA49" s="26"/>
-      <c r="BB49" s="26"/>
-      <c r="BC49" s="26"/>
-      <c r="BD49" s="26"/>
-      <c r="BE49" s="26"/>
-      <c r="BF49" s="26"/>
-      <c r="BG49" s="26"/>
-      <c r="BH49" s="26"/>
-      <c r="BI49" s="26"/>
-      <c r="BJ49" s="26"/>
-      <c r="BK49" s="26"/>
-      <c r="BL49" s="26"/>
+        <v>44120</v>
+      </c>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65">
+        <f t="shared" ref="H49" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="66"/>
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="66"/>
+      <c r="AR49" s="66"/>
+      <c r="AS49" s="66"/>
+      <c r="AT49" s="66"/>
+      <c r="AU49" s="66"/>
+      <c r="AV49" s="66"/>
+      <c r="AW49" s="66"/>
+      <c r="AX49" s="66"/>
+      <c r="AY49" s="66"/>
+      <c r="AZ49" s="66"/>
+      <c r="BA49" s="66"/>
+      <c r="BB49" s="66"/>
+      <c r="BC49" s="66"/>
+      <c r="BD49" s="66"/>
+      <c r="BE49" s="66"/>
+      <c r="BF49" s="66"/>
+      <c r="BG49" s="66"/>
+      <c r="BH49" s="66"/>
+      <c r="BI49" s="66"/>
+      <c r="BJ49" s="66"/>
+      <c r="BK49" s="66"/>
+      <c r="BL49" s="66"/>
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="87"/>
+      <c r="B50" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+      <c r="E50" s="82">
+        <v>44123</v>
+      </c>
+      <c r="F50" s="82">
+        <v>44127</v>
+      </c>
       <c r="G50" s="65"/>
-      <c r="H50" s="65" t="s">
-        <v>77</v>
-      </c>
+      <c r="H50" s="65"/>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
       <c r="K50" s="66"/>
@@ -6810,25 +6801,22 @@
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B51" s="68" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C51" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E51" s="82">
-        <v>44117</v>
+        <v>44127</v>
       </c>
       <c r="F51" s="82">
-        <v>44120</v>
+        <v>44130</v>
       </c>
       <c r="G51" s="65"/>
-      <c r="H51" s="65">
-        <f t="shared" ref="H51" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
-      </c>
+      <c r="H51" s="65"/>
       <c r="I51" s="66"/>
       <c r="J51" s="66"/>
       <c r="K51" s="66"/>
@@ -6894,13 +6882,13 @@
         <v>48</v>
       </c>
       <c r="D52" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E52" s="82">
-        <v>44123</v>
+        <v>44132</v>
       </c>
       <c r="F52" s="82">
-        <v>44127</v>
+        <v>44136</v>
       </c>
       <c r="G52" s="65"/>
       <c r="H52" s="65"/>
@@ -6963,22 +6951,25 @@
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="68" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E53" s="82">
-        <v>44127</v>
+        <v>44142</v>
       </c>
       <c r="F53" s="82">
-        <v>44130</v>
+        <v>44145</v>
       </c>
       <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
+      <c r="H53" s="65">
+        <f t="shared" ref="H53" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
+      </c>
       <c r="I53" s="66"/>
       <c r="J53" s="66"/>
       <c r="K53" s="66"/>
@@ -7038,19 +7029,19 @@
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="68" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C54" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E54" s="82">
-        <v>44132</v>
+        <v>44148</v>
       </c>
       <c r="F54" s="82">
-        <v>44136</v>
+        <v>44152</v>
       </c>
       <c r="G54" s="65"/>
       <c r="H54" s="65"/>
@@ -7112,25 +7103,17 @@
       <c r="BL54" s="66"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E55" s="82">
-        <v>44142</v>
-      </c>
-      <c r="F55" s="82">
-        <v>44145</v>
-      </c>
+      <c r="B55" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="65"/>
-      <c r="H55" s="65">
-        <f t="shared" ref="H55" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
+      <c r="H55" s="65" t="str">
+        <f t="shared" ref="H55" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="66"/>
@@ -7190,23 +7173,28 @@
       <c r="BL55" s="66"/>
     </row>
     <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="67" t="s">
+      <c r="B56" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="72" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E56" s="82">
-        <v>44148</v>
-      </c>
-      <c r="F56" s="82">
-        <v>44152</v>
+        <v>1</v>
+      </c>
+      <c r="E56" s="79">
+        <f>E46+15</f>
+        <v>44163</v>
+      </c>
+      <c r="F56" s="79">
+        <f>E56+5</f>
+        <v>44168</v>
       </c>
       <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
+      <c r="H56" s="65">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
+      </c>
       <c r="I56" s="66"/>
       <c r="J56" s="66"/>
       <c r="K56" s="66"/>
@@ -7265,18 +7253,23 @@
       <c r="BL56" s="66"/>
     </row>
     <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="85"/>
+      <c r="B57" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="19">
+        <v>1</v>
+      </c>
+      <c r="E57" s="82">
+        <v>44148</v>
+      </c>
+      <c r="F57" s="82">
+        <v>44152</v>
+      </c>
       <c r="G57" s="65"/>
-      <c r="H57" s="65" t="str">
-        <f t="shared" ref="H57" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H57" s="65"/>
       <c r="I57" s="66"/>
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
@@ -7336,27 +7329,22 @@
     </row>
     <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1">
       <c r="B58" s="59" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C58" s="72" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E58" s="79">
-        <f>E47+15</f>
-        <v>44163</v>
-      </c>
-      <c r="F58" s="79">
-        <f>E58+5</f>
-        <v>44168</v>
+        <v>1</v>
+      </c>
+      <c r="E58" s="82">
+        <v>44155</v>
+      </c>
+      <c r="F58" s="82">
+        <v>44158</v>
       </c>
       <c r="G58" s="65"/>
-      <c r="H58" s="65">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
+      <c r="H58" s="65"/>
       <c r="I58" s="66"/>
       <c r="J58" s="66"/>
       <c r="K58" s="66"/>
@@ -7415,20 +7403,20 @@
       <c r="BL58" s="66"/>
     </row>
     <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="72" t="s">
+      <c r="B59" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E59" s="82">
-        <v>44148</v>
+        <v>44132</v>
       </c>
       <c r="F59" s="82">
-        <v>44152</v>
+        <v>44136</v>
       </c>
       <c r="G59" s="65"/>
       <c r="H59" s="65"/>
@@ -7489,163 +7477,8 @@
       <c r="BK59" s="66"/>
       <c r="BL59" s="66"/>
     </row>
-    <row r="60" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E60" s="82">
-        <v>44155</v>
-      </c>
-      <c r="F60" s="82">
-        <v>44158</v>
-      </c>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66"/>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="66"/>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="66"/>
-      <c r="AM60" s="66"/>
-      <c r="AN60" s="66"/>
-      <c r="AO60" s="66"/>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="66"/>
-      <c r="AU60" s="66"/>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="66"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="66"/>
-      <c r="AZ60" s="66"/>
-      <c r="BA60" s="66"/>
-      <c r="BB60" s="66"/>
-      <c r="BC60" s="66"/>
-      <c r="BD60" s="66"/>
-      <c r="BE60" s="66"/>
-      <c r="BF60" s="66"/>
-      <c r="BG60" s="66"/>
-      <c r="BH60" s="66"/>
-      <c r="BI60" s="66"/>
-      <c r="BJ60" s="66"/>
-      <c r="BK60" s="66"/>
-      <c r="BL60" s="66"/>
-    </row>
-    <row r="61" spans="2:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E61" s="82">
-        <v>44132</v>
-      </c>
-      <c r="F61" s="82">
-        <v>44136</v>
-      </c>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="66"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="66"/>
-      <c r="AF61" s="66"/>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="66"/>
-      <c r="AI61" s="66"/>
-      <c r="AJ61" s="66"/>
-      <c r="AK61" s="66"/>
-      <c r="AL61" s="66"/>
-      <c r="AM61" s="66"/>
-      <c r="AN61" s="66"/>
-      <c r="AO61" s="66"/>
-      <c r="AP61" s="66"/>
-      <c r="AQ61" s="66"/>
-      <c r="AR61" s="66"/>
-      <c r="AS61" s="66"/>
-      <c r="AT61" s="66"/>
-      <c r="AU61" s="66"/>
-      <c r="AV61" s="66"/>
-      <c r="AW61" s="66"/>
-      <c r="AX61" s="66"/>
-      <c r="AY61" s="66"/>
-      <c r="AZ61" s="66"/>
-      <c r="BA61" s="66"/>
-      <c r="BB61" s="66"/>
-      <c r="BC61" s="66"/>
-      <c r="BD61" s="66"/>
-      <c r="BE61" s="66"/>
-      <c r="BF61" s="66"/>
-      <c r="BG61" s="66"/>
-      <c r="BH61" s="66"/>
-      <c r="BI61" s="66"/>
-      <c r="BJ61" s="66"/>
-      <c r="BK61" s="66"/>
-      <c r="BL61" s="66"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7653,9 +7486,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D14 D17 D28 D37 D46:D47 D19:D25 D58:D60 D49">
-    <cfRule type="dataBar" priority="340">
+  <conditionalFormatting sqref="D7:D14 D17 D19:D25 D28 D37 D46:D47 D56:D58">
+    <cfRule type="dataBar" priority="380">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7668,21 +7506,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
-    <cfRule type="expression" dxfId="116" priority="359">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I5:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46">
+    <cfRule type="expression" dxfId="116" priority="399">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I47:BL47">
-    <cfRule type="expression" dxfId="115" priority="353">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I7:BL11 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46">
+    <cfRule type="expression" dxfId="115" priority="393">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="394" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="323">
+    <cfRule type="dataBar" priority="363">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7696,33 +7534,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="113" priority="326">
+    <cfRule type="expression" dxfId="113" priority="366">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="112" priority="324">
+    <cfRule type="expression" dxfId="112" priority="364">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="365" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="110" priority="306">
+    <cfRule type="expression" dxfId="110" priority="346">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="109" priority="304">
+    <cfRule type="expression" dxfId="109" priority="344">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="345" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="271">
+    <cfRule type="dataBar" priority="311">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7736,150 +7574,137 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="107" priority="274">
+    <cfRule type="expression" dxfId="107" priority="314">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="106" priority="272">
+    <cfRule type="expression" dxfId="106" priority="312">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="313" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="104" priority="270">
+    <cfRule type="expression" dxfId="104" priority="310">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="103" priority="268">
+    <cfRule type="expression" dxfId="103" priority="308">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="309" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="101" priority="266">
+    <cfRule type="expression" dxfId="101" priority="306">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="100" priority="264">
+    <cfRule type="expression" dxfId="100" priority="304">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="305" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="98" priority="258">
+    <cfRule type="expression" dxfId="98" priority="298">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="97" priority="256">
+    <cfRule type="expression" dxfId="97" priority="296">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="257" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="95" priority="254">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="94" priority="252">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="297" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="92" priority="242">
+    <cfRule type="expression" dxfId="92" priority="282">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="91" priority="240">
+    <cfRule type="expression" dxfId="91" priority="280">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="281" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="89" priority="238">
+    <cfRule type="expression" dxfId="89" priority="278">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="88" priority="236">
+    <cfRule type="expression" dxfId="88" priority="276">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="277" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="86" priority="234">
+    <cfRule type="expression" dxfId="86" priority="274">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="85" priority="232">
+    <cfRule type="expression" dxfId="85" priority="272">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="273" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="83" priority="230">
+    <cfRule type="expression" dxfId="83" priority="270">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="82" priority="228">
+    <cfRule type="expression" dxfId="82" priority="268">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="269" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="80" priority="218">
+    <cfRule type="expression" dxfId="80" priority="258">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="79" priority="216">
+    <cfRule type="expression" dxfId="79" priority="256">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="257" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="77" priority="210">
+    <cfRule type="expression" dxfId="77" priority="250">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="76" priority="208">
+    <cfRule type="expression" dxfId="76" priority="248">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="249" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7893,59 +7718,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="74" priority="202">
+    <cfRule type="expression" dxfId="74" priority="242">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="73" priority="200">
+    <cfRule type="expression" dxfId="73" priority="240">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="241" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="71" priority="198">
+    <cfRule type="expression" dxfId="71" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="70" priority="196">
+    <cfRule type="expression" dxfId="70" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="68" priority="194">
+    <cfRule type="expression" dxfId="68" priority="234">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="67" priority="192">
+    <cfRule type="expression" dxfId="67" priority="232">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="65" priority="190">
+    <cfRule type="expression" dxfId="65" priority="230">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="64" priority="188">
+    <cfRule type="expression" dxfId="64" priority="228">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="229" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7959,46 +7784,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="62" priority="178">
+    <cfRule type="expression" dxfId="62" priority="218">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="61" priority="176">
+    <cfRule type="expression" dxfId="61" priority="216">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="217" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="59" priority="174">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="59" priority="210">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="58" priority="172">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="58" priority="208">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="56" priority="170">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="55" priority="168">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="169" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="132">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8011,229 +7823,229 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="53" priority="135">
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="56" priority="175">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="55" priority="173">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="174" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="53" priority="159">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="52" priority="157">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="158" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="50" priority="149">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="49" priority="147">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="148" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="expression" dxfId="47" priority="146">
+      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="expression" dxfId="46" priority="144">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="145" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="44" priority="143">
+      <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="43" priority="141">
+      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="142" stopIfTrue="1">
+      <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL18">
+    <cfRule type="expression" dxfId="41" priority="128">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL18">
+    <cfRule type="expression" dxfId="40" priority="126">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="127" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="38" priority="121">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="37" priority="119">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="120" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="35" priority="118">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="34" priority="116">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="117" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="32" priority="113">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="31" priority="111">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="112" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="29" priority="110">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="28" priority="108">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="109" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="26" priority="107">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="25" priority="105">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="106" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="23" priority="104">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="22" priority="102">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="103" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="20" priority="101">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="19" priority="99">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="100" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="17" priority="98">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="16" priority="96">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="97" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="52" priority="133">
+    <cfRule type="expression" dxfId="14" priority="92">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:BL57">
+    <cfRule type="expression" dxfId="13" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="50" priority="119">
+    <cfRule type="expression" dxfId="11" priority="89">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="49" priority="117">
+    <cfRule type="expression" dxfId="10" priority="87">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="118" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="47" priority="109">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="46" priority="107">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="108" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="44" priority="106">
-      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="43" priority="104">
-      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="41" priority="103">
-      <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="40" priority="101">
-      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="102" stopIfTrue="1">
-      <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="38" priority="88">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="37" priority="86">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="35" priority="81">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="34" priority="79">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="32" priority="78">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="31" priority="76">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="29" priority="73">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="28" priority="71">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="72" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="26" priority="70">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="25" priority="68">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="69" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="23" priority="67">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="22" priority="65">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="66" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="20" priority="64">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="19" priority="62">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="17" priority="61">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="16" priority="59">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="60" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="14" priority="58">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="13" priority="56">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="88" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="11" priority="52">
+    <cfRule type="expression" dxfId="8" priority="86">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="10" priority="50">
+    <cfRule type="expression" dxfId="7" priority="84">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="8" priority="49">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="7" priority="47">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="5" priority="46">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="4" priority="44">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="85" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16 D18">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8241,68 +8053,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{278680DF-DE56-491C-BE96-36B51BE7B7BF}</x14:id>
+          <x14:id>{81A1782B-7C7D-48B1-8BC8-086E5B12300B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B91F733-85CA-4B17-83FC-65CF49637700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8559CF00-2CC2-42F1-AEFA-72F9594735F9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39 D36">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77793674-38C2-4352-9FD8-A57AF1CEECA5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D44">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F7A8AA8-3CC3-4105-A120-D6C95EAE2D6D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D56 D61">
+  <conditionalFormatting sqref="D26:D27 D59 D49:D54 D41:D44 D38 D36 D30:D34">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8311,13 +8067,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72392D49-F08A-4D5F-A1D2-4692633B9922}</x14:id>
+          <x14:id>{5497703D-7F32-4771-BB1D-23811DF58E93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8325,21 +8081,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4AD5B72E-C1C9-461B-BEB6-88D5E1CC4818}</x14:id>
+          <x14:id>{5BF1A221-840B-42B8-87DE-6B85BB09BE07}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8370,7 +8126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D17 D28 D37 D46:D47 D19:D25 D58:D60 D49</xm:sqref>
+          <xm:sqref>D7:D14 D17 D19:D25 D28 D37 D46:D47 D56:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEAB3775-453E-44CD-AB87-381933DECCDE}">
@@ -8445,10 +8201,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{278680DF-DE56-491C-BE96-36B51BE7B7BF}">
+          <x14:cfRule type="dataBar" id="{81A1782B-7C7D-48B1-8BC8-086E5B12300B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8463,7 +8219,7 @@
           <xm:sqref>D15:D16 D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B91F733-85CA-4B17-83FC-65CF49637700}">
+          <x14:cfRule type="dataBar" id="{5497703D-7F32-4771-BB1D-23811DF58E93}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8475,10 +8231,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26:D27</xm:sqref>
+          <xm:sqref>D26:D27 D59 D49:D54 D41:D44 D38 D36 D30:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8559CF00-2CC2-42F1-AEFA-72F9594735F9}">
+          <x14:cfRule type="dataBar" id="{5BF1A221-840B-42B8-87DE-6B85BB09BE07}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8490,67 +8246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77793674-38C2-4352-9FD8-A57AF1CEECA5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D38:D39 D36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F7A8AA8-3CC3-4105-A120-D6C95EAE2D6D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41:D44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72392D49-F08A-4D5F-A1D2-4692633B9922}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D51:D56 D61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4AD5B72E-C1C9-461B-BEB6-88D5E1CC4818}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF662A-1B8A-4654-B88E-F0F140838990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D633967-1BCE-4EA5-8ADC-693AF3BCF3BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2674,8 +2674,8 @@
   <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ10" sqref="BQ10:BY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3504,20 +3504,20 @@
         <v>47</v>
       </c>
       <c r="D9" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="67">
         <f>Project_Start</f>
         <v>44251</v>
       </c>
       <c r="F9" s="67">
-        <f>E9+4</f>
-        <v>44255</v>
+        <f>E9+14</f>
+        <v>44265</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="61"/>
@@ -3587,18 +3587,19 @@
         <v>47</v>
       </c>
       <c r="D10" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="67">
         <v>44251</v>
       </c>
       <c r="F10" s="67">
-        <v>44255</v>
+        <f>E10+14</f>
+        <v>44265</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -3737,14 +3738,15 @@
         <v>47</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="70">
-        <v>44494</v>
+        <f>F10+1</f>
+        <v>44266</v>
       </c>
       <c r="F12" s="70">
         <f>E12+4</f>
-        <v>44498</v>
+        <v>44270</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60">
@@ -3817,20 +3819,20 @@
         <v>47</v>
       </c>
       <c r="D13" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="70">
-        <f>F12+4</f>
-        <v>44502</v>
+        <f>F12+1</f>
+        <v>44271</v>
       </c>
       <c r="F13" s="70">
-        <f>E13+3</f>
-        <v>44505</v>
+        <f>E13+19</f>
+        <v>44290</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -3903,11 +3905,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="70">
-        <f>F13+3</f>
-        <v>44508</v>
+        <v>44278</v>
       </c>
       <c r="F14" s="70">
-        <v>44147</v>
+        <f>E14+12</f>
+        <v>44290</v>
       </c>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
@@ -3980,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="70">
-        <f>F14+2</f>
-        <v>44149</v>
+        <v>44278</v>
       </c>
       <c r="F15" s="70">
-        <v>44152</v>
+        <f>E15+12</f>
+        <v>44290</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -4060,17 +4062,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="70">
-        <f>F15+2</f>
-        <v>44154</v>
+        <v>44278</v>
       </c>
       <c r="F16" s="70">
-        <f>E16+4</f>
-        <v>44158</v>
+        <f>E16+12</f>
+        <v>44290</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -4209,14 +4210,19 @@
         <v>45</v>
       </c>
       <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="76">
+        <v>44261</v>
+      </c>
+      <c r="F18" s="76">
+        <f>E18+29</f>
+        <v>44290</v>
+      </c>
       <c r="G18" s="60"/>
-      <c r="H18" s="60" t="str">
+      <c r="H18" s="60">
         <f t="shared" si="5"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -4284,7 +4290,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="73">
         <v>44251</v>
@@ -4364,7 +4370,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="73">
         <v>44251</v>
@@ -4523,15 +4529,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="73">
-        <v>44144</v>
+        <v>44285</v>
       </c>
       <c r="F22" s="73">
-        <v>44147</v>
+        <v>44290</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -5602,18 +5608,19 @@
         <v>96</v>
       </c>
       <c r="D36" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="76">
-        <v>44142</v>
+        <v>44261</v>
       </c>
       <c r="F36" s="76">
-        <v>44145</v>
+        <f>E36+4</f>
+        <v>44265</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -5681,13 +5688,14 @@
         <v>96</v>
       </c>
       <c r="D37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="76">
-        <v>44148</v>
+        <v>44261</v>
       </c>
       <c r="F37" s="76">
-        <v>44152</v>
+        <f t="shared" ref="F37:F39" si="6">E37+4</f>
+        <v>44265</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -5759,13 +5767,14 @@
         <v>96</v>
       </c>
       <c r="D38" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="76">
-        <v>44155</v>
+        <v>44261</v>
       </c>
       <c r="F38" s="76">
-        <v>44158</v>
+        <f t="shared" si="6"/>
+        <v>44265</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -5837,13 +5846,14 @@
         <v>96</v>
       </c>
       <c r="D39" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="76">
-        <v>44160</v>
+        <v>44261</v>
       </c>
       <c r="F39" s="76">
-        <v>44164</v>
+        <f t="shared" si="6"/>
+        <v>44265</v>
       </c>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
@@ -5914,7 +5924,7 @@
       <c r="F40" s="79"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14" t="str">
-        <f t="shared" ref="H40:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H40:H41" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I40" s="23"/>
@@ -5982,18 +5992,20 @@
         <v>46</v>
       </c>
       <c r="D41" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="76">
-        <v>44117</v>
+        <f>F42+2</f>
+        <v>44279</v>
       </c>
       <c r="F41" s="76">
-        <v>44120</v>
+        <f>E41+4</f>
+        <v>44283</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -6060,13 +6072,15 @@
         <v>46</v>
       </c>
       <c r="D42" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="76">
-        <v>44123</v>
+        <f>F43+2</f>
+        <v>44273</v>
       </c>
       <c r="F42" s="76">
-        <v>44127</v>
+        <f>E42+4</f>
+        <v>44277</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -6135,13 +6149,15 @@
         <v>46</v>
       </c>
       <c r="D43" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="76">
-        <v>44127</v>
+        <f>F44+2</f>
+        <v>44267</v>
       </c>
       <c r="F43" s="76">
-        <v>44130</v>
+        <f>E43+4</f>
+        <v>44271</v>
       </c>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
@@ -6210,14 +6226,14 @@
         <v>46</v>
       </c>
       <c r="D44" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="76">
         <v>44251</v>
       </c>
       <c r="F44" s="76">
-        <f>E44+4</f>
-        <v>44255</v>
+        <f>E44+14</f>
+        <v>44265</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -6228,16 +6244,16 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
       <c r="Z44" s="23"/>
       <c r="AA44" s="23"/>
       <c r="AB44" s="23"/>
@@ -6288,7 +6304,7 @@
       <c r="F45" s="79"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14" t="str">
-        <f t="shared" ref="H45" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H45" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I45" s="23"/>
@@ -6356,13 +6372,15 @@
         <v>46</v>
       </c>
       <c r="D46" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="76">
-        <v>44148</v>
+        <f>F41+2</f>
+        <v>44285</v>
       </c>
       <c r="F46" s="76">
-        <v>44152</v>
+        <f>E46+5</f>
+        <v>44290</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -6575,7 +6593,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="76">
         <v>44251</v>
@@ -6586,7 +6604,7 @@
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60">
-        <f t="shared" ref="H49" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H49" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>5</v>
       </c>
       <c r="I49" s="61"/>
@@ -6654,7 +6672,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="76">
         <v>44251</v>
@@ -6730,13 +6748,14 @@
         <v>48</v>
       </c>
       <c r="D51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="76">
-        <v>44127</v>
+        <v>44251</v>
       </c>
       <c r="F51" s="76">
-        <v>44130</v>
+        <f>E51+4</f>
+        <v>44255</v>
       </c>
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
@@ -6808,10 +6827,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="76">
-        <v>44132</v>
+        <v>44285</v>
       </c>
       <c r="F52" s="76">
-        <v>44136</v>
+        <f>E52+5</f>
+        <v>44290</v>
       </c>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
@@ -6890,7 +6910,7 @@
       </c>
       <c r="G53" s="60"/>
       <c r="H53" s="60">
-        <f t="shared" ref="H53" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H53" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>4</v>
       </c>
       <c r="I53" s="61"/>
@@ -6961,10 +6981,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="76">
-        <v>44148</v>
+        <v>44285</v>
       </c>
       <c r="F54" s="76">
-        <v>44152</v>
+        <f>E54+5</f>
+        <v>44290</v>
       </c>
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
@@ -7035,7 +7056,7 @@
       <c r="F55" s="79"/>
       <c r="G55" s="60"/>
       <c r="H55" s="60" t="str">
-        <f t="shared" ref="H55" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H55" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I55" s="61"/>
@@ -7103,15 +7124,14 @@
         <v>48</v>
       </c>
       <c r="D56" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="73">
-        <f>E46+15</f>
-        <v>44163</v>
+        <v>44261</v>
       </c>
       <c r="F56" s="73">
         <f>E56+5</f>
-        <v>44168</v>
+        <v>44266</v>
       </c>
       <c r="G56" s="60"/>
       <c r="H56" s="60">
@@ -7134,7 +7154,6 @@
       <c r="V56" s="61"/>
       <c r="W56" s="61"/>
       <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
       <c r="Z56" s="61"/>
       <c r="AA56" s="61"/>
       <c r="AB56" s="61"/>
@@ -7183,13 +7202,14 @@
         <v>48</v>
       </c>
       <c r="D57" s="19">
-        <v>0</v>
-      </c>
-      <c r="E57" s="76">
-        <v>44148</v>
-      </c>
-      <c r="F57" s="76">
-        <v>44152</v>
+        <v>1</v>
+      </c>
+      <c r="E57" s="73">
+        <v>44267</v>
+      </c>
+      <c r="F57" s="73">
+        <f>E57+5</f>
+        <v>44272</v>
       </c>
       <c r="G57" s="60"/>
       <c r="H57" s="60"/>
@@ -7258,13 +7278,14 @@
         <v>48</v>
       </c>
       <c r="D58" s="19">
-        <v>0</v>
-      </c>
-      <c r="E58" s="76">
-        <v>44155</v>
-      </c>
-      <c r="F58" s="76">
-        <v>44158</v>
+        <v>1</v>
+      </c>
+      <c r="E58" s="73">
+        <v>44273</v>
+      </c>
+      <c r="F58" s="73">
+        <f>E58+5</f>
+        <v>44278</v>
       </c>
       <c r="G58" s="60"/>
       <c r="H58" s="60"/>
@@ -7333,13 +7354,14 @@
         <v>48</v>
       </c>
       <c r="D59" s="19">
-        <v>0</v>
-      </c>
-      <c r="E59" s="76">
-        <v>44132</v>
-      </c>
-      <c r="F59" s="76">
-        <v>44136</v>
+        <v>1</v>
+      </c>
+      <c r="E59" s="73">
+        <v>44278</v>
+      </c>
+      <c r="F59" s="73">
+        <f>E59+4</f>
+        <v>44282</v>
       </c>
       <c r="G59" s="60"/>
       <c r="H59" s="60"/>
@@ -7415,8 +7437,8 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D54 D56:D59 D30:D34">
-    <cfRule type="dataBar" priority="380">
+  <conditionalFormatting sqref="D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D51 D30:D34 D56:D59 D53:D54">
+    <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7429,485 +7451,499 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I5:BL11">
-    <cfRule type="expression" dxfId="110" priority="399">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I5:BL11 I56:T56 Z56:BL56 V56:X56">
+    <cfRule type="expression" dxfId="110" priority="400">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I7:BL11">
-    <cfRule type="expression" dxfId="109" priority="393">
+  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I7:BL11 I56:T56 Z56:BL56 V56:X56">
+    <cfRule type="expression" dxfId="109" priority="394">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="395" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="107" priority="366">
+    <cfRule type="expression" dxfId="107" priority="367">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="106" priority="364">
+    <cfRule type="expression" dxfId="106" priority="365">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="366" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="104" priority="346">
+    <cfRule type="expression" dxfId="104" priority="347">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="103" priority="344">
+    <cfRule type="expression" dxfId="103" priority="345">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="346" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="101" priority="314">
+    <cfRule type="expression" dxfId="101" priority="315">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="100" priority="312">
+    <cfRule type="expression" dxfId="100" priority="313">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="314" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="98" priority="310">
+    <cfRule type="expression" dxfId="98" priority="311">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="97" priority="308">
+    <cfRule type="expression" dxfId="97" priority="309">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="310" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="95" priority="306">
+    <cfRule type="expression" dxfId="95" priority="307">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="94" priority="304">
+    <cfRule type="expression" dxfId="94" priority="305">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="306" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="92" priority="298">
+    <cfRule type="expression" dxfId="92" priority="299">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="91" priority="296">
+    <cfRule type="expression" dxfId="91" priority="297">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="298" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="89" priority="282">
+    <cfRule type="expression" dxfId="89" priority="283">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="88" priority="280">
+    <cfRule type="expression" dxfId="88" priority="281">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="282" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="86" priority="278">
+    <cfRule type="expression" dxfId="86" priority="279">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="85" priority="276">
+    <cfRule type="expression" dxfId="85" priority="277">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="278" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="83" priority="274">
+    <cfRule type="expression" dxfId="83" priority="275">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="82" priority="272">
+    <cfRule type="expression" dxfId="82" priority="273">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="274" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="80" priority="270">
+    <cfRule type="expression" dxfId="80" priority="271">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="79" priority="268">
+    <cfRule type="expression" dxfId="79" priority="269">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="270" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="77" priority="258">
+    <cfRule type="expression" dxfId="77" priority="259">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="76" priority="256">
+    <cfRule type="expression" dxfId="76" priority="257">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="258" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="74" priority="250">
+    <cfRule type="expression" dxfId="74" priority="251">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="73" priority="248">
+    <cfRule type="expression" dxfId="73" priority="249">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="250" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="71" priority="242">
+    <cfRule type="expression" dxfId="71" priority="243">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="70" priority="240">
+    <cfRule type="expression" dxfId="70" priority="241">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="242" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="68" priority="238">
+    <cfRule type="expression" dxfId="68" priority="239">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="67" priority="236">
+    <cfRule type="expression" dxfId="67" priority="237">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="238" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="65" priority="234">
+    <cfRule type="expression" dxfId="65" priority="235">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="64" priority="232">
+    <cfRule type="expression" dxfId="64" priority="233">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="234" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="62" priority="230">
+    <cfRule type="expression" dxfId="62" priority="231">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="61" priority="228">
+    <cfRule type="expression" dxfId="61" priority="229">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="230" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="59" priority="218">
+    <cfRule type="expression" dxfId="59" priority="219">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="58" priority="216">
+    <cfRule type="expression" dxfId="58" priority="217">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="218" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="56" priority="210">
+    <cfRule type="expression" dxfId="56" priority="211">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="55" priority="208">
+    <cfRule type="expression" dxfId="55" priority="209">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="210" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="53" priority="175">
+    <cfRule type="expression" dxfId="53" priority="176">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="52" priority="173">
+    <cfRule type="expression" dxfId="52" priority="174">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="174" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="50" priority="159">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
-    <cfRule type="expression" dxfId="49" priority="157">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="175" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="47" priority="149">
+    <cfRule type="expression" dxfId="50" priority="150">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="46" priority="147">
+    <cfRule type="expression" dxfId="49" priority="148">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="149" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="44" priority="146">
+    <cfRule type="expression" dxfId="47" priority="147">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="43" priority="144">
+    <cfRule type="expression" dxfId="46" priority="145">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="41" priority="143">
+    <cfRule type="expression" dxfId="44" priority="144">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="40" priority="141">
+    <cfRule type="expression" dxfId="43" priority="142">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="38" priority="128">
+    <cfRule type="expression" dxfId="41" priority="129">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="37" priority="126">
+    <cfRule type="expression" dxfId="40" priority="127">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="35" priority="121">
+    <cfRule type="expression" dxfId="38" priority="122">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="34" priority="119">
+    <cfRule type="expression" dxfId="37" priority="120">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="121" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="32" priority="118">
+    <cfRule type="expression" dxfId="35" priority="119">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="31" priority="116">
+    <cfRule type="expression" dxfId="34" priority="117">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="118" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="29" priority="113">
+    <cfRule type="expression" dxfId="32" priority="114">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="28" priority="111">
+    <cfRule type="expression" dxfId="31" priority="112">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="113" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="26" priority="110">
+    <cfRule type="expression" dxfId="29" priority="111">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="25" priority="108">
+    <cfRule type="expression" dxfId="28" priority="109">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="110" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="23" priority="107">
+    <cfRule type="expression" dxfId="26" priority="108">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="22" priority="105">
+    <cfRule type="expression" dxfId="25" priority="106">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="20" priority="104">
+    <cfRule type="expression" dxfId="23" priority="105">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="19" priority="102">
+    <cfRule type="expression" dxfId="22" priority="103">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="17" priority="101">
+    <cfRule type="expression" dxfId="20" priority="102">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="16" priority="99">
+    <cfRule type="expression" dxfId="19" priority="100">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="14" priority="98">
+    <cfRule type="expression" dxfId="17" priority="99">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="13" priority="96">
+    <cfRule type="expression" dxfId="16" priority="97">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="11" priority="92">
+    <cfRule type="expression" dxfId="14" priority="93">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="10" priority="90">
+    <cfRule type="expression" dxfId="13" priority="91">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="8" priority="89">
+    <cfRule type="expression" dxfId="11" priority="90">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="7" priority="87">
+    <cfRule type="expression" dxfId="10" priority="88">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="89" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="5" priority="86">
+    <cfRule type="expression" dxfId="8" priority="87">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="4" priority="84">
+    <cfRule type="expression" dxfId="7" priority="85">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="2" priority="402">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="1" priority="405">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="406" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A21FBAFB-93E0-410D-8D93-8CFCA623F84F}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7937,7 +7973,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D54 D56:D59 D30:D34</xm:sqref>
+          <xm:sqref>D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D51 D30:D34 D56:D59 D53:D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A21FBAFB-93E0-410D-8D93-8CFCA623F84F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/barchartQLKDBH.xlsx
+++ b/barchartQLKDBH.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D633967-1BCE-4EA5-8ADC-693AF3BCF3BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BBDC6-52B6-4C58-9349-5663FCC93CF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>Project Start:</t>
   </si>
@@ -264,12 +264,6 @@
     <t>Thống kê công nợ</t>
   </si>
   <si>
-    <t>Sắp xếp lịch làm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị ca làm việc </t>
-  </si>
-  <si>
     <t>Kiểm tra nhập hàng</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>Xem danh sách nhân viên</t>
   </si>
   <si>
-    <t>Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
     <t>Tạo phiếu nhập hàng</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
   </si>
   <si>
     <t>Cập nhật thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Lịch sử nhập trả hàng</t>
   </si>
   <si>
     <t>Cập nhật hàng hóa</t>
@@ -1040,127 +1028,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill>
@@ -2247,15 +2115,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="119"/>
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="totalRow" dxfId="117"/>
-      <tableStyleElement type="firstColumn" dxfId="116"/>
-      <tableStyleElement type="lastColumn" dxfId="115"/>
-      <tableStyleElement type="firstRowStripe" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="112"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="111"/>
+      <tableStyleElement type="wholeTable" dxfId="107"/>
+      <tableStyleElement type="headerRow" dxfId="106"/>
+      <tableStyleElement type="totalRow" dxfId="105"/>
+      <tableStyleElement type="firstColumn" dxfId="104"/>
+      <tableStyleElement type="lastColumn" dxfId="103"/>
+      <tableStyleElement type="firstRowStripe" dxfId="102"/>
+      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="100"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="99"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2671,11 +2539,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL59"/>
+  <dimension ref="A1:BL55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ10" sqref="BQ10:BY10"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3301,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -3498,7 +3366,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>47</v>
@@ -3581,7 +3449,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>47</v>
@@ -3819,7 +3687,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="70">
         <f>F12+1</f>
@@ -3896,13 +3764,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="70">
         <v>44278</v>
@@ -3979,7 +3847,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="70">
         <v>44278</v>
@@ -4053,13 +3921,13 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="70">
         <v>44278</v>
@@ -4204,13 +4072,13 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="76">
         <v>44261</v>
@@ -4364,7 +4232,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>45</v>
@@ -4444,7 +4312,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>45</v>
@@ -4453,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="73">
-        <v>44138</v>
+        <v>44290</v>
       </c>
       <c r="F21" s="73">
-        <v>44142</v>
+        <v>44296</v>
       </c>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
@@ -4520,7 +4388,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>45</v>
@@ -4529,15 +4397,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="73">
-        <v>44285</v>
+        <v>44290</v>
       </c>
       <c r="F22" s="73">
-        <v>44290</v>
+        <v>44296</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -5143,7 +5011,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -5219,10 +5087,10 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
@@ -5300,7 +5168,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="19">
         <v>1</v>
@@ -5372,25 +5240,17 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
-      <c r="B33" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="76">
-        <v>44132</v>
-      </c>
-      <c r="F33" s="76">
-        <v>44136</v>
-      </c>
+      <c r="B33" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="14">
+      <c r="H33" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -5452,25 +5312,23 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="56" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="76">
-        <v>44137</v>
+        <v>44261</v>
       </c>
       <c r="F34" s="76">
-        <v>44140</v>
+        <f t="shared" ref="F34:F36" si="6">E34+4</f>
+        <v>44265</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -5529,19 +5387,27 @@
       <c r="BL34" s="23"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
+      <c r="A35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="76">
+        <v>44261</v>
+      </c>
+      <c r="F35" s="76">
+        <f t="shared" si="6"/>
+        <v>44265</v>
+      </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -5600,12 +5466,14 @@
       <c r="BL35" s="23"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>96</v>
+      <c r="A36" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -5614,91 +5482,81 @@
         <v>44261</v>
       </c>
       <c r="F36" s="76">
-        <f>E36+4</f>
+        <f t="shared" si="6"/>
         <v>44265</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
-      <c r="AV36" s="23"/>
-      <c r="AW36" s="23"/>
-      <c r="AX36" s="23"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="23"/>
-      <c r="BA36" s="23"/>
-      <c r="BB36" s="23"/>
-      <c r="BC36" s="23"/>
-      <c r="BD36" s="23"/>
-      <c r="BE36" s="23"/>
-      <c r="BF36" s="23"/>
-      <c r="BG36" s="23"/>
-      <c r="BH36" s="23"/>
-      <c r="BI36" s="23"/>
-      <c r="BJ36" s="23"/>
-      <c r="BK36" s="23"/>
-      <c r="BL36" s="23"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="61"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="61"/>
+      <c r="BC36" s="61"/>
+      <c r="BD36" s="61"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="61"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="61"/>
+      <c r="BJ36" s="61"/>
+      <c r="BK36" s="61"/>
+      <c r="BL36" s="61"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="19">
-        <v>1</v>
-      </c>
-      <c r="E37" s="76">
-        <v>44261</v>
-      </c>
-      <c r="F37" s="76">
-        <f t="shared" ref="F37:F39" si="6">E37+4</f>
-        <v>44265</v>
-      </c>
+    <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="14" t="str">
+        <f t="shared" ref="H37:H38" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
@@ -5756,28 +5614,29 @@
       <c r="BK37" s="23"/>
       <c r="BL37" s="23"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>26</v>
-      </c>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="56" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D38" s="19">
         <v>1</v>
       </c>
       <c r="E38" s="76">
-        <v>44261</v>
+        <f>F39+2</f>
+        <v>44279</v>
       </c>
       <c r="F38" s="76">
-        <f t="shared" si="6"/>
-        <v>44265</v>
+        <f>E38+4</f>
+        <v>44283</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -5835,158 +5694,163 @@
       <c r="BK38" s="23"/>
       <c r="BL38" s="23"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>96</v>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
       </c>
       <c r="E39" s="76">
-        <v>44261</v>
+        <f>F40+2</f>
+        <v>44273</v>
       </c>
       <c r="F39" s="76">
-        <f t="shared" si="6"/>
-        <v>44265</v>
-      </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="61"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="61"/>
-      <c r="AS39" s="61"/>
-      <c r="AT39" s="61"/>
-      <c r="AU39" s="61"/>
-      <c r="AV39" s="61"/>
-      <c r="AW39" s="61"/>
-      <c r="AX39" s="61"/>
-      <c r="AY39" s="61"/>
-      <c r="AZ39" s="61"/>
-      <c r="BA39" s="61"/>
-      <c r="BB39" s="61"/>
-      <c r="BC39" s="61"/>
-      <c r="BD39" s="61"/>
-      <c r="BE39" s="61"/>
-      <c r="BF39" s="61"/>
-      <c r="BG39" s="61"/>
-      <c r="BH39" s="61"/>
-      <c r="BI39" s="61"/>
-      <c r="BJ39" s="61"/>
-      <c r="BK39" s="61"/>
-      <c r="BL39" s="61"/>
+        <f>E39+4</f>
+        <v>44277</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="23"/>
+      <c r="BL39" s="23"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="str">
-        <f t="shared" ref="H40:H41" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
-      <c r="AT40" s="23"/>
-      <c r="AU40" s="23"/>
-      <c r="AV40" s="23"/>
-      <c r="AW40" s="23"/>
-      <c r="AX40" s="23"/>
-      <c r="AY40" s="23"/>
-      <c r="AZ40" s="23"/>
-      <c r="BA40" s="23"/>
-      <c r="BB40" s="23"/>
-      <c r="BC40" s="23"/>
-      <c r="BD40" s="23"/>
-      <c r="BE40" s="23"/>
-      <c r="BF40" s="23"/>
-      <c r="BG40" s="23"/>
-      <c r="BH40" s="23"/>
-      <c r="BI40" s="23"/>
-      <c r="BJ40" s="23"/>
-      <c r="BK40" s="23"/>
-      <c r="BL40" s="23"/>
+      <c r="B40" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
+      <c r="E40" s="76">
+        <f>F41+2</f>
+        <v>44267</v>
+      </c>
+      <c r="F40" s="76">
+        <f>E40+4</f>
+        <v>44271</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
+      <c r="BH40" s="61"/>
+      <c r="BI40" s="61"/>
+      <c r="BJ40" s="61"/>
+      <c r="BK40" s="61"/>
+      <c r="BL40" s="61"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>46</v>
@@ -5995,18 +5859,14 @@
         <v>1</v>
       </c>
       <c r="E41" s="76">
-        <f>F42+2</f>
-        <v>44279</v>
+        <v>44251</v>
       </c>
       <c r="F41" s="76">
-        <f>E41+4</f>
-        <v>44283</v>
+        <f>E41+14</f>
+        <v>44265</v>
       </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="14">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
+      <c r="H41" s="14"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -6014,16 +5874,16 @@
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
       <c r="Z41" s="23"/>
       <c r="AA41" s="23"/>
       <c r="AB41" s="23"/>
@@ -6065,25 +5925,18 @@
       <c r="BL41" s="23"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="19">
-        <v>1</v>
-      </c>
-      <c r="E42" s="76">
-        <f>F43+2</f>
-        <v>44273</v>
-      </c>
-      <c r="F42" s="76">
-        <f>E42+4</f>
-        <v>44277</v>
-      </c>
+      <c r="B42" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="H42" s="14" t="str">
+        <f t="shared" ref="H42" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
@@ -6142,98 +5995,97 @@
       <c r="BL42" s="23"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="63" t="s">
-        <v>93</v>
+      <c r="B43" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="19">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E43" s="76">
-        <f>F44+2</f>
-        <v>44267</v>
+        <f>F38+2</f>
+        <v>44285</v>
       </c>
       <c r="F43" s="76">
-        <f>E43+4</f>
-        <v>44271</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
-      <c r="AE43" s="61"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="61"/>
-      <c r="AN43" s="61"/>
-      <c r="AO43" s="61"/>
-      <c r="AP43" s="61"/>
-      <c r="AQ43" s="61"/>
-      <c r="AR43" s="61"/>
-      <c r="AS43" s="61"/>
-      <c r="AT43" s="61"/>
-      <c r="AU43" s="61"/>
-      <c r="AV43" s="61"/>
-      <c r="AW43" s="61"/>
-      <c r="AX43" s="61"/>
-      <c r="AY43" s="61"/>
-      <c r="AZ43" s="61"/>
-      <c r="BA43" s="61"/>
-      <c r="BB43" s="61"/>
-      <c r="BC43" s="61"/>
-      <c r="BD43" s="61"/>
-      <c r="BE43" s="61"/>
-      <c r="BF43" s="61"/>
-      <c r="BG43" s="61"/>
-      <c r="BH43" s="61"/>
-      <c r="BI43" s="61"/>
-      <c r="BJ43" s="61"/>
-      <c r="BK43" s="61"/>
-      <c r="BL43" s="61"/>
+        <f>E43+11</f>
+        <v>44296</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="23"/>
+      <c r="AY43" s="23"/>
+      <c r="AZ43" s="23"/>
+      <c r="BA43" s="23"/>
+      <c r="BB43" s="23"/>
+      <c r="BC43" s="23"/>
+      <c r="BD43" s="23"/>
+      <c r="BE43" s="23"/>
+      <c r="BF43" s="23"/>
+      <c r="BG43" s="23"/>
+      <c r="BH43" s="23"/>
+      <c r="BI43" s="23"/>
+      <c r="BJ43" s="23"/>
+      <c r="BK43" s="23"/>
+      <c r="BL43" s="23"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="62" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="76">
-        <v>44251</v>
+        <v>44290</v>
       </c>
       <c r="F44" s="76">
-        <f>E44+14</f>
-        <v>44265</v>
+        <v>44296</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -6244,16 +6096,16 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
       <c r="AA44" s="23"/>
       <c r="AB44" s="23"/>
@@ -6295,239 +6147,248 @@
       <c r="BL44" s="23"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14" t="str">
-        <f t="shared" ref="H45" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="23"/>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="23"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="23"/>
-      <c r="AW45" s="23"/>
-      <c r="AX45" s="23"/>
-      <c r="AY45" s="23"/>
-      <c r="AZ45" s="23"/>
-      <c r="BA45" s="23"/>
-      <c r="BB45" s="23"/>
-      <c r="BC45" s="23"/>
-      <c r="BD45" s="23"/>
-      <c r="BE45" s="23"/>
-      <c r="BF45" s="23"/>
-      <c r="BG45" s="23"/>
-      <c r="BH45" s="23"/>
-      <c r="BI45" s="23"/>
-      <c r="BJ45" s="23"/>
-      <c r="BK45" s="23"/>
-      <c r="BL45" s="23"/>
+      <c r="B45" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
+      <c r="AV45" s="61"/>
+      <c r="AW45" s="61"/>
+      <c r="AX45" s="61"/>
+      <c r="AY45" s="61"/>
+      <c r="AZ45" s="61"/>
+      <c r="BA45" s="61"/>
+      <c r="BB45" s="61"/>
+      <c r="BC45" s="61"/>
+      <c r="BD45" s="61"/>
+      <c r="BE45" s="61"/>
+      <c r="BF45" s="61"/>
+      <c r="BG45" s="61"/>
+      <c r="BH45" s="61"/>
+      <c r="BI45" s="61"/>
+      <c r="BJ45" s="61"/>
+      <c r="BK45" s="61"/>
+      <c r="BL45" s="61"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46" s="19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="76">
-        <f>F41+2</f>
-        <v>44285</v>
+        <v>44251</v>
       </c>
       <c r="F46" s="76">
-        <f>E46+5</f>
-        <v>44290</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="23"/>
-      <c r="AG46" s="23"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
-      <c r="AV46" s="23"/>
-      <c r="AW46" s="23"/>
-      <c r="AX46" s="23"/>
-      <c r="AY46" s="23"/>
-      <c r="AZ46" s="23"/>
-      <c r="BA46" s="23"/>
-      <c r="BB46" s="23"/>
-      <c r="BC46" s="23"/>
-      <c r="BD46" s="23"/>
-      <c r="BE46" s="23"/>
-      <c r="BF46" s="23"/>
-      <c r="BG46" s="23"/>
-      <c r="BH46" s="23"/>
-      <c r="BI46" s="23"/>
-      <c r="BJ46" s="23"/>
-      <c r="BK46" s="23"/>
-      <c r="BL46" s="23"/>
+        <f>E46+4</f>
+        <v>44255</v>
+      </c>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60">
+        <f t="shared" ref="H46" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
+      <c r="AV46" s="61"/>
+      <c r="AW46" s="61"/>
+      <c r="AX46" s="61"/>
+      <c r="AY46" s="61"/>
+      <c r="AZ46" s="61"/>
+      <c r="BA46" s="61"/>
+      <c r="BB46" s="61"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="61"/>
+      <c r="BE46" s="61"/>
+      <c r="BF46" s="61"/>
+      <c r="BG46" s="61"/>
+      <c r="BH46" s="61"/>
+      <c r="BI46" s="61"/>
+      <c r="BJ46" s="61"/>
+      <c r="BK46" s="61"/>
+      <c r="BL46" s="61"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="56" t="s">
-        <v>56</v>
+      <c r="B47" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="76">
-        <v>44155</v>
+        <v>44251</v>
       </c>
       <c r="F47" s="76">
-        <v>44158</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23"/>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23"/>
-      <c r="BC47" s="23"/>
-      <c r="BD47" s="23"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="23"/>
-      <c r="BG47" s="23"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="23"/>
-      <c r="BK47" s="23"/>
-      <c r="BL47" s="23"/>
+        <f>E47+4</f>
+        <v>44255</v>
+      </c>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="61"/>
+      <c r="AW47" s="61"/>
+      <c r="AX47" s="61"/>
+      <c r="AY47" s="61"/>
+      <c r="AZ47" s="61"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
+      <c r="BG47" s="61"/>
+      <c r="BH47" s="61"/>
+      <c r="BI47" s="61"/>
+      <c r="BJ47" s="61"/>
+      <c r="BK47" s="61"/>
+      <c r="BL47" s="61"/>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
+      <c r="B48" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="76">
+        <v>44251</v>
+      </c>
+      <c r="F48" s="76">
+        <f>E48+4</f>
+        <v>44255</v>
+      </c>
       <c r="G48" s="60"/>
-      <c r="H48" s="60" t="s">
-        <v>76</v>
-      </c>
+      <c r="H48" s="60"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="61"/>
@@ -6587,7 +6448,7 @@
     </row>
     <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>48</v>
@@ -6596,16 +6457,16 @@
         <v>1</v>
       </c>
       <c r="E49" s="76">
-        <v>44251</v>
+        <v>44285</v>
       </c>
       <c r="F49" s="76">
-        <f>E49+4</f>
-        <v>44255</v>
+        <f>E49+5</f>
+        <v>44290</v>
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60">
-        <f t="shared" ref="H49" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
+        <f t="shared" ref="H49" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
       </c>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -6666,7 +6527,7 @@
     </row>
     <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="63" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C50" s="62" t="s">
         <v>48</v>
@@ -6675,11 +6536,11 @@
         <v>1</v>
       </c>
       <c r="E50" s="76">
-        <v>44251</v>
+        <v>44285</v>
       </c>
       <c r="F50" s="76">
-        <f>E50+4</f>
-        <v>44255</v>
+        <f>E50+5</f>
+        <v>44290</v>
       </c>
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
@@ -6741,24 +6602,18 @@
       <c r="BL50" s="61"/>
     </row>
     <row r="51" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="19">
-        <v>1</v>
-      </c>
-      <c r="E51" s="76">
-        <v>44251</v>
-      </c>
-      <c r="F51" s="76">
-        <f>E51+4</f>
-        <v>44255</v>
-      </c>
+      <c r="B51" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
+      <c r="H51" s="60" t="str">
+        <f t="shared" ref="H51" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
       <c r="K51" s="61"/>
@@ -6817,24 +6672,27 @@
       <c r="BL51" s="61"/>
     </row>
     <row r="52" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="62" t="s">
+      <c r="B52" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="76">
-        <v>44285</v>
-      </c>
-      <c r="F52" s="76">
+        <v>1</v>
+      </c>
+      <c r="E52" s="73">
+        <v>44261</v>
+      </c>
+      <c r="F52" s="73">
         <f>E52+5</f>
-        <v>44290</v>
+        <v>44266</v>
       </c>
       <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
+      <c r="H52" s="60">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>6</v>
+      </c>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
       <c r="K52" s="61"/>
@@ -6851,7 +6709,6 @@
       <c r="V52" s="61"/>
       <c r="W52" s="61"/>
       <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
       <c r="Z52" s="61"/>
       <c r="AA52" s="61"/>
       <c r="AB52" s="61"/>
@@ -6893,26 +6750,24 @@
       <c r="BL52" s="61"/>
     </row>
     <row r="53" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="62" t="s">
+      <c r="B53" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="76">
-        <v>44142</v>
-      </c>
-      <c r="F53" s="76">
-        <v>44145</v>
+        <v>1</v>
+      </c>
+      <c r="E53" s="73">
+        <v>44267</v>
+      </c>
+      <c r="F53" s="73">
+        <f>E53+5</f>
+        <v>44272</v>
       </c>
       <c r="G53" s="60"/>
-      <c r="H53" s="60">
-        <f t="shared" ref="H53" si="10">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
-      </c>
+      <c r="H53" s="60"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
       <c r="K53" s="61"/>
@@ -6971,21 +6826,21 @@
       <c r="BL53" s="61"/>
     </row>
     <row r="54" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="62" t="s">
+      <c r="B54" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="19">
-        <v>0</v>
-      </c>
-      <c r="E54" s="76">
-        <v>44285</v>
-      </c>
-      <c r="F54" s="76">
+        <v>1</v>
+      </c>
+      <c r="E54" s="73">
+        <v>44273</v>
+      </c>
+      <c r="F54" s="73">
         <f>E54+5</f>
-        <v>44290</v>
+        <v>44278</v>
       </c>
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
@@ -7047,18 +6902,24 @@
       <c r="BL54" s="61"/>
     </row>
     <row r="55" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
+      <c r="B55" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
+      </c>
+      <c r="E55" s="73">
+        <v>44278</v>
+      </c>
+      <c r="F55" s="73">
+        <f>E55+4</f>
+        <v>44282</v>
+      </c>
       <c r="G55" s="60"/>
-      <c r="H55" s="60" t="str">
-        <f t="shared" ref="H55" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H55" s="60"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
@@ -7116,312 +6977,6 @@
       <c r="BK55" s="61"/>
       <c r="BL55" s="61"/>
     </row>
-    <row r="56" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="19">
-        <v>1</v>
-      </c>
-      <c r="E56" s="73">
-        <v>44261</v>
-      </c>
-      <c r="F56" s="73">
-        <f>E56+5</f>
-        <v>44266</v>
-      </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
-      </c>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="61"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
-      <c r="AJ56" s="61"/>
-      <c r="AK56" s="61"/>
-      <c r="AL56" s="61"/>
-      <c r="AM56" s="61"/>
-      <c r="AN56" s="61"/>
-      <c r="AO56" s="61"/>
-      <c r="AP56" s="61"/>
-      <c r="AQ56" s="61"/>
-      <c r="AR56" s="61"/>
-      <c r="AS56" s="61"/>
-      <c r="AT56" s="61"/>
-      <c r="AU56" s="61"/>
-      <c r="AV56" s="61"/>
-      <c r="AW56" s="61"/>
-      <c r="AX56" s="61"/>
-      <c r="AY56" s="61"/>
-      <c r="AZ56" s="61"/>
-      <c r="BA56" s="61"/>
-      <c r="BB56" s="61"/>
-      <c r="BC56" s="61"/>
-      <c r="BD56" s="61"/>
-      <c r="BE56" s="61"/>
-      <c r="BF56" s="61"/>
-      <c r="BG56" s="61"/>
-      <c r="BH56" s="61"/>
-      <c r="BI56" s="61"/>
-      <c r="BJ56" s="61"/>
-      <c r="BK56" s="61"/>
-      <c r="BL56" s="61"/>
-    </row>
-    <row r="57" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="19">
-        <v>1</v>
-      </c>
-      <c r="E57" s="73">
-        <v>44267</v>
-      </c>
-      <c r="F57" s="73">
-        <f>E57+5</f>
-        <v>44272</v>
-      </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="61"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="61"/>
-      <c r="Z57" s="61"/>
-      <c r="AA57" s="61"/>
-      <c r="AB57" s="61"/>
-      <c r="AC57" s="61"/>
-      <c r="AD57" s="61"/>
-      <c r="AE57" s="61"/>
-      <c r="AF57" s="61"/>
-      <c r="AG57" s="61"/>
-      <c r="AH57" s="61"/>
-      <c r="AI57" s="61"/>
-      <c r="AJ57" s="61"/>
-      <c r="AK57" s="61"/>
-      <c r="AL57" s="61"/>
-      <c r="AM57" s="61"/>
-      <c r="AN57" s="61"/>
-      <c r="AO57" s="61"/>
-      <c r="AP57" s="61"/>
-      <c r="AQ57" s="61"/>
-      <c r="AR57" s="61"/>
-      <c r="AS57" s="61"/>
-      <c r="AT57" s="61"/>
-      <c r="AU57" s="61"/>
-      <c r="AV57" s="61"/>
-      <c r="AW57" s="61"/>
-      <c r="AX57" s="61"/>
-      <c r="AY57" s="61"/>
-      <c r="AZ57" s="61"/>
-      <c r="BA57" s="61"/>
-      <c r="BB57" s="61"/>
-      <c r="BC57" s="61"/>
-      <c r="BD57" s="61"/>
-      <c r="BE57" s="61"/>
-      <c r="BF57" s="61"/>
-      <c r="BG57" s="61"/>
-      <c r="BH57" s="61"/>
-      <c r="BI57" s="61"/>
-      <c r="BJ57" s="61"/>
-      <c r="BK57" s="61"/>
-      <c r="BL57" s="61"/>
-    </row>
-    <row r="58" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="19">
-        <v>1</v>
-      </c>
-      <c r="E58" s="73">
-        <v>44273</v>
-      </c>
-      <c r="F58" s="73">
-        <f>E58+5</f>
-        <v>44278</v>
-      </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="61"/>
-      <c r="AA58" s="61"/>
-      <c r="AB58" s="61"/>
-      <c r="AC58" s="61"/>
-      <c r="AD58" s="61"/>
-      <c r="AE58" s="61"/>
-      <c r="AF58" s="61"/>
-      <c r="AG58" s="61"/>
-      <c r="AH58" s="61"/>
-      <c r="AI58" s="61"/>
-      <c r="AJ58" s="61"/>
-      <c r="AK58" s="61"/>
-      <c r="AL58" s="61"/>
-      <c r="AM58" s="61"/>
-      <c r="AN58" s="61"/>
-      <c r="AO58" s="61"/>
-      <c r="AP58" s="61"/>
-      <c r="AQ58" s="61"/>
-      <c r="AR58" s="61"/>
-      <c r="AS58" s="61"/>
-      <c r="AT58" s="61"/>
-      <c r="AU58" s="61"/>
-      <c r="AV58" s="61"/>
-      <c r="AW58" s="61"/>
-      <c r="AX58" s="61"/>
-      <c r="AY58" s="61"/>
-      <c r="AZ58" s="61"/>
-      <c r="BA58" s="61"/>
-      <c r="BB58" s="61"/>
-      <c r="BC58" s="61"/>
-      <c r="BD58" s="61"/>
-      <c r="BE58" s="61"/>
-      <c r="BF58" s="61"/>
-      <c r="BG58" s="61"/>
-      <c r="BH58" s="61"/>
-      <c r="BI58" s="61"/>
-      <c r="BJ58" s="61"/>
-      <c r="BK58" s="61"/>
-      <c r="BL58" s="61"/>
-    </row>
-    <row r="59" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="19">
-        <v>1</v>
-      </c>
-      <c r="E59" s="73">
-        <v>44278</v>
-      </c>
-      <c r="F59" s="73">
-        <f>E59+4</f>
-        <v>44282</v>
-      </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="61"/>
-      <c r="AC59" s="61"/>
-      <c r="AD59" s="61"/>
-      <c r="AE59" s="61"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61"/>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="61"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="61"/>
-      <c r="AN59" s="61"/>
-      <c r="AO59" s="61"/>
-      <c r="AP59" s="61"/>
-      <c r="AQ59" s="61"/>
-      <c r="AR59" s="61"/>
-      <c r="AS59" s="61"/>
-      <c r="AT59" s="61"/>
-      <c r="AU59" s="61"/>
-      <c r="AV59" s="61"/>
-      <c r="AW59" s="61"/>
-      <c r="AX59" s="61"/>
-      <c r="AY59" s="61"/>
-      <c r="AZ59" s="61"/>
-      <c r="BA59" s="61"/>
-      <c r="BB59" s="61"/>
-      <c r="BC59" s="61"/>
-      <c r="BD59" s="61"/>
-      <c r="BE59" s="61"/>
-      <c r="BF59" s="61"/>
-      <c r="BG59" s="61"/>
-      <c r="BH59" s="61"/>
-      <c r="BI59" s="61"/>
-      <c r="BJ59" s="61"/>
-      <c r="BK59" s="61"/>
-      <c r="BL59" s="61"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C3:D3"/>
@@ -7437,7 +6992,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D51 D30:D34 D56:D59 D53:D54">
+  <conditionalFormatting sqref="D7:D10 D12:D16 D18:D22 D24:D28 D38:D41 D43:D44 D30:D32 D52:D55 D46:D50 D34:D36">
     <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7451,467 +7006,415 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I5:BL11 I56:T56 Z56:BL56 V56:X56">
-    <cfRule type="expression" dxfId="110" priority="400">
+  <conditionalFormatting sqref="I34:BL34 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I43:BL43 I5:BL11 I52:T52 Z52:BL52 V52:X52">
+    <cfRule type="expression" dxfId="98" priority="400">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I46:BL46 I7:BL11 I56:T56 Z56:BL56 V56:X56">
-    <cfRule type="expression" dxfId="109" priority="394">
+  <conditionalFormatting sqref="I34:BL34 I28:BL28 I31:BL31 I17:BL17 I13:BL14 I19:BL19 I21:BL25 I43:BL43 I7:BL11 I52:T52 Z52:BL52 V52:X52">
+    <cfRule type="expression" dxfId="97" priority="394">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="395" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="107" priority="367">
+    <cfRule type="expression" dxfId="95" priority="367">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="106" priority="365">
+    <cfRule type="expression" dxfId="94" priority="365">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="366" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="104" priority="347">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="92" priority="315">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="103" priority="345">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="91" priority="313">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="314" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="101" priority="315">
+    <cfRule type="expression" dxfId="89" priority="307">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="100" priority="313">
+    <cfRule type="expression" dxfId="88" priority="305">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="306" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="86" priority="299">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
+    <cfRule type="expression" dxfId="85" priority="297">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="298" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="83" priority="283">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:BL27">
+    <cfRule type="expression" dxfId="82" priority="281">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="282" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="80" priority="279">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:M15 R15:BL15">
+    <cfRule type="expression" dxfId="79" priority="277">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="278" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="77" priority="275">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:BL16">
+    <cfRule type="expression" dxfId="76" priority="273">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="274" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="74" priority="271">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="73" priority="269">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="270" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="71" priority="251">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:V20 AC20:BL20">
+    <cfRule type="expression" dxfId="70" priority="249">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="250" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="68" priority="243">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="67" priority="241">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="242" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="65" priority="239">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="64" priority="237">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="238" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="62" priority="235">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="61" priority="233">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="234" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="59" priority="231">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="58" priority="229">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="230" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="56" priority="219">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="55" priority="217">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="218" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="53" priority="211">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="52" priority="209">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="210" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="50" priority="176">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="49" priority="174">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="175" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="47" priority="150">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL12">
+    <cfRule type="expression" dxfId="46" priority="148">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="149" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="expression" dxfId="44" priority="147">
+      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="expression" dxfId="43" priority="145">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="146" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="41" priority="144">
+      <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:AB20">
+    <cfRule type="expression" dxfId="40" priority="142">
+      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="143" stopIfTrue="1">
+      <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL18">
+    <cfRule type="expression" dxfId="38" priority="129">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL18">
+    <cfRule type="expression" dxfId="37" priority="127">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="128" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="35" priority="122">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="34" priority="120">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="121" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="32" priority="119">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="31" priority="117">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="118" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="29" priority="114">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="28" priority="112">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="113" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="26" priority="111">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="25" priority="109">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="110" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="23" priority="105">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="22" priority="103">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="104" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="20" priority="102">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="19" priority="100">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="101" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="17" priority="99">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="16" priority="97">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="98" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="14" priority="93">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="13" priority="91">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="92" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="11" priority="90">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
+    <cfRule type="expression" dxfId="10" priority="88">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="89" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="8" priority="87">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
+    <cfRule type="expression" dxfId="7" priority="85">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="98" priority="311">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="97" priority="309">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="310" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="95" priority="307">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="94" priority="305">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="306" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="92" priority="299">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="91" priority="297">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="298" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="89" priority="283">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="88" priority="281">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="282" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="86" priority="279">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M15 R15:BL15">
-    <cfRule type="expression" dxfId="85" priority="277">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="278" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="83" priority="275">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="82" priority="273">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="274" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="80" priority="271">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="79" priority="269">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="270" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="77" priority="259">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="76" priority="257">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="258" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="74" priority="251">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:V20 AC20:BL20">
-    <cfRule type="expression" dxfId="73" priority="249">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="250" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="71" priority="243">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="70" priority="241">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="242" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="68" priority="239">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="67" priority="237">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="238" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="65" priority="235">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="64" priority="233">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="234" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="62" priority="231">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="61" priority="229">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="230" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="59" priority="219">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="58" priority="217">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="218" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="56" priority="211">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="55" priority="209">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="210" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="53" priority="176">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="52" priority="174">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="175" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="50" priority="150">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="49" priority="148">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="149" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="47" priority="147">
-      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="expression" dxfId="46" priority="145">
-      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="146" stopIfTrue="1">
-      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="44" priority="144">
-      <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20:AB20">
-    <cfRule type="expression" dxfId="43" priority="142">
-      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="143" stopIfTrue="1">
-      <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="41" priority="129">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="40" priority="127">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="128" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="38" priority="122">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="37" priority="120">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="121" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="35" priority="119">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="34" priority="117">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="118" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="32" priority="114">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="31" priority="112">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="113" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="29" priority="111">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="28" priority="109">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="110" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="26" priority="108">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="25" priority="106">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="107" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="23" priority="105">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="22" priority="103">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="104" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="20" priority="102">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="19" priority="100">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="101" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="17" priority="99">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="16" priority="97">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="98" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="14" priority="93">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="13" priority="91">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="92" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="11" priority="90">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="10" priority="88">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="89" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="8" priority="87">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="7" priority="85">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="86" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7919,31 +7422,17 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
+  <conditionalFormatting sqref="U52">
     <cfRule type="expression" dxfId="2" priority="402">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
+  <conditionalFormatting sqref="U52">
     <cfRule type="expression" dxfId="1" priority="405">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="406" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A21FBAFB-93E0-410D-8D93-8CFCA623F84F}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7973,22 +7462,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D10 D12:D16 D18:D22 D24:D28 D36:D39 D41:D44 D46:D47 D49:D51 D30:D34 D56:D59 D53:D54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A21FBAFB-93E0-410D-8D93-8CFCA623F84F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D7:D10 D12:D16 D18:D22 D24:D28 D38:D41 D43:D44 D30:D32 D52:D55 D46:D50 D34:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
